--- a/Översikt RAGUNDA.xlsx
+++ b/Översikt RAGUNDA.xlsx
@@ -572,7 +572,7 @@
         <v>44874</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -699,7 +699,7 @@
         <v>43865</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>44894</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         <v>44917</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
         <v>43865</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1145,7 +1145,7 @@
         <v>44504</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1256,7 +1256,7 @@
         <v>44644</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1362,7 +1362,7 @@
         <v>43866</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1466,7 +1466,7 @@
         <v>44504</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1575,7 +1575,7 @@
         <v>44473</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1678,7 +1678,7 @@
         <v>44088</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1784,7 +1784,7 @@
         <v>44151</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1881,7 +1881,7 @@
         <v>44644</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1983,7 +1983,7 @@
         <v>44838</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2080,7 +2080,7 @@
         <v>43900</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2181,7 +2181,7 @@
         <v>44062</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2282,7 +2282,7 @@
         <v>45104</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2383,7 +2383,7 @@
         <v>43910</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2487,7 +2487,7 @@
         <v>44776</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2591,7 +2591,7 @@
         <v>44645</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2690,7 +2690,7 @@
         <v>44888</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2789,7 +2789,7 @@
         <v>43353</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2887,7 +2887,7 @@
         <v>44504</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2985,7 +2985,7 @@
         <v>45113</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3083,7 +3083,7 @@
         <v>44133</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3180,7 +3180,7 @@
         <v>44644</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3277,7 +3277,7 @@
         <v>44901</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3378,7 +3378,7 @@
         <v>45113</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3475,7 +3475,7 @@
         <v>43411</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3571,7 +3571,7 @@
         <v>43413</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3667,7 +3667,7 @@
         <v>44133</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         <v>44336</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3854,7 +3854,7 @@
         <v>44438</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3950,7 +3950,7 @@
         <v>44662</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4046,7 +4046,7 @@
         <v>44804</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4142,7 +4142,7 @@
         <v>44915</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4242,7 +4242,7 @@
         <v>44953</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4333,7 +4333,7 @@
         <v>44994</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4433,7 +4433,7 @@
         <v>45009</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4524,7 +4524,7 @@
         <v>44209</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4614,7 +4614,7 @@
         <v>44875</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4709,7 +4709,7 @@
         <v>44876</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4804,7 +4804,7 @@
         <v>44911</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4899,7 +4899,7 @@
         <v>44932</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4994,7 +4994,7 @@
         <v>44994</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -5089,7 +5089,7 @@
         <v>45015</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5183,7 +5183,7 @@
         <v>45027</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5282,7 +5282,7 @@
         <v>45070</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5377,7 +5377,7 @@
         <v>44111</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5470,7 +5470,7 @@
         <v>44139</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5559,7 +5559,7 @@
         <v>44645</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5657,7 +5657,7 @@
         <v>44656</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5751,7 +5751,7 @@
         <v>44734</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5845,7 +5845,7 @@
         <v>44865</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5939,7 +5939,7 @@
         <v>44911</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -6033,7 +6033,7 @@
         <v>45054</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -6122,7 +6122,7 @@
         <v>45093</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6215,7 +6215,7 @@
         <v>43977</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6308,7 +6308,7 @@
         <v>44113</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6401,7 +6401,7 @@
         <v>44245</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6494,7 +6494,7 @@
         <v>44334</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6586,7 +6586,7 @@
         <v>44334</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6678,7 +6678,7 @@
         <v>44446</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6771,7 +6771,7 @@
         <v>44610</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6864,7 +6864,7 @@
         <v>44624</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6957,7 +6957,7 @@
         <v>44662</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -7050,7 +7050,7 @@
         <v>44677</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -7142,7 +7142,7 @@
         <v>44696</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -7235,7 +7235,7 @@
         <v>44732</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7332,7 +7332,7 @@
         <v>44911</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7425,7 +7425,7 @@
         <v>45034</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7518,7 +7518,7 @@
         <v>43817</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7609,7 +7609,7 @@
         <v>44111</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7701,7 +7701,7 @@
         <v>44421</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7793,7 +7793,7 @@
         <v>44740</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7880,7 +7880,7 @@
         <v>44855</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7976,7 +7976,7 @@
         <v>44855</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -8068,7 +8068,7 @@
         <v>44875</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -8160,7 +8160,7 @@
         <v>44902</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -8252,7 +8252,7 @@
         <v>44971</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -8344,7 +8344,7 @@
         <v>44987</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8435,7 +8435,7 @@
         <v>44987</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8522,7 +8522,7 @@
         <v>45049</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8614,7 +8614,7 @@
         <v>43329</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8700,7 +8700,7 @@
         <v>43411</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8786,7 +8786,7 @@
         <v>43707</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8876,7 +8876,7 @@
         <v>43948</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8962,7 +8962,7 @@
         <v>44676</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -9053,7 +9053,7 @@
         <v>44680</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -9139,7 +9139,7 @@
         <v>44855</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -9230,7 +9230,7 @@
         <v>44855</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -9321,7 +9321,7 @@
         <v>44860</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9412,7 +9412,7 @@
         <v>44973</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9503,7 +9503,7 @@
         <v>44980</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9589,7 +9589,7 @@
         <v>45005</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9680,7 +9680,7 @@
         <v>45121</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9771,7 +9771,7 @@
         <v>43515</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9856,7 +9856,7 @@
         <v>43619</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9946,7 +9946,7 @@
         <v>43650</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -10031,7 +10031,7 @@
         <v>43784</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -10121,7 +10121,7 @@
         <v>43791</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -10206,7 +10206,7 @@
         <v>43977</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -10296,7 +10296,7 @@
         <v>44012</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -10386,7 +10386,7 @@
         <v>44049</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -10476,7 +10476,7 @@
         <v>44062</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10566,7 +10566,7 @@
         <v>44098</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10656,7 +10656,7 @@
         <v>44119</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -10741,7 +10741,7 @@
         <v>44166</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10826,7 +10826,7 @@
         <v>44319</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10916,7 +10916,7 @@
         <v>44369</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -11001,7 +11001,7 @@
         <v>44462</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -11091,7 +11091,7 @@
         <v>44601</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -11176,7 +11176,7 @@
         <v>44607</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -11266,7 +11266,7 @@
         <v>44705</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -11351,7 +11351,7 @@
         <v>44741</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -11441,7 +11441,7 @@
         <v>44741</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -11526,7 +11526,7 @@
         <v>44830</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -11616,7 +11616,7 @@
         <v>44832</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -11706,7 +11706,7 @@
         <v>44855</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -11796,7 +11796,7 @@
         <v>44860</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -11881,7 +11881,7 @@
         <v>45033</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -11970,7 +11970,7 @@
         <v>45042</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -12055,7 +12055,7 @@
         <v>45044</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -12145,7 +12145,7 @@
         <v>45089</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -12230,7 +12230,7 @@
         <v>45097</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -12320,7 +12320,7 @@
         <v>45120</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -12410,7 +12410,7 @@
         <v>45121</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -12495,7 +12495,7 @@
         <v>45149</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -12585,7 +12585,7 @@
         <v>45153</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -12670,7 +12670,7 @@
         <v>43321</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -12727,7 +12727,7 @@
         <v>43322</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -12789,7 +12789,7 @@
         <v>43326</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -12846,7 +12846,7 @@
         <v>43341</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -12903,7 +12903,7 @@
         <v>43360</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -12960,7 +12960,7 @@
         <v>43395</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -13017,7 +13017,7 @@
         <v>43396</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -13074,7 +13074,7 @@
         <v>43398</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -13131,7 +13131,7 @@
         <v>43398</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -13188,7 +13188,7 @@
         <v>43398</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -13245,7 +13245,7 @@
         <v>43403</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -13307,7 +13307,7 @@
         <v>43403</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -13369,7 +13369,7 @@
         <v>43403</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -13431,7 +13431,7 @@
         <v>43405</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -13493,7 +13493,7 @@
         <v>43406</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -13555,7 +13555,7 @@
         <v>43410</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -13617,7 +13617,7 @@
         <v>43411</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -13674,7 +13674,7 @@
         <v>43411</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -13736,7 +13736,7 @@
         <v>43411</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -13798,7 +13798,7 @@
         <v>43411</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -13860,7 +13860,7 @@
         <v>43411</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -13922,7 +13922,7 @@
         <v>43411</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -13984,7 +13984,7 @@
         <v>43411</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -14041,7 +14041,7 @@
         <v>43413</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -14098,7 +14098,7 @@
         <v>43418</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -14155,7 +14155,7 @@
         <v>43419</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -14212,7 +14212,7 @@
         <v>43423</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -14269,7 +14269,7 @@
         <v>43423</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -14326,7 +14326,7 @@
         <v>43427</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -14383,7 +14383,7 @@
         <v>43427</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -14440,7 +14440,7 @@
         <v>43431</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -14497,7 +14497,7 @@
         <v>43431</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -14559,7 +14559,7 @@
         <v>43431</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -14621,7 +14621,7 @@
         <v>43437</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -14683,7 +14683,7 @@
         <v>43438</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -14740,7 +14740,7 @@
         <v>43440</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -14797,7 +14797,7 @@
         <v>43444</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -14854,7 +14854,7 @@
         <v>43448</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -14911,7 +14911,7 @@
         <v>43461</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -14968,7 +14968,7 @@
         <v>43461</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -15025,7 +15025,7 @@
         <v>43467</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -15082,7 +15082,7 @@
         <v>43467</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -15139,7 +15139,7 @@
         <v>43473</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -15196,7 +15196,7 @@
         <v>43473</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -15253,7 +15253,7 @@
         <v>43474</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -15310,7 +15310,7 @@
         <v>43481</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -15367,7 +15367,7 @@
         <v>43481</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -15424,7 +15424,7 @@
         <v>43483</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -15481,7 +15481,7 @@
         <v>43495</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -15538,7 +15538,7 @@
         <v>43496</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -15600,7 +15600,7 @@
         <v>43509</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -15657,7 +15657,7 @@
         <v>43510</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -15714,7 +15714,7 @@
         <v>43515</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -15771,7 +15771,7 @@
         <v>43530</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -15828,7 +15828,7 @@
         <v>43537</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -15890,7 +15890,7 @@
         <v>43538</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -15947,7 +15947,7 @@
         <v>43542</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -16004,7 +16004,7 @@
         <v>43543</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -16061,7 +16061,7 @@
         <v>43551</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -16118,7 +16118,7 @@
         <v>43551</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -16175,7 +16175,7 @@
         <v>43552</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -16232,7 +16232,7 @@
         <v>43563</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -16289,7 +16289,7 @@
         <v>43565</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -16346,7 +16346,7 @@
         <v>43578</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -16408,7 +16408,7 @@
         <v>43584</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -16465,7 +16465,7 @@
         <v>43589</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -16522,7 +16522,7 @@
         <v>43594</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -16579,7 +16579,7 @@
         <v>43594</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -16641,7 +16641,7 @@
         <v>43622</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -16703,7 +16703,7 @@
         <v>43633</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -16760,7 +16760,7 @@
         <v>43633</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -16817,7 +16817,7 @@
         <v>43640</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -16879,7 +16879,7 @@
         <v>43641</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -16941,7 +16941,7 @@
         <v>43641</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -17003,7 +17003,7 @@
         <v>43643</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -17065,7 +17065,7 @@
         <v>43650</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -17127,7 +17127,7 @@
         <v>43651</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -17184,7 +17184,7 @@
         <v>43654</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -17246,7 +17246,7 @@
         <v>43654</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -17308,7 +17308,7 @@
         <v>43656</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -17370,7 +17370,7 @@
         <v>43669</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -17427,7 +17427,7 @@
         <v>43678</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -17489,7 +17489,7 @@
         <v>43704</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -17551,7 +17551,7 @@
         <v>43704</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -17613,7 +17613,7 @@
         <v>43704</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -17675,7 +17675,7 @@
         <v>43706</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -17732,7 +17732,7 @@
         <v>43706</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -17789,7 +17789,7 @@
         <v>43713</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -17846,7 +17846,7 @@
         <v>43713</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -17903,7 +17903,7 @@
         <v>43728</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -17965,7 +17965,7 @@
         <v>43733</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -18022,7 +18022,7 @@
         <v>43733</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -18079,7 +18079,7 @@
         <v>43735</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -18136,7 +18136,7 @@
         <v>43740</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -18193,7 +18193,7 @@
         <v>43742</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -18250,7 +18250,7 @@
         <v>43746</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -18307,7 +18307,7 @@
         <v>43756</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -18364,7 +18364,7 @@
         <v>43759</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -18421,7 +18421,7 @@
         <v>43760</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -18478,7 +18478,7 @@
         <v>43768</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -18535,7 +18535,7 @@
         <v>43768</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -18597,7 +18597,7 @@
         <v>43770</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -18659,7 +18659,7 @@
         <v>43770</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -18721,7 +18721,7 @@
         <v>43773</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -18778,7 +18778,7 @@
         <v>43773</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -18840,7 +18840,7 @@
         <v>43773</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -18897,7 +18897,7 @@
         <v>43775</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -18954,7 +18954,7 @@
         <v>43777</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -19016,7 +19016,7 @@
         <v>43782</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -19073,7 +19073,7 @@
         <v>43783</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -19130,7 +19130,7 @@
         <v>43788</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -19207,7 +19207,7 @@
         <v>43791</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -19264,7 +19264,7 @@
         <v>43797</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -19321,7 +19321,7 @@
         <v>43797</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -19378,7 +19378,7 @@
         <v>43803</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -19435,7 +19435,7 @@
         <v>43805</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -19492,7 +19492,7 @@
         <v>43812</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -19549,7 +19549,7 @@
         <v>43818</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -19606,7 +19606,7 @@
         <v>43819</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -19663,7 +19663,7 @@
         <v>43833</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -19720,7 +19720,7 @@
         <v>43847</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -19777,7 +19777,7 @@
         <v>43850</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -19834,7 +19834,7 @@
         <v>43861</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -19891,7 +19891,7 @@
         <v>43868</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -19948,7 +19948,7 @@
         <v>43872</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -20005,7 +20005,7 @@
         <v>43873</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -20062,7 +20062,7 @@
         <v>43880</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -20119,7 +20119,7 @@
         <v>43881</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -20181,7 +20181,7 @@
         <v>43882</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -20238,7 +20238,7 @@
         <v>43887</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -20295,7 +20295,7 @@
         <v>43896</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -20377,7 +20377,7 @@
         <v>43900</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -20434,7 +20434,7 @@
         <v>43901</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -20491,7 +20491,7 @@
         <v>43902</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -20553,7 +20553,7 @@
         <v>43907</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -20610,7 +20610,7 @@
         <v>43910</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -20667,7 +20667,7 @@
         <v>43910</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -20724,7 +20724,7 @@
         <v>43913</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -20781,7 +20781,7 @@
         <v>43916</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -20838,7 +20838,7 @@
         <v>43923</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -20895,7 +20895,7 @@
         <v>43943</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -20952,7 +20952,7 @@
         <v>43948</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -21009,7 +21009,7 @@
         <v>43949</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -21071,7 +21071,7 @@
         <v>43951</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -21128,7 +21128,7 @@
         <v>43955</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -21190,7 +21190,7 @@
         <v>43955</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -21252,7 +21252,7 @@
         <v>43955</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -21314,7 +21314,7 @@
         <v>43955</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -21376,7 +21376,7 @@
         <v>43956</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -21438,7 +21438,7 @@
         <v>43957</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -21495,7 +21495,7 @@
         <v>43965</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -21552,7 +21552,7 @@
         <v>43969</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -21614,7 +21614,7 @@
         <v>43971</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -21671,7 +21671,7 @@
         <v>43971</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -21728,7 +21728,7 @@
         <v>43977</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -21790,7 +21790,7 @@
         <v>43979</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -21847,7 +21847,7 @@
         <v>43984</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -21909,7 +21909,7 @@
         <v>43984</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -21971,7 +21971,7 @@
         <v>43986</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -22033,7 +22033,7 @@
         <v>43986</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -22095,7 +22095,7 @@
         <v>43990</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -22157,7 +22157,7 @@
         <v>43992</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -22214,7 +22214,7 @@
         <v>43999</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -22276,7 +22276,7 @@
         <v>44000</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -22333,7 +22333,7 @@
         <v>44004</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -22395,7 +22395,7 @@
         <v>44006</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -22457,7 +22457,7 @@
         <v>44011</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -22519,7 +22519,7 @@
         <v>44013</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -22581,7 +22581,7 @@
         <v>44013</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -22643,7 +22643,7 @@
         <v>44013</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -22705,7 +22705,7 @@
         <v>44019</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -22767,7 +22767,7 @@
         <v>44026</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -22824,7 +22824,7 @@
         <v>44027</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -22886,7 +22886,7 @@
         <v>44029</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -22948,7 +22948,7 @@
         <v>44029</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -23005,7 +23005,7 @@
         <v>44040</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -23062,7 +23062,7 @@
         <v>44041</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -23124,7 +23124,7 @@
         <v>44051</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -23181,7 +23181,7 @@
         <v>44051</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -23238,7 +23238,7 @@
         <v>44055</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -23295,7 +23295,7 @@
         <v>44056</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -23352,7 +23352,7 @@
         <v>44057</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -23409,7 +23409,7 @@
         <v>44057</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -23471,7 +23471,7 @@
         <v>44062</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -23533,7 +23533,7 @@
         <v>44063</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -23595,7 +23595,7 @@
         <v>44067</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -23657,7 +23657,7 @@
         <v>44069</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -23719,7 +23719,7 @@
         <v>44071</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -23781,7 +23781,7 @@
         <v>44074</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -23843,7 +23843,7 @@
         <v>44074</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -23905,7 +23905,7 @@
         <v>44074</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -23967,7 +23967,7 @@
         <v>44075</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -24029,7 +24029,7 @@
         <v>44078</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -24086,7 +24086,7 @@
         <v>44082</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -24148,7 +24148,7 @@
         <v>44084</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -24210,7 +24210,7 @@
         <v>44084</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -24267,7 +24267,7 @@
         <v>44084</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -24324,7 +24324,7 @@
         <v>44090</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -24381,7 +24381,7 @@
         <v>44095</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -24438,7 +24438,7 @@
         <v>44096</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -24500,7 +24500,7 @@
         <v>44096</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -24562,7 +24562,7 @@
         <v>44098</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -24619,7 +24619,7 @@
         <v>44099</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -24681,7 +24681,7 @@
         <v>44103</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -24743,7 +24743,7 @@
         <v>44106</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -24800,7 +24800,7 @@
         <v>44111</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -24857,7 +24857,7 @@
         <v>44111</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -24914,7 +24914,7 @@
         <v>44111</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -24971,7 +24971,7 @@
         <v>44113</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -25033,7 +25033,7 @@
         <v>44124</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -25090,7 +25090,7 @@
         <v>44126</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -25147,7 +25147,7 @@
         <v>44132</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -25209,7 +25209,7 @@
         <v>44134</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -25266,7 +25266,7 @@
         <v>44137</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -25323,7 +25323,7 @@
         <v>44138</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -25380,7 +25380,7 @@
         <v>44140</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -25442,7 +25442,7 @@
         <v>44140</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -25504,7 +25504,7 @@
         <v>44140</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -25566,7 +25566,7 @@
         <v>44140</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -25628,7 +25628,7 @@
         <v>44141</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -25690,7 +25690,7 @@
         <v>44153</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -25747,7 +25747,7 @@
         <v>44153</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -25809,7 +25809,7 @@
         <v>44155</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -25866,7 +25866,7 @@
         <v>44157</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -25923,7 +25923,7 @@
         <v>44159</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -25985,7 +25985,7 @@
         <v>44165</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -26047,7 +26047,7 @@
         <v>44167</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -26109,7 +26109,7 @@
         <v>44168</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -26166,7 +26166,7 @@
         <v>44172</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -26228,7 +26228,7 @@
         <v>44173</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -26285,7 +26285,7 @@
         <v>44174</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -26347,7 +26347,7 @@
         <v>44175</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -26409,7 +26409,7 @@
         <v>44188</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -26471,7 +26471,7 @@
         <v>44194</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -26528,7 +26528,7 @@
         <v>44195</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -26585,7 +26585,7 @@
         <v>44210</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -26642,7 +26642,7 @@
         <v>44214</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -26699,7 +26699,7 @@
         <v>44218</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -26756,7 +26756,7 @@
         <v>44225</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -26813,7 +26813,7 @@
         <v>44228</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -26870,7 +26870,7 @@
         <v>44229</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -26927,7 +26927,7 @@
         <v>44230</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -26989,7 +26989,7 @@
         <v>44231</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -27046,7 +27046,7 @@
         <v>44231</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -27103,7 +27103,7 @@
         <v>44236</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -27160,7 +27160,7 @@
         <v>44239</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -27222,7 +27222,7 @@
         <v>44242</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -27284,7 +27284,7 @@
         <v>44243</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -27341,7 +27341,7 @@
         <v>44245</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -27398,7 +27398,7 @@
         <v>44259</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -27455,7 +27455,7 @@
         <v>44259</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -27512,7 +27512,7 @@
         <v>44273</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -27569,7 +27569,7 @@
         <v>44280</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -27626,7 +27626,7 @@
         <v>44280</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -27683,7 +27683,7 @@
         <v>44281</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -27745,7 +27745,7 @@
         <v>44286</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -27802,7 +27802,7 @@
         <v>44286</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -27859,7 +27859,7 @@
         <v>44287</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -27916,7 +27916,7 @@
         <v>44292</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -27973,7 +27973,7 @@
         <v>44298</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -28030,7 +28030,7 @@
         <v>44299</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -28087,7 +28087,7 @@
         <v>44308</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -28144,7 +28144,7 @@
         <v>44308</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -28201,7 +28201,7 @@
         <v>44308</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -28258,7 +28258,7 @@
         <v>44308</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -28315,7 +28315,7 @@
         <v>44315</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -28377,7 +28377,7 @@
         <v>44322</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -28434,7 +28434,7 @@
         <v>44323</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -28496,7 +28496,7 @@
         <v>44332</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -28558,7 +28558,7 @@
         <v>44336</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -28615,7 +28615,7 @@
         <v>44336</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -28672,7 +28672,7 @@
         <v>44349</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -28729,7 +28729,7 @@
         <v>44351</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -28791,7 +28791,7 @@
         <v>44351</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -28853,7 +28853,7 @@
         <v>44356</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -28910,7 +28910,7 @@
         <v>44357</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -28967,7 +28967,7 @@
         <v>44362</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -29024,7 +29024,7 @@
         <v>44362</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -29081,7 +29081,7 @@
         <v>44368</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -29138,7 +29138,7 @@
         <v>44375</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -29195,7 +29195,7 @@
         <v>44379</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -29252,7 +29252,7 @@
         <v>44384</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -29309,7 +29309,7 @@
         <v>44385</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -29366,7 +29366,7 @@
         <v>44396</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -29423,7 +29423,7 @@
         <v>44405</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -29480,7 +29480,7 @@
         <v>44410</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -29537,7 +29537,7 @@
         <v>44413</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -29594,7 +29594,7 @@
         <v>44424</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -29651,7 +29651,7 @@
         <v>44425</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -29713,7 +29713,7 @@
         <v>44425</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -29775,7 +29775,7 @@
         <v>44425</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -29837,7 +29837,7 @@
         <v>44431</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -29894,7 +29894,7 @@
         <v>44434</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -29951,7 +29951,7 @@
         <v>44441</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -30008,7 +30008,7 @@
         <v>44443</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -30065,7 +30065,7 @@
         <v>44448</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -30122,7 +30122,7 @@
         <v>44452</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -30179,7 +30179,7 @@
         <v>44453</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -30236,7 +30236,7 @@
         <v>44466</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -30298,7 +30298,7 @@
         <v>44475</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -30355,7 +30355,7 @@
         <v>44476</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -30417,7 +30417,7 @@
         <v>44480</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -30474,7 +30474,7 @@
         <v>44495</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -30536,7 +30536,7 @@
         <v>44496</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -30593,7 +30593,7 @@
         <v>44505</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -30655,7 +30655,7 @@
         <v>44505</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -30717,7 +30717,7 @@
         <v>44511</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -30774,7 +30774,7 @@
         <v>44512</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -30831,7 +30831,7 @@
         <v>44517</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -30888,7 +30888,7 @@
         <v>44517</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -30945,7 +30945,7 @@
         <v>44518</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -31002,7 +31002,7 @@
         <v>44518</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -31064,7 +31064,7 @@
         <v>44530</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -31121,7 +31121,7 @@
         <v>44536</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -31178,7 +31178,7 @@
         <v>44537</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -31235,7 +31235,7 @@
         <v>44538</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -31292,7 +31292,7 @@
         <v>44571</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -31349,7 +31349,7 @@
         <v>44573</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -31406,7 +31406,7 @@
         <v>44574</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -31463,7 +31463,7 @@
         <v>44574</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -31520,7 +31520,7 @@
         <v>44578</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -31577,7 +31577,7 @@
         <v>44586</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -31634,7 +31634,7 @@
         <v>44593</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -31691,7 +31691,7 @@
         <v>44595</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -31748,7 +31748,7 @@
         <v>44599</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -31805,7 +31805,7 @@
         <v>44601</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -31862,7 +31862,7 @@
         <v>44601</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -31919,7 +31919,7 @@
         <v>44601</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -31976,7 +31976,7 @@
         <v>44606</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -32033,7 +32033,7 @@
         <v>44609</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -32095,7 +32095,7 @@
         <v>44614</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -32152,7 +32152,7 @@
         <v>44614</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -32209,7 +32209,7 @@
         <v>44614</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -32266,7 +32266,7 @@
         <v>44614</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -32323,7 +32323,7 @@
         <v>44614</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -32380,7 +32380,7 @@
         <v>44615</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -32437,7 +32437,7 @@
         <v>44615</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -32494,7 +32494,7 @@
         <v>44621</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -32551,7 +32551,7 @@
         <v>44627</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -32608,7 +32608,7 @@
         <v>44628</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -32665,7 +32665,7 @@
         <v>44629</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -32722,7 +32722,7 @@
         <v>44635</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -32784,7 +32784,7 @@
         <v>44641</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -32846,7 +32846,7 @@
         <v>44641</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -32908,7 +32908,7 @@
         <v>44644</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -32970,7 +32970,7 @@
         <v>44644</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -33032,7 +33032,7 @@
         <v>44649</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -33094,7 +33094,7 @@
         <v>44650</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -33151,7 +33151,7 @@
         <v>44650</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -33208,7 +33208,7 @@
         <v>44652</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -33270,7 +33270,7 @@
         <v>44655</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -33332,7 +33332,7 @@
         <v>44655</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -33394,7 +33394,7 @@
         <v>44656</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -33456,7 +33456,7 @@
         <v>44656</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -33518,7 +33518,7 @@
         <v>44657</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -33575,7 +33575,7 @@
         <v>44662</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -33637,7 +33637,7 @@
         <v>44663</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -33699,7 +33699,7 @@
         <v>44663</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -33761,7 +33761,7 @@
         <v>44670</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -33823,7 +33823,7 @@
         <v>44670</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -33880,7 +33880,7 @@
         <v>44670</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -33937,7 +33937,7 @@
         <v>44671</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -33994,7 +33994,7 @@
         <v>44671</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -34051,7 +34051,7 @@
         <v>44679</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -34108,7 +34108,7 @@
         <v>44680</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -34165,7 +34165,7 @@
         <v>44685</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -34222,7 +34222,7 @@
         <v>44685</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -34279,7 +34279,7 @@
         <v>44685</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -34341,7 +34341,7 @@
         <v>44686</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -34398,7 +34398,7 @@
         <v>44690</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -34455,7 +34455,7 @@
         <v>44690</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -34517,7 +34517,7 @@
         <v>44690</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -34579,7 +34579,7 @@
         <v>44690</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -34636,7 +34636,7 @@
         <v>44690</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -34698,7 +34698,7 @@
         <v>44690</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -34760,7 +34760,7 @@
         <v>44704</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -34817,7 +34817,7 @@
         <v>44705</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -34874,7 +34874,7 @@
         <v>44706</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -34931,7 +34931,7 @@
         <v>44714</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -34988,7 +34988,7 @@
         <v>44714</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -35050,7 +35050,7 @@
         <v>44714</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -35107,7 +35107,7 @@
         <v>44725</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -35164,7 +35164,7 @@
         <v>44727</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -35226,7 +35226,7 @@
         <v>44732</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -35283,7 +35283,7 @@
         <v>44734</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -35340,7 +35340,7 @@
         <v>44734</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -35402,7 +35402,7 @@
         <v>44741</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -35459,7 +35459,7 @@
         <v>44743</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -35516,7 +35516,7 @@
         <v>44746</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -35573,7 +35573,7 @@
         <v>44746</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -35635,7 +35635,7 @@
         <v>44761</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -35712,7 +35712,7 @@
         <v>44774</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -35769,7 +35769,7 @@
         <v>44774</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -35826,7 +35826,7 @@
         <v>44776</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -35888,7 +35888,7 @@
         <v>44776</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -35950,7 +35950,7 @@
         <v>44777</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -36012,7 +36012,7 @@
         <v>44778</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -36074,7 +36074,7 @@
         <v>44781</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -36131,7 +36131,7 @@
         <v>44782</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -36193,7 +36193,7 @@
         <v>44783</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -36255,7 +36255,7 @@
         <v>44788</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -36312,7 +36312,7 @@
         <v>44788</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -36369,7 +36369,7 @@
         <v>44791</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -36431,7 +36431,7 @@
         <v>44797</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -36493,7 +36493,7 @@
         <v>44798</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -36555,7 +36555,7 @@
         <v>44799</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -36617,7 +36617,7 @@
         <v>44802</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -36674,7 +36674,7 @@
         <v>44802</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -36736,7 +36736,7 @@
         <v>44804</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -36793,7 +36793,7 @@
         <v>44804</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -36855,7 +36855,7 @@
         <v>44805</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -36917,7 +36917,7 @@
         <v>44805</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -36979,7 +36979,7 @@
         <v>44806</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -37036,7 +37036,7 @@
         <v>44812</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -37098,7 +37098,7 @@
         <v>44813</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -37160,7 +37160,7 @@
         <v>44813</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -37222,7 +37222,7 @@
         <v>44815</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -37284,7 +37284,7 @@
         <v>44816</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -37346,7 +37346,7 @@
         <v>44816</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -37408,7 +37408,7 @@
         <v>44817</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -37470,7 +37470,7 @@
         <v>44818</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -37532,7 +37532,7 @@
         <v>44818</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -37589,7 +37589,7 @@
         <v>44820</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -37651,7 +37651,7 @@
         <v>44820</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -37708,7 +37708,7 @@
         <v>44820</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -37770,7 +37770,7 @@
         <v>44820</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -37832,7 +37832,7 @@
         <v>44823</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -37889,7 +37889,7 @@
         <v>44823</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -37946,7 +37946,7 @@
         <v>44825</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -38008,7 +38008,7 @@
         <v>44825</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -38070,7 +38070,7 @@
         <v>44830</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -38132,7 +38132,7 @@
         <v>44831</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -38194,7 +38194,7 @@
         <v>44831</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -38256,7 +38256,7 @@
         <v>44832</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -38318,7 +38318,7 @@
         <v>44832</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -38380,7 +38380,7 @@
         <v>44832</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -38442,7 +38442,7 @@
         <v>44837</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -38504,7 +38504,7 @@
         <v>44837</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -38566,7 +38566,7 @@
         <v>44838</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -38628,7 +38628,7 @@
         <v>44839</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -38685,7 +38685,7 @@
         <v>44839</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -38742,7 +38742,7 @@
         <v>44840</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -38804,7 +38804,7 @@
         <v>44841</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -38861,7 +38861,7 @@
         <v>44844</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -38923,7 +38923,7 @@
         <v>44845</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -38985,7 +38985,7 @@
         <v>44845</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -39047,7 +39047,7 @@
         <v>44845</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -39109,7 +39109,7 @@
         <v>44845</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -39171,7 +39171,7 @@
         <v>44846</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -39233,7 +39233,7 @@
         <v>44846</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -39295,7 +39295,7 @@
         <v>44852</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -39357,7 +39357,7 @@
         <v>44852</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -39419,7 +39419,7 @@
         <v>44852</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -39481,7 +39481,7 @@
         <v>44852</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -39543,7 +39543,7 @@
         <v>44853</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -39605,7 +39605,7 @@
         <v>44854</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -39667,7 +39667,7 @@
         <v>44855</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -39729,7 +39729,7 @@
         <v>44855</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -39791,7 +39791,7 @@
         <v>44855</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -39853,7 +39853,7 @@
         <v>44858</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -39915,7 +39915,7 @@
         <v>44858</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -39977,7 +39977,7 @@
         <v>44860</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -40039,7 +40039,7 @@
         <v>44860</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -40101,7 +40101,7 @@
         <v>44861</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -40163,7 +40163,7 @@
         <v>44861</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -40225,7 +40225,7 @@
         <v>44865</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -40282,7 +40282,7 @@
         <v>44865</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -40339,7 +40339,7 @@
         <v>44866</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -40401,7 +40401,7 @@
         <v>44866</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -40463,7 +40463,7 @@
         <v>44866</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -40525,7 +40525,7 @@
         <v>44867</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -40587,7 +40587,7 @@
         <v>44869</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -40644,7 +40644,7 @@
         <v>44869</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -40701,7 +40701,7 @@
         <v>44869</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -40758,7 +40758,7 @@
         <v>44874</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -40815,7 +40815,7 @@
         <v>44876</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -40877,7 +40877,7 @@
         <v>44879</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -40939,7 +40939,7 @@
         <v>44880</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -41001,7 +41001,7 @@
         <v>44880</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -41063,7 +41063,7 @@
         <v>44881</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -41120,7 +41120,7 @@
         <v>44883</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -41182,7 +41182,7 @@
         <v>44883</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -41244,7 +41244,7 @@
         <v>44886</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -41306,7 +41306,7 @@
         <v>44887</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -41363,7 +41363,7 @@
         <v>44887</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -41420,7 +41420,7 @@
         <v>44887</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -41477,7 +41477,7 @@
         <v>44888</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -41539,7 +41539,7 @@
         <v>44889</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -41601,7 +41601,7 @@
         <v>44889</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -41658,7 +41658,7 @@
         <v>44889</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -41720,7 +41720,7 @@
         <v>44893</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -41777,7 +41777,7 @@
         <v>44894</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -41834,7 +41834,7 @@
         <v>44895</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -41896,7 +41896,7 @@
         <v>44896</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -41953,7 +41953,7 @@
         <v>44897</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -42010,7 +42010,7 @@
         <v>44897</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -42072,7 +42072,7 @@
         <v>44900</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -42134,7 +42134,7 @@
         <v>44901</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -42196,7 +42196,7 @@
         <v>44901</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -42258,7 +42258,7 @@
         <v>44901</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -42320,7 +42320,7 @@
         <v>44903</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -42377,7 +42377,7 @@
         <v>44903</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -42439,7 +42439,7 @@
         <v>44904</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -42501,7 +42501,7 @@
         <v>44909</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -42563,7 +42563,7 @@
         <v>44911</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -42625,7 +42625,7 @@
         <v>44911</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -42687,7 +42687,7 @@
         <v>44913</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -42749,7 +42749,7 @@
         <v>44914</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -42806,7 +42806,7 @@
         <v>44914</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -42868,7 +42868,7 @@
         <v>44915</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -42925,7 +42925,7 @@
         <v>44915</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -42987,7 +42987,7 @@
         <v>44917</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -43049,7 +43049,7 @@
         <v>44917</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -43106,7 +43106,7 @@
         <v>44918</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -43168,7 +43168,7 @@
         <v>44922</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -43225,7 +43225,7 @@
         <v>44927</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -43287,7 +43287,7 @@
         <v>44929</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -43344,7 +43344,7 @@
         <v>44929</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -43401,7 +43401,7 @@
         <v>44929</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -43458,7 +43458,7 @@
         <v>44938</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -43520,7 +43520,7 @@
         <v>44938</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -43582,7 +43582,7 @@
         <v>44939</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -43644,7 +43644,7 @@
         <v>44939</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -43706,7 +43706,7 @@
         <v>44942</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -43763,7 +43763,7 @@
         <v>44942</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -43825,7 +43825,7 @@
         <v>44942</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -43882,7 +43882,7 @@
         <v>44942</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -43944,7 +43944,7 @@
         <v>44944</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -44001,7 +44001,7 @@
         <v>44953</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -44063,7 +44063,7 @@
         <v>44953</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -44125,7 +44125,7 @@
         <v>44956</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -44187,7 +44187,7 @@
         <v>44957</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -44249,7 +44249,7 @@
         <v>44958</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -44306,7 +44306,7 @@
         <v>44958</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -44363,7 +44363,7 @@
         <v>44958</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -44425,7 +44425,7 @@
         <v>44959</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -44482,7 +44482,7 @@
         <v>44963</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -44539,7 +44539,7 @@
         <v>44963</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -44601,7 +44601,7 @@
         <v>44965</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -44663,7 +44663,7 @@
         <v>44966</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -44725,7 +44725,7 @@
         <v>44966</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -44787,7 +44787,7 @@
         <v>44967</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -44849,7 +44849,7 @@
         <v>44971</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -44911,7 +44911,7 @@
         <v>44978</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -44973,7 +44973,7 @@
         <v>44979</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -45030,7 +45030,7 @@
         <v>44979</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -45087,7 +45087,7 @@
         <v>44979</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -45149,7 +45149,7 @@
         <v>44980</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -45206,7 +45206,7 @@
         <v>44984</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -45263,7 +45263,7 @@
         <v>44986</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -45320,7 +45320,7 @@
         <v>44987</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -45382,7 +45382,7 @@
         <v>44991</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -45444,7 +45444,7 @@
         <v>44991</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -45506,7 +45506,7 @@
         <v>44991</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -45568,7 +45568,7 @@
         <v>44991</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -45630,7 +45630,7 @@
         <v>44992</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -45687,7 +45687,7 @@
         <v>44993</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -45749,7 +45749,7 @@
         <v>44993</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -45811,7 +45811,7 @@
         <v>44993</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -45873,7 +45873,7 @@
         <v>44993</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -45930,7 +45930,7 @@
         <v>44995</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -45992,7 +45992,7 @@
         <v>44995</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -46054,7 +46054,7 @@
         <v>44995</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -46116,7 +46116,7 @@
         <v>45000</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -46173,7 +46173,7 @@
         <v>45000</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -46235,7 +46235,7 @@
         <v>45000</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -46297,7 +46297,7 @@
         <v>45000</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -46359,7 +46359,7 @@
         <v>45000</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -46421,7 +46421,7 @@
         <v>45002</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -46478,7 +46478,7 @@
         <v>45006</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -46540,7 +46540,7 @@
         <v>45007</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -46597,7 +46597,7 @@
         <v>45009</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -46654,7 +46654,7 @@
         <v>45009</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -46711,7 +46711,7 @@
         <v>45015</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -46773,7 +46773,7 @@
         <v>45015</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -46835,7 +46835,7 @@
         <v>45015</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -46892,7 +46892,7 @@
         <v>45015</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -46949,7 +46949,7 @@
         <v>45016</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -47006,7 +47006,7 @@
         <v>45016</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -47063,7 +47063,7 @@
         <v>45028</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -47120,7 +47120,7 @@
         <v>45033</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -47177,7 +47177,7 @@
         <v>45034</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -47234,7 +47234,7 @@
         <v>45040</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -47291,7 +47291,7 @@
         <v>45042</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -47348,7 +47348,7 @@
         <v>45044</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -47410,7 +47410,7 @@
         <v>45048</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -47472,7 +47472,7 @@
         <v>45048</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -47534,7 +47534,7 @@
         <v>45049</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -47596,7 +47596,7 @@
         <v>45050</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -47658,7 +47658,7 @@
         <v>45054</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -47720,7 +47720,7 @@
         <v>45056</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -47777,7 +47777,7 @@
         <v>45056</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -47834,7 +47834,7 @@
         <v>45063</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -47891,7 +47891,7 @@
         <v>45063</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -47948,7 +47948,7 @@
         <v>45068</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -48010,7 +48010,7 @@
         <v>45069</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -48067,7 +48067,7 @@
         <v>45070</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -48124,7 +48124,7 @@
         <v>45070</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -48181,7 +48181,7 @@
         <v>45070</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -48243,7 +48243,7 @@
         <v>45071</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -48300,7 +48300,7 @@
         <v>45071</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -48357,7 +48357,7 @@
         <v>45078</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -48414,7 +48414,7 @@
         <v>45078</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -48471,7 +48471,7 @@
         <v>45078</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -48528,7 +48528,7 @@
         <v>45079</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -48590,7 +48590,7 @@
         <v>45084</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -48647,7 +48647,7 @@
         <v>45085</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -48704,7 +48704,7 @@
         <v>45086</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -48761,7 +48761,7 @@
         <v>45086</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -48823,7 +48823,7 @@
         <v>45089</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -48880,7 +48880,7 @@
         <v>45089</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -48937,7 +48937,7 @@
         <v>45089</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -48999,7 +48999,7 @@
         <v>45089</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -49056,7 +49056,7 @@
         <v>45090</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -49113,7 +49113,7 @@
         <v>45091</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -49175,7 +49175,7 @@
         <v>45092</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -49232,7 +49232,7 @@
         <v>45092</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -49289,7 +49289,7 @@
         <v>45092</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -49346,7 +49346,7 @@
         <v>45092</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -49403,7 +49403,7 @@
         <v>45093</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -49460,7 +49460,7 @@
         <v>45093</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -49517,7 +49517,7 @@
         <v>45096</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -49574,7 +49574,7 @@
         <v>45096</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -49631,7 +49631,7 @@
         <v>45098</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -49688,7 +49688,7 @@
         <v>45098</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -49745,7 +49745,7 @@
         <v>45103</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -49802,7 +49802,7 @@
         <v>45103</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -49859,7 +49859,7 @@
         <v>45104</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -49916,7 +49916,7 @@
         <v>45105</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -49978,7 +49978,7 @@
         <v>45107</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -50035,7 +50035,7 @@
         <v>45107</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -50092,7 +50092,7 @@
         <v>45111</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -50149,7 +50149,7 @@
         <v>45112</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -50211,7 +50211,7 @@
         <v>45112</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -50273,7 +50273,7 @@
         <v>45121</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -50330,7 +50330,7 @@
         <v>45138</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -50392,7 +50392,7 @@
         <v>45146</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -50449,7 +50449,7 @@
         <v>45148</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -50506,7 +50506,7 @@
         <v>45148</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -50563,7 +50563,7 @@
         <v>45149</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -50620,7 +50620,7 @@
         <v>45153</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -50677,7 +50677,7 @@
         <v>45153</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -50734,7 +50734,7 @@
         <v>45166</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>

--- a/Översikt RAGUNDA.xlsx
+++ b/Översikt RAGUNDA.xlsx
@@ -572,7 +572,7 @@
         <v>44874</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -699,7 +699,7 @@
         <v>43865</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>44894</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         <v>44917</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
         <v>43865</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1145,7 +1145,7 @@
         <v>44504</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1256,7 +1256,7 @@
         <v>44644</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1362,7 +1362,7 @@
         <v>43866</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1466,7 +1466,7 @@
         <v>44504</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1575,7 +1575,7 @@
         <v>44473</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1678,7 +1678,7 @@
         <v>44088</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1784,7 +1784,7 @@
         <v>44151</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1881,7 +1881,7 @@
         <v>44644</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1983,7 +1983,7 @@
         <v>44838</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2080,7 +2080,7 @@
         <v>43900</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2181,7 +2181,7 @@
         <v>44062</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2282,7 +2282,7 @@
         <v>45104</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2383,7 +2383,7 @@
         <v>43910</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2487,7 +2487,7 @@
         <v>44776</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2591,7 +2591,7 @@
         <v>44645</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2690,7 +2690,7 @@
         <v>44888</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2789,7 +2789,7 @@
         <v>43353</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2887,7 +2887,7 @@
         <v>44504</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2985,7 +2985,7 @@
         <v>45113</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3083,7 +3083,7 @@
         <v>44133</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3180,7 +3180,7 @@
         <v>44644</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3277,7 +3277,7 @@
         <v>44901</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3378,7 +3378,7 @@
         <v>45113</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3475,7 +3475,7 @@
         <v>43411</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3571,7 +3571,7 @@
         <v>43413</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3667,7 +3667,7 @@
         <v>44133</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         <v>44336</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3854,7 +3854,7 @@
         <v>44438</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3950,7 +3950,7 @@
         <v>44662</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4046,7 +4046,7 @@
         <v>44804</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4142,7 +4142,7 @@
         <v>44915</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4242,7 +4242,7 @@
         <v>44953</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4333,7 +4333,7 @@
         <v>44994</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4433,7 +4433,7 @@
         <v>45009</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4524,7 +4524,7 @@
         <v>44209</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4614,7 +4614,7 @@
         <v>44875</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4709,7 +4709,7 @@
         <v>44876</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4804,7 +4804,7 @@
         <v>44911</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4899,7 +4899,7 @@
         <v>44932</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4994,7 +4994,7 @@
         <v>44994</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -5089,7 +5089,7 @@
         <v>45015</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5183,7 +5183,7 @@
         <v>45027</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5282,7 +5282,7 @@
         <v>45070</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5377,7 +5377,7 @@
         <v>44111</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5470,7 +5470,7 @@
         <v>44139</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5559,7 +5559,7 @@
         <v>44645</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5657,7 +5657,7 @@
         <v>44656</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5751,7 +5751,7 @@
         <v>44734</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5845,7 +5845,7 @@
         <v>44865</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5939,7 +5939,7 @@
         <v>44911</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -6033,7 +6033,7 @@
         <v>45054</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -6122,7 +6122,7 @@
         <v>45093</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6215,7 +6215,7 @@
         <v>43977</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6308,7 +6308,7 @@
         <v>44113</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6401,7 +6401,7 @@
         <v>44245</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6494,7 +6494,7 @@
         <v>44334</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6586,7 +6586,7 @@
         <v>44334</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6678,7 +6678,7 @@
         <v>44446</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6771,7 +6771,7 @@
         <v>44610</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6864,7 +6864,7 @@
         <v>44624</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6957,7 +6957,7 @@
         <v>44662</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -7050,7 +7050,7 @@
         <v>44677</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -7142,7 +7142,7 @@
         <v>44696</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -7235,7 +7235,7 @@
         <v>44732</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7332,7 +7332,7 @@
         <v>44911</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7425,7 +7425,7 @@
         <v>45034</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7518,7 +7518,7 @@
         <v>43817</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7609,7 +7609,7 @@
         <v>44111</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7701,7 +7701,7 @@
         <v>44421</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7793,7 +7793,7 @@
         <v>44740</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7880,7 +7880,7 @@
         <v>44855</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7976,7 +7976,7 @@
         <v>44855</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -8068,7 +8068,7 @@
         <v>44875</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -8160,7 +8160,7 @@
         <v>44902</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -8252,7 +8252,7 @@
         <v>44971</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -8344,7 +8344,7 @@
         <v>44987</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8435,7 +8435,7 @@
         <v>44987</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8522,7 +8522,7 @@
         <v>45049</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8614,7 +8614,7 @@
         <v>43329</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8700,7 +8700,7 @@
         <v>43411</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8786,7 +8786,7 @@
         <v>43707</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8876,7 +8876,7 @@
         <v>43948</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8962,7 +8962,7 @@
         <v>44676</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -9053,7 +9053,7 @@
         <v>44680</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -9139,7 +9139,7 @@
         <v>44855</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -9230,7 +9230,7 @@
         <v>44855</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -9321,7 +9321,7 @@
         <v>44860</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9412,7 +9412,7 @@
         <v>44973</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9503,7 +9503,7 @@
         <v>44980</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9589,7 +9589,7 @@
         <v>45005</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9680,7 +9680,7 @@
         <v>45121</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9771,7 +9771,7 @@
         <v>43515</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9856,7 +9856,7 @@
         <v>43619</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9946,7 +9946,7 @@
         <v>43650</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -10031,7 +10031,7 @@
         <v>43784</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -10121,7 +10121,7 @@
         <v>43791</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -10206,7 +10206,7 @@
         <v>43977</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -10296,7 +10296,7 @@
         <v>44012</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -10386,7 +10386,7 @@
         <v>44049</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -10476,7 +10476,7 @@
         <v>44062</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10566,7 +10566,7 @@
         <v>44098</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10656,7 +10656,7 @@
         <v>44119</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -10741,7 +10741,7 @@
         <v>44166</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10826,7 +10826,7 @@
         <v>44319</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10916,7 +10916,7 @@
         <v>44369</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -11001,7 +11001,7 @@
         <v>44462</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -11091,7 +11091,7 @@
         <v>44601</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -11176,7 +11176,7 @@
         <v>44607</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -11266,7 +11266,7 @@
         <v>44705</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -11351,7 +11351,7 @@
         <v>44741</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -11441,7 +11441,7 @@
         <v>44741</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -11526,7 +11526,7 @@
         <v>44830</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -11616,7 +11616,7 @@
         <v>44832</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -11706,7 +11706,7 @@
         <v>44855</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -11796,7 +11796,7 @@
         <v>44860</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -11881,7 +11881,7 @@
         <v>45033</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -11970,7 +11970,7 @@
         <v>45042</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -12055,7 +12055,7 @@
         <v>45044</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -12145,7 +12145,7 @@
         <v>45089</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -12230,7 +12230,7 @@
         <v>45097</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -12320,7 +12320,7 @@
         <v>45120</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -12410,7 +12410,7 @@
         <v>45121</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -12495,7 +12495,7 @@
         <v>45149</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -12585,7 +12585,7 @@
         <v>45153</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -12670,7 +12670,7 @@
         <v>43321</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -12727,7 +12727,7 @@
         <v>43322</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -12789,7 +12789,7 @@
         <v>43326</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -12846,7 +12846,7 @@
         <v>43341</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -12903,7 +12903,7 @@
         <v>43360</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -12960,7 +12960,7 @@
         <v>43395</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -13017,7 +13017,7 @@
         <v>43396</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -13074,7 +13074,7 @@
         <v>43398</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -13131,7 +13131,7 @@
         <v>43398</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -13188,7 +13188,7 @@
         <v>43398</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -13245,7 +13245,7 @@
         <v>43403</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -13307,7 +13307,7 @@
         <v>43403</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -13369,7 +13369,7 @@
         <v>43403</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -13431,7 +13431,7 @@
         <v>43405</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -13493,7 +13493,7 @@
         <v>43406</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -13555,7 +13555,7 @@
         <v>43410</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -13617,7 +13617,7 @@
         <v>43411</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -13674,7 +13674,7 @@
         <v>43411</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -13736,7 +13736,7 @@
         <v>43411</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -13798,7 +13798,7 @@
         <v>43411</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -13860,7 +13860,7 @@
         <v>43411</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -13922,7 +13922,7 @@
         <v>43411</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -13984,7 +13984,7 @@
         <v>43411</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -14041,7 +14041,7 @@
         <v>43413</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -14098,7 +14098,7 @@
         <v>43418</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -14155,7 +14155,7 @@
         <v>43419</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -14212,7 +14212,7 @@
         <v>43423</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -14269,7 +14269,7 @@
         <v>43423</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -14326,7 +14326,7 @@
         <v>43427</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -14383,7 +14383,7 @@
         <v>43427</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -14440,7 +14440,7 @@
         <v>43431</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -14497,7 +14497,7 @@
         <v>43431</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -14559,7 +14559,7 @@
         <v>43431</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -14621,7 +14621,7 @@
         <v>43437</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -14683,7 +14683,7 @@
         <v>43438</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -14740,7 +14740,7 @@
         <v>43440</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -14797,7 +14797,7 @@
         <v>43444</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -14854,7 +14854,7 @@
         <v>43448</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -14911,7 +14911,7 @@
         <v>43461</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -14968,7 +14968,7 @@
         <v>43461</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -15025,7 +15025,7 @@
         <v>43467</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -15082,7 +15082,7 @@
         <v>43467</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -15139,7 +15139,7 @@
         <v>43473</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -15196,7 +15196,7 @@
         <v>43473</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -15253,7 +15253,7 @@
         <v>43474</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -15310,7 +15310,7 @@
         <v>43481</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -15367,7 +15367,7 @@
         <v>43481</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -15424,7 +15424,7 @@
         <v>43483</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -15481,7 +15481,7 @@
         <v>43495</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -15538,7 +15538,7 @@
         <v>43496</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -15600,7 +15600,7 @@
         <v>43509</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -15657,7 +15657,7 @@
         <v>43510</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -15714,7 +15714,7 @@
         <v>43515</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -15771,7 +15771,7 @@
         <v>43530</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -15828,7 +15828,7 @@
         <v>43537</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -15890,7 +15890,7 @@
         <v>43538</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -15947,7 +15947,7 @@
         <v>43542</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -16004,7 +16004,7 @@
         <v>43543</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -16061,7 +16061,7 @@
         <v>43551</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -16118,7 +16118,7 @@
         <v>43551</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -16175,7 +16175,7 @@
         <v>43552</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -16232,7 +16232,7 @@
         <v>43563</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -16289,7 +16289,7 @@
         <v>43565</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -16346,7 +16346,7 @@
         <v>43578</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -16408,7 +16408,7 @@
         <v>43584</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -16465,7 +16465,7 @@
         <v>43589</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -16522,7 +16522,7 @@
         <v>43594</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -16579,7 +16579,7 @@
         <v>43594</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -16641,7 +16641,7 @@
         <v>43622</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -16703,7 +16703,7 @@
         <v>43633</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -16760,7 +16760,7 @@
         <v>43633</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -16817,7 +16817,7 @@
         <v>43640</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -16879,7 +16879,7 @@
         <v>43641</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -16941,7 +16941,7 @@
         <v>43641</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -17003,7 +17003,7 @@
         <v>43643</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -17065,7 +17065,7 @@
         <v>43650</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -17127,7 +17127,7 @@
         <v>43651</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -17184,7 +17184,7 @@
         <v>43654</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -17246,7 +17246,7 @@
         <v>43654</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -17308,7 +17308,7 @@
         <v>43656</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -17370,7 +17370,7 @@
         <v>43669</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -17427,7 +17427,7 @@
         <v>43678</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -17489,7 +17489,7 @@
         <v>43704</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -17551,7 +17551,7 @@
         <v>43704</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -17613,7 +17613,7 @@
         <v>43704</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -17675,7 +17675,7 @@
         <v>43706</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -17732,7 +17732,7 @@
         <v>43706</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -17789,7 +17789,7 @@
         <v>43713</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -17846,7 +17846,7 @@
         <v>43713</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -17903,7 +17903,7 @@
         <v>43728</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -17965,7 +17965,7 @@
         <v>43733</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -18022,7 +18022,7 @@
         <v>43733</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -18079,7 +18079,7 @@
         <v>43735</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -18136,7 +18136,7 @@
         <v>43740</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -18193,7 +18193,7 @@
         <v>43742</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -18250,7 +18250,7 @@
         <v>43746</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -18307,7 +18307,7 @@
         <v>43756</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -18364,7 +18364,7 @@
         <v>43759</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -18421,7 +18421,7 @@
         <v>43760</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -18478,7 +18478,7 @@
         <v>43768</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -18535,7 +18535,7 @@
         <v>43768</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -18597,7 +18597,7 @@
         <v>43770</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -18659,7 +18659,7 @@
         <v>43770</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -18721,7 +18721,7 @@
         <v>43773</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -18778,7 +18778,7 @@
         <v>43773</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -18840,7 +18840,7 @@
         <v>43773</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -18897,7 +18897,7 @@
         <v>43775</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -18954,7 +18954,7 @@
         <v>43777</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -19016,7 +19016,7 @@
         <v>43782</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -19073,7 +19073,7 @@
         <v>43783</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -19130,7 +19130,7 @@
         <v>43788</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -19207,7 +19207,7 @@
         <v>43791</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -19264,7 +19264,7 @@
         <v>43797</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -19321,7 +19321,7 @@
         <v>43797</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -19378,7 +19378,7 @@
         <v>43803</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -19435,7 +19435,7 @@
         <v>43805</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -19492,7 +19492,7 @@
         <v>43812</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -19549,7 +19549,7 @@
         <v>43818</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -19606,7 +19606,7 @@
         <v>43819</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -19663,7 +19663,7 @@
         <v>43833</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -19720,7 +19720,7 @@
         <v>43847</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -19777,7 +19777,7 @@
         <v>43850</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -19834,7 +19834,7 @@
         <v>43861</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -19891,7 +19891,7 @@
         <v>43868</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -19948,7 +19948,7 @@
         <v>43872</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -20005,7 +20005,7 @@
         <v>43873</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -20062,7 +20062,7 @@
         <v>43880</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -20119,7 +20119,7 @@
         <v>43881</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -20181,7 +20181,7 @@
         <v>43882</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -20238,7 +20238,7 @@
         <v>43887</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -20295,7 +20295,7 @@
         <v>43896</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -20377,7 +20377,7 @@
         <v>43900</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -20434,7 +20434,7 @@
         <v>43901</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -20491,7 +20491,7 @@
         <v>43902</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -20553,7 +20553,7 @@
         <v>43907</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -20610,7 +20610,7 @@
         <v>43910</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -20667,7 +20667,7 @@
         <v>43910</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -20724,7 +20724,7 @@
         <v>43913</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -20781,7 +20781,7 @@
         <v>43916</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -20838,7 +20838,7 @@
         <v>43923</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -20895,7 +20895,7 @@
         <v>43943</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -20952,7 +20952,7 @@
         <v>43948</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -21009,7 +21009,7 @@
         <v>43949</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -21071,7 +21071,7 @@
         <v>43951</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -21128,7 +21128,7 @@
         <v>43955</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -21190,7 +21190,7 @@
         <v>43955</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -21252,7 +21252,7 @@
         <v>43955</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -21314,7 +21314,7 @@
         <v>43955</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -21376,7 +21376,7 @@
         <v>43956</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -21438,7 +21438,7 @@
         <v>43957</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -21495,7 +21495,7 @@
         <v>43965</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -21552,7 +21552,7 @@
         <v>43969</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -21614,7 +21614,7 @@
         <v>43971</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -21671,7 +21671,7 @@
         <v>43971</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -21728,7 +21728,7 @@
         <v>43977</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -21790,7 +21790,7 @@
         <v>43979</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -21847,7 +21847,7 @@
         <v>43984</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -21909,7 +21909,7 @@
         <v>43984</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -21971,7 +21971,7 @@
         <v>43986</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -22033,7 +22033,7 @@
         <v>43986</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -22095,7 +22095,7 @@
         <v>43990</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -22157,7 +22157,7 @@
         <v>43992</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -22214,7 +22214,7 @@
         <v>43999</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -22276,7 +22276,7 @@
         <v>44000</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -22333,7 +22333,7 @@
         <v>44004</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -22395,7 +22395,7 @@
         <v>44006</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -22457,7 +22457,7 @@
         <v>44011</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -22519,7 +22519,7 @@
         <v>44013</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -22581,7 +22581,7 @@
         <v>44013</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -22643,7 +22643,7 @@
         <v>44013</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -22705,7 +22705,7 @@
         <v>44019</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -22767,7 +22767,7 @@
         <v>44026</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -22824,7 +22824,7 @@
         <v>44027</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -22886,7 +22886,7 @@
         <v>44029</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -22948,7 +22948,7 @@
         <v>44029</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -23005,7 +23005,7 @@
         <v>44040</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -23062,7 +23062,7 @@
         <v>44041</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -23124,7 +23124,7 @@
         <v>44051</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -23181,7 +23181,7 @@
         <v>44051</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -23238,7 +23238,7 @@
         <v>44055</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -23295,7 +23295,7 @@
         <v>44056</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -23352,7 +23352,7 @@
         <v>44057</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -23409,7 +23409,7 @@
         <v>44057</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -23471,7 +23471,7 @@
         <v>44062</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -23533,7 +23533,7 @@
         <v>44063</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -23595,7 +23595,7 @@
         <v>44067</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -23657,7 +23657,7 @@
         <v>44069</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -23719,7 +23719,7 @@
         <v>44071</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -23781,7 +23781,7 @@
         <v>44074</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -23843,7 +23843,7 @@
         <v>44074</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -23905,7 +23905,7 @@
         <v>44074</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -23967,7 +23967,7 @@
         <v>44075</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -24029,7 +24029,7 @@
         <v>44078</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -24086,7 +24086,7 @@
         <v>44082</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -24148,7 +24148,7 @@
         <v>44084</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -24210,7 +24210,7 @@
         <v>44084</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -24267,7 +24267,7 @@
         <v>44084</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -24324,7 +24324,7 @@
         <v>44090</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -24381,7 +24381,7 @@
         <v>44095</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -24438,7 +24438,7 @@
         <v>44096</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -24500,7 +24500,7 @@
         <v>44096</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -24562,7 +24562,7 @@
         <v>44098</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -24619,7 +24619,7 @@
         <v>44099</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -24681,7 +24681,7 @@
         <v>44103</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -24743,7 +24743,7 @@
         <v>44106</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -24800,7 +24800,7 @@
         <v>44111</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -24857,7 +24857,7 @@
         <v>44111</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -24914,7 +24914,7 @@
         <v>44111</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -24971,7 +24971,7 @@
         <v>44113</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -25033,7 +25033,7 @@
         <v>44124</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -25090,7 +25090,7 @@
         <v>44126</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -25147,7 +25147,7 @@
         <v>44132</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -25209,7 +25209,7 @@
         <v>44134</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -25266,7 +25266,7 @@
         <v>44137</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -25323,7 +25323,7 @@
         <v>44138</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -25380,7 +25380,7 @@
         <v>44140</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -25442,7 +25442,7 @@
         <v>44140</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -25504,7 +25504,7 @@
         <v>44140</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -25566,7 +25566,7 @@
         <v>44140</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -25628,7 +25628,7 @@
         <v>44141</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -25690,7 +25690,7 @@
         <v>44153</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -25747,7 +25747,7 @@
         <v>44153</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -25809,7 +25809,7 @@
         <v>44155</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -25866,7 +25866,7 @@
         <v>44157</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -25923,7 +25923,7 @@
         <v>44159</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -25985,7 +25985,7 @@
         <v>44165</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -26047,7 +26047,7 @@
         <v>44167</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -26109,7 +26109,7 @@
         <v>44168</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -26166,7 +26166,7 @@
         <v>44172</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -26228,7 +26228,7 @@
         <v>44173</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -26285,7 +26285,7 @@
         <v>44174</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -26347,7 +26347,7 @@
         <v>44175</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -26409,7 +26409,7 @@
         <v>44188</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -26471,7 +26471,7 @@
         <v>44194</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -26528,7 +26528,7 @@
         <v>44195</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -26585,7 +26585,7 @@
         <v>44210</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -26642,7 +26642,7 @@
         <v>44214</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -26699,7 +26699,7 @@
         <v>44218</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -26756,7 +26756,7 @@
         <v>44225</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -26813,7 +26813,7 @@
         <v>44228</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -26870,7 +26870,7 @@
         <v>44229</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -26927,7 +26927,7 @@
         <v>44230</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -26989,7 +26989,7 @@
         <v>44231</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -27046,7 +27046,7 @@
         <v>44231</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -27103,7 +27103,7 @@
         <v>44236</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -27160,7 +27160,7 @@
         <v>44239</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -27222,7 +27222,7 @@
         <v>44242</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -27284,7 +27284,7 @@
         <v>44243</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -27341,7 +27341,7 @@
         <v>44245</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -27398,7 +27398,7 @@
         <v>44259</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -27455,7 +27455,7 @@
         <v>44259</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -27512,7 +27512,7 @@
         <v>44273</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -27569,7 +27569,7 @@
         <v>44280</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -27626,7 +27626,7 @@
         <v>44280</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -27683,7 +27683,7 @@
         <v>44281</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -27745,7 +27745,7 @@
         <v>44286</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -27802,7 +27802,7 @@
         <v>44286</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -27859,7 +27859,7 @@
         <v>44287</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -27916,7 +27916,7 @@
         <v>44292</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -27973,7 +27973,7 @@
         <v>44298</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -28030,7 +28030,7 @@
         <v>44299</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -28087,7 +28087,7 @@
         <v>44308</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -28144,7 +28144,7 @@
         <v>44308</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -28201,7 +28201,7 @@
         <v>44308</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -28258,7 +28258,7 @@
         <v>44308</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -28315,7 +28315,7 @@
         <v>44315</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -28377,7 +28377,7 @@
         <v>44322</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -28434,7 +28434,7 @@
         <v>44323</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -28496,7 +28496,7 @@
         <v>44332</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -28558,7 +28558,7 @@
         <v>44336</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -28615,7 +28615,7 @@
         <v>44336</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -28672,7 +28672,7 @@
         <v>44349</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -28729,7 +28729,7 @@
         <v>44351</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -28791,7 +28791,7 @@
         <v>44351</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -28853,7 +28853,7 @@
         <v>44356</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -28910,7 +28910,7 @@
         <v>44357</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -28967,7 +28967,7 @@
         <v>44362</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -29024,7 +29024,7 @@
         <v>44362</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -29081,7 +29081,7 @@
         <v>44368</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -29138,7 +29138,7 @@
         <v>44375</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -29195,7 +29195,7 @@
         <v>44379</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -29252,7 +29252,7 @@
         <v>44384</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -29309,7 +29309,7 @@
         <v>44385</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -29366,7 +29366,7 @@
         <v>44396</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -29423,7 +29423,7 @@
         <v>44405</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -29480,7 +29480,7 @@
         <v>44410</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -29537,7 +29537,7 @@
         <v>44413</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -29594,7 +29594,7 @@
         <v>44424</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -29651,7 +29651,7 @@
         <v>44425</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -29713,7 +29713,7 @@
         <v>44425</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -29775,7 +29775,7 @@
         <v>44425</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -29837,7 +29837,7 @@
         <v>44431</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -29894,7 +29894,7 @@
         <v>44434</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -29951,7 +29951,7 @@
         <v>44441</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -30008,7 +30008,7 @@
         <v>44443</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -30065,7 +30065,7 @@
         <v>44448</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -30122,7 +30122,7 @@
         <v>44452</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -30179,7 +30179,7 @@
         <v>44453</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -30236,7 +30236,7 @@
         <v>44466</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -30298,7 +30298,7 @@
         <v>44475</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -30355,7 +30355,7 @@
         <v>44476</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -30417,7 +30417,7 @@
         <v>44480</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -30474,7 +30474,7 @@
         <v>44495</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -30536,7 +30536,7 @@
         <v>44496</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -30593,7 +30593,7 @@
         <v>44505</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -30655,7 +30655,7 @@
         <v>44505</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -30717,7 +30717,7 @@
         <v>44511</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -30774,7 +30774,7 @@
         <v>44512</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -30831,7 +30831,7 @@
         <v>44517</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -30888,7 +30888,7 @@
         <v>44517</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -30945,7 +30945,7 @@
         <v>44518</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -31002,7 +31002,7 @@
         <v>44518</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -31064,7 +31064,7 @@
         <v>44530</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -31121,7 +31121,7 @@
         <v>44536</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -31178,7 +31178,7 @@
         <v>44537</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -31235,7 +31235,7 @@
         <v>44538</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -31292,7 +31292,7 @@
         <v>44571</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -31349,7 +31349,7 @@
         <v>44573</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -31406,7 +31406,7 @@
         <v>44574</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -31463,7 +31463,7 @@
         <v>44574</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -31520,7 +31520,7 @@
         <v>44578</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -31577,7 +31577,7 @@
         <v>44586</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -31634,7 +31634,7 @@
         <v>44593</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -31691,7 +31691,7 @@
         <v>44595</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -31748,7 +31748,7 @@
         <v>44599</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -31805,7 +31805,7 @@
         <v>44601</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -31862,7 +31862,7 @@
         <v>44601</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -31919,7 +31919,7 @@
         <v>44601</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -31976,7 +31976,7 @@
         <v>44606</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -32033,7 +32033,7 @@
         <v>44609</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -32095,7 +32095,7 @@
         <v>44614</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -32152,7 +32152,7 @@
         <v>44614</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -32209,7 +32209,7 @@
         <v>44614</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -32266,7 +32266,7 @@
         <v>44614</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -32323,7 +32323,7 @@
         <v>44614</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -32380,7 +32380,7 @@
         <v>44615</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -32437,7 +32437,7 @@
         <v>44615</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -32494,7 +32494,7 @@
         <v>44621</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -32551,7 +32551,7 @@
         <v>44627</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -32608,7 +32608,7 @@
         <v>44628</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -32665,7 +32665,7 @@
         <v>44629</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -32722,7 +32722,7 @@
         <v>44635</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -32784,7 +32784,7 @@
         <v>44641</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -32846,7 +32846,7 @@
         <v>44641</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -32908,7 +32908,7 @@
         <v>44644</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -32970,7 +32970,7 @@
         <v>44644</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -33032,7 +33032,7 @@
         <v>44649</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -33094,7 +33094,7 @@
         <v>44650</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -33151,7 +33151,7 @@
         <v>44650</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -33208,7 +33208,7 @@
         <v>44652</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -33270,7 +33270,7 @@
         <v>44655</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -33332,7 +33332,7 @@
         <v>44655</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -33394,7 +33394,7 @@
         <v>44656</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -33456,7 +33456,7 @@
         <v>44656</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -33518,7 +33518,7 @@
         <v>44657</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -33575,7 +33575,7 @@
         <v>44662</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -33637,7 +33637,7 @@
         <v>44663</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -33699,7 +33699,7 @@
         <v>44663</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -33761,7 +33761,7 @@
         <v>44670</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -33823,7 +33823,7 @@
         <v>44670</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -33880,7 +33880,7 @@
         <v>44670</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -33937,7 +33937,7 @@
         <v>44671</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -33994,7 +33994,7 @@
         <v>44671</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -34051,7 +34051,7 @@
         <v>44679</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -34108,7 +34108,7 @@
         <v>44680</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -34165,7 +34165,7 @@
         <v>44685</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -34222,7 +34222,7 @@
         <v>44685</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -34279,7 +34279,7 @@
         <v>44685</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -34341,7 +34341,7 @@
         <v>44686</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -34398,7 +34398,7 @@
         <v>44690</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -34455,7 +34455,7 @@
         <v>44690</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -34517,7 +34517,7 @@
         <v>44690</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -34579,7 +34579,7 @@
         <v>44690</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -34636,7 +34636,7 @@
         <v>44690</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -34698,7 +34698,7 @@
         <v>44690</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -34760,7 +34760,7 @@
         <v>44704</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -34817,7 +34817,7 @@
         <v>44705</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -34874,7 +34874,7 @@
         <v>44706</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -34931,7 +34931,7 @@
         <v>44714</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -34988,7 +34988,7 @@
         <v>44714</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -35050,7 +35050,7 @@
         <v>44714</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -35107,7 +35107,7 @@
         <v>44725</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -35164,7 +35164,7 @@
         <v>44727</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -35226,7 +35226,7 @@
         <v>44732</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -35283,7 +35283,7 @@
         <v>44734</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -35340,7 +35340,7 @@
         <v>44734</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -35402,7 +35402,7 @@
         <v>44741</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -35459,7 +35459,7 @@
         <v>44743</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -35516,7 +35516,7 @@
         <v>44746</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -35573,7 +35573,7 @@
         <v>44746</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -35635,7 +35635,7 @@
         <v>44761</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -35712,7 +35712,7 @@
         <v>44774</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -35769,7 +35769,7 @@
         <v>44774</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -35826,7 +35826,7 @@
         <v>44776</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -35888,7 +35888,7 @@
         <v>44776</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -35950,7 +35950,7 @@
         <v>44777</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -36012,7 +36012,7 @@
         <v>44778</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -36074,7 +36074,7 @@
         <v>44781</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -36131,7 +36131,7 @@
         <v>44782</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -36193,7 +36193,7 @@
         <v>44783</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -36255,7 +36255,7 @@
         <v>44788</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -36312,7 +36312,7 @@
         <v>44788</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -36369,7 +36369,7 @@
         <v>44791</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -36431,7 +36431,7 @@
         <v>44797</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -36493,7 +36493,7 @@
         <v>44798</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -36555,7 +36555,7 @@
         <v>44799</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -36617,7 +36617,7 @@
         <v>44802</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -36674,7 +36674,7 @@
         <v>44802</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -36736,7 +36736,7 @@
         <v>44804</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -36793,7 +36793,7 @@
         <v>44804</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -36855,7 +36855,7 @@
         <v>44805</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -36917,7 +36917,7 @@
         <v>44805</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -36979,7 +36979,7 @@
         <v>44806</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -37036,7 +37036,7 @@
         <v>44812</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -37098,7 +37098,7 @@
         <v>44813</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -37160,7 +37160,7 @@
         <v>44813</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -37222,7 +37222,7 @@
         <v>44815</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -37284,7 +37284,7 @@
         <v>44816</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -37346,7 +37346,7 @@
         <v>44816</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -37408,7 +37408,7 @@
         <v>44817</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -37470,7 +37470,7 @@
         <v>44818</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -37532,7 +37532,7 @@
         <v>44818</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -37589,7 +37589,7 @@
         <v>44820</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -37651,7 +37651,7 @@
         <v>44820</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -37708,7 +37708,7 @@
         <v>44820</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -37770,7 +37770,7 @@
         <v>44820</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -37832,7 +37832,7 @@
         <v>44823</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -37889,7 +37889,7 @@
         <v>44823</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -37946,7 +37946,7 @@
         <v>44825</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -38008,7 +38008,7 @@
         <v>44825</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -38070,7 +38070,7 @@
         <v>44830</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -38132,7 +38132,7 @@
         <v>44831</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -38194,7 +38194,7 @@
         <v>44831</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -38256,7 +38256,7 @@
         <v>44832</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -38318,7 +38318,7 @@
         <v>44832</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -38380,7 +38380,7 @@
         <v>44832</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -38442,7 +38442,7 @@
         <v>44837</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -38504,7 +38504,7 @@
         <v>44837</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -38566,7 +38566,7 @@
         <v>44838</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -38628,7 +38628,7 @@
         <v>44839</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -38685,7 +38685,7 @@
         <v>44839</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -38742,7 +38742,7 @@
         <v>44840</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -38804,7 +38804,7 @@
         <v>44841</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -38861,7 +38861,7 @@
         <v>44844</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -38923,7 +38923,7 @@
         <v>44845</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -38985,7 +38985,7 @@
         <v>44845</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -39047,7 +39047,7 @@
         <v>44845</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -39109,7 +39109,7 @@
         <v>44845</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -39171,7 +39171,7 @@
         <v>44846</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -39233,7 +39233,7 @@
         <v>44846</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -39295,7 +39295,7 @@
         <v>44852</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -39357,7 +39357,7 @@
         <v>44852</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -39419,7 +39419,7 @@
         <v>44852</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -39481,7 +39481,7 @@
         <v>44852</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -39543,7 +39543,7 @@
         <v>44853</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -39605,7 +39605,7 @@
         <v>44854</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -39667,7 +39667,7 @@
         <v>44855</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -39729,7 +39729,7 @@
         <v>44855</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -39791,7 +39791,7 @@
         <v>44855</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -39853,7 +39853,7 @@
         <v>44858</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -39915,7 +39915,7 @@
         <v>44858</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -39977,7 +39977,7 @@
         <v>44860</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -40039,7 +40039,7 @@
         <v>44860</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -40101,7 +40101,7 @@
         <v>44861</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -40163,7 +40163,7 @@
         <v>44861</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -40225,7 +40225,7 @@
         <v>44865</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -40282,7 +40282,7 @@
         <v>44865</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -40339,7 +40339,7 @@
         <v>44866</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -40401,7 +40401,7 @@
         <v>44866</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -40463,7 +40463,7 @@
         <v>44866</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -40525,7 +40525,7 @@
         <v>44867</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -40587,7 +40587,7 @@
         <v>44869</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -40644,7 +40644,7 @@
         <v>44869</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -40701,7 +40701,7 @@
         <v>44869</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -40758,7 +40758,7 @@
         <v>44874</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -40815,7 +40815,7 @@
         <v>44876</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -40877,7 +40877,7 @@
         <v>44879</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -40939,7 +40939,7 @@
         <v>44880</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -41001,7 +41001,7 @@
         <v>44880</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -41063,7 +41063,7 @@
         <v>44881</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -41120,7 +41120,7 @@
         <v>44883</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -41182,7 +41182,7 @@
         <v>44883</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -41244,7 +41244,7 @@
         <v>44886</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -41306,7 +41306,7 @@
         <v>44887</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -41363,7 +41363,7 @@
         <v>44887</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -41420,7 +41420,7 @@
         <v>44887</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -41477,7 +41477,7 @@
         <v>44888</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -41539,7 +41539,7 @@
         <v>44889</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -41601,7 +41601,7 @@
         <v>44889</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -41658,7 +41658,7 @@
         <v>44889</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -41720,7 +41720,7 @@
         <v>44893</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -41777,7 +41777,7 @@
         <v>44894</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -41834,7 +41834,7 @@
         <v>44895</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -41896,7 +41896,7 @@
         <v>44896</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -41953,7 +41953,7 @@
         <v>44897</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -42010,7 +42010,7 @@
         <v>44897</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -42072,7 +42072,7 @@
         <v>44900</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -42134,7 +42134,7 @@
         <v>44901</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -42196,7 +42196,7 @@
         <v>44901</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -42258,7 +42258,7 @@
         <v>44901</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -42320,7 +42320,7 @@
         <v>44903</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -42377,7 +42377,7 @@
         <v>44903</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -42439,7 +42439,7 @@
         <v>44904</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -42501,7 +42501,7 @@
         <v>44909</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -42563,7 +42563,7 @@
         <v>44911</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -42625,7 +42625,7 @@
         <v>44911</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -42687,7 +42687,7 @@
         <v>44913</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -42749,7 +42749,7 @@
         <v>44914</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -42806,7 +42806,7 @@
         <v>44914</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -42868,7 +42868,7 @@
         <v>44915</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -42925,7 +42925,7 @@
         <v>44915</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -42987,7 +42987,7 @@
         <v>44917</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -43049,7 +43049,7 @@
         <v>44917</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -43106,7 +43106,7 @@
         <v>44918</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -43168,7 +43168,7 @@
         <v>44922</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -43225,7 +43225,7 @@
         <v>44927</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -43287,7 +43287,7 @@
         <v>44929</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -43344,7 +43344,7 @@
         <v>44929</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -43401,7 +43401,7 @@
         <v>44929</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -43458,7 +43458,7 @@
         <v>44938</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -43520,7 +43520,7 @@
         <v>44938</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -43582,7 +43582,7 @@
         <v>44939</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -43644,7 +43644,7 @@
         <v>44939</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -43706,7 +43706,7 @@
         <v>44942</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -43763,7 +43763,7 @@
         <v>44942</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -43825,7 +43825,7 @@
         <v>44942</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -43882,7 +43882,7 @@
         <v>44942</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -43944,7 +43944,7 @@
         <v>44944</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -44001,7 +44001,7 @@
         <v>44953</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -44063,7 +44063,7 @@
         <v>44953</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -44125,7 +44125,7 @@
         <v>44956</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -44187,7 +44187,7 @@
         <v>44957</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -44249,7 +44249,7 @@
         <v>44958</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -44306,7 +44306,7 @@
         <v>44958</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -44363,7 +44363,7 @@
         <v>44958</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -44425,7 +44425,7 @@
         <v>44959</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -44482,7 +44482,7 @@
         <v>44963</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -44539,7 +44539,7 @@
         <v>44963</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -44601,7 +44601,7 @@
         <v>44965</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -44663,7 +44663,7 @@
         <v>44966</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -44725,7 +44725,7 @@
         <v>44966</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -44787,7 +44787,7 @@
         <v>44967</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -44849,7 +44849,7 @@
         <v>44971</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -44911,7 +44911,7 @@
         <v>44978</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -44973,7 +44973,7 @@
         <v>44979</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -45030,7 +45030,7 @@
         <v>44979</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -45087,7 +45087,7 @@
         <v>44979</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -45149,7 +45149,7 @@
         <v>44980</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -45206,7 +45206,7 @@
         <v>44984</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -45263,7 +45263,7 @@
         <v>44986</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -45320,7 +45320,7 @@
         <v>44987</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -45382,7 +45382,7 @@
         <v>44991</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -45444,7 +45444,7 @@
         <v>44991</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -45506,7 +45506,7 @@
         <v>44991</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -45568,7 +45568,7 @@
         <v>44991</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -45630,7 +45630,7 @@
         <v>44992</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -45687,7 +45687,7 @@
         <v>44993</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -45749,7 +45749,7 @@
         <v>44993</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -45811,7 +45811,7 @@
         <v>44993</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -45873,7 +45873,7 @@
         <v>44993</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -45930,7 +45930,7 @@
         <v>44995</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -45992,7 +45992,7 @@
         <v>44995</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -46054,7 +46054,7 @@
         <v>44995</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -46116,7 +46116,7 @@
         <v>45000</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -46173,7 +46173,7 @@
         <v>45000</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -46235,7 +46235,7 @@
         <v>45000</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -46297,7 +46297,7 @@
         <v>45000</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -46359,7 +46359,7 @@
         <v>45000</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -46421,7 +46421,7 @@
         <v>45002</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -46478,7 +46478,7 @@
         <v>45006</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -46540,7 +46540,7 @@
         <v>45007</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -46597,7 +46597,7 @@
         <v>45009</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -46654,7 +46654,7 @@
         <v>45009</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -46711,7 +46711,7 @@
         <v>45015</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -46773,7 +46773,7 @@
         <v>45015</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -46835,7 +46835,7 @@
         <v>45015</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -46892,7 +46892,7 @@
         <v>45015</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -46949,7 +46949,7 @@
         <v>45016</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -47006,7 +47006,7 @@
         <v>45016</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -47063,7 +47063,7 @@
         <v>45028</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -47120,7 +47120,7 @@
         <v>45033</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -47177,7 +47177,7 @@
         <v>45034</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -47234,7 +47234,7 @@
         <v>45040</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -47291,7 +47291,7 @@
         <v>45042</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -47348,7 +47348,7 @@
         <v>45044</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -47410,7 +47410,7 @@
         <v>45048</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -47472,7 +47472,7 @@
         <v>45048</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -47534,7 +47534,7 @@
         <v>45049</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -47596,7 +47596,7 @@
         <v>45050</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -47658,7 +47658,7 @@
         <v>45054</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -47720,7 +47720,7 @@
         <v>45056</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -47777,7 +47777,7 @@
         <v>45056</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -47834,7 +47834,7 @@
         <v>45063</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -47891,7 +47891,7 @@
         <v>45063</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -47948,7 +47948,7 @@
         <v>45068</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -48010,7 +48010,7 @@
         <v>45069</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -48067,7 +48067,7 @@
         <v>45070</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -48124,7 +48124,7 @@
         <v>45070</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -48181,7 +48181,7 @@
         <v>45070</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -48243,7 +48243,7 @@
         <v>45071</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -48300,7 +48300,7 @@
         <v>45071</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -48357,7 +48357,7 @@
         <v>45078</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -48414,7 +48414,7 @@
         <v>45078</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -48471,7 +48471,7 @@
         <v>45078</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -48528,7 +48528,7 @@
         <v>45079</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -48590,7 +48590,7 @@
         <v>45084</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -48647,7 +48647,7 @@
         <v>45085</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -48704,7 +48704,7 @@
         <v>45086</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -48761,7 +48761,7 @@
         <v>45086</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -48823,7 +48823,7 @@
         <v>45089</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -48880,7 +48880,7 @@
         <v>45089</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -48937,7 +48937,7 @@
         <v>45089</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -48999,7 +48999,7 @@
         <v>45089</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -49056,7 +49056,7 @@
         <v>45090</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -49113,7 +49113,7 @@
         <v>45091</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -49175,7 +49175,7 @@
         <v>45092</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -49232,7 +49232,7 @@
         <v>45092</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -49289,7 +49289,7 @@
         <v>45092</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -49346,7 +49346,7 @@
         <v>45092</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -49403,7 +49403,7 @@
         <v>45093</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -49460,7 +49460,7 @@
         <v>45093</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -49517,7 +49517,7 @@
         <v>45096</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -49574,7 +49574,7 @@
         <v>45096</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -49631,7 +49631,7 @@
         <v>45098</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -49688,7 +49688,7 @@
         <v>45098</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -49745,7 +49745,7 @@
         <v>45103</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -49802,7 +49802,7 @@
         <v>45103</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -49859,7 +49859,7 @@
         <v>45104</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -49916,7 +49916,7 @@
         <v>45105</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -49978,7 +49978,7 @@
         <v>45107</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -50035,7 +50035,7 @@
         <v>45107</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -50092,7 +50092,7 @@
         <v>45111</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -50149,7 +50149,7 @@
         <v>45112</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -50211,7 +50211,7 @@
         <v>45112</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -50273,7 +50273,7 @@
         <v>45121</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -50330,7 +50330,7 @@
         <v>45138</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -50392,7 +50392,7 @@
         <v>45146</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -50449,7 +50449,7 @@
         <v>45148</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -50506,7 +50506,7 @@
         <v>45148</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -50563,7 +50563,7 @@
         <v>45149</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -50620,7 +50620,7 @@
         <v>45153</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -50677,7 +50677,7 @@
         <v>45153</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -50734,7 +50734,7 @@
         <v>45166</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>

--- a/Översikt RAGUNDA.xlsx
+++ b/Översikt RAGUNDA.xlsx
@@ -572,7 +572,7 @@
         <v>44874</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -699,7 +699,7 @@
         <v>43865</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>44894</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         <v>44917</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
         <v>43865</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1145,7 +1145,7 @@
         <v>44504</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1256,7 +1256,7 @@
         <v>44644</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1362,7 +1362,7 @@
         <v>43866</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1466,7 +1466,7 @@
         <v>44504</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1575,7 +1575,7 @@
         <v>44473</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1678,7 +1678,7 @@
         <v>44088</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1784,7 +1784,7 @@
         <v>44151</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1881,7 +1881,7 @@
         <v>44644</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1983,7 +1983,7 @@
         <v>44838</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2080,7 +2080,7 @@
         <v>43900</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2181,7 +2181,7 @@
         <v>44062</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2282,7 +2282,7 @@
         <v>45104</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2383,7 +2383,7 @@
         <v>43910</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2487,7 +2487,7 @@
         <v>44776</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2591,7 +2591,7 @@
         <v>44645</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2690,7 +2690,7 @@
         <v>44888</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2789,7 +2789,7 @@
         <v>43353</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2887,7 +2887,7 @@
         <v>44504</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2985,7 +2985,7 @@
         <v>45113</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3083,7 +3083,7 @@
         <v>44133</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3180,7 +3180,7 @@
         <v>44644</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3277,7 +3277,7 @@
         <v>44901</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3378,7 +3378,7 @@
         <v>45113</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3475,7 +3475,7 @@
         <v>43411</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3571,7 +3571,7 @@
         <v>43413</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3667,7 +3667,7 @@
         <v>44133</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         <v>44336</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3854,7 +3854,7 @@
         <v>44438</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3950,7 +3950,7 @@
         <v>44662</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4046,7 +4046,7 @@
         <v>44804</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4142,7 +4142,7 @@
         <v>44915</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4242,7 +4242,7 @@
         <v>44953</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4333,7 +4333,7 @@
         <v>44994</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4433,7 +4433,7 @@
         <v>45009</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4524,7 +4524,7 @@
         <v>44209</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4614,7 +4614,7 @@
         <v>44875</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4709,7 +4709,7 @@
         <v>44876</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4804,7 +4804,7 @@
         <v>44911</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4899,7 +4899,7 @@
         <v>44932</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4994,7 +4994,7 @@
         <v>44994</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -5089,7 +5089,7 @@
         <v>45015</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5183,7 +5183,7 @@
         <v>45027</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5282,7 +5282,7 @@
         <v>45070</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5377,7 +5377,7 @@
         <v>44111</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5470,7 +5470,7 @@
         <v>44139</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5559,7 +5559,7 @@
         <v>44645</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5657,7 +5657,7 @@
         <v>44656</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5751,7 +5751,7 @@
         <v>44734</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5845,7 +5845,7 @@
         <v>44865</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5939,7 +5939,7 @@
         <v>44911</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -6033,7 +6033,7 @@
         <v>45054</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -6122,7 +6122,7 @@
         <v>45093</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6215,7 +6215,7 @@
         <v>43977</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6308,7 +6308,7 @@
         <v>44113</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6401,7 +6401,7 @@
         <v>44245</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6494,7 +6494,7 @@
         <v>44334</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6586,7 +6586,7 @@
         <v>44334</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6678,7 +6678,7 @@
         <v>44446</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6771,7 +6771,7 @@
         <v>44610</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6864,7 +6864,7 @@
         <v>44624</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6957,7 +6957,7 @@
         <v>44662</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -7050,7 +7050,7 @@
         <v>44677</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -7142,7 +7142,7 @@
         <v>44696</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -7235,7 +7235,7 @@
         <v>44732</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7332,7 +7332,7 @@
         <v>44911</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7425,7 +7425,7 @@
         <v>45034</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7518,7 +7518,7 @@
         <v>43817</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7609,7 +7609,7 @@
         <v>44111</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7701,7 +7701,7 @@
         <v>44421</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7793,7 +7793,7 @@
         <v>44740</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7880,7 +7880,7 @@
         <v>44855</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7976,7 +7976,7 @@
         <v>44855</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -8068,7 +8068,7 @@
         <v>44875</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -8160,7 +8160,7 @@
         <v>44902</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -8252,7 +8252,7 @@
         <v>44971</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -8344,7 +8344,7 @@
         <v>44987</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8435,7 +8435,7 @@
         <v>44987</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8522,7 +8522,7 @@
         <v>45049</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8614,7 +8614,7 @@
         <v>43329</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8700,7 +8700,7 @@
         <v>43411</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8786,7 +8786,7 @@
         <v>43707</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8876,7 +8876,7 @@
         <v>43948</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8962,7 +8962,7 @@
         <v>44676</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -9053,7 +9053,7 @@
         <v>44680</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -9139,7 +9139,7 @@
         <v>44855</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -9230,7 +9230,7 @@
         <v>44855</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -9321,7 +9321,7 @@
         <v>44860</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9412,7 +9412,7 @@
         <v>44973</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9503,7 +9503,7 @@
         <v>44980</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9589,7 +9589,7 @@
         <v>45005</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9680,7 +9680,7 @@
         <v>45121</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9771,7 +9771,7 @@
         <v>43515</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9856,7 +9856,7 @@
         <v>43619</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9946,7 +9946,7 @@
         <v>43650</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -10031,7 +10031,7 @@
         <v>43784</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -10121,7 +10121,7 @@
         <v>43791</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -10206,7 +10206,7 @@
         <v>43977</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -10296,7 +10296,7 @@
         <v>44012</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -10386,7 +10386,7 @@
         <v>44049</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -10476,7 +10476,7 @@
         <v>44062</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10566,7 +10566,7 @@
         <v>44098</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10656,7 +10656,7 @@
         <v>44119</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -10741,7 +10741,7 @@
         <v>44166</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10826,7 +10826,7 @@
         <v>44319</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10916,7 +10916,7 @@
         <v>44369</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -11001,7 +11001,7 @@
         <v>44462</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -11091,7 +11091,7 @@
         <v>44601</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -11176,7 +11176,7 @@
         <v>44607</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -11266,7 +11266,7 @@
         <v>44705</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -11351,7 +11351,7 @@
         <v>44741</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -11441,7 +11441,7 @@
         <v>44741</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -11526,7 +11526,7 @@
         <v>44830</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -11616,7 +11616,7 @@
         <v>44832</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -11706,7 +11706,7 @@
         <v>44855</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -11796,7 +11796,7 @@
         <v>44860</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -11881,7 +11881,7 @@
         <v>45033</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -11970,7 +11970,7 @@
         <v>45042</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -12055,7 +12055,7 @@
         <v>45044</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -12145,7 +12145,7 @@
         <v>45089</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -12230,7 +12230,7 @@
         <v>45097</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -12320,7 +12320,7 @@
         <v>45120</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -12410,7 +12410,7 @@
         <v>45121</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -12495,7 +12495,7 @@
         <v>45149</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -12585,7 +12585,7 @@
         <v>45153</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -12670,7 +12670,7 @@
         <v>43321</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -12727,7 +12727,7 @@
         <v>43322</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -12789,7 +12789,7 @@
         <v>43326</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -12846,7 +12846,7 @@
         <v>43341</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -12903,7 +12903,7 @@
         <v>43360</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -12960,7 +12960,7 @@
         <v>43395</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -13017,7 +13017,7 @@
         <v>43396</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -13074,7 +13074,7 @@
         <v>43398</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -13131,7 +13131,7 @@
         <v>43398</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -13188,7 +13188,7 @@
         <v>43398</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -13245,7 +13245,7 @@
         <v>43403</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -13307,7 +13307,7 @@
         <v>43403</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -13369,7 +13369,7 @@
         <v>43403</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -13431,7 +13431,7 @@
         <v>43405</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -13493,7 +13493,7 @@
         <v>43406</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -13555,7 +13555,7 @@
         <v>43410</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -13617,7 +13617,7 @@
         <v>43411</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -13674,7 +13674,7 @@
         <v>43411</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -13736,7 +13736,7 @@
         <v>43411</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -13798,7 +13798,7 @@
         <v>43411</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -13860,7 +13860,7 @@
         <v>43411</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -13922,7 +13922,7 @@
         <v>43411</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -13984,7 +13984,7 @@
         <v>43411</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -14041,7 +14041,7 @@
         <v>43413</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -14098,7 +14098,7 @@
         <v>43418</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -14155,7 +14155,7 @@
         <v>43419</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -14212,7 +14212,7 @@
         <v>43423</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -14269,7 +14269,7 @@
         <v>43423</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -14326,7 +14326,7 @@
         <v>43427</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -14383,7 +14383,7 @@
         <v>43427</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -14440,7 +14440,7 @@
         <v>43431</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -14497,7 +14497,7 @@
         <v>43431</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -14559,7 +14559,7 @@
         <v>43431</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -14621,7 +14621,7 @@
         <v>43437</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -14683,7 +14683,7 @@
         <v>43438</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -14740,7 +14740,7 @@
         <v>43440</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -14797,7 +14797,7 @@
         <v>43444</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -14854,7 +14854,7 @@
         <v>43448</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -14911,7 +14911,7 @@
         <v>43461</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -14968,7 +14968,7 @@
         <v>43461</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -15025,7 +15025,7 @@
         <v>43467</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -15082,7 +15082,7 @@
         <v>43467</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -15139,7 +15139,7 @@
         <v>43473</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -15196,7 +15196,7 @@
         <v>43473</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -15253,7 +15253,7 @@
         <v>43474</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -15310,7 +15310,7 @@
         <v>43481</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -15367,7 +15367,7 @@
         <v>43481</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -15424,7 +15424,7 @@
         <v>43483</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -15481,7 +15481,7 @@
         <v>43495</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -15538,7 +15538,7 @@
         <v>43496</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -15600,7 +15600,7 @@
         <v>43509</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -15657,7 +15657,7 @@
         <v>43510</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -15714,7 +15714,7 @@
         <v>43515</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -15771,7 +15771,7 @@
         <v>43530</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -15828,7 +15828,7 @@
         <v>43537</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -15890,7 +15890,7 @@
         <v>43538</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -15947,7 +15947,7 @@
         <v>43542</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -16004,7 +16004,7 @@
         <v>43543</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -16061,7 +16061,7 @@
         <v>43551</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -16118,7 +16118,7 @@
         <v>43551</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -16175,7 +16175,7 @@
         <v>43552</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -16232,7 +16232,7 @@
         <v>43563</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -16289,7 +16289,7 @@
         <v>43565</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -16346,7 +16346,7 @@
         <v>43578</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -16408,7 +16408,7 @@
         <v>43584</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -16465,7 +16465,7 @@
         <v>43589</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -16522,7 +16522,7 @@
         <v>43594</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -16579,7 +16579,7 @@
         <v>43594</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -16641,7 +16641,7 @@
         <v>43622</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -16703,7 +16703,7 @@
         <v>43633</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -16760,7 +16760,7 @@
         <v>43633</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -16817,7 +16817,7 @@
         <v>43640</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -16879,7 +16879,7 @@
         <v>43641</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -16941,7 +16941,7 @@
         <v>43641</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -17003,7 +17003,7 @@
         <v>43643</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -17065,7 +17065,7 @@
         <v>43650</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -17127,7 +17127,7 @@
         <v>43651</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -17184,7 +17184,7 @@
         <v>43654</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -17246,7 +17246,7 @@
         <v>43654</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -17308,7 +17308,7 @@
         <v>43656</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -17370,7 +17370,7 @@
         <v>43669</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -17427,7 +17427,7 @@
         <v>43678</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -17489,7 +17489,7 @@
         <v>43704</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -17551,7 +17551,7 @@
         <v>43704</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -17613,7 +17613,7 @@
         <v>43704</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -17675,7 +17675,7 @@
         <v>43706</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -17732,7 +17732,7 @@
         <v>43706</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -17789,7 +17789,7 @@
         <v>43713</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -17846,7 +17846,7 @@
         <v>43713</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -17903,7 +17903,7 @@
         <v>43728</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -17965,7 +17965,7 @@
         <v>43733</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -18022,7 +18022,7 @@
         <v>43733</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -18079,7 +18079,7 @@
         <v>43735</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -18136,7 +18136,7 @@
         <v>43740</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -18193,7 +18193,7 @@
         <v>43742</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -18250,7 +18250,7 @@
         <v>43746</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -18307,7 +18307,7 @@
         <v>43756</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -18364,7 +18364,7 @@
         <v>43759</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -18421,7 +18421,7 @@
         <v>43760</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -18478,7 +18478,7 @@
         <v>43768</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -18535,7 +18535,7 @@
         <v>43768</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -18597,7 +18597,7 @@
         <v>43770</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -18659,7 +18659,7 @@
         <v>43770</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -18721,7 +18721,7 @@
         <v>43773</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -18778,7 +18778,7 @@
         <v>43773</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -18840,7 +18840,7 @@
         <v>43773</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -18897,7 +18897,7 @@
         <v>43775</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -18954,7 +18954,7 @@
         <v>43777</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -19016,7 +19016,7 @@
         <v>43782</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -19073,7 +19073,7 @@
         <v>43783</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -19130,7 +19130,7 @@
         <v>43788</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -19207,7 +19207,7 @@
         <v>43791</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -19264,7 +19264,7 @@
         <v>43797</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -19321,7 +19321,7 @@
         <v>43797</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -19378,7 +19378,7 @@
         <v>43803</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -19435,7 +19435,7 @@
         <v>43805</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -19492,7 +19492,7 @@
         <v>43812</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -19549,7 +19549,7 @@
         <v>43818</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -19606,7 +19606,7 @@
         <v>43819</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -19663,7 +19663,7 @@
         <v>43833</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -19720,7 +19720,7 @@
         <v>43847</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -19777,7 +19777,7 @@
         <v>43850</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -19834,7 +19834,7 @@
         <v>43861</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -19891,7 +19891,7 @@
         <v>43868</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -19948,7 +19948,7 @@
         <v>43872</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -20005,7 +20005,7 @@
         <v>43873</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -20062,7 +20062,7 @@
         <v>43880</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -20119,7 +20119,7 @@
         <v>43881</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -20181,7 +20181,7 @@
         <v>43882</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -20238,7 +20238,7 @@
         <v>43887</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -20295,7 +20295,7 @@
         <v>43896</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -20377,7 +20377,7 @@
         <v>43900</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -20434,7 +20434,7 @@
         <v>43901</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -20491,7 +20491,7 @@
         <v>43902</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -20553,7 +20553,7 @@
         <v>43907</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -20610,7 +20610,7 @@
         <v>43910</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -20667,7 +20667,7 @@
         <v>43910</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -20724,7 +20724,7 @@
         <v>43913</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -20781,7 +20781,7 @@
         <v>43916</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -20838,7 +20838,7 @@
         <v>43923</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -20895,7 +20895,7 @@
         <v>43943</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -20952,7 +20952,7 @@
         <v>43948</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -21009,7 +21009,7 @@
         <v>43949</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -21071,7 +21071,7 @@
         <v>43951</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -21128,7 +21128,7 @@
         <v>43955</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -21190,7 +21190,7 @@
         <v>43955</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -21252,7 +21252,7 @@
         <v>43955</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -21314,7 +21314,7 @@
         <v>43955</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -21376,7 +21376,7 @@
         <v>43956</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -21438,7 +21438,7 @@
         <v>43957</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -21495,7 +21495,7 @@
         <v>43965</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -21552,7 +21552,7 @@
         <v>43969</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -21614,7 +21614,7 @@
         <v>43971</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -21671,7 +21671,7 @@
         <v>43971</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -21728,7 +21728,7 @@
         <v>43977</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -21790,7 +21790,7 @@
         <v>43979</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -21847,7 +21847,7 @@
         <v>43984</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -21909,7 +21909,7 @@
         <v>43984</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -21971,7 +21971,7 @@
         <v>43986</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -22033,7 +22033,7 @@
         <v>43986</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -22095,7 +22095,7 @@
         <v>43990</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -22157,7 +22157,7 @@
         <v>43992</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -22214,7 +22214,7 @@
         <v>43999</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -22276,7 +22276,7 @@
         <v>44000</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -22333,7 +22333,7 @@
         <v>44004</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -22395,7 +22395,7 @@
         <v>44006</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -22457,7 +22457,7 @@
         <v>44011</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -22519,7 +22519,7 @@
         <v>44013</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -22581,7 +22581,7 @@
         <v>44013</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -22643,7 +22643,7 @@
         <v>44013</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -22705,7 +22705,7 @@
         <v>44019</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -22767,7 +22767,7 @@
         <v>44026</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -22824,7 +22824,7 @@
         <v>44027</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -22886,7 +22886,7 @@
         <v>44029</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -22948,7 +22948,7 @@
         <v>44029</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -23005,7 +23005,7 @@
         <v>44040</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -23062,7 +23062,7 @@
         <v>44041</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -23124,7 +23124,7 @@
         <v>44051</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -23181,7 +23181,7 @@
         <v>44051</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -23238,7 +23238,7 @@
         <v>44055</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -23295,7 +23295,7 @@
         <v>44056</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -23352,7 +23352,7 @@
         <v>44057</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -23409,7 +23409,7 @@
         <v>44057</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -23471,7 +23471,7 @@
         <v>44062</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -23533,7 +23533,7 @@
         <v>44063</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -23595,7 +23595,7 @@
         <v>44067</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -23657,7 +23657,7 @@
         <v>44069</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -23719,7 +23719,7 @@
         <v>44071</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -23781,7 +23781,7 @@
         <v>44074</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -23843,7 +23843,7 @@
         <v>44074</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -23905,7 +23905,7 @@
         <v>44074</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -23967,7 +23967,7 @@
         <v>44075</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -24029,7 +24029,7 @@
         <v>44078</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -24086,7 +24086,7 @@
         <v>44082</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -24148,7 +24148,7 @@
         <v>44084</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -24210,7 +24210,7 @@
         <v>44084</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -24267,7 +24267,7 @@
         <v>44084</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -24324,7 +24324,7 @@
         <v>44090</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -24381,7 +24381,7 @@
         <v>44095</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -24438,7 +24438,7 @@
         <v>44096</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -24500,7 +24500,7 @@
         <v>44096</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -24562,7 +24562,7 @@
         <v>44098</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -24619,7 +24619,7 @@
         <v>44099</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -24681,7 +24681,7 @@
         <v>44103</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -24743,7 +24743,7 @@
         <v>44106</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -24800,7 +24800,7 @@
         <v>44111</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -24857,7 +24857,7 @@
         <v>44111</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -24914,7 +24914,7 @@
         <v>44111</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -24971,7 +24971,7 @@
         <v>44113</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -25033,7 +25033,7 @@
         <v>44124</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -25090,7 +25090,7 @@
         <v>44126</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -25147,7 +25147,7 @@
         <v>44132</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -25209,7 +25209,7 @@
         <v>44134</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -25266,7 +25266,7 @@
         <v>44137</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -25323,7 +25323,7 @@
         <v>44138</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -25380,7 +25380,7 @@
         <v>44140</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -25442,7 +25442,7 @@
         <v>44140</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -25504,7 +25504,7 @@
         <v>44140</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -25566,7 +25566,7 @@
         <v>44140</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -25628,7 +25628,7 @@
         <v>44141</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -25690,7 +25690,7 @@
         <v>44153</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -25747,7 +25747,7 @@
         <v>44153</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -25809,7 +25809,7 @@
         <v>44155</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -25866,7 +25866,7 @@
         <v>44157</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -25923,7 +25923,7 @@
         <v>44159</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -25985,7 +25985,7 @@
         <v>44165</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -26047,7 +26047,7 @@
         <v>44167</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -26109,7 +26109,7 @@
         <v>44168</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -26166,7 +26166,7 @@
         <v>44172</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -26228,7 +26228,7 @@
         <v>44173</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -26285,7 +26285,7 @@
         <v>44174</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -26347,7 +26347,7 @@
         <v>44175</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -26409,7 +26409,7 @@
         <v>44188</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -26471,7 +26471,7 @@
         <v>44194</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -26528,7 +26528,7 @@
         <v>44195</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -26585,7 +26585,7 @@
         <v>44210</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -26642,7 +26642,7 @@
         <v>44214</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -26699,7 +26699,7 @@
         <v>44218</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -26756,7 +26756,7 @@
         <v>44225</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -26813,7 +26813,7 @@
         <v>44228</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -26870,7 +26870,7 @@
         <v>44229</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -26927,7 +26927,7 @@
         <v>44230</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -26989,7 +26989,7 @@
         <v>44231</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -27046,7 +27046,7 @@
         <v>44231</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -27103,7 +27103,7 @@
         <v>44236</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -27160,7 +27160,7 @@
         <v>44239</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -27222,7 +27222,7 @@
         <v>44242</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -27284,7 +27284,7 @@
         <v>44243</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -27341,7 +27341,7 @@
         <v>44245</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -27398,7 +27398,7 @@
         <v>44259</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -27455,7 +27455,7 @@
         <v>44259</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -27512,7 +27512,7 @@
         <v>44273</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -27569,7 +27569,7 @@
         <v>44280</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -27626,7 +27626,7 @@
         <v>44280</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -27683,7 +27683,7 @@
         <v>44281</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -27745,7 +27745,7 @@
         <v>44286</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -27802,7 +27802,7 @@
         <v>44286</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -27859,7 +27859,7 @@
         <v>44287</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -27916,7 +27916,7 @@
         <v>44292</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -27973,7 +27973,7 @@
         <v>44298</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -28030,7 +28030,7 @@
         <v>44299</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -28087,7 +28087,7 @@
         <v>44308</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -28144,7 +28144,7 @@
         <v>44308</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -28201,7 +28201,7 @@
         <v>44308</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -28258,7 +28258,7 @@
         <v>44308</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -28315,7 +28315,7 @@
         <v>44315</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -28377,7 +28377,7 @@
         <v>44322</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -28434,7 +28434,7 @@
         <v>44323</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -28496,7 +28496,7 @@
         <v>44332</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -28558,7 +28558,7 @@
         <v>44336</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -28615,7 +28615,7 @@
         <v>44336</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -28672,7 +28672,7 @@
         <v>44349</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -28729,7 +28729,7 @@
         <v>44351</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -28791,7 +28791,7 @@
         <v>44351</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -28853,7 +28853,7 @@
         <v>44356</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -28910,7 +28910,7 @@
         <v>44357</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -28967,7 +28967,7 @@
         <v>44362</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -29024,7 +29024,7 @@
         <v>44362</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -29081,7 +29081,7 @@
         <v>44368</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -29138,7 +29138,7 @@
         <v>44375</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -29195,7 +29195,7 @@
         <v>44379</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -29252,7 +29252,7 @@
         <v>44384</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -29309,7 +29309,7 @@
         <v>44385</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -29366,7 +29366,7 @@
         <v>44396</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -29423,7 +29423,7 @@
         <v>44405</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -29480,7 +29480,7 @@
         <v>44410</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -29537,7 +29537,7 @@
         <v>44413</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -29594,7 +29594,7 @@
         <v>44424</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -29651,7 +29651,7 @@
         <v>44425</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -29713,7 +29713,7 @@
         <v>44425</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -29775,7 +29775,7 @@
         <v>44425</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -29837,7 +29837,7 @@
         <v>44431</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -29894,7 +29894,7 @@
         <v>44434</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -29951,7 +29951,7 @@
         <v>44441</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -30008,7 +30008,7 @@
         <v>44443</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -30065,7 +30065,7 @@
         <v>44448</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -30122,7 +30122,7 @@
         <v>44452</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -30179,7 +30179,7 @@
         <v>44453</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -30236,7 +30236,7 @@
         <v>44466</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -30298,7 +30298,7 @@
         <v>44475</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -30355,7 +30355,7 @@
         <v>44476</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -30417,7 +30417,7 @@
         <v>44480</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -30474,7 +30474,7 @@
         <v>44495</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -30536,7 +30536,7 @@
         <v>44496</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -30593,7 +30593,7 @@
         <v>44505</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -30655,7 +30655,7 @@
         <v>44505</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -30717,7 +30717,7 @@
         <v>44511</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -30774,7 +30774,7 @@
         <v>44512</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -30831,7 +30831,7 @@
         <v>44517</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -30888,7 +30888,7 @@
         <v>44517</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -30945,7 +30945,7 @@
         <v>44518</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -31002,7 +31002,7 @@
         <v>44518</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -31064,7 +31064,7 @@
         <v>44530</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -31121,7 +31121,7 @@
         <v>44536</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -31178,7 +31178,7 @@
         <v>44537</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -31235,7 +31235,7 @@
         <v>44538</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -31292,7 +31292,7 @@
         <v>44571</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -31349,7 +31349,7 @@
         <v>44573</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -31406,7 +31406,7 @@
         <v>44574</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -31463,7 +31463,7 @@
         <v>44574</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -31520,7 +31520,7 @@
         <v>44578</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -31577,7 +31577,7 @@
         <v>44586</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -31634,7 +31634,7 @@
         <v>44593</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -31691,7 +31691,7 @@
         <v>44595</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -31748,7 +31748,7 @@
         <v>44599</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -31805,7 +31805,7 @@
         <v>44601</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -31862,7 +31862,7 @@
         <v>44601</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -31919,7 +31919,7 @@
         <v>44601</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -31976,7 +31976,7 @@
         <v>44606</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -32033,7 +32033,7 @@
         <v>44609</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -32095,7 +32095,7 @@
         <v>44614</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -32152,7 +32152,7 @@
         <v>44614</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -32209,7 +32209,7 @@
         <v>44614</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -32266,7 +32266,7 @@
         <v>44614</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -32323,7 +32323,7 @@
         <v>44614</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -32380,7 +32380,7 @@
         <v>44615</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -32437,7 +32437,7 @@
         <v>44615</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -32494,7 +32494,7 @@
         <v>44621</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -32551,7 +32551,7 @@
         <v>44627</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -32608,7 +32608,7 @@
         <v>44628</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -32665,7 +32665,7 @@
         <v>44629</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -32722,7 +32722,7 @@
         <v>44635</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -32784,7 +32784,7 @@
         <v>44641</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -32846,7 +32846,7 @@
         <v>44641</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -32908,7 +32908,7 @@
         <v>44644</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -32970,7 +32970,7 @@
         <v>44644</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -33032,7 +33032,7 @@
         <v>44649</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -33094,7 +33094,7 @@
         <v>44650</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -33151,7 +33151,7 @@
         <v>44650</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -33208,7 +33208,7 @@
         <v>44652</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -33270,7 +33270,7 @@
         <v>44655</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -33332,7 +33332,7 @@
         <v>44655</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -33394,7 +33394,7 @@
         <v>44656</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -33456,7 +33456,7 @@
         <v>44656</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -33518,7 +33518,7 @@
         <v>44657</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -33575,7 +33575,7 @@
         <v>44662</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -33637,7 +33637,7 @@
         <v>44663</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -33699,7 +33699,7 @@
         <v>44663</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -33761,7 +33761,7 @@
         <v>44670</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -33823,7 +33823,7 @@
         <v>44670</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -33880,7 +33880,7 @@
         <v>44670</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -33937,7 +33937,7 @@
         <v>44671</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -33994,7 +33994,7 @@
         <v>44671</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -34051,7 +34051,7 @@
         <v>44679</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -34108,7 +34108,7 @@
         <v>44680</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -34165,7 +34165,7 @@
         <v>44685</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -34222,7 +34222,7 @@
         <v>44685</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -34279,7 +34279,7 @@
         <v>44685</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -34341,7 +34341,7 @@
         <v>44686</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -34398,7 +34398,7 @@
         <v>44690</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -34455,7 +34455,7 @@
         <v>44690</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -34517,7 +34517,7 @@
         <v>44690</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -34579,7 +34579,7 @@
         <v>44690</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -34636,7 +34636,7 @@
         <v>44690</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -34698,7 +34698,7 @@
         <v>44690</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -34760,7 +34760,7 @@
         <v>44704</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -34817,7 +34817,7 @@
         <v>44705</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -34874,7 +34874,7 @@
         <v>44706</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -34931,7 +34931,7 @@
         <v>44714</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -34988,7 +34988,7 @@
         <v>44714</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -35050,7 +35050,7 @@
         <v>44714</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -35107,7 +35107,7 @@
         <v>44725</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -35164,7 +35164,7 @@
         <v>44727</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -35226,7 +35226,7 @@
         <v>44732</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -35283,7 +35283,7 @@
         <v>44734</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -35340,7 +35340,7 @@
         <v>44734</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -35402,7 +35402,7 @@
         <v>44741</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -35459,7 +35459,7 @@
         <v>44743</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -35516,7 +35516,7 @@
         <v>44746</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -35573,7 +35573,7 @@
         <v>44746</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -35635,7 +35635,7 @@
         <v>44761</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -35712,7 +35712,7 @@
         <v>44774</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -35769,7 +35769,7 @@
         <v>44774</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -35826,7 +35826,7 @@
         <v>44776</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -35888,7 +35888,7 @@
         <v>44776</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -35950,7 +35950,7 @@
         <v>44777</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -36012,7 +36012,7 @@
         <v>44778</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -36074,7 +36074,7 @@
         <v>44781</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -36131,7 +36131,7 @@
         <v>44782</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -36193,7 +36193,7 @@
         <v>44783</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -36255,7 +36255,7 @@
         <v>44788</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -36312,7 +36312,7 @@
         <v>44788</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -36369,7 +36369,7 @@
         <v>44791</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -36431,7 +36431,7 @@
         <v>44797</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -36493,7 +36493,7 @@
         <v>44798</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -36555,7 +36555,7 @@
         <v>44799</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -36617,7 +36617,7 @@
         <v>44802</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -36674,7 +36674,7 @@
         <v>44802</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -36736,7 +36736,7 @@
         <v>44804</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -36793,7 +36793,7 @@
         <v>44804</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -36855,7 +36855,7 @@
         <v>44805</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -36917,7 +36917,7 @@
         <v>44805</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -36979,7 +36979,7 @@
         <v>44806</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -37036,7 +37036,7 @@
         <v>44812</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -37098,7 +37098,7 @@
         <v>44813</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -37160,7 +37160,7 @@
         <v>44813</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -37222,7 +37222,7 @@
         <v>44815</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -37284,7 +37284,7 @@
         <v>44816</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -37346,7 +37346,7 @@
         <v>44816</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -37408,7 +37408,7 @@
         <v>44817</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -37470,7 +37470,7 @@
         <v>44818</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -37532,7 +37532,7 @@
         <v>44818</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -37589,7 +37589,7 @@
         <v>44820</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -37651,7 +37651,7 @@
         <v>44820</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -37708,7 +37708,7 @@
         <v>44820</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -37770,7 +37770,7 @@
         <v>44820</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -37832,7 +37832,7 @@
         <v>44823</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -37889,7 +37889,7 @@
         <v>44823</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -37946,7 +37946,7 @@
         <v>44825</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -38008,7 +38008,7 @@
         <v>44825</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -38070,7 +38070,7 @@
         <v>44830</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -38132,7 +38132,7 @@
         <v>44831</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -38194,7 +38194,7 @@
         <v>44831</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -38256,7 +38256,7 @@
         <v>44832</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -38318,7 +38318,7 @@
         <v>44832</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -38380,7 +38380,7 @@
         <v>44832</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -38442,7 +38442,7 @@
         <v>44837</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -38504,7 +38504,7 @@
         <v>44837</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -38566,7 +38566,7 @@
         <v>44838</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -38628,7 +38628,7 @@
         <v>44839</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -38685,7 +38685,7 @@
         <v>44839</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -38742,7 +38742,7 @@
         <v>44840</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -38804,7 +38804,7 @@
         <v>44841</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -38861,7 +38861,7 @@
         <v>44844</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -38923,7 +38923,7 @@
         <v>44845</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -38985,7 +38985,7 @@
         <v>44845</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -39047,7 +39047,7 @@
         <v>44845</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -39109,7 +39109,7 @@
         <v>44845</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -39171,7 +39171,7 @@
         <v>44846</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -39233,7 +39233,7 @@
         <v>44846</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -39295,7 +39295,7 @@
         <v>44852</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -39357,7 +39357,7 @@
         <v>44852</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -39419,7 +39419,7 @@
         <v>44852</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -39481,7 +39481,7 @@
         <v>44852</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -39543,7 +39543,7 @@
         <v>44853</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -39605,7 +39605,7 @@
         <v>44854</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -39667,7 +39667,7 @@
         <v>44855</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -39729,7 +39729,7 @@
         <v>44855</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -39791,7 +39791,7 @@
         <v>44855</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -39853,7 +39853,7 @@
         <v>44858</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -39915,7 +39915,7 @@
         <v>44858</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -39977,7 +39977,7 @@
         <v>44860</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -40039,7 +40039,7 @@
         <v>44860</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -40101,7 +40101,7 @@
         <v>44861</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -40163,7 +40163,7 @@
         <v>44861</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -40225,7 +40225,7 @@
         <v>44865</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -40282,7 +40282,7 @@
         <v>44865</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -40339,7 +40339,7 @@
         <v>44866</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -40401,7 +40401,7 @@
         <v>44866</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -40463,7 +40463,7 @@
         <v>44866</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -40525,7 +40525,7 @@
         <v>44867</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -40587,7 +40587,7 @@
         <v>44869</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -40644,7 +40644,7 @@
         <v>44869</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -40701,7 +40701,7 @@
         <v>44869</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -40758,7 +40758,7 @@
         <v>44874</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -40815,7 +40815,7 @@
         <v>44876</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -40877,7 +40877,7 @@
         <v>44879</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -40939,7 +40939,7 @@
         <v>44880</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -41001,7 +41001,7 @@
         <v>44880</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -41063,7 +41063,7 @@
         <v>44881</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -41120,7 +41120,7 @@
         <v>44883</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -41182,7 +41182,7 @@
         <v>44883</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -41244,7 +41244,7 @@
         <v>44886</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -41306,7 +41306,7 @@
         <v>44887</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -41363,7 +41363,7 @@
         <v>44887</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -41420,7 +41420,7 @@
         <v>44887</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -41477,7 +41477,7 @@
         <v>44888</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -41539,7 +41539,7 @@
         <v>44889</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -41601,7 +41601,7 @@
         <v>44889</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -41658,7 +41658,7 @@
         <v>44889</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -41720,7 +41720,7 @@
         <v>44893</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -41777,7 +41777,7 @@
         <v>44894</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -41834,7 +41834,7 @@
         <v>44895</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -41896,7 +41896,7 @@
         <v>44896</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -41953,7 +41953,7 @@
         <v>44897</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -42010,7 +42010,7 @@
         <v>44897</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -42072,7 +42072,7 @@
         <v>44900</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -42134,7 +42134,7 @@
         <v>44901</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -42196,7 +42196,7 @@
         <v>44901</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -42258,7 +42258,7 @@
         <v>44901</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -42320,7 +42320,7 @@
         <v>44903</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -42377,7 +42377,7 @@
         <v>44903</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -42439,7 +42439,7 @@
         <v>44904</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -42501,7 +42501,7 @@
         <v>44909</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -42563,7 +42563,7 @@
         <v>44911</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -42625,7 +42625,7 @@
         <v>44911</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -42687,7 +42687,7 @@
         <v>44913</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -42749,7 +42749,7 @@
         <v>44914</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -42806,7 +42806,7 @@
         <v>44914</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -42868,7 +42868,7 @@
         <v>44915</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -42925,7 +42925,7 @@
         <v>44915</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -42987,7 +42987,7 @@
         <v>44917</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -43049,7 +43049,7 @@
         <v>44917</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -43106,7 +43106,7 @@
         <v>44918</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -43168,7 +43168,7 @@
         <v>44922</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -43225,7 +43225,7 @@
         <v>44927</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -43287,7 +43287,7 @@
         <v>44929</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -43344,7 +43344,7 @@
         <v>44929</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -43401,7 +43401,7 @@
         <v>44929</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -43458,7 +43458,7 @@
         <v>44938</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -43520,7 +43520,7 @@
         <v>44938</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -43582,7 +43582,7 @@
         <v>44939</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -43644,7 +43644,7 @@
         <v>44939</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -43706,7 +43706,7 @@
         <v>44942</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -43763,7 +43763,7 @@
         <v>44942</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -43825,7 +43825,7 @@
         <v>44942</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -43882,7 +43882,7 @@
         <v>44942</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -43944,7 +43944,7 @@
         <v>44944</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -44001,7 +44001,7 @@
         <v>44953</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -44063,7 +44063,7 @@
         <v>44953</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -44125,7 +44125,7 @@
         <v>44956</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -44187,7 +44187,7 @@
         <v>44957</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -44249,7 +44249,7 @@
         <v>44958</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -44306,7 +44306,7 @@
         <v>44958</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -44363,7 +44363,7 @@
         <v>44958</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -44425,7 +44425,7 @@
         <v>44959</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -44482,7 +44482,7 @@
         <v>44963</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -44539,7 +44539,7 @@
         <v>44963</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -44601,7 +44601,7 @@
         <v>44965</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -44663,7 +44663,7 @@
         <v>44966</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -44725,7 +44725,7 @@
         <v>44966</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -44787,7 +44787,7 @@
         <v>44967</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -44849,7 +44849,7 @@
         <v>44971</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -44911,7 +44911,7 @@
         <v>44978</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -44973,7 +44973,7 @@
         <v>44979</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -45030,7 +45030,7 @@
         <v>44979</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -45087,7 +45087,7 @@
         <v>44979</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -45149,7 +45149,7 @@
         <v>44980</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -45206,7 +45206,7 @@
         <v>44984</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -45263,7 +45263,7 @@
         <v>44986</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -45320,7 +45320,7 @@
         <v>44987</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -45382,7 +45382,7 @@
         <v>44991</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -45444,7 +45444,7 @@
         <v>44991</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -45506,7 +45506,7 @@
         <v>44991</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -45568,7 +45568,7 @@
         <v>44991</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -45630,7 +45630,7 @@
         <v>44992</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -45687,7 +45687,7 @@
         <v>44993</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -45749,7 +45749,7 @@
         <v>44993</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -45811,7 +45811,7 @@
         <v>44993</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -45873,7 +45873,7 @@
         <v>44993</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -45930,7 +45930,7 @@
         <v>44995</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -45992,7 +45992,7 @@
         <v>44995</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -46054,7 +46054,7 @@
         <v>44995</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -46116,7 +46116,7 @@
         <v>45000</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -46173,7 +46173,7 @@
         <v>45000</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -46235,7 +46235,7 @@
         <v>45000</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -46297,7 +46297,7 @@
         <v>45000</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -46359,7 +46359,7 @@
         <v>45000</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -46421,7 +46421,7 @@
         <v>45002</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -46478,7 +46478,7 @@
         <v>45006</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -46540,7 +46540,7 @@
         <v>45007</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -46597,7 +46597,7 @@
         <v>45009</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -46654,7 +46654,7 @@
         <v>45009</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -46711,7 +46711,7 @@
         <v>45015</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -46773,7 +46773,7 @@
         <v>45015</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -46835,7 +46835,7 @@
         <v>45015</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -46892,7 +46892,7 @@
         <v>45015</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -46949,7 +46949,7 @@
         <v>45016</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -47006,7 +47006,7 @@
         <v>45016</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -47063,7 +47063,7 @@
         <v>45028</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -47120,7 +47120,7 @@
         <v>45033</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -47177,7 +47177,7 @@
         <v>45034</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -47234,7 +47234,7 @@
         <v>45040</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -47291,7 +47291,7 @@
         <v>45042</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -47348,7 +47348,7 @@
         <v>45044</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -47410,7 +47410,7 @@
         <v>45048</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -47472,7 +47472,7 @@
         <v>45048</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -47534,7 +47534,7 @@
         <v>45049</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -47596,7 +47596,7 @@
         <v>45050</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -47658,7 +47658,7 @@
         <v>45054</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -47720,7 +47720,7 @@
         <v>45056</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -47777,7 +47777,7 @@
         <v>45056</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -47834,7 +47834,7 @@
         <v>45063</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -47891,7 +47891,7 @@
         <v>45063</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -47948,7 +47948,7 @@
         <v>45068</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -48010,7 +48010,7 @@
         <v>45069</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -48067,7 +48067,7 @@
         <v>45070</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -48124,7 +48124,7 @@
         <v>45070</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -48181,7 +48181,7 @@
         <v>45070</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -48243,7 +48243,7 @@
         <v>45071</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -48300,7 +48300,7 @@
         <v>45071</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -48357,7 +48357,7 @@
         <v>45078</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -48414,7 +48414,7 @@
         <v>45078</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -48471,7 +48471,7 @@
         <v>45078</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -48528,7 +48528,7 @@
         <v>45079</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -48590,7 +48590,7 @@
         <v>45084</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -48647,7 +48647,7 @@
         <v>45085</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -48704,7 +48704,7 @@
         <v>45086</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -48761,7 +48761,7 @@
         <v>45086</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -48823,7 +48823,7 @@
         <v>45089</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -48880,7 +48880,7 @@
         <v>45089</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -48937,7 +48937,7 @@
         <v>45089</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -48999,7 +48999,7 @@
         <v>45089</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -49056,7 +49056,7 @@
         <v>45090</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -49113,7 +49113,7 @@
         <v>45091</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -49175,7 +49175,7 @@
         <v>45092</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -49232,7 +49232,7 @@
         <v>45092</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -49289,7 +49289,7 @@
         <v>45092</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -49346,7 +49346,7 @@
         <v>45092</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -49403,7 +49403,7 @@
         <v>45093</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -49460,7 +49460,7 @@
         <v>45093</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -49517,7 +49517,7 @@
         <v>45096</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -49574,7 +49574,7 @@
         <v>45096</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -49631,7 +49631,7 @@
         <v>45098</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -49688,7 +49688,7 @@
         <v>45098</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -49745,7 +49745,7 @@
         <v>45103</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -49802,7 +49802,7 @@
         <v>45103</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -49859,7 +49859,7 @@
         <v>45104</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -49916,7 +49916,7 @@
         <v>45105</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -49978,7 +49978,7 @@
         <v>45107</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -50035,7 +50035,7 @@
         <v>45107</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -50092,7 +50092,7 @@
         <v>45111</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -50149,7 +50149,7 @@
         <v>45112</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -50211,7 +50211,7 @@
         <v>45112</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -50273,7 +50273,7 @@
         <v>45121</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -50330,7 +50330,7 @@
         <v>45138</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -50392,7 +50392,7 @@
         <v>45146</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -50449,7 +50449,7 @@
         <v>45148</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -50506,7 +50506,7 @@
         <v>45148</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -50563,7 +50563,7 @@
         <v>45149</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -50620,7 +50620,7 @@
         <v>45153</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -50677,7 +50677,7 @@
         <v>45153</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -50734,7 +50734,7 @@
         <v>45166</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>

--- a/Översikt RAGUNDA.xlsx
+++ b/Översikt RAGUNDA.xlsx
@@ -572,7 +572,7 @@
         <v>44874</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -699,7 +699,7 @@
         <v>43865</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>44894</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         <v>44917</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
         <v>43865</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1145,7 +1145,7 @@
         <v>44504</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1256,7 +1256,7 @@
         <v>44644</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1362,7 +1362,7 @@
         <v>43866</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1466,7 +1466,7 @@
         <v>44504</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1575,7 +1575,7 @@
         <v>44473</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1678,7 +1678,7 @@
         <v>44088</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1784,7 +1784,7 @@
         <v>44151</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1881,7 +1881,7 @@
         <v>44644</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1983,7 +1983,7 @@
         <v>44838</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2080,7 +2080,7 @@
         <v>43900</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2181,7 +2181,7 @@
         <v>44062</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2282,7 +2282,7 @@
         <v>45104</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2383,7 +2383,7 @@
         <v>43910</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2487,7 +2487,7 @@
         <v>44776</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2591,7 +2591,7 @@
         <v>44645</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2690,7 +2690,7 @@
         <v>44888</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2789,7 +2789,7 @@
         <v>43353</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2887,7 +2887,7 @@
         <v>44504</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2985,7 +2985,7 @@
         <v>45113</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3083,7 +3083,7 @@
         <v>44133</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3180,7 +3180,7 @@
         <v>44644</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3277,7 +3277,7 @@
         <v>44901</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3378,7 +3378,7 @@
         <v>45113</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3475,7 +3475,7 @@
         <v>43411</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3571,7 +3571,7 @@
         <v>43413</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3667,7 +3667,7 @@
         <v>44133</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         <v>44336</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3854,7 +3854,7 @@
         <v>44438</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3950,7 +3950,7 @@
         <v>44662</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4046,7 +4046,7 @@
         <v>44804</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4142,7 +4142,7 @@
         <v>44915</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4242,7 +4242,7 @@
         <v>44953</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4333,7 +4333,7 @@
         <v>44994</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4433,7 +4433,7 @@
         <v>45009</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4524,7 +4524,7 @@
         <v>44209</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4614,7 +4614,7 @@
         <v>44875</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4709,7 +4709,7 @@
         <v>44876</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4804,7 +4804,7 @@
         <v>44911</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4899,7 +4899,7 @@
         <v>44932</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4994,7 +4994,7 @@
         <v>44994</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -5089,7 +5089,7 @@
         <v>45015</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5183,7 +5183,7 @@
         <v>45027</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5282,7 +5282,7 @@
         <v>45070</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5377,7 +5377,7 @@
         <v>44111</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5470,7 +5470,7 @@
         <v>44139</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5559,7 +5559,7 @@
         <v>44645</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5657,7 +5657,7 @@
         <v>44656</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5751,7 +5751,7 @@
         <v>44734</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5845,7 +5845,7 @@
         <v>44865</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5939,7 +5939,7 @@
         <v>44911</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -6033,7 +6033,7 @@
         <v>45054</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -6122,7 +6122,7 @@
         <v>45093</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6215,7 +6215,7 @@
         <v>43977</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6308,7 +6308,7 @@
         <v>44113</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6401,7 +6401,7 @@
         <v>44245</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6494,7 +6494,7 @@
         <v>44334</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6586,7 +6586,7 @@
         <v>44334</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6678,7 +6678,7 @@
         <v>44446</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6771,7 +6771,7 @@
         <v>44610</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6864,7 +6864,7 @@
         <v>44624</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6957,7 +6957,7 @@
         <v>44662</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -7050,7 +7050,7 @@
         <v>44677</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -7142,7 +7142,7 @@
         <v>44696</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -7235,7 +7235,7 @@
         <v>44732</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7332,7 +7332,7 @@
         <v>44911</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7425,7 +7425,7 @@
         <v>45034</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7518,7 +7518,7 @@
         <v>43817</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7609,7 +7609,7 @@
         <v>44111</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7701,7 +7701,7 @@
         <v>44421</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7793,7 +7793,7 @@
         <v>44740</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7880,7 +7880,7 @@
         <v>44855</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7976,7 +7976,7 @@
         <v>44855</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -8068,7 +8068,7 @@
         <v>44875</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -8160,7 +8160,7 @@
         <v>44902</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -8252,7 +8252,7 @@
         <v>44971</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -8344,7 +8344,7 @@
         <v>44987</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8435,7 +8435,7 @@
         <v>44987</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8522,7 +8522,7 @@
         <v>45049</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8614,7 +8614,7 @@
         <v>43329</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8700,7 +8700,7 @@
         <v>43411</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8786,7 +8786,7 @@
         <v>43707</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8876,7 +8876,7 @@
         <v>43948</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8962,7 +8962,7 @@
         <v>44676</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -9053,7 +9053,7 @@
         <v>44680</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -9139,7 +9139,7 @@
         <v>44855</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -9230,7 +9230,7 @@
         <v>44855</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -9321,7 +9321,7 @@
         <v>44860</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9412,7 +9412,7 @@
         <v>44973</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9503,7 +9503,7 @@
         <v>44980</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9589,7 +9589,7 @@
         <v>45005</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9680,7 +9680,7 @@
         <v>45121</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9771,7 +9771,7 @@
         <v>43515</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9856,7 +9856,7 @@
         <v>43619</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9946,7 +9946,7 @@
         <v>43650</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -10031,7 +10031,7 @@
         <v>43784</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -10121,7 +10121,7 @@
         <v>43791</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -10206,7 +10206,7 @@
         <v>43977</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -10296,7 +10296,7 @@
         <v>44012</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -10386,7 +10386,7 @@
         <v>44049</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -10476,7 +10476,7 @@
         <v>44062</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10566,7 +10566,7 @@
         <v>44098</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10656,7 +10656,7 @@
         <v>44119</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -10741,7 +10741,7 @@
         <v>44166</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10826,7 +10826,7 @@
         <v>44319</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10916,7 +10916,7 @@
         <v>44369</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -11001,7 +11001,7 @@
         <v>44462</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -11091,7 +11091,7 @@
         <v>44601</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -11176,7 +11176,7 @@
         <v>44607</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -11266,7 +11266,7 @@
         <v>44705</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -11351,7 +11351,7 @@
         <v>44741</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -11441,7 +11441,7 @@
         <v>44741</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -11526,7 +11526,7 @@
         <v>44830</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -11616,7 +11616,7 @@
         <v>44832</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -11706,7 +11706,7 @@
         <v>44855</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -11796,7 +11796,7 @@
         <v>44860</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -11881,7 +11881,7 @@
         <v>45033</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -11970,7 +11970,7 @@
         <v>45042</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -12055,7 +12055,7 @@
         <v>45044</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -12145,7 +12145,7 @@
         <v>45089</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -12230,7 +12230,7 @@
         <v>45097</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -12320,7 +12320,7 @@
         <v>45120</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -12410,7 +12410,7 @@
         <v>45121</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -12495,7 +12495,7 @@
         <v>45149</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -12585,7 +12585,7 @@
         <v>45153</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -12670,7 +12670,7 @@
         <v>43321</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -12727,7 +12727,7 @@
         <v>43322</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -12789,7 +12789,7 @@
         <v>43326</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -12846,7 +12846,7 @@
         <v>43341</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -12903,7 +12903,7 @@
         <v>43360</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -12960,7 +12960,7 @@
         <v>43395</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -13017,7 +13017,7 @@
         <v>43396</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -13074,7 +13074,7 @@
         <v>43398</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -13131,7 +13131,7 @@
         <v>43398</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -13188,7 +13188,7 @@
         <v>43398</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -13245,7 +13245,7 @@
         <v>43403</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -13307,7 +13307,7 @@
         <v>43403</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -13369,7 +13369,7 @@
         <v>43403</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -13431,7 +13431,7 @@
         <v>43405</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -13493,7 +13493,7 @@
         <v>43406</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -13555,7 +13555,7 @@
         <v>43410</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -13617,7 +13617,7 @@
         <v>43411</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -13674,7 +13674,7 @@
         <v>43411</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -13736,7 +13736,7 @@
         <v>43411</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -13798,7 +13798,7 @@
         <v>43411</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -13860,7 +13860,7 @@
         <v>43411</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -13922,7 +13922,7 @@
         <v>43411</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -13984,7 +13984,7 @@
         <v>43411</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -14041,7 +14041,7 @@
         <v>43413</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -14098,7 +14098,7 @@
         <v>43418</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -14155,7 +14155,7 @@
         <v>43419</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -14212,7 +14212,7 @@
         <v>43423</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -14269,7 +14269,7 @@
         <v>43423</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -14326,7 +14326,7 @@
         <v>43427</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -14383,7 +14383,7 @@
         <v>43427</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -14440,7 +14440,7 @@
         <v>43431</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -14497,7 +14497,7 @@
         <v>43431</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -14559,7 +14559,7 @@
         <v>43431</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -14621,7 +14621,7 @@
         <v>43437</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -14683,7 +14683,7 @@
         <v>43438</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -14740,7 +14740,7 @@
         <v>43440</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -14797,7 +14797,7 @@
         <v>43444</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -14854,7 +14854,7 @@
         <v>43448</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -14911,7 +14911,7 @@
         <v>43461</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -14968,7 +14968,7 @@
         <v>43461</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -15025,7 +15025,7 @@
         <v>43467</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -15082,7 +15082,7 @@
         <v>43467</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -15139,7 +15139,7 @@
         <v>43473</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -15196,7 +15196,7 @@
         <v>43473</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -15253,7 +15253,7 @@
         <v>43474</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -15310,7 +15310,7 @@
         <v>43481</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -15367,7 +15367,7 @@
         <v>43481</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -15424,7 +15424,7 @@
         <v>43483</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -15481,7 +15481,7 @@
         <v>43495</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -15538,7 +15538,7 @@
         <v>43496</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -15600,7 +15600,7 @@
         <v>43509</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -15657,7 +15657,7 @@
         <v>43510</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -15714,7 +15714,7 @@
         <v>43515</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -15771,7 +15771,7 @@
         <v>43530</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -15828,7 +15828,7 @@
         <v>43537</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -15890,7 +15890,7 @@
         <v>43538</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -15947,7 +15947,7 @@
         <v>43542</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -16004,7 +16004,7 @@
         <v>43543</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -16061,7 +16061,7 @@
         <v>43551</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -16118,7 +16118,7 @@
         <v>43551</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -16175,7 +16175,7 @@
         <v>43552</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -16232,7 +16232,7 @@
         <v>43563</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -16289,7 +16289,7 @@
         <v>43565</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -16346,7 +16346,7 @@
         <v>43578</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -16408,7 +16408,7 @@
         <v>43584</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -16465,7 +16465,7 @@
         <v>43589</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -16522,7 +16522,7 @@
         <v>43594</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -16579,7 +16579,7 @@
         <v>43594</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -16641,7 +16641,7 @@
         <v>43622</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -16703,7 +16703,7 @@
         <v>43633</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -16760,7 +16760,7 @@
         <v>43633</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -16817,7 +16817,7 @@
         <v>43640</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -16879,7 +16879,7 @@
         <v>43641</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -16941,7 +16941,7 @@
         <v>43641</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -17003,7 +17003,7 @@
         <v>43643</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -17065,7 +17065,7 @@
         <v>43650</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -17127,7 +17127,7 @@
         <v>43651</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -17184,7 +17184,7 @@
         <v>43654</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -17246,7 +17246,7 @@
         <v>43654</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -17308,7 +17308,7 @@
         <v>43656</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -17370,7 +17370,7 @@
         <v>43669</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -17427,7 +17427,7 @@
         <v>43678</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -17489,7 +17489,7 @@
         <v>43704</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -17551,7 +17551,7 @@
         <v>43704</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -17613,7 +17613,7 @@
         <v>43704</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -17675,7 +17675,7 @@
         <v>43706</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -17732,7 +17732,7 @@
         <v>43706</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -17789,7 +17789,7 @@
         <v>43713</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -17846,7 +17846,7 @@
         <v>43713</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -17903,7 +17903,7 @@
         <v>43728</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -17965,7 +17965,7 @@
         <v>43733</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -18022,7 +18022,7 @@
         <v>43733</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -18079,7 +18079,7 @@
         <v>43735</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -18136,7 +18136,7 @@
         <v>43740</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -18193,7 +18193,7 @@
         <v>43742</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -18250,7 +18250,7 @@
         <v>43746</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -18307,7 +18307,7 @@
         <v>43756</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -18364,7 +18364,7 @@
         <v>43759</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -18421,7 +18421,7 @@
         <v>43760</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -18478,7 +18478,7 @@
         <v>43768</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -18535,7 +18535,7 @@
         <v>43768</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -18597,7 +18597,7 @@
         <v>43770</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -18659,7 +18659,7 @@
         <v>43770</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -18721,7 +18721,7 @@
         <v>43773</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -18778,7 +18778,7 @@
         <v>43773</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -18840,7 +18840,7 @@
         <v>43773</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -18897,7 +18897,7 @@
         <v>43775</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -18954,7 +18954,7 @@
         <v>43777</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -19016,7 +19016,7 @@
         <v>43782</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -19073,7 +19073,7 @@
         <v>43783</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -19130,7 +19130,7 @@
         <v>43788</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -19207,7 +19207,7 @@
         <v>43791</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -19264,7 +19264,7 @@
         <v>43797</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -19321,7 +19321,7 @@
         <v>43797</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -19378,7 +19378,7 @@
         <v>43803</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -19435,7 +19435,7 @@
         <v>43805</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -19492,7 +19492,7 @@
         <v>43812</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -19549,7 +19549,7 @@
         <v>43818</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -19606,7 +19606,7 @@
         <v>43819</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -19663,7 +19663,7 @@
         <v>43833</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -19720,7 +19720,7 @@
         <v>43847</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -19777,7 +19777,7 @@
         <v>43850</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -19834,7 +19834,7 @@
         <v>43861</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -19891,7 +19891,7 @@
         <v>43868</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -19948,7 +19948,7 @@
         <v>43872</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -20005,7 +20005,7 @@
         <v>43873</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -20062,7 +20062,7 @@
         <v>43880</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -20119,7 +20119,7 @@
         <v>43881</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -20181,7 +20181,7 @@
         <v>43882</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -20238,7 +20238,7 @@
         <v>43887</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -20295,7 +20295,7 @@
         <v>43896</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -20377,7 +20377,7 @@
         <v>43900</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -20434,7 +20434,7 @@
         <v>43901</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -20491,7 +20491,7 @@
         <v>43902</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -20553,7 +20553,7 @@
         <v>43907</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -20610,7 +20610,7 @@
         <v>43910</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -20667,7 +20667,7 @@
         <v>43910</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -20724,7 +20724,7 @@
         <v>43913</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -20781,7 +20781,7 @@
         <v>43916</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -20838,7 +20838,7 @@
         <v>43923</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -20895,7 +20895,7 @@
         <v>43943</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -20952,7 +20952,7 @@
         <v>43948</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -21009,7 +21009,7 @@
         <v>43949</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -21071,7 +21071,7 @@
         <v>43951</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -21128,7 +21128,7 @@
         <v>43955</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -21190,7 +21190,7 @@
         <v>43955</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -21252,7 +21252,7 @@
         <v>43955</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -21314,7 +21314,7 @@
         <v>43955</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -21376,7 +21376,7 @@
         <v>43956</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -21438,7 +21438,7 @@
         <v>43957</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -21495,7 +21495,7 @@
         <v>43965</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -21552,7 +21552,7 @@
         <v>43969</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -21614,7 +21614,7 @@
         <v>43971</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -21671,7 +21671,7 @@
         <v>43971</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -21728,7 +21728,7 @@
         <v>43977</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -21790,7 +21790,7 @@
         <v>43979</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -21847,7 +21847,7 @@
         <v>43984</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -21909,7 +21909,7 @@
         <v>43984</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -21971,7 +21971,7 @@
         <v>43986</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -22033,7 +22033,7 @@
         <v>43986</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -22095,7 +22095,7 @@
         <v>43990</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -22157,7 +22157,7 @@
         <v>43992</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -22214,7 +22214,7 @@
         <v>43999</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -22276,7 +22276,7 @@
         <v>44000</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -22333,7 +22333,7 @@
         <v>44004</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -22395,7 +22395,7 @@
         <v>44006</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -22457,7 +22457,7 @@
         <v>44011</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -22519,7 +22519,7 @@
         <v>44013</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -22581,7 +22581,7 @@
         <v>44013</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -22643,7 +22643,7 @@
         <v>44013</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -22705,7 +22705,7 @@
         <v>44019</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -22767,7 +22767,7 @@
         <v>44026</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -22824,7 +22824,7 @@
         <v>44027</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -22886,7 +22886,7 @@
         <v>44029</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -22948,7 +22948,7 @@
         <v>44029</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -23005,7 +23005,7 @@
         <v>44040</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -23062,7 +23062,7 @@
         <v>44041</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -23124,7 +23124,7 @@
         <v>44051</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -23181,7 +23181,7 @@
         <v>44051</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -23238,7 +23238,7 @@
         <v>44055</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -23295,7 +23295,7 @@
         <v>44056</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -23352,7 +23352,7 @@
         <v>44057</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -23409,7 +23409,7 @@
         <v>44057</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -23471,7 +23471,7 @@
         <v>44062</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -23533,7 +23533,7 @@
         <v>44063</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -23595,7 +23595,7 @@
         <v>44067</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -23657,7 +23657,7 @@
         <v>44069</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -23719,7 +23719,7 @@
         <v>44071</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -23781,7 +23781,7 @@
         <v>44074</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -23843,7 +23843,7 @@
         <v>44074</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -23905,7 +23905,7 @@
         <v>44074</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -23967,7 +23967,7 @@
         <v>44075</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -24029,7 +24029,7 @@
         <v>44078</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -24086,7 +24086,7 @@
         <v>44082</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -24148,7 +24148,7 @@
         <v>44084</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -24210,7 +24210,7 @@
         <v>44084</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -24267,7 +24267,7 @@
         <v>44084</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -24324,7 +24324,7 @@
         <v>44090</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -24381,7 +24381,7 @@
         <v>44095</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -24438,7 +24438,7 @@
         <v>44096</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -24500,7 +24500,7 @@
         <v>44096</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -24562,7 +24562,7 @@
         <v>44098</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -24619,7 +24619,7 @@
         <v>44099</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -24681,7 +24681,7 @@
         <v>44103</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -24743,7 +24743,7 @@
         <v>44106</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -24800,7 +24800,7 @@
         <v>44111</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -24857,7 +24857,7 @@
         <v>44111</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -24914,7 +24914,7 @@
         <v>44111</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -24971,7 +24971,7 @@
         <v>44113</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -25033,7 +25033,7 @@
         <v>44124</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -25090,7 +25090,7 @@
         <v>44126</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -25147,7 +25147,7 @@
         <v>44132</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -25209,7 +25209,7 @@
         <v>44134</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -25266,7 +25266,7 @@
         <v>44137</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -25323,7 +25323,7 @@
         <v>44138</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -25380,7 +25380,7 @@
         <v>44140</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -25442,7 +25442,7 @@
         <v>44140</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -25504,7 +25504,7 @@
         <v>44140</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -25566,7 +25566,7 @@
         <v>44140</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -25628,7 +25628,7 @@
         <v>44141</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -25690,7 +25690,7 @@
         <v>44153</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -25747,7 +25747,7 @@
         <v>44153</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -25809,7 +25809,7 @@
         <v>44155</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -25866,7 +25866,7 @@
         <v>44157</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -25923,7 +25923,7 @@
         <v>44159</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -25985,7 +25985,7 @@
         <v>44165</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -26047,7 +26047,7 @@
         <v>44167</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -26109,7 +26109,7 @@
         <v>44168</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -26166,7 +26166,7 @@
         <v>44172</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -26228,7 +26228,7 @@
         <v>44173</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -26285,7 +26285,7 @@
         <v>44174</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -26347,7 +26347,7 @@
         <v>44175</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -26409,7 +26409,7 @@
         <v>44188</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -26471,7 +26471,7 @@
         <v>44194</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -26528,7 +26528,7 @@
         <v>44195</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -26585,7 +26585,7 @@
         <v>44210</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -26642,7 +26642,7 @@
         <v>44214</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -26699,7 +26699,7 @@
         <v>44218</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -26756,7 +26756,7 @@
         <v>44225</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -26813,7 +26813,7 @@
         <v>44228</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -26870,7 +26870,7 @@
         <v>44229</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -26927,7 +26927,7 @@
         <v>44230</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -26989,7 +26989,7 @@
         <v>44231</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -27046,7 +27046,7 @@
         <v>44231</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -27103,7 +27103,7 @@
         <v>44236</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -27160,7 +27160,7 @@
         <v>44239</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -27222,7 +27222,7 @@
         <v>44242</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -27284,7 +27284,7 @@
         <v>44243</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -27341,7 +27341,7 @@
         <v>44245</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -27398,7 +27398,7 @@
         <v>44259</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -27455,7 +27455,7 @@
         <v>44259</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -27512,7 +27512,7 @@
         <v>44273</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -27569,7 +27569,7 @@
         <v>44280</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -27626,7 +27626,7 @@
         <v>44280</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -27683,7 +27683,7 @@
         <v>44281</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -27745,7 +27745,7 @@
         <v>44286</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -27802,7 +27802,7 @@
         <v>44286</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -27859,7 +27859,7 @@
         <v>44287</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -27916,7 +27916,7 @@
         <v>44292</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -27973,7 +27973,7 @@
         <v>44298</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -28030,7 +28030,7 @@
         <v>44299</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -28087,7 +28087,7 @@
         <v>44308</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -28144,7 +28144,7 @@
         <v>44308</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -28201,7 +28201,7 @@
         <v>44308</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -28258,7 +28258,7 @@
         <v>44308</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -28315,7 +28315,7 @@
         <v>44315</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -28377,7 +28377,7 @@
         <v>44322</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -28434,7 +28434,7 @@
         <v>44323</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -28496,7 +28496,7 @@
         <v>44332</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -28558,7 +28558,7 @@
         <v>44336</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -28615,7 +28615,7 @@
         <v>44336</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -28672,7 +28672,7 @@
         <v>44349</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -28729,7 +28729,7 @@
         <v>44351</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -28791,7 +28791,7 @@
         <v>44351</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -28853,7 +28853,7 @@
         <v>44356</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -28910,7 +28910,7 @@
         <v>44357</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -28967,7 +28967,7 @@
         <v>44362</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -29024,7 +29024,7 @@
         <v>44362</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -29081,7 +29081,7 @@
         <v>44368</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -29138,7 +29138,7 @@
         <v>44375</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -29195,7 +29195,7 @@
         <v>44379</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -29252,7 +29252,7 @@
         <v>44384</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -29309,7 +29309,7 @@
         <v>44385</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -29366,7 +29366,7 @@
         <v>44396</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -29423,7 +29423,7 @@
         <v>44405</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -29480,7 +29480,7 @@
         <v>44410</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -29537,7 +29537,7 @@
         <v>44413</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -29594,7 +29594,7 @@
         <v>44424</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -29651,7 +29651,7 @@
         <v>44425</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -29713,7 +29713,7 @@
         <v>44425</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -29775,7 +29775,7 @@
         <v>44425</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -29837,7 +29837,7 @@
         <v>44431</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -29894,7 +29894,7 @@
         <v>44434</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -29951,7 +29951,7 @@
         <v>44441</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -30008,7 +30008,7 @@
         <v>44443</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -30065,7 +30065,7 @@
         <v>44448</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -30122,7 +30122,7 @@
         <v>44452</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -30179,7 +30179,7 @@
         <v>44453</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -30236,7 +30236,7 @@
         <v>44466</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -30298,7 +30298,7 @@
         <v>44475</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -30355,7 +30355,7 @@
         <v>44476</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -30417,7 +30417,7 @@
         <v>44480</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -30474,7 +30474,7 @@
         <v>44495</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -30536,7 +30536,7 @@
         <v>44496</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -30593,7 +30593,7 @@
         <v>44505</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -30655,7 +30655,7 @@
         <v>44505</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -30717,7 +30717,7 @@
         <v>44511</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -30774,7 +30774,7 @@
         <v>44512</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -30831,7 +30831,7 @@
         <v>44517</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -30888,7 +30888,7 @@
         <v>44517</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -30945,7 +30945,7 @@
         <v>44518</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -31002,7 +31002,7 @@
         <v>44518</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -31064,7 +31064,7 @@
         <v>44530</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -31121,7 +31121,7 @@
         <v>44536</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -31178,7 +31178,7 @@
         <v>44537</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -31235,7 +31235,7 @@
         <v>44538</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -31292,7 +31292,7 @@
         <v>44571</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -31349,7 +31349,7 @@
         <v>44573</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -31406,7 +31406,7 @@
         <v>44574</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -31463,7 +31463,7 @@
         <v>44574</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -31520,7 +31520,7 @@
         <v>44578</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -31577,7 +31577,7 @@
         <v>44586</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -31634,7 +31634,7 @@
         <v>44593</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -31691,7 +31691,7 @@
         <v>44595</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -31748,7 +31748,7 @@
         <v>44599</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -31805,7 +31805,7 @@
         <v>44601</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -31862,7 +31862,7 @@
         <v>44601</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -31919,7 +31919,7 @@
         <v>44601</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -31976,7 +31976,7 @@
         <v>44606</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -32033,7 +32033,7 @@
         <v>44609</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -32095,7 +32095,7 @@
         <v>44614</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -32152,7 +32152,7 @@
         <v>44614</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -32209,7 +32209,7 @@
         <v>44614</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -32266,7 +32266,7 @@
         <v>44614</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -32323,7 +32323,7 @@
         <v>44614</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -32380,7 +32380,7 @@
         <v>44615</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -32437,7 +32437,7 @@
         <v>44615</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -32494,7 +32494,7 @@
         <v>44621</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -32551,7 +32551,7 @@
         <v>44627</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -32608,7 +32608,7 @@
         <v>44628</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -32665,7 +32665,7 @@
         <v>44629</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -32722,7 +32722,7 @@
         <v>44635</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -32784,7 +32784,7 @@
         <v>44641</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -32846,7 +32846,7 @@
         <v>44641</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -32908,7 +32908,7 @@
         <v>44644</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -32970,7 +32970,7 @@
         <v>44644</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -33032,7 +33032,7 @@
         <v>44649</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -33094,7 +33094,7 @@
         <v>44650</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -33151,7 +33151,7 @@
         <v>44650</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -33208,7 +33208,7 @@
         <v>44652</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -33270,7 +33270,7 @@
         <v>44655</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -33332,7 +33332,7 @@
         <v>44655</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -33394,7 +33394,7 @@
         <v>44656</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -33456,7 +33456,7 @@
         <v>44656</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -33518,7 +33518,7 @@
         <v>44657</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -33575,7 +33575,7 @@
         <v>44662</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -33637,7 +33637,7 @@
         <v>44663</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -33699,7 +33699,7 @@
         <v>44663</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -33761,7 +33761,7 @@
         <v>44670</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -33823,7 +33823,7 @@
         <v>44670</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -33880,7 +33880,7 @@
         <v>44670</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -33937,7 +33937,7 @@
         <v>44671</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -33994,7 +33994,7 @@
         <v>44671</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -34051,7 +34051,7 @@
         <v>44679</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -34108,7 +34108,7 @@
         <v>44680</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -34165,7 +34165,7 @@
         <v>44685</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -34222,7 +34222,7 @@
         <v>44685</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -34279,7 +34279,7 @@
         <v>44685</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -34341,7 +34341,7 @@
         <v>44686</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -34398,7 +34398,7 @@
         <v>44690</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -34455,7 +34455,7 @@
         <v>44690</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -34517,7 +34517,7 @@
         <v>44690</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -34579,7 +34579,7 @@
         <v>44690</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -34636,7 +34636,7 @@
         <v>44690</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -34698,7 +34698,7 @@
         <v>44690</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -34760,7 +34760,7 @@
         <v>44704</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -34817,7 +34817,7 @@
         <v>44705</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -34874,7 +34874,7 @@
         <v>44706</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -34931,7 +34931,7 @@
         <v>44714</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -34988,7 +34988,7 @@
         <v>44714</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -35050,7 +35050,7 @@
         <v>44714</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -35107,7 +35107,7 @@
         <v>44725</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -35164,7 +35164,7 @@
         <v>44727</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -35226,7 +35226,7 @@
         <v>44732</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -35283,7 +35283,7 @@
         <v>44734</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -35340,7 +35340,7 @@
         <v>44734</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -35402,7 +35402,7 @@
         <v>44741</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -35459,7 +35459,7 @@
         <v>44743</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -35516,7 +35516,7 @@
         <v>44746</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -35573,7 +35573,7 @@
         <v>44746</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -35635,7 +35635,7 @@
         <v>44761</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -35712,7 +35712,7 @@
         <v>44774</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -35769,7 +35769,7 @@
         <v>44774</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -35826,7 +35826,7 @@
         <v>44776</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -35888,7 +35888,7 @@
         <v>44776</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -35950,7 +35950,7 @@
         <v>44777</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -36012,7 +36012,7 @@
         <v>44778</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -36074,7 +36074,7 @@
         <v>44781</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -36131,7 +36131,7 @@
         <v>44782</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -36193,7 +36193,7 @@
         <v>44783</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -36255,7 +36255,7 @@
         <v>44788</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -36312,7 +36312,7 @@
         <v>44788</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -36369,7 +36369,7 @@
         <v>44791</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -36431,7 +36431,7 @@
         <v>44797</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -36493,7 +36493,7 @@
         <v>44798</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -36555,7 +36555,7 @@
         <v>44799</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -36617,7 +36617,7 @@
         <v>44802</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -36674,7 +36674,7 @@
         <v>44802</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -36736,7 +36736,7 @@
         <v>44804</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -36793,7 +36793,7 @@
         <v>44804</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -36855,7 +36855,7 @@
         <v>44805</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -36917,7 +36917,7 @@
         <v>44805</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -36979,7 +36979,7 @@
         <v>44806</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -37036,7 +37036,7 @@
         <v>44812</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -37098,7 +37098,7 @@
         <v>44813</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -37160,7 +37160,7 @@
         <v>44813</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -37222,7 +37222,7 @@
         <v>44815</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -37284,7 +37284,7 @@
         <v>44816</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -37346,7 +37346,7 @@
         <v>44816</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -37408,7 +37408,7 @@
         <v>44817</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -37470,7 +37470,7 @@
         <v>44818</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -37532,7 +37532,7 @@
         <v>44818</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -37589,7 +37589,7 @@
         <v>44820</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -37651,7 +37651,7 @@
         <v>44820</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -37708,7 +37708,7 @@
         <v>44820</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -37770,7 +37770,7 @@
         <v>44820</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -37832,7 +37832,7 @@
         <v>44823</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -37889,7 +37889,7 @@
         <v>44823</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -37946,7 +37946,7 @@
         <v>44825</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -38008,7 +38008,7 @@
         <v>44825</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -38070,7 +38070,7 @@
         <v>44830</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -38132,7 +38132,7 @@
         <v>44831</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -38194,7 +38194,7 @@
         <v>44831</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -38256,7 +38256,7 @@
         <v>44832</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -38318,7 +38318,7 @@
         <v>44832</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -38380,7 +38380,7 @@
         <v>44832</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -38442,7 +38442,7 @@
         <v>44837</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -38504,7 +38504,7 @@
         <v>44837</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -38566,7 +38566,7 @@
         <v>44838</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -38628,7 +38628,7 @@
         <v>44839</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -38685,7 +38685,7 @@
         <v>44839</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -38742,7 +38742,7 @@
         <v>44840</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -38804,7 +38804,7 @@
         <v>44841</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -38861,7 +38861,7 @@
         <v>44844</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -38923,7 +38923,7 @@
         <v>44845</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -38985,7 +38985,7 @@
         <v>44845</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -39047,7 +39047,7 @@
         <v>44845</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -39109,7 +39109,7 @@
         <v>44845</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -39171,7 +39171,7 @@
         <v>44846</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -39233,7 +39233,7 @@
         <v>44846</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -39295,7 +39295,7 @@
         <v>44852</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -39357,7 +39357,7 @@
         <v>44852</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -39419,7 +39419,7 @@
         <v>44852</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -39481,7 +39481,7 @@
         <v>44852</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -39543,7 +39543,7 @@
         <v>44853</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -39605,7 +39605,7 @@
         <v>44854</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -39667,7 +39667,7 @@
         <v>44855</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -39729,7 +39729,7 @@
         <v>44855</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -39791,7 +39791,7 @@
         <v>44855</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -39853,7 +39853,7 @@
         <v>44858</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -39915,7 +39915,7 @@
         <v>44858</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -39977,7 +39977,7 @@
         <v>44860</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -40039,7 +40039,7 @@
         <v>44860</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -40101,7 +40101,7 @@
         <v>44861</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -40163,7 +40163,7 @@
         <v>44861</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -40225,7 +40225,7 @@
         <v>44865</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -40282,7 +40282,7 @@
         <v>44865</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -40339,7 +40339,7 @@
         <v>44866</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -40401,7 +40401,7 @@
         <v>44866</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -40463,7 +40463,7 @@
         <v>44866</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -40525,7 +40525,7 @@
         <v>44867</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -40587,7 +40587,7 @@
         <v>44869</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -40644,7 +40644,7 @@
         <v>44869</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -40701,7 +40701,7 @@
         <v>44869</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -40758,7 +40758,7 @@
         <v>44874</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -40815,7 +40815,7 @@
         <v>44876</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -40877,7 +40877,7 @@
         <v>44879</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -40939,7 +40939,7 @@
         <v>44880</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -41001,7 +41001,7 @@
         <v>44880</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -41063,7 +41063,7 @@
         <v>44881</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -41120,7 +41120,7 @@
         <v>44883</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -41182,7 +41182,7 @@
         <v>44883</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -41244,7 +41244,7 @@
         <v>44886</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -41306,7 +41306,7 @@
         <v>44887</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -41363,7 +41363,7 @@
         <v>44887</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -41420,7 +41420,7 @@
         <v>44887</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -41477,7 +41477,7 @@
         <v>44888</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -41539,7 +41539,7 @@
         <v>44889</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -41601,7 +41601,7 @@
         <v>44889</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -41658,7 +41658,7 @@
         <v>44889</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -41720,7 +41720,7 @@
         <v>44893</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -41777,7 +41777,7 @@
         <v>44894</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -41834,7 +41834,7 @@
         <v>44895</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -41896,7 +41896,7 @@
         <v>44896</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -41953,7 +41953,7 @@
         <v>44897</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -42010,7 +42010,7 @@
         <v>44897</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -42072,7 +42072,7 @@
         <v>44900</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -42134,7 +42134,7 @@
         <v>44901</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -42196,7 +42196,7 @@
         <v>44901</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -42258,7 +42258,7 @@
         <v>44901</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -42320,7 +42320,7 @@
         <v>44903</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -42377,7 +42377,7 @@
         <v>44903</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -42439,7 +42439,7 @@
         <v>44904</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -42501,7 +42501,7 @@
         <v>44909</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -42563,7 +42563,7 @@
         <v>44911</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -42625,7 +42625,7 @@
         <v>44911</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -42687,7 +42687,7 @@
         <v>44913</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -42749,7 +42749,7 @@
         <v>44914</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -42806,7 +42806,7 @@
         <v>44914</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -42868,7 +42868,7 @@
         <v>44915</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -42925,7 +42925,7 @@
         <v>44915</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -42987,7 +42987,7 @@
         <v>44917</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -43049,7 +43049,7 @@
         <v>44917</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -43106,7 +43106,7 @@
         <v>44918</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -43168,7 +43168,7 @@
         <v>44922</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -43225,7 +43225,7 @@
         <v>44927</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -43287,7 +43287,7 @@
         <v>44929</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -43344,7 +43344,7 @@
         <v>44929</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -43401,7 +43401,7 @@
         <v>44929</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -43458,7 +43458,7 @@
         <v>44938</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -43520,7 +43520,7 @@
         <v>44938</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -43582,7 +43582,7 @@
         <v>44939</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -43644,7 +43644,7 @@
         <v>44939</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -43706,7 +43706,7 @@
         <v>44942</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -43763,7 +43763,7 @@
         <v>44942</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -43825,7 +43825,7 @@
         <v>44942</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -43882,7 +43882,7 @@
         <v>44942</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -43944,7 +43944,7 @@
         <v>44944</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -44001,7 +44001,7 @@
         <v>44953</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -44063,7 +44063,7 @@
         <v>44953</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -44125,7 +44125,7 @@
         <v>44956</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -44187,7 +44187,7 @@
         <v>44957</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -44249,7 +44249,7 @@
         <v>44958</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -44306,7 +44306,7 @@
         <v>44958</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -44363,7 +44363,7 @@
         <v>44958</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -44425,7 +44425,7 @@
         <v>44959</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -44482,7 +44482,7 @@
         <v>44963</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -44539,7 +44539,7 @@
         <v>44963</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -44601,7 +44601,7 @@
         <v>44965</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -44663,7 +44663,7 @@
         <v>44966</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -44725,7 +44725,7 @@
         <v>44966</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -44787,7 +44787,7 @@
         <v>44967</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -44849,7 +44849,7 @@
         <v>44971</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -44911,7 +44911,7 @@
         <v>44978</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -44973,7 +44973,7 @@
         <v>44979</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -45030,7 +45030,7 @@
         <v>44979</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -45087,7 +45087,7 @@
         <v>44979</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -45149,7 +45149,7 @@
         <v>44980</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -45206,7 +45206,7 @@
         <v>44984</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -45263,7 +45263,7 @@
         <v>44986</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -45320,7 +45320,7 @@
         <v>44987</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -45382,7 +45382,7 @@
         <v>44991</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -45444,7 +45444,7 @@
         <v>44991</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -45506,7 +45506,7 @@
         <v>44991</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -45568,7 +45568,7 @@
         <v>44991</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -45630,7 +45630,7 @@
         <v>44992</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -45687,7 +45687,7 @@
         <v>44993</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -45749,7 +45749,7 @@
         <v>44993</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -45811,7 +45811,7 @@
         <v>44993</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -45873,7 +45873,7 @@
         <v>44993</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -45930,7 +45930,7 @@
         <v>44995</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -45992,7 +45992,7 @@
         <v>44995</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -46054,7 +46054,7 @@
         <v>44995</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -46116,7 +46116,7 @@
         <v>45000</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -46173,7 +46173,7 @@
         <v>45000</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -46235,7 +46235,7 @@
         <v>45000</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -46297,7 +46297,7 @@
         <v>45000</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -46359,7 +46359,7 @@
         <v>45000</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -46421,7 +46421,7 @@
         <v>45002</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -46478,7 +46478,7 @@
         <v>45006</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -46540,7 +46540,7 @@
         <v>45007</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -46597,7 +46597,7 @@
         <v>45009</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -46654,7 +46654,7 @@
         <v>45009</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -46711,7 +46711,7 @@
         <v>45015</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -46773,7 +46773,7 @@
         <v>45015</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -46835,7 +46835,7 @@
         <v>45015</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -46892,7 +46892,7 @@
         <v>45015</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -46949,7 +46949,7 @@
         <v>45016</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -47006,7 +47006,7 @@
         <v>45016</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -47063,7 +47063,7 @@
         <v>45028</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -47120,7 +47120,7 @@
         <v>45033</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -47177,7 +47177,7 @@
         <v>45034</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -47234,7 +47234,7 @@
         <v>45040</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -47291,7 +47291,7 @@
         <v>45042</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -47348,7 +47348,7 @@
         <v>45044</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -47410,7 +47410,7 @@
         <v>45048</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -47472,7 +47472,7 @@
         <v>45048</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -47534,7 +47534,7 @@
         <v>45049</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -47596,7 +47596,7 @@
         <v>45050</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -47658,7 +47658,7 @@
         <v>45054</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -47720,7 +47720,7 @@
         <v>45056</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -47777,7 +47777,7 @@
         <v>45056</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -47834,7 +47834,7 @@
         <v>45063</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -47891,7 +47891,7 @@
         <v>45063</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -47948,7 +47948,7 @@
         <v>45068</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -48010,7 +48010,7 @@
         <v>45069</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -48067,7 +48067,7 @@
         <v>45070</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -48124,7 +48124,7 @@
         <v>45070</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -48181,7 +48181,7 @@
         <v>45070</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -48243,7 +48243,7 @@
         <v>45071</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -48300,7 +48300,7 @@
         <v>45071</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -48357,7 +48357,7 @@
         <v>45078</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -48414,7 +48414,7 @@
         <v>45078</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -48471,7 +48471,7 @@
         <v>45078</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -48528,7 +48528,7 @@
         <v>45079</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -48590,7 +48590,7 @@
         <v>45084</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -48647,7 +48647,7 @@
         <v>45085</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -48704,7 +48704,7 @@
         <v>45086</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -48761,7 +48761,7 @@
         <v>45086</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -48823,7 +48823,7 @@
         <v>45089</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -48880,7 +48880,7 @@
         <v>45089</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -48937,7 +48937,7 @@
         <v>45089</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -48999,7 +48999,7 @@
         <v>45089</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -49056,7 +49056,7 @@
         <v>45090</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -49113,7 +49113,7 @@
         <v>45091</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -49175,7 +49175,7 @@
         <v>45092</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -49232,7 +49232,7 @@
         <v>45092</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -49289,7 +49289,7 @@
         <v>45092</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -49346,7 +49346,7 @@
         <v>45092</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -49403,7 +49403,7 @@
         <v>45093</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -49460,7 +49460,7 @@
         <v>45093</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -49517,7 +49517,7 @@
         <v>45096</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -49574,7 +49574,7 @@
         <v>45096</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -49631,7 +49631,7 @@
         <v>45098</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -49688,7 +49688,7 @@
         <v>45098</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -49745,7 +49745,7 @@
         <v>45103</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -49802,7 +49802,7 @@
         <v>45103</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -49859,7 +49859,7 @@
         <v>45104</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -49916,7 +49916,7 @@
         <v>45105</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -49978,7 +49978,7 @@
         <v>45107</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -50035,7 +50035,7 @@
         <v>45107</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -50092,7 +50092,7 @@
         <v>45111</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -50149,7 +50149,7 @@
         <v>45112</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -50211,7 +50211,7 @@
         <v>45112</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -50273,7 +50273,7 @@
         <v>45121</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -50330,7 +50330,7 @@
         <v>45138</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -50392,7 +50392,7 @@
         <v>45146</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -50449,7 +50449,7 @@
         <v>45148</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -50506,7 +50506,7 @@
         <v>45148</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -50563,7 +50563,7 @@
         <v>45149</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -50620,7 +50620,7 @@
         <v>45153</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -50677,7 +50677,7 @@
         <v>45153</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -50734,7 +50734,7 @@
         <v>45166</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>

--- a/Översikt RAGUNDA.xlsx
+++ b/Översikt RAGUNDA.xlsx
@@ -572,7 +572,7 @@
         <v>44874</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -699,7 +699,7 @@
         <v>43865</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>44894</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         <v>44917</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
         <v>43865</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1145,7 +1145,7 @@
         <v>44504</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1256,7 +1256,7 @@
         <v>44644</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1362,7 +1362,7 @@
         <v>43866</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1466,7 +1466,7 @@
         <v>44504</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1575,7 +1575,7 @@
         <v>44473</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1678,7 +1678,7 @@
         <v>44088</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1784,7 +1784,7 @@
         <v>44151</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1881,7 +1881,7 @@
         <v>44644</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1983,7 +1983,7 @@
         <v>44838</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2080,7 +2080,7 @@
         <v>43900</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2181,7 +2181,7 @@
         <v>44062</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2282,7 +2282,7 @@
         <v>45104</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2383,7 +2383,7 @@
         <v>43910</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2487,7 +2487,7 @@
         <v>44776</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2591,7 +2591,7 @@
         <v>44645</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2690,7 +2690,7 @@
         <v>44888</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2789,7 +2789,7 @@
         <v>43353</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2887,7 +2887,7 @@
         <v>44504</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2985,7 +2985,7 @@
         <v>45113</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3083,7 +3083,7 @@
         <v>44133</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3180,7 +3180,7 @@
         <v>44644</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3277,7 +3277,7 @@
         <v>44901</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3378,7 +3378,7 @@
         <v>45113</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3475,7 +3475,7 @@
         <v>43411</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3571,7 +3571,7 @@
         <v>43413</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3667,7 +3667,7 @@
         <v>44133</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         <v>44336</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3854,7 +3854,7 @@
         <v>44438</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3950,7 +3950,7 @@
         <v>44662</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4046,7 +4046,7 @@
         <v>44804</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4142,7 +4142,7 @@
         <v>44915</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4242,7 +4242,7 @@
         <v>44953</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4333,7 +4333,7 @@
         <v>44994</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4433,7 +4433,7 @@
         <v>45009</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4524,7 +4524,7 @@
         <v>44209</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4614,7 +4614,7 @@
         <v>44875</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4709,7 +4709,7 @@
         <v>44876</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4804,7 +4804,7 @@
         <v>44911</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4899,7 +4899,7 @@
         <v>44932</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4994,7 +4994,7 @@
         <v>44994</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -5089,7 +5089,7 @@
         <v>45015</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5183,7 +5183,7 @@
         <v>45027</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5282,7 +5282,7 @@
         <v>45070</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5377,7 +5377,7 @@
         <v>44111</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5470,7 +5470,7 @@
         <v>44139</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5559,7 +5559,7 @@
         <v>44645</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5657,7 +5657,7 @@
         <v>44656</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5751,7 +5751,7 @@
         <v>44734</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5845,7 +5845,7 @@
         <v>44865</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5939,7 +5939,7 @@
         <v>44911</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -6033,7 +6033,7 @@
         <v>45054</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -6122,7 +6122,7 @@
         <v>45093</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6215,7 +6215,7 @@
         <v>43977</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6308,7 +6308,7 @@
         <v>44113</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6401,7 +6401,7 @@
         <v>44245</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6494,7 +6494,7 @@
         <v>44334</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6586,7 +6586,7 @@
         <v>44334</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6678,7 +6678,7 @@
         <v>44446</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6771,7 +6771,7 @@
         <v>44610</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6864,7 +6864,7 @@
         <v>44624</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6957,7 +6957,7 @@
         <v>44662</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -7050,7 +7050,7 @@
         <v>44677</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -7142,7 +7142,7 @@
         <v>44696</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -7235,7 +7235,7 @@
         <v>44732</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7332,7 +7332,7 @@
         <v>44911</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7425,7 +7425,7 @@
         <v>45034</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7518,7 +7518,7 @@
         <v>43817</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7609,7 +7609,7 @@
         <v>44111</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7701,7 +7701,7 @@
         <v>44421</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7793,7 +7793,7 @@
         <v>44740</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7880,7 +7880,7 @@
         <v>44855</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7976,7 +7976,7 @@
         <v>44855</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -8068,7 +8068,7 @@
         <v>44875</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -8160,7 +8160,7 @@
         <v>44902</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -8252,7 +8252,7 @@
         <v>44971</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -8344,7 +8344,7 @@
         <v>44987</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8435,7 +8435,7 @@
         <v>44987</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8522,7 +8522,7 @@
         <v>45049</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8614,7 +8614,7 @@
         <v>43329</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8700,7 +8700,7 @@
         <v>43411</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8786,7 +8786,7 @@
         <v>43707</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8876,7 +8876,7 @@
         <v>43948</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8962,7 +8962,7 @@
         <v>44676</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -9053,7 +9053,7 @@
         <v>44680</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -9139,7 +9139,7 @@
         <v>44855</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -9230,7 +9230,7 @@
         <v>44855</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -9321,7 +9321,7 @@
         <v>44860</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9412,7 +9412,7 @@
         <v>44973</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9503,7 +9503,7 @@
         <v>44980</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9589,7 +9589,7 @@
         <v>45005</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9680,7 +9680,7 @@
         <v>45121</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9771,7 +9771,7 @@
         <v>43515</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9856,7 +9856,7 @@
         <v>43619</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9946,7 +9946,7 @@
         <v>43650</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -10031,7 +10031,7 @@
         <v>43784</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -10121,7 +10121,7 @@
         <v>43791</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -10206,7 +10206,7 @@
         <v>43977</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -10296,7 +10296,7 @@
         <v>44012</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -10386,7 +10386,7 @@
         <v>44049</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -10476,7 +10476,7 @@
         <v>44062</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10566,7 +10566,7 @@
         <v>44098</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10656,7 +10656,7 @@
         <v>44119</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -10741,7 +10741,7 @@
         <v>44166</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10826,7 +10826,7 @@
         <v>44319</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10916,7 +10916,7 @@
         <v>44369</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -11001,7 +11001,7 @@
         <v>44462</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -11091,7 +11091,7 @@
         <v>44601</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -11176,7 +11176,7 @@
         <v>44607</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -11266,7 +11266,7 @@
         <v>44705</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -11351,7 +11351,7 @@
         <v>44741</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -11441,7 +11441,7 @@
         <v>44741</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -11526,7 +11526,7 @@
         <v>44830</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -11616,7 +11616,7 @@
         <v>44832</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -11706,7 +11706,7 @@
         <v>44855</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -11796,7 +11796,7 @@
         <v>44860</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -11881,7 +11881,7 @@
         <v>45033</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -11970,7 +11970,7 @@
         <v>45042</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -12055,7 +12055,7 @@
         <v>45044</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -12145,7 +12145,7 @@
         <v>45089</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -12230,7 +12230,7 @@
         <v>45097</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -12320,7 +12320,7 @@
         <v>45120</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -12410,7 +12410,7 @@
         <v>45121</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -12495,7 +12495,7 @@
         <v>45149</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -12585,7 +12585,7 @@
         <v>45153</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -12670,7 +12670,7 @@
         <v>43321</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -12727,7 +12727,7 @@
         <v>43322</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -12789,7 +12789,7 @@
         <v>43326</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -12846,7 +12846,7 @@
         <v>43341</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -12903,7 +12903,7 @@
         <v>43360</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -12960,7 +12960,7 @@
         <v>43395</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -13017,7 +13017,7 @@
         <v>43396</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -13074,7 +13074,7 @@
         <v>43398</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -13131,7 +13131,7 @@
         <v>43398</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -13188,7 +13188,7 @@
         <v>43398</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -13245,7 +13245,7 @@
         <v>43403</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -13307,7 +13307,7 @@
         <v>43403</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -13369,7 +13369,7 @@
         <v>43403</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -13431,7 +13431,7 @@
         <v>43405</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -13493,7 +13493,7 @@
         <v>43406</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -13555,7 +13555,7 @@
         <v>43410</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -13617,7 +13617,7 @@
         <v>43411</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -13674,7 +13674,7 @@
         <v>43411</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -13736,7 +13736,7 @@
         <v>43411</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -13798,7 +13798,7 @@
         <v>43411</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -13860,7 +13860,7 @@
         <v>43411</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -13922,7 +13922,7 @@
         <v>43411</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -13984,7 +13984,7 @@
         <v>43411</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -14041,7 +14041,7 @@
         <v>43413</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -14098,7 +14098,7 @@
         <v>43418</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -14155,7 +14155,7 @@
         <v>43419</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -14212,7 +14212,7 @@
         <v>43423</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -14269,7 +14269,7 @@
         <v>43423</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -14326,7 +14326,7 @@
         <v>43427</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -14383,7 +14383,7 @@
         <v>43427</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -14440,7 +14440,7 @@
         <v>43431</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -14497,7 +14497,7 @@
         <v>43431</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -14559,7 +14559,7 @@
         <v>43431</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -14621,7 +14621,7 @@
         <v>43437</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -14683,7 +14683,7 @@
         <v>43438</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -14740,7 +14740,7 @@
         <v>43440</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -14797,7 +14797,7 @@
         <v>43444</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -14854,7 +14854,7 @@
         <v>43448</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -14911,7 +14911,7 @@
         <v>43461</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -14968,7 +14968,7 @@
         <v>43461</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -15025,7 +15025,7 @@
         <v>43467</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -15082,7 +15082,7 @@
         <v>43467</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -15139,7 +15139,7 @@
         <v>43473</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -15196,7 +15196,7 @@
         <v>43473</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -15253,7 +15253,7 @@
         <v>43474</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -15310,7 +15310,7 @@
         <v>43481</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -15367,7 +15367,7 @@
         <v>43481</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -15424,7 +15424,7 @@
         <v>43483</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -15481,7 +15481,7 @@
         <v>43495</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -15538,7 +15538,7 @@
         <v>43496</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -15600,7 +15600,7 @@
         <v>43509</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -15657,7 +15657,7 @@
         <v>43510</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -15714,7 +15714,7 @@
         <v>43515</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -15771,7 +15771,7 @@
         <v>43530</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -15828,7 +15828,7 @@
         <v>43537</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -15890,7 +15890,7 @@
         <v>43538</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -15947,7 +15947,7 @@
         <v>43542</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -16004,7 +16004,7 @@
         <v>43543</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -16061,7 +16061,7 @@
         <v>43551</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -16118,7 +16118,7 @@
         <v>43551</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -16175,7 +16175,7 @@
         <v>43552</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -16232,7 +16232,7 @@
         <v>43563</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -16289,7 +16289,7 @@
         <v>43565</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -16346,7 +16346,7 @@
         <v>43578</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -16408,7 +16408,7 @@
         <v>43584</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -16465,7 +16465,7 @@
         <v>43589</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -16522,7 +16522,7 @@
         <v>43594</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -16579,7 +16579,7 @@
         <v>43594</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -16641,7 +16641,7 @@
         <v>43622</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -16703,7 +16703,7 @@
         <v>43633</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -16760,7 +16760,7 @@
         <v>43633</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -16817,7 +16817,7 @@
         <v>43640</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -16879,7 +16879,7 @@
         <v>43641</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -16941,7 +16941,7 @@
         <v>43641</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -17003,7 +17003,7 @@
         <v>43643</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -17065,7 +17065,7 @@
         <v>43650</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -17127,7 +17127,7 @@
         <v>43651</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -17184,7 +17184,7 @@
         <v>43654</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -17246,7 +17246,7 @@
         <v>43654</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -17308,7 +17308,7 @@
         <v>43656</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -17370,7 +17370,7 @@
         <v>43669</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -17427,7 +17427,7 @@
         <v>43678</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -17489,7 +17489,7 @@
         <v>43704</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -17551,7 +17551,7 @@
         <v>43704</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -17613,7 +17613,7 @@
         <v>43704</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -17675,7 +17675,7 @@
         <v>43706</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -17732,7 +17732,7 @@
         <v>43706</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -17789,7 +17789,7 @@
         <v>43713</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -17846,7 +17846,7 @@
         <v>43713</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -17903,7 +17903,7 @@
         <v>43728</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -17965,7 +17965,7 @@
         <v>43733</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -18022,7 +18022,7 @@
         <v>43733</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -18079,7 +18079,7 @@
         <v>43735</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -18136,7 +18136,7 @@
         <v>43740</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -18193,7 +18193,7 @@
         <v>43742</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -18250,7 +18250,7 @@
         <v>43746</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -18307,7 +18307,7 @@
         <v>43756</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -18364,7 +18364,7 @@
         <v>43759</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -18421,7 +18421,7 @@
         <v>43760</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -18478,7 +18478,7 @@
         <v>43768</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -18535,7 +18535,7 @@
         <v>43768</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -18597,7 +18597,7 @@
         <v>43770</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -18659,7 +18659,7 @@
         <v>43770</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -18721,7 +18721,7 @@
         <v>43773</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -18778,7 +18778,7 @@
         <v>43773</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -18840,7 +18840,7 @@
         <v>43773</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -18897,7 +18897,7 @@
         <v>43775</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -18954,7 +18954,7 @@
         <v>43777</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -19016,7 +19016,7 @@
         <v>43782</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -19073,7 +19073,7 @@
         <v>43783</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -19130,7 +19130,7 @@
         <v>43788</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -19207,7 +19207,7 @@
         <v>43791</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -19264,7 +19264,7 @@
         <v>43797</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -19321,7 +19321,7 @@
         <v>43797</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -19378,7 +19378,7 @@
         <v>43803</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -19435,7 +19435,7 @@
         <v>43805</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -19492,7 +19492,7 @@
         <v>43812</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -19549,7 +19549,7 @@
         <v>43818</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -19606,7 +19606,7 @@
         <v>43819</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -19663,7 +19663,7 @@
         <v>43833</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -19720,7 +19720,7 @@
         <v>43847</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -19777,7 +19777,7 @@
         <v>43850</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -19834,7 +19834,7 @@
         <v>43861</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -19891,7 +19891,7 @@
         <v>43868</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -19948,7 +19948,7 @@
         <v>43872</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -20005,7 +20005,7 @@
         <v>43873</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -20062,7 +20062,7 @@
         <v>43880</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -20119,7 +20119,7 @@
         <v>43881</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -20181,7 +20181,7 @@
         <v>43882</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -20238,7 +20238,7 @@
         <v>43887</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -20295,7 +20295,7 @@
         <v>43896</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -20377,7 +20377,7 @@
         <v>43900</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -20434,7 +20434,7 @@
         <v>43901</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -20491,7 +20491,7 @@
         <v>43902</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -20553,7 +20553,7 @@
         <v>43907</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -20610,7 +20610,7 @@
         <v>43910</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -20667,7 +20667,7 @@
         <v>43910</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -20724,7 +20724,7 @@
         <v>43913</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -20781,7 +20781,7 @@
         <v>43916</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -20838,7 +20838,7 @@
         <v>43923</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -20895,7 +20895,7 @@
         <v>43943</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -20952,7 +20952,7 @@
         <v>43948</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -21009,7 +21009,7 @@
         <v>43949</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -21071,7 +21071,7 @@
         <v>43951</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -21128,7 +21128,7 @@
         <v>43955</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -21190,7 +21190,7 @@
         <v>43955</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -21252,7 +21252,7 @@
         <v>43955</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -21314,7 +21314,7 @@
         <v>43955</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -21376,7 +21376,7 @@
         <v>43956</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -21438,7 +21438,7 @@
         <v>43957</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -21495,7 +21495,7 @@
         <v>43965</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -21552,7 +21552,7 @@
         <v>43969</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -21614,7 +21614,7 @@
         <v>43971</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -21671,7 +21671,7 @@
         <v>43971</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -21728,7 +21728,7 @@
         <v>43977</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -21790,7 +21790,7 @@
         <v>43979</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -21847,7 +21847,7 @@
         <v>43984</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -21909,7 +21909,7 @@
         <v>43984</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -21971,7 +21971,7 @@
         <v>43986</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -22033,7 +22033,7 @@
         <v>43986</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -22095,7 +22095,7 @@
         <v>43990</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -22157,7 +22157,7 @@
         <v>43992</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -22214,7 +22214,7 @@
         <v>43999</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -22276,7 +22276,7 @@
         <v>44000</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -22333,7 +22333,7 @@
         <v>44004</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -22395,7 +22395,7 @@
         <v>44006</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -22457,7 +22457,7 @@
         <v>44011</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -22519,7 +22519,7 @@
         <v>44013</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -22581,7 +22581,7 @@
         <v>44013</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -22643,7 +22643,7 @@
         <v>44013</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -22705,7 +22705,7 @@
         <v>44019</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -22767,7 +22767,7 @@
         <v>44026</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -22824,7 +22824,7 @@
         <v>44027</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -22886,7 +22886,7 @@
         <v>44029</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -22948,7 +22948,7 @@
         <v>44029</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -23005,7 +23005,7 @@
         <v>44040</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -23062,7 +23062,7 @@
         <v>44041</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -23124,7 +23124,7 @@
         <v>44051</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -23181,7 +23181,7 @@
         <v>44051</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -23238,7 +23238,7 @@
         <v>44055</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -23295,7 +23295,7 @@
         <v>44056</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -23352,7 +23352,7 @@
         <v>44057</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -23409,7 +23409,7 @@
         <v>44057</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -23471,7 +23471,7 @@
         <v>44062</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -23533,7 +23533,7 @@
         <v>44063</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -23595,7 +23595,7 @@
         <v>44067</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -23657,7 +23657,7 @@
         <v>44069</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -23719,7 +23719,7 @@
         <v>44071</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -23781,7 +23781,7 @@
         <v>44074</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -23843,7 +23843,7 @@
         <v>44074</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -23905,7 +23905,7 @@
         <v>44074</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -23967,7 +23967,7 @@
         <v>44075</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -24029,7 +24029,7 @@
         <v>44078</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -24086,7 +24086,7 @@
         <v>44082</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -24148,7 +24148,7 @@
         <v>44084</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -24210,7 +24210,7 @@
         <v>44084</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -24267,7 +24267,7 @@
         <v>44084</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -24324,7 +24324,7 @@
         <v>44090</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -24381,7 +24381,7 @@
         <v>44095</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -24438,7 +24438,7 @@
         <v>44096</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -24500,7 +24500,7 @@
         <v>44096</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -24562,7 +24562,7 @@
         <v>44098</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -24619,7 +24619,7 @@
         <v>44099</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -24681,7 +24681,7 @@
         <v>44103</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -24743,7 +24743,7 @@
         <v>44106</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -24800,7 +24800,7 @@
         <v>44111</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -24857,7 +24857,7 @@
         <v>44111</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -24914,7 +24914,7 @@
         <v>44111</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -24971,7 +24971,7 @@
         <v>44113</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -25033,7 +25033,7 @@
         <v>44124</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -25090,7 +25090,7 @@
         <v>44126</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -25147,7 +25147,7 @@
         <v>44132</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -25209,7 +25209,7 @@
         <v>44134</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -25266,7 +25266,7 @@
         <v>44137</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -25323,7 +25323,7 @@
         <v>44138</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -25380,7 +25380,7 @@
         <v>44140</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -25442,7 +25442,7 @@
         <v>44140</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -25504,7 +25504,7 @@
         <v>44140</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -25566,7 +25566,7 @@
         <v>44140</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -25628,7 +25628,7 @@
         <v>44141</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -25690,7 +25690,7 @@
         <v>44153</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -25747,7 +25747,7 @@
         <v>44153</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -25809,7 +25809,7 @@
         <v>44155</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -25866,7 +25866,7 @@
         <v>44157</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -25923,7 +25923,7 @@
         <v>44159</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -25985,7 +25985,7 @@
         <v>44165</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -26047,7 +26047,7 @@
         <v>44167</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -26109,7 +26109,7 @@
         <v>44168</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -26166,7 +26166,7 @@
         <v>44172</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -26228,7 +26228,7 @@
         <v>44173</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -26285,7 +26285,7 @@
         <v>44174</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -26347,7 +26347,7 @@
         <v>44175</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -26409,7 +26409,7 @@
         <v>44188</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -26471,7 +26471,7 @@
         <v>44194</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -26528,7 +26528,7 @@
         <v>44195</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -26585,7 +26585,7 @@
         <v>44210</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -26642,7 +26642,7 @@
         <v>44214</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -26699,7 +26699,7 @@
         <v>44218</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -26756,7 +26756,7 @@
         <v>44225</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -26813,7 +26813,7 @@
         <v>44228</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -26870,7 +26870,7 @@
         <v>44229</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -26927,7 +26927,7 @@
         <v>44230</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -26989,7 +26989,7 @@
         <v>44231</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -27046,7 +27046,7 @@
         <v>44231</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -27103,7 +27103,7 @@
         <v>44236</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -27160,7 +27160,7 @@
         <v>44239</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -27222,7 +27222,7 @@
         <v>44242</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -27284,7 +27284,7 @@
         <v>44243</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -27341,7 +27341,7 @@
         <v>44245</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -27398,7 +27398,7 @@
         <v>44259</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -27455,7 +27455,7 @@
         <v>44259</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -27512,7 +27512,7 @@
         <v>44273</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -27569,7 +27569,7 @@
         <v>44280</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -27626,7 +27626,7 @@
         <v>44280</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -27683,7 +27683,7 @@
         <v>44281</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -27745,7 +27745,7 @@
         <v>44286</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -27802,7 +27802,7 @@
         <v>44286</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -27859,7 +27859,7 @@
         <v>44287</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -27916,7 +27916,7 @@
         <v>44292</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -27973,7 +27973,7 @@
         <v>44298</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -28030,7 +28030,7 @@
         <v>44299</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -28087,7 +28087,7 @@
         <v>44308</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -28144,7 +28144,7 @@
         <v>44308</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -28201,7 +28201,7 @@
         <v>44308</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -28258,7 +28258,7 @@
         <v>44308</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -28315,7 +28315,7 @@
         <v>44315</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -28377,7 +28377,7 @@
         <v>44322</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -28434,7 +28434,7 @@
         <v>44323</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -28496,7 +28496,7 @@
         <v>44332</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -28558,7 +28558,7 @@
         <v>44336</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -28615,7 +28615,7 @@
         <v>44336</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -28672,7 +28672,7 @@
         <v>44349</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -28729,7 +28729,7 @@
         <v>44351</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -28791,7 +28791,7 @@
         <v>44351</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -28853,7 +28853,7 @@
         <v>44356</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -28910,7 +28910,7 @@
         <v>44357</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -28967,7 +28967,7 @@
         <v>44362</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -29024,7 +29024,7 @@
         <v>44362</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -29081,7 +29081,7 @@
         <v>44368</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -29138,7 +29138,7 @@
         <v>44375</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -29195,7 +29195,7 @@
         <v>44379</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -29252,7 +29252,7 @@
         <v>44384</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -29309,7 +29309,7 @@
         <v>44385</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -29366,7 +29366,7 @@
         <v>44396</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -29423,7 +29423,7 @@
         <v>44405</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -29480,7 +29480,7 @@
         <v>44410</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -29537,7 +29537,7 @@
         <v>44413</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -29594,7 +29594,7 @@
         <v>44424</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -29651,7 +29651,7 @@
         <v>44425</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -29713,7 +29713,7 @@
         <v>44425</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -29775,7 +29775,7 @@
         <v>44425</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -29837,7 +29837,7 @@
         <v>44431</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -29894,7 +29894,7 @@
         <v>44434</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -29951,7 +29951,7 @@
         <v>44441</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -30008,7 +30008,7 @@
         <v>44443</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -30065,7 +30065,7 @@
         <v>44448</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -30122,7 +30122,7 @@
         <v>44452</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -30179,7 +30179,7 @@
         <v>44453</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -30236,7 +30236,7 @@
         <v>44466</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -30298,7 +30298,7 @@
         <v>44475</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -30355,7 +30355,7 @@
         <v>44476</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -30417,7 +30417,7 @@
         <v>44480</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -30474,7 +30474,7 @@
         <v>44495</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -30536,7 +30536,7 @@
         <v>44496</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -30593,7 +30593,7 @@
         <v>44505</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -30655,7 +30655,7 @@
         <v>44505</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -30717,7 +30717,7 @@
         <v>44511</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -30774,7 +30774,7 @@
         <v>44512</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -30831,7 +30831,7 @@
         <v>44517</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -30888,7 +30888,7 @@
         <v>44517</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -30945,7 +30945,7 @@
         <v>44518</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -31002,7 +31002,7 @@
         <v>44518</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -31064,7 +31064,7 @@
         <v>44530</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -31121,7 +31121,7 @@
         <v>44536</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -31178,7 +31178,7 @@
         <v>44537</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -31235,7 +31235,7 @@
         <v>44538</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -31292,7 +31292,7 @@
         <v>44571</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -31349,7 +31349,7 @@
         <v>44573</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -31406,7 +31406,7 @@
         <v>44574</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -31463,7 +31463,7 @@
         <v>44574</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -31520,7 +31520,7 @@
         <v>44578</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -31577,7 +31577,7 @@
         <v>44586</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -31634,7 +31634,7 @@
         <v>44593</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -31691,7 +31691,7 @@
         <v>44595</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -31748,7 +31748,7 @@
         <v>44599</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -31805,7 +31805,7 @@
         <v>44601</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -31862,7 +31862,7 @@
         <v>44601</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -31919,7 +31919,7 @@
         <v>44601</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -31976,7 +31976,7 @@
         <v>44606</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -32033,7 +32033,7 @@
         <v>44609</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -32095,7 +32095,7 @@
         <v>44614</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -32152,7 +32152,7 @@
         <v>44614</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -32209,7 +32209,7 @@
         <v>44614</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -32266,7 +32266,7 @@
         <v>44614</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -32323,7 +32323,7 @@
         <v>44614</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -32380,7 +32380,7 @@
         <v>44615</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -32437,7 +32437,7 @@
         <v>44615</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -32494,7 +32494,7 @@
         <v>44621</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -32551,7 +32551,7 @@
         <v>44627</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -32608,7 +32608,7 @@
         <v>44628</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -32665,7 +32665,7 @@
         <v>44629</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -32722,7 +32722,7 @@
         <v>44635</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -32784,7 +32784,7 @@
         <v>44641</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -32846,7 +32846,7 @@
         <v>44641</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -32908,7 +32908,7 @@
         <v>44644</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -32970,7 +32970,7 @@
         <v>44644</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -33032,7 +33032,7 @@
         <v>44649</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -33094,7 +33094,7 @@
         <v>44650</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -33151,7 +33151,7 @@
         <v>44650</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -33208,7 +33208,7 @@
         <v>44652</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -33270,7 +33270,7 @@
         <v>44655</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -33332,7 +33332,7 @@
         <v>44655</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -33394,7 +33394,7 @@
         <v>44656</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -33456,7 +33456,7 @@
         <v>44656</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -33518,7 +33518,7 @@
         <v>44657</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -33575,7 +33575,7 @@
         <v>44662</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -33637,7 +33637,7 @@
         <v>44663</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -33699,7 +33699,7 @@
         <v>44663</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -33761,7 +33761,7 @@
         <v>44670</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -33823,7 +33823,7 @@
         <v>44670</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -33880,7 +33880,7 @@
         <v>44670</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -33937,7 +33937,7 @@
         <v>44671</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -33994,7 +33994,7 @@
         <v>44671</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -34051,7 +34051,7 @@
         <v>44679</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -34108,7 +34108,7 @@
         <v>44680</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -34165,7 +34165,7 @@
         <v>44685</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -34222,7 +34222,7 @@
         <v>44685</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -34279,7 +34279,7 @@
         <v>44685</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -34341,7 +34341,7 @@
         <v>44686</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -34398,7 +34398,7 @@
         <v>44690</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -34455,7 +34455,7 @@
         <v>44690</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -34517,7 +34517,7 @@
         <v>44690</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -34579,7 +34579,7 @@
         <v>44690</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -34636,7 +34636,7 @@
         <v>44690</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -34698,7 +34698,7 @@
         <v>44690</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -34760,7 +34760,7 @@
         <v>44704</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -34817,7 +34817,7 @@
         <v>44705</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -34874,7 +34874,7 @@
         <v>44706</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -34931,7 +34931,7 @@
         <v>44714</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -34988,7 +34988,7 @@
         <v>44714</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -35050,7 +35050,7 @@
         <v>44714</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -35107,7 +35107,7 @@
         <v>44725</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -35164,7 +35164,7 @@
         <v>44727</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -35226,7 +35226,7 @@
         <v>44732</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -35283,7 +35283,7 @@
         <v>44734</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -35340,7 +35340,7 @@
         <v>44734</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -35402,7 +35402,7 @@
         <v>44741</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -35459,7 +35459,7 @@
         <v>44743</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -35516,7 +35516,7 @@
         <v>44746</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -35573,7 +35573,7 @@
         <v>44746</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -35635,7 +35635,7 @@
         <v>44761</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -35712,7 +35712,7 @@
         <v>44774</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -35769,7 +35769,7 @@
         <v>44774</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -35826,7 +35826,7 @@
         <v>44776</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -35888,7 +35888,7 @@
         <v>44776</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -35950,7 +35950,7 @@
         <v>44777</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -36012,7 +36012,7 @@
         <v>44778</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -36074,7 +36074,7 @@
         <v>44781</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -36131,7 +36131,7 @@
         <v>44782</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -36193,7 +36193,7 @@
         <v>44783</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -36255,7 +36255,7 @@
         <v>44788</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -36312,7 +36312,7 @@
         <v>44788</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -36369,7 +36369,7 @@
         <v>44791</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -36431,7 +36431,7 @@
         <v>44797</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -36493,7 +36493,7 @@
         <v>44798</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -36555,7 +36555,7 @@
         <v>44799</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -36617,7 +36617,7 @@
         <v>44802</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -36674,7 +36674,7 @@
         <v>44802</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -36736,7 +36736,7 @@
         <v>44804</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -36793,7 +36793,7 @@
         <v>44804</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -36855,7 +36855,7 @@
         <v>44805</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -36917,7 +36917,7 @@
         <v>44805</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -36979,7 +36979,7 @@
         <v>44806</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -37036,7 +37036,7 @@
         <v>44812</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -37098,7 +37098,7 @@
         <v>44813</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -37160,7 +37160,7 @@
         <v>44813</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -37222,7 +37222,7 @@
         <v>44815</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -37284,7 +37284,7 @@
         <v>44816</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -37346,7 +37346,7 @@
         <v>44816</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -37408,7 +37408,7 @@
         <v>44817</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -37470,7 +37470,7 @@
         <v>44818</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -37532,7 +37532,7 @@
         <v>44818</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -37589,7 +37589,7 @@
         <v>44820</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -37651,7 +37651,7 @@
         <v>44820</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -37708,7 +37708,7 @@
         <v>44820</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -37770,7 +37770,7 @@
         <v>44820</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -37832,7 +37832,7 @@
         <v>44823</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -37889,7 +37889,7 @@
         <v>44823</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -37946,7 +37946,7 @@
         <v>44825</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -38008,7 +38008,7 @@
         <v>44825</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -38070,7 +38070,7 @@
         <v>44830</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -38132,7 +38132,7 @@
         <v>44831</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -38194,7 +38194,7 @@
         <v>44831</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -38256,7 +38256,7 @@
         <v>44832</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -38318,7 +38318,7 @@
         <v>44832</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -38380,7 +38380,7 @@
         <v>44832</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -38442,7 +38442,7 @@
         <v>44837</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -38504,7 +38504,7 @@
         <v>44837</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -38566,7 +38566,7 @@
         <v>44838</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -38628,7 +38628,7 @@
         <v>44839</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -38685,7 +38685,7 @@
         <v>44839</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -38742,7 +38742,7 @@
         <v>44840</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -38804,7 +38804,7 @@
         <v>44841</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -38861,7 +38861,7 @@
         <v>44844</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -38923,7 +38923,7 @@
         <v>44845</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -38985,7 +38985,7 @@
         <v>44845</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -39047,7 +39047,7 @@
         <v>44845</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -39109,7 +39109,7 @@
         <v>44845</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -39171,7 +39171,7 @@
         <v>44846</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -39233,7 +39233,7 @@
         <v>44846</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -39295,7 +39295,7 @@
         <v>44852</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -39357,7 +39357,7 @@
         <v>44852</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -39419,7 +39419,7 @@
         <v>44852</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -39481,7 +39481,7 @@
         <v>44852</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -39543,7 +39543,7 @@
         <v>44853</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -39605,7 +39605,7 @@
         <v>44854</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -39667,7 +39667,7 @@
         <v>44855</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -39729,7 +39729,7 @@
         <v>44855</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -39791,7 +39791,7 @@
         <v>44855</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -39853,7 +39853,7 @@
         <v>44858</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -39915,7 +39915,7 @@
         <v>44858</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -39977,7 +39977,7 @@
         <v>44860</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -40039,7 +40039,7 @@
         <v>44860</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -40101,7 +40101,7 @@
         <v>44861</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -40163,7 +40163,7 @@
         <v>44861</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -40225,7 +40225,7 @@
         <v>44865</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -40282,7 +40282,7 @@
         <v>44865</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -40339,7 +40339,7 @@
         <v>44866</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -40401,7 +40401,7 @@
         <v>44866</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -40463,7 +40463,7 @@
         <v>44866</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -40525,7 +40525,7 @@
         <v>44867</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -40587,7 +40587,7 @@
         <v>44869</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -40644,7 +40644,7 @@
         <v>44869</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -40701,7 +40701,7 @@
         <v>44869</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -40758,7 +40758,7 @@
         <v>44874</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -40815,7 +40815,7 @@
         <v>44876</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -40877,7 +40877,7 @@
         <v>44879</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -40939,7 +40939,7 @@
         <v>44880</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -41001,7 +41001,7 @@
         <v>44880</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -41063,7 +41063,7 @@
         <v>44881</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -41120,7 +41120,7 @@
         <v>44883</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -41182,7 +41182,7 @@
         <v>44883</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -41244,7 +41244,7 @@
         <v>44886</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -41306,7 +41306,7 @@
         <v>44887</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -41363,7 +41363,7 @@
         <v>44887</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -41420,7 +41420,7 @@
         <v>44887</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -41477,7 +41477,7 @@
         <v>44888</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -41539,7 +41539,7 @@
         <v>44889</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -41601,7 +41601,7 @@
         <v>44889</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -41658,7 +41658,7 @@
         <v>44889</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -41720,7 +41720,7 @@
         <v>44893</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -41777,7 +41777,7 @@
         <v>44894</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -41834,7 +41834,7 @@
         <v>44895</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -41896,7 +41896,7 @@
         <v>44896</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -41953,7 +41953,7 @@
         <v>44897</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -42010,7 +42010,7 @@
         <v>44897</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -42072,7 +42072,7 @@
         <v>44900</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -42134,7 +42134,7 @@
         <v>44901</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -42196,7 +42196,7 @@
         <v>44901</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -42258,7 +42258,7 @@
         <v>44901</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -42320,7 +42320,7 @@
         <v>44903</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -42377,7 +42377,7 @@
         <v>44903</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -42439,7 +42439,7 @@
         <v>44904</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -42501,7 +42501,7 @@
         <v>44909</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -42563,7 +42563,7 @@
         <v>44911</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -42625,7 +42625,7 @@
         <v>44911</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -42687,7 +42687,7 @@
         <v>44913</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -42749,7 +42749,7 @@
         <v>44914</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -42806,7 +42806,7 @@
         <v>44914</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -42868,7 +42868,7 @@
         <v>44915</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -42925,7 +42925,7 @@
         <v>44915</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -42987,7 +42987,7 @@
         <v>44917</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -43049,7 +43049,7 @@
         <v>44917</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -43106,7 +43106,7 @@
         <v>44918</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -43168,7 +43168,7 @@
         <v>44922</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -43225,7 +43225,7 @@
         <v>44927</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -43287,7 +43287,7 @@
         <v>44929</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -43344,7 +43344,7 @@
         <v>44929</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -43401,7 +43401,7 @@
         <v>44929</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -43458,7 +43458,7 @@
         <v>44938</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -43520,7 +43520,7 @@
         <v>44938</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -43582,7 +43582,7 @@
         <v>44939</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -43644,7 +43644,7 @@
         <v>44939</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -43706,7 +43706,7 @@
         <v>44942</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -43763,7 +43763,7 @@
         <v>44942</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -43825,7 +43825,7 @@
         <v>44942</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -43882,7 +43882,7 @@
         <v>44942</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -43944,7 +43944,7 @@
         <v>44944</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -44001,7 +44001,7 @@
         <v>44953</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -44063,7 +44063,7 @@
         <v>44953</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -44125,7 +44125,7 @@
         <v>44956</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -44187,7 +44187,7 @@
         <v>44957</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -44249,7 +44249,7 @@
         <v>44958</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -44306,7 +44306,7 @@
         <v>44958</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -44363,7 +44363,7 @@
         <v>44958</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -44425,7 +44425,7 @@
         <v>44959</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -44482,7 +44482,7 @@
         <v>44963</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -44539,7 +44539,7 @@
         <v>44963</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -44601,7 +44601,7 @@
         <v>44965</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -44663,7 +44663,7 @@
         <v>44966</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -44725,7 +44725,7 @@
         <v>44966</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -44787,7 +44787,7 @@
         <v>44967</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -44849,7 +44849,7 @@
         <v>44971</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -44911,7 +44911,7 @@
         <v>44978</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -44973,7 +44973,7 @@
         <v>44979</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -45030,7 +45030,7 @@
         <v>44979</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -45087,7 +45087,7 @@
         <v>44979</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -45149,7 +45149,7 @@
         <v>44980</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -45206,7 +45206,7 @@
         <v>44984</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -45263,7 +45263,7 @@
         <v>44986</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -45320,7 +45320,7 @@
         <v>44987</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -45382,7 +45382,7 @@
         <v>44991</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -45444,7 +45444,7 @@
         <v>44991</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -45506,7 +45506,7 @@
         <v>44991</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -45568,7 +45568,7 @@
         <v>44991</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -45630,7 +45630,7 @@
         <v>44992</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -45687,7 +45687,7 @@
         <v>44993</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -45749,7 +45749,7 @@
         <v>44993</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -45811,7 +45811,7 @@
         <v>44993</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -45873,7 +45873,7 @@
         <v>44993</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -45930,7 +45930,7 @@
         <v>44995</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -45992,7 +45992,7 @@
         <v>44995</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -46054,7 +46054,7 @@
         <v>44995</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -46116,7 +46116,7 @@
         <v>45000</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -46173,7 +46173,7 @@
         <v>45000</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -46235,7 +46235,7 @@
         <v>45000</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -46297,7 +46297,7 @@
         <v>45000</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -46359,7 +46359,7 @@
         <v>45000</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -46421,7 +46421,7 @@
         <v>45002</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -46478,7 +46478,7 @@
         <v>45006</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -46540,7 +46540,7 @@
         <v>45007</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -46597,7 +46597,7 @@
         <v>45009</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -46654,7 +46654,7 @@
         <v>45009</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -46711,7 +46711,7 @@
         <v>45015</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -46773,7 +46773,7 @@
         <v>45015</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -46835,7 +46835,7 @@
         <v>45015</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -46892,7 +46892,7 @@
         <v>45015</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -46949,7 +46949,7 @@
         <v>45016</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -47006,7 +47006,7 @@
         <v>45016</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -47063,7 +47063,7 @@
         <v>45028</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -47120,7 +47120,7 @@
         <v>45033</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -47177,7 +47177,7 @@
         <v>45034</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -47234,7 +47234,7 @@
         <v>45040</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -47291,7 +47291,7 @@
         <v>45042</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -47348,7 +47348,7 @@
         <v>45044</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -47410,7 +47410,7 @@
         <v>45048</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -47472,7 +47472,7 @@
         <v>45048</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -47534,7 +47534,7 @@
         <v>45049</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -47596,7 +47596,7 @@
         <v>45050</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -47658,7 +47658,7 @@
         <v>45054</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -47720,7 +47720,7 @@
         <v>45056</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -47777,7 +47777,7 @@
         <v>45056</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -47834,7 +47834,7 @@
         <v>45063</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -47891,7 +47891,7 @@
         <v>45063</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -47948,7 +47948,7 @@
         <v>45068</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -48010,7 +48010,7 @@
         <v>45069</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -48067,7 +48067,7 @@
         <v>45070</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -48124,7 +48124,7 @@
         <v>45070</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -48181,7 +48181,7 @@
         <v>45070</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -48243,7 +48243,7 @@
         <v>45071</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -48300,7 +48300,7 @@
         <v>45071</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -48357,7 +48357,7 @@
         <v>45078</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -48414,7 +48414,7 @@
         <v>45078</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -48471,7 +48471,7 @@
         <v>45078</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -48528,7 +48528,7 @@
         <v>45079</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -48590,7 +48590,7 @@
         <v>45084</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -48647,7 +48647,7 @@
         <v>45085</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -48704,7 +48704,7 @@
         <v>45086</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -48761,7 +48761,7 @@
         <v>45086</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -48823,7 +48823,7 @@
         <v>45089</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -48880,7 +48880,7 @@
         <v>45089</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -48937,7 +48937,7 @@
         <v>45089</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -48999,7 +48999,7 @@
         <v>45089</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -49056,7 +49056,7 @@
         <v>45090</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -49113,7 +49113,7 @@
         <v>45091</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -49175,7 +49175,7 @@
         <v>45092</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -49232,7 +49232,7 @@
         <v>45092</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -49289,7 +49289,7 @@
         <v>45092</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -49346,7 +49346,7 @@
         <v>45092</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -49403,7 +49403,7 @@
         <v>45093</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -49460,7 +49460,7 @@
         <v>45093</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -49517,7 +49517,7 @@
         <v>45096</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -49574,7 +49574,7 @@
         <v>45096</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -49631,7 +49631,7 @@
         <v>45098</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -49688,7 +49688,7 @@
         <v>45098</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -49745,7 +49745,7 @@
         <v>45103</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -49802,7 +49802,7 @@
         <v>45103</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -49859,7 +49859,7 @@
         <v>45104</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -49916,7 +49916,7 @@
         <v>45105</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -49978,7 +49978,7 @@
         <v>45107</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -50035,7 +50035,7 @@
         <v>45107</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -50092,7 +50092,7 @@
         <v>45111</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -50149,7 +50149,7 @@
         <v>45112</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -50211,7 +50211,7 @@
         <v>45112</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -50273,7 +50273,7 @@
         <v>45121</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -50330,7 +50330,7 @@
         <v>45138</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -50392,7 +50392,7 @@
         <v>45146</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -50449,7 +50449,7 @@
         <v>45148</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -50506,7 +50506,7 @@
         <v>45148</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -50563,7 +50563,7 @@
         <v>45149</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -50620,7 +50620,7 @@
         <v>45153</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -50677,7 +50677,7 @@
         <v>45153</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -50734,7 +50734,7 @@
         <v>45166</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>

--- a/Översikt RAGUNDA.xlsx
+++ b/Översikt RAGUNDA.xlsx
@@ -572,7 +572,7 @@
         <v>44874</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -699,7 +699,7 @@
         <v>43865</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>44894</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         <v>44917</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
         <v>43865</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1145,7 +1145,7 @@
         <v>44504</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1256,7 +1256,7 @@
         <v>44644</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1362,7 +1362,7 @@
         <v>43866</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1466,7 +1466,7 @@
         <v>44504</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1575,7 +1575,7 @@
         <v>44473</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1678,7 +1678,7 @@
         <v>44088</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1784,7 +1784,7 @@
         <v>44151</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1881,7 +1881,7 @@
         <v>44644</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1983,7 +1983,7 @@
         <v>44838</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2080,7 +2080,7 @@
         <v>43900</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2181,7 +2181,7 @@
         <v>44062</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2282,7 +2282,7 @@
         <v>45104</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2383,7 +2383,7 @@
         <v>43910</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2487,7 +2487,7 @@
         <v>44776</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2591,7 +2591,7 @@
         <v>44645</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2690,7 +2690,7 @@
         <v>44888</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2789,7 +2789,7 @@
         <v>43353</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2887,7 +2887,7 @@
         <v>44504</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2985,7 +2985,7 @@
         <v>45113</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3083,7 +3083,7 @@
         <v>44133</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3180,7 +3180,7 @@
         <v>44644</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3277,7 +3277,7 @@
         <v>44901</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3378,7 +3378,7 @@
         <v>45113</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3475,7 +3475,7 @@
         <v>43411</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3571,7 +3571,7 @@
         <v>43413</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3667,7 +3667,7 @@
         <v>44133</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         <v>44336</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3854,7 +3854,7 @@
         <v>44438</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3950,7 +3950,7 @@
         <v>44662</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4046,7 +4046,7 @@
         <v>44804</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4142,7 +4142,7 @@
         <v>44915</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4242,7 +4242,7 @@
         <v>44953</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4333,7 +4333,7 @@
         <v>44994</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4433,7 +4433,7 @@
         <v>45009</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4524,7 +4524,7 @@
         <v>44209</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4614,7 +4614,7 @@
         <v>44875</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4709,7 +4709,7 @@
         <v>44876</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4804,7 +4804,7 @@
         <v>44911</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4899,7 +4899,7 @@
         <v>44932</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4994,7 +4994,7 @@
         <v>44994</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -5089,7 +5089,7 @@
         <v>45015</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5183,7 +5183,7 @@
         <v>45027</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5282,7 +5282,7 @@
         <v>45070</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5377,7 +5377,7 @@
         <v>44111</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5470,7 +5470,7 @@
         <v>44139</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5559,7 +5559,7 @@
         <v>44645</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5657,7 +5657,7 @@
         <v>44656</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5751,7 +5751,7 @@
         <v>44734</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5845,7 +5845,7 @@
         <v>44865</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5939,7 +5939,7 @@
         <v>44911</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -6033,7 +6033,7 @@
         <v>45054</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -6122,7 +6122,7 @@
         <v>45093</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6215,7 +6215,7 @@
         <v>43977</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6308,7 +6308,7 @@
         <v>44113</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6401,7 +6401,7 @@
         <v>44245</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6494,7 +6494,7 @@
         <v>44334</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6586,7 +6586,7 @@
         <v>44334</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6678,7 +6678,7 @@
         <v>44446</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6771,7 +6771,7 @@
         <v>44610</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6864,7 +6864,7 @@
         <v>44624</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6957,7 +6957,7 @@
         <v>44662</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -7050,7 +7050,7 @@
         <v>44677</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -7142,7 +7142,7 @@
         <v>44696</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -7235,7 +7235,7 @@
         <v>44732</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7332,7 +7332,7 @@
         <v>44911</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7425,7 +7425,7 @@
         <v>45034</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7518,7 +7518,7 @@
         <v>43817</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7609,7 +7609,7 @@
         <v>44111</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7701,7 +7701,7 @@
         <v>44421</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7793,7 +7793,7 @@
         <v>44740</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7880,7 +7880,7 @@
         <v>44855</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7976,7 +7976,7 @@
         <v>44855</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -8068,7 +8068,7 @@
         <v>44875</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -8160,7 +8160,7 @@
         <v>44902</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -8252,7 +8252,7 @@
         <v>44971</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -8344,7 +8344,7 @@
         <v>44987</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8435,7 +8435,7 @@
         <v>44987</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8522,7 +8522,7 @@
         <v>45049</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8614,7 +8614,7 @@
         <v>43329</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8700,7 +8700,7 @@
         <v>43411</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8786,7 +8786,7 @@
         <v>43707</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8876,7 +8876,7 @@
         <v>43948</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8962,7 +8962,7 @@
         <v>44676</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -9053,7 +9053,7 @@
         <v>44680</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -9139,7 +9139,7 @@
         <v>44855</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -9230,7 +9230,7 @@
         <v>44855</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -9321,7 +9321,7 @@
         <v>44860</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9412,7 +9412,7 @@
         <v>44973</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9503,7 +9503,7 @@
         <v>44980</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9589,7 +9589,7 @@
         <v>45005</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9680,7 +9680,7 @@
         <v>45121</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9771,7 +9771,7 @@
         <v>43515</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9856,7 +9856,7 @@
         <v>43619</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9946,7 +9946,7 @@
         <v>43650</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -10031,7 +10031,7 @@
         <v>43784</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -10121,7 +10121,7 @@
         <v>43791</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -10206,7 +10206,7 @@
         <v>43977</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -10296,7 +10296,7 @@
         <v>44012</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -10386,7 +10386,7 @@
         <v>44049</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -10476,7 +10476,7 @@
         <v>44062</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10566,7 +10566,7 @@
         <v>44098</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10656,7 +10656,7 @@
         <v>44119</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -10741,7 +10741,7 @@
         <v>44166</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10826,7 +10826,7 @@
         <v>44319</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10916,7 +10916,7 @@
         <v>44369</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -11001,7 +11001,7 @@
         <v>44462</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -11091,7 +11091,7 @@
         <v>44601</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -11176,7 +11176,7 @@
         <v>44607</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -11266,7 +11266,7 @@
         <v>44705</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -11351,7 +11351,7 @@
         <v>44741</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -11441,7 +11441,7 @@
         <v>44741</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -11526,7 +11526,7 @@
         <v>44830</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -11616,7 +11616,7 @@
         <v>44832</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -11706,7 +11706,7 @@
         <v>44855</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -11796,7 +11796,7 @@
         <v>44860</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -11881,7 +11881,7 @@
         <v>45033</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -11970,7 +11970,7 @@
         <v>45042</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -12055,7 +12055,7 @@
         <v>45044</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -12145,7 +12145,7 @@
         <v>45089</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -12230,7 +12230,7 @@
         <v>45097</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -12320,7 +12320,7 @@
         <v>45120</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -12410,7 +12410,7 @@
         <v>45121</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -12495,7 +12495,7 @@
         <v>45149</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -12585,7 +12585,7 @@
         <v>45153</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -12670,7 +12670,7 @@
         <v>43321</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -12727,7 +12727,7 @@
         <v>43322</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -12789,7 +12789,7 @@
         <v>43326</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -12846,7 +12846,7 @@
         <v>43341</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -12903,7 +12903,7 @@
         <v>43360</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -12960,7 +12960,7 @@
         <v>43395</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -13017,7 +13017,7 @@
         <v>43396</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -13074,7 +13074,7 @@
         <v>43398</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -13131,7 +13131,7 @@
         <v>43398</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -13188,7 +13188,7 @@
         <v>43398</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -13245,7 +13245,7 @@
         <v>43403</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -13307,7 +13307,7 @@
         <v>43403</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -13369,7 +13369,7 @@
         <v>43403</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -13431,7 +13431,7 @@
         <v>43405</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -13493,7 +13493,7 @@
         <v>43406</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -13555,7 +13555,7 @@
         <v>43410</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -13617,7 +13617,7 @@
         <v>43411</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -13674,7 +13674,7 @@
         <v>43411</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -13736,7 +13736,7 @@
         <v>43411</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -13798,7 +13798,7 @@
         <v>43411</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -13860,7 +13860,7 @@
         <v>43411</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -13922,7 +13922,7 @@
         <v>43411</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -13984,7 +13984,7 @@
         <v>43411</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -14041,7 +14041,7 @@
         <v>43413</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -14098,7 +14098,7 @@
         <v>43418</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -14155,7 +14155,7 @@
         <v>43419</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -14212,7 +14212,7 @@
         <v>43423</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -14269,7 +14269,7 @@
         <v>43423</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -14326,7 +14326,7 @@
         <v>43427</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -14383,7 +14383,7 @@
         <v>43427</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -14440,7 +14440,7 @@
         <v>43431</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -14497,7 +14497,7 @@
         <v>43431</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -14559,7 +14559,7 @@
         <v>43431</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -14621,7 +14621,7 @@
         <v>43437</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -14683,7 +14683,7 @@
         <v>43438</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -14740,7 +14740,7 @@
         <v>43440</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -14797,7 +14797,7 @@
         <v>43444</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -14854,7 +14854,7 @@
         <v>43448</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -14911,7 +14911,7 @@
         <v>43461</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -14968,7 +14968,7 @@
         <v>43461</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -15025,7 +15025,7 @@
         <v>43467</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -15082,7 +15082,7 @@
         <v>43467</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -15139,7 +15139,7 @@
         <v>43473</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -15196,7 +15196,7 @@
         <v>43473</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -15253,7 +15253,7 @@
         <v>43474</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -15310,7 +15310,7 @@
         <v>43481</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -15367,7 +15367,7 @@
         <v>43481</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -15424,7 +15424,7 @@
         <v>43483</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -15481,7 +15481,7 @@
         <v>43495</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -15538,7 +15538,7 @@
         <v>43496</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -15600,7 +15600,7 @@
         <v>43509</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -15657,7 +15657,7 @@
         <v>43510</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -15714,7 +15714,7 @@
         <v>43515</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -15771,7 +15771,7 @@
         <v>43530</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -15828,7 +15828,7 @@
         <v>43537</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -15890,7 +15890,7 @@
         <v>43538</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -15947,7 +15947,7 @@
         <v>43542</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -16004,7 +16004,7 @@
         <v>43543</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -16061,7 +16061,7 @@
         <v>43551</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -16118,7 +16118,7 @@
         <v>43551</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -16175,7 +16175,7 @@
         <v>43552</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -16232,7 +16232,7 @@
         <v>43563</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -16289,7 +16289,7 @@
         <v>43565</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -16346,7 +16346,7 @@
         <v>43578</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -16408,7 +16408,7 @@
         <v>43584</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -16465,7 +16465,7 @@
         <v>43589</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -16522,7 +16522,7 @@
         <v>43594</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -16579,7 +16579,7 @@
         <v>43594</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -16641,7 +16641,7 @@
         <v>43622</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -16703,7 +16703,7 @@
         <v>43633</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -16760,7 +16760,7 @@
         <v>43633</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -16817,7 +16817,7 @@
         <v>43640</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -16879,7 +16879,7 @@
         <v>43641</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -16941,7 +16941,7 @@
         <v>43641</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -17003,7 +17003,7 @@
         <v>43643</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -17065,7 +17065,7 @@
         <v>43650</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -17127,7 +17127,7 @@
         <v>43651</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -17184,7 +17184,7 @@
         <v>43654</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -17246,7 +17246,7 @@
         <v>43654</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -17308,7 +17308,7 @@
         <v>43656</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -17370,7 +17370,7 @@
         <v>43669</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -17427,7 +17427,7 @@
         <v>43678</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -17489,7 +17489,7 @@
         <v>43704</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -17551,7 +17551,7 @@
         <v>43704</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -17613,7 +17613,7 @@
         <v>43704</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -17675,7 +17675,7 @@
         <v>43706</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -17732,7 +17732,7 @@
         <v>43706</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -17789,7 +17789,7 @@
         <v>43713</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -17846,7 +17846,7 @@
         <v>43713</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -17903,7 +17903,7 @@
         <v>43728</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -17965,7 +17965,7 @@
         <v>43733</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -18022,7 +18022,7 @@
         <v>43733</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -18079,7 +18079,7 @@
         <v>43735</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -18136,7 +18136,7 @@
         <v>43740</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -18193,7 +18193,7 @@
         <v>43742</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -18250,7 +18250,7 @@
         <v>43746</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -18307,7 +18307,7 @@
         <v>43756</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -18364,7 +18364,7 @@
         <v>43759</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -18421,7 +18421,7 @@
         <v>43760</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -18478,7 +18478,7 @@
         <v>43768</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -18535,7 +18535,7 @@
         <v>43768</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -18597,7 +18597,7 @@
         <v>43770</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -18659,7 +18659,7 @@
         <v>43770</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -18721,7 +18721,7 @@
         <v>43773</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -18778,7 +18778,7 @@
         <v>43773</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -18840,7 +18840,7 @@
         <v>43773</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -18897,7 +18897,7 @@
         <v>43775</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -18954,7 +18954,7 @@
         <v>43777</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -19016,7 +19016,7 @@
         <v>43782</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -19073,7 +19073,7 @@
         <v>43783</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -19130,7 +19130,7 @@
         <v>43788</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -19207,7 +19207,7 @@
         <v>43791</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -19264,7 +19264,7 @@
         <v>43797</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -19321,7 +19321,7 @@
         <v>43797</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -19378,7 +19378,7 @@
         <v>43803</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -19435,7 +19435,7 @@
         <v>43805</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -19492,7 +19492,7 @@
         <v>43812</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -19549,7 +19549,7 @@
         <v>43818</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -19606,7 +19606,7 @@
         <v>43819</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -19663,7 +19663,7 @@
         <v>43833</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -19720,7 +19720,7 @@
         <v>43847</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -19777,7 +19777,7 @@
         <v>43850</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -19834,7 +19834,7 @@
         <v>43861</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -19891,7 +19891,7 @@
         <v>43868</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -19948,7 +19948,7 @@
         <v>43872</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -20005,7 +20005,7 @@
         <v>43873</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -20062,7 +20062,7 @@
         <v>43880</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -20119,7 +20119,7 @@
         <v>43881</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -20181,7 +20181,7 @@
         <v>43882</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -20238,7 +20238,7 @@
         <v>43887</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -20295,7 +20295,7 @@
         <v>43896</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -20377,7 +20377,7 @@
         <v>43900</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -20434,7 +20434,7 @@
         <v>43901</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -20491,7 +20491,7 @@
         <v>43902</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -20553,7 +20553,7 @@
         <v>43907</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -20610,7 +20610,7 @@
         <v>43910</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -20667,7 +20667,7 @@
         <v>43910</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -20724,7 +20724,7 @@
         <v>43913</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -20781,7 +20781,7 @@
         <v>43916</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -20838,7 +20838,7 @@
         <v>43923</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -20895,7 +20895,7 @@
         <v>43943</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -20952,7 +20952,7 @@
         <v>43948</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -21009,7 +21009,7 @@
         <v>43949</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -21071,7 +21071,7 @@
         <v>43951</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -21128,7 +21128,7 @@
         <v>43955</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -21190,7 +21190,7 @@
         <v>43955</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -21252,7 +21252,7 @@
         <v>43955</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -21314,7 +21314,7 @@
         <v>43955</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -21376,7 +21376,7 @@
         <v>43956</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -21438,7 +21438,7 @@
         <v>43957</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -21495,7 +21495,7 @@
         <v>43965</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -21552,7 +21552,7 @@
         <v>43969</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -21614,7 +21614,7 @@
         <v>43971</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -21671,7 +21671,7 @@
         <v>43971</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -21728,7 +21728,7 @@
         <v>43977</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -21790,7 +21790,7 @@
         <v>43979</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -21847,7 +21847,7 @@
         <v>43984</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -21909,7 +21909,7 @@
         <v>43984</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -21971,7 +21971,7 @@
         <v>43986</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -22033,7 +22033,7 @@
         <v>43986</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -22095,7 +22095,7 @@
         <v>43990</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -22157,7 +22157,7 @@
         <v>43992</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -22214,7 +22214,7 @@
         <v>43999</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -22276,7 +22276,7 @@
         <v>44000</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -22333,7 +22333,7 @@
         <v>44004</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -22395,7 +22395,7 @@
         <v>44006</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -22457,7 +22457,7 @@
         <v>44011</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -22519,7 +22519,7 @@
         <v>44013</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -22581,7 +22581,7 @@
         <v>44013</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -22643,7 +22643,7 @@
         <v>44013</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -22705,7 +22705,7 @@
         <v>44019</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -22767,7 +22767,7 @@
         <v>44026</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -22824,7 +22824,7 @@
         <v>44027</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -22886,7 +22886,7 @@
         <v>44029</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -22948,7 +22948,7 @@
         <v>44029</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -23005,7 +23005,7 @@
         <v>44040</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -23062,7 +23062,7 @@
         <v>44041</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -23124,7 +23124,7 @@
         <v>44051</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -23181,7 +23181,7 @@
         <v>44051</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -23238,7 +23238,7 @@
         <v>44055</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -23295,7 +23295,7 @@
         <v>44056</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -23352,7 +23352,7 @@
         <v>44057</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -23409,7 +23409,7 @@
         <v>44057</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -23471,7 +23471,7 @@
         <v>44062</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -23533,7 +23533,7 @@
         <v>44063</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -23595,7 +23595,7 @@
         <v>44067</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -23657,7 +23657,7 @@
         <v>44069</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -23719,7 +23719,7 @@
         <v>44071</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -23781,7 +23781,7 @@
         <v>44074</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -23843,7 +23843,7 @@
         <v>44074</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -23905,7 +23905,7 @@
         <v>44074</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -23967,7 +23967,7 @@
         <v>44075</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -24029,7 +24029,7 @@
         <v>44078</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -24086,7 +24086,7 @@
         <v>44082</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -24148,7 +24148,7 @@
         <v>44084</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -24210,7 +24210,7 @@
         <v>44084</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -24267,7 +24267,7 @@
         <v>44084</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -24324,7 +24324,7 @@
         <v>44090</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -24381,7 +24381,7 @@
         <v>44095</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -24438,7 +24438,7 @@
         <v>44096</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -24500,7 +24500,7 @@
         <v>44096</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -24562,7 +24562,7 @@
         <v>44098</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -24619,7 +24619,7 @@
         <v>44099</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -24681,7 +24681,7 @@
         <v>44103</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -24743,7 +24743,7 @@
         <v>44106</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -24800,7 +24800,7 @@
         <v>44111</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -24857,7 +24857,7 @@
         <v>44111</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -24914,7 +24914,7 @@
         <v>44111</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -24971,7 +24971,7 @@
         <v>44113</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -25033,7 +25033,7 @@
         <v>44124</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -25090,7 +25090,7 @@
         <v>44126</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -25147,7 +25147,7 @@
         <v>44132</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -25209,7 +25209,7 @@
         <v>44134</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -25266,7 +25266,7 @@
         <v>44137</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -25323,7 +25323,7 @@
         <v>44138</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -25380,7 +25380,7 @@
         <v>44140</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -25442,7 +25442,7 @@
         <v>44140</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -25504,7 +25504,7 @@
         <v>44140</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -25566,7 +25566,7 @@
         <v>44140</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -25628,7 +25628,7 @@
         <v>44141</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -25690,7 +25690,7 @@
         <v>44153</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -25747,7 +25747,7 @@
         <v>44153</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -25809,7 +25809,7 @@
         <v>44155</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -25866,7 +25866,7 @@
         <v>44157</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -25923,7 +25923,7 @@
         <v>44159</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -25985,7 +25985,7 @@
         <v>44165</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -26047,7 +26047,7 @@
         <v>44167</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -26109,7 +26109,7 @@
         <v>44168</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -26166,7 +26166,7 @@
         <v>44172</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -26228,7 +26228,7 @@
         <v>44173</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -26285,7 +26285,7 @@
         <v>44174</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -26347,7 +26347,7 @@
         <v>44175</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -26409,7 +26409,7 @@
         <v>44188</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -26471,7 +26471,7 @@
         <v>44194</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -26528,7 +26528,7 @@
         <v>44195</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -26585,7 +26585,7 @@
         <v>44210</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -26642,7 +26642,7 @@
         <v>44214</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -26699,7 +26699,7 @@
         <v>44218</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -26756,7 +26756,7 @@
         <v>44225</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -26813,7 +26813,7 @@
         <v>44228</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -26870,7 +26870,7 @@
         <v>44229</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -26927,7 +26927,7 @@
         <v>44230</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -26989,7 +26989,7 @@
         <v>44231</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -27046,7 +27046,7 @@
         <v>44231</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -27103,7 +27103,7 @@
         <v>44236</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -27160,7 +27160,7 @@
         <v>44239</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -27222,7 +27222,7 @@
         <v>44242</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -27284,7 +27284,7 @@
         <v>44243</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -27341,7 +27341,7 @@
         <v>44245</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -27398,7 +27398,7 @@
         <v>44259</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -27455,7 +27455,7 @@
         <v>44259</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -27512,7 +27512,7 @@
         <v>44273</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -27569,7 +27569,7 @@
         <v>44280</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -27626,7 +27626,7 @@
         <v>44280</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -27683,7 +27683,7 @@
         <v>44281</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -27745,7 +27745,7 @@
         <v>44286</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -27802,7 +27802,7 @@
         <v>44286</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -27859,7 +27859,7 @@
         <v>44287</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -27916,7 +27916,7 @@
         <v>44292</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -27973,7 +27973,7 @@
         <v>44298</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -28030,7 +28030,7 @@
         <v>44299</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -28087,7 +28087,7 @@
         <v>44308</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -28144,7 +28144,7 @@
         <v>44308</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -28201,7 +28201,7 @@
         <v>44308</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -28258,7 +28258,7 @@
         <v>44308</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -28315,7 +28315,7 @@
         <v>44315</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -28377,7 +28377,7 @@
         <v>44322</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -28434,7 +28434,7 @@
         <v>44323</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -28496,7 +28496,7 @@
         <v>44332</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -28558,7 +28558,7 @@
         <v>44336</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -28615,7 +28615,7 @@
         <v>44336</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -28672,7 +28672,7 @@
         <v>44349</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -28729,7 +28729,7 @@
         <v>44351</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -28791,7 +28791,7 @@
         <v>44351</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -28853,7 +28853,7 @@
         <v>44356</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -28910,7 +28910,7 @@
         <v>44357</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -28967,7 +28967,7 @@
         <v>44362</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -29024,7 +29024,7 @@
         <v>44362</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -29081,7 +29081,7 @@
         <v>44368</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -29138,7 +29138,7 @@
         <v>44375</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -29195,7 +29195,7 @@
         <v>44379</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -29252,7 +29252,7 @@
         <v>44384</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -29309,7 +29309,7 @@
         <v>44385</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -29366,7 +29366,7 @@
         <v>44396</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -29423,7 +29423,7 @@
         <v>44405</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -29480,7 +29480,7 @@
         <v>44410</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -29537,7 +29537,7 @@
         <v>44413</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -29594,7 +29594,7 @@
         <v>44424</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -29651,7 +29651,7 @@
         <v>44425</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -29713,7 +29713,7 @@
         <v>44425</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -29775,7 +29775,7 @@
         <v>44425</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -29837,7 +29837,7 @@
         <v>44431</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -29894,7 +29894,7 @@
         <v>44434</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -29951,7 +29951,7 @@
         <v>44441</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -30008,7 +30008,7 @@
         <v>44443</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -30065,7 +30065,7 @@
         <v>44448</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -30122,7 +30122,7 @@
         <v>44452</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -30179,7 +30179,7 @@
         <v>44453</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -30236,7 +30236,7 @@
         <v>44466</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -30298,7 +30298,7 @@
         <v>44475</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -30355,7 +30355,7 @@
         <v>44476</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -30417,7 +30417,7 @@
         <v>44480</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -30474,7 +30474,7 @@
         <v>44495</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -30536,7 +30536,7 @@
         <v>44496</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -30593,7 +30593,7 @@
         <v>44505</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -30655,7 +30655,7 @@
         <v>44505</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -30717,7 +30717,7 @@
         <v>44511</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -30774,7 +30774,7 @@
         <v>44512</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -30831,7 +30831,7 @@
         <v>44517</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -30888,7 +30888,7 @@
         <v>44517</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -30945,7 +30945,7 @@
         <v>44518</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -31002,7 +31002,7 @@
         <v>44518</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -31064,7 +31064,7 @@
         <v>44530</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -31121,7 +31121,7 @@
         <v>44536</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -31178,7 +31178,7 @@
         <v>44537</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -31235,7 +31235,7 @@
         <v>44538</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -31292,7 +31292,7 @@
         <v>44571</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -31349,7 +31349,7 @@
         <v>44573</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -31406,7 +31406,7 @@
         <v>44574</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -31463,7 +31463,7 @@
         <v>44574</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -31520,7 +31520,7 @@
         <v>44578</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -31577,7 +31577,7 @@
         <v>44586</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -31634,7 +31634,7 @@
         <v>44593</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -31691,7 +31691,7 @@
         <v>44595</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -31748,7 +31748,7 @@
         <v>44599</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -31805,7 +31805,7 @@
         <v>44601</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -31862,7 +31862,7 @@
         <v>44601</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -31919,7 +31919,7 @@
         <v>44601</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -31976,7 +31976,7 @@
         <v>44606</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -32033,7 +32033,7 @@
         <v>44609</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -32095,7 +32095,7 @@
         <v>44614</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -32152,7 +32152,7 @@
         <v>44614</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -32209,7 +32209,7 @@
         <v>44614</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -32266,7 +32266,7 @@
         <v>44614</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -32323,7 +32323,7 @@
         <v>44614</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -32380,7 +32380,7 @@
         <v>44615</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -32437,7 +32437,7 @@
         <v>44615</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -32494,7 +32494,7 @@
         <v>44621</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -32551,7 +32551,7 @@
         <v>44627</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -32608,7 +32608,7 @@
         <v>44628</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -32665,7 +32665,7 @@
         <v>44629</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -32722,7 +32722,7 @@
         <v>44635</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -32784,7 +32784,7 @@
         <v>44641</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -32846,7 +32846,7 @@
         <v>44641</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -32908,7 +32908,7 @@
         <v>44644</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -32970,7 +32970,7 @@
         <v>44644</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -33032,7 +33032,7 @@
         <v>44649</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -33094,7 +33094,7 @@
         <v>44650</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -33151,7 +33151,7 @@
         <v>44650</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -33208,7 +33208,7 @@
         <v>44652</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -33270,7 +33270,7 @@
         <v>44655</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -33332,7 +33332,7 @@
         <v>44655</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -33394,7 +33394,7 @@
         <v>44656</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -33456,7 +33456,7 @@
         <v>44656</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -33518,7 +33518,7 @@
         <v>44657</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -33575,7 +33575,7 @@
         <v>44662</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -33637,7 +33637,7 @@
         <v>44663</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -33699,7 +33699,7 @@
         <v>44663</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -33761,7 +33761,7 @@
         <v>44670</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -33823,7 +33823,7 @@
         <v>44670</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -33880,7 +33880,7 @@
         <v>44670</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -33937,7 +33937,7 @@
         <v>44671</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -33994,7 +33994,7 @@
         <v>44671</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -34051,7 +34051,7 @@
         <v>44679</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -34108,7 +34108,7 @@
         <v>44680</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -34165,7 +34165,7 @@
         <v>44685</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -34222,7 +34222,7 @@
         <v>44685</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -34279,7 +34279,7 @@
         <v>44685</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -34341,7 +34341,7 @@
         <v>44686</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -34398,7 +34398,7 @@
         <v>44690</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -34455,7 +34455,7 @@
         <v>44690</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -34517,7 +34517,7 @@
         <v>44690</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -34579,7 +34579,7 @@
         <v>44690</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -34636,7 +34636,7 @@
         <v>44690</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -34698,7 +34698,7 @@
         <v>44690</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -34760,7 +34760,7 @@
         <v>44704</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -34817,7 +34817,7 @@
         <v>44705</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -34874,7 +34874,7 @@
         <v>44706</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -34931,7 +34931,7 @@
         <v>44714</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -34988,7 +34988,7 @@
         <v>44714</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -35050,7 +35050,7 @@
         <v>44714</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -35107,7 +35107,7 @@
         <v>44725</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -35164,7 +35164,7 @@
         <v>44727</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -35226,7 +35226,7 @@
         <v>44732</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -35283,7 +35283,7 @@
         <v>44734</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -35340,7 +35340,7 @@
         <v>44734</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -35402,7 +35402,7 @@
         <v>44741</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -35459,7 +35459,7 @@
         <v>44743</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -35516,7 +35516,7 @@
         <v>44746</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -35573,7 +35573,7 @@
         <v>44746</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -35635,7 +35635,7 @@
         <v>44761</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -35712,7 +35712,7 @@
         <v>44774</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -35769,7 +35769,7 @@
         <v>44774</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -35826,7 +35826,7 @@
         <v>44776</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -35888,7 +35888,7 @@
         <v>44776</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -35950,7 +35950,7 @@
         <v>44777</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -36012,7 +36012,7 @@
         <v>44778</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -36074,7 +36074,7 @@
         <v>44781</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -36131,7 +36131,7 @@
         <v>44782</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -36193,7 +36193,7 @@
         <v>44783</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -36255,7 +36255,7 @@
         <v>44788</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -36312,7 +36312,7 @@
         <v>44788</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -36369,7 +36369,7 @@
         <v>44791</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -36431,7 +36431,7 @@
         <v>44797</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -36493,7 +36493,7 @@
         <v>44798</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -36555,7 +36555,7 @@
         <v>44799</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -36617,7 +36617,7 @@
         <v>44802</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -36674,7 +36674,7 @@
         <v>44802</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -36736,7 +36736,7 @@
         <v>44804</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -36793,7 +36793,7 @@
         <v>44804</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -36855,7 +36855,7 @@
         <v>44805</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -36917,7 +36917,7 @@
         <v>44805</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -36979,7 +36979,7 @@
         <v>44806</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -37036,7 +37036,7 @@
         <v>44812</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -37098,7 +37098,7 @@
         <v>44813</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -37160,7 +37160,7 @@
         <v>44813</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -37222,7 +37222,7 @@
         <v>44815</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -37284,7 +37284,7 @@
         <v>44816</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -37346,7 +37346,7 @@
         <v>44816</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -37408,7 +37408,7 @@
         <v>44817</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -37470,7 +37470,7 @@
         <v>44818</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -37532,7 +37532,7 @@
         <v>44818</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -37589,7 +37589,7 @@
         <v>44820</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -37651,7 +37651,7 @@
         <v>44820</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -37708,7 +37708,7 @@
         <v>44820</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -37770,7 +37770,7 @@
         <v>44820</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -37832,7 +37832,7 @@
         <v>44823</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -37889,7 +37889,7 @@
         <v>44823</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -37946,7 +37946,7 @@
         <v>44825</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -38008,7 +38008,7 @@
         <v>44825</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -38070,7 +38070,7 @@
         <v>44830</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -38132,7 +38132,7 @@
         <v>44831</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -38194,7 +38194,7 @@
         <v>44831</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -38256,7 +38256,7 @@
         <v>44832</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -38318,7 +38318,7 @@
         <v>44832</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -38380,7 +38380,7 @@
         <v>44832</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -38442,7 +38442,7 @@
         <v>44837</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -38504,7 +38504,7 @@
         <v>44837</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -38566,7 +38566,7 @@
         <v>44838</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -38628,7 +38628,7 @@
         <v>44839</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -38685,7 +38685,7 @@
         <v>44839</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -38742,7 +38742,7 @@
         <v>44840</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -38804,7 +38804,7 @@
         <v>44841</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -38861,7 +38861,7 @@
         <v>44844</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -38923,7 +38923,7 @@
         <v>44845</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -38985,7 +38985,7 @@
         <v>44845</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -39047,7 +39047,7 @@
         <v>44845</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -39109,7 +39109,7 @@
         <v>44845</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -39171,7 +39171,7 @@
         <v>44846</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -39233,7 +39233,7 @@
         <v>44846</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -39295,7 +39295,7 @@
         <v>44852</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -39357,7 +39357,7 @@
         <v>44852</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -39419,7 +39419,7 @@
         <v>44852</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -39481,7 +39481,7 @@
         <v>44852</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -39543,7 +39543,7 @@
         <v>44853</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -39605,7 +39605,7 @@
         <v>44854</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -39667,7 +39667,7 @@
         <v>44855</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -39729,7 +39729,7 @@
         <v>44855</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -39791,7 +39791,7 @@
         <v>44855</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -39853,7 +39853,7 @@
         <v>44858</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -39915,7 +39915,7 @@
         <v>44858</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -39977,7 +39977,7 @@
         <v>44860</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -40039,7 +40039,7 @@
         <v>44860</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -40101,7 +40101,7 @@
         <v>44861</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -40163,7 +40163,7 @@
         <v>44861</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -40225,7 +40225,7 @@
         <v>44865</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -40282,7 +40282,7 @@
         <v>44865</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -40339,7 +40339,7 @@
         <v>44866</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -40401,7 +40401,7 @@
         <v>44866</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -40463,7 +40463,7 @@
         <v>44866</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -40525,7 +40525,7 @@
         <v>44867</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -40587,7 +40587,7 @@
         <v>44869</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -40644,7 +40644,7 @@
         <v>44869</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -40701,7 +40701,7 @@
         <v>44869</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -40758,7 +40758,7 @@
         <v>44874</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -40815,7 +40815,7 @@
         <v>44876</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -40877,7 +40877,7 @@
         <v>44879</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -40939,7 +40939,7 @@
         <v>44880</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -41001,7 +41001,7 @@
         <v>44880</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -41063,7 +41063,7 @@
         <v>44881</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -41120,7 +41120,7 @@
         <v>44883</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -41182,7 +41182,7 @@
         <v>44883</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -41244,7 +41244,7 @@
         <v>44886</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -41306,7 +41306,7 @@
         <v>44887</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -41363,7 +41363,7 @@
         <v>44887</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -41420,7 +41420,7 @@
         <v>44887</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -41477,7 +41477,7 @@
         <v>44888</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -41539,7 +41539,7 @@
         <v>44889</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -41601,7 +41601,7 @@
         <v>44889</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -41658,7 +41658,7 @@
         <v>44889</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -41720,7 +41720,7 @@
         <v>44893</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -41777,7 +41777,7 @@
         <v>44894</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -41834,7 +41834,7 @@
         <v>44895</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -41896,7 +41896,7 @@
         <v>44896</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -41953,7 +41953,7 @@
         <v>44897</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -42010,7 +42010,7 @@
         <v>44897</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -42072,7 +42072,7 @@
         <v>44900</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -42134,7 +42134,7 @@
         <v>44901</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -42196,7 +42196,7 @@
         <v>44901</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -42258,7 +42258,7 @@
         <v>44901</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -42320,7 +42320,7 @@
         <v>44903</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -42377,7 +42377,7 @@
         <v>44903</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -42439,7 +42439,7 @@
         <v>44904</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -42501,7 +42501,7 @@
         <v>44909</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -42563,7 +42563,7 @@
         <v>44911</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -42625,7 +42625,7 @@
         <v>44911</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -42687,7 +42687,7 @@
         <v>44913</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -42749,7 +42749,7 @@
         <v>44914</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -42806,7 +42806,7 @@
         <v>44914</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -42868,7 +42868,7 @@
         <v>44915</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -42925,7 +42925,7 @@
         <v>44915</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -42987,7 +42987,7 @@
         <v>44917</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -43049,7 +43049,7 @@
         <v>44917</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -43106,7 +43106,7 @@
         <v>44918</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -43168,7 +43168,7 @@
         <v>44922</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -43225,7 +43225,7 @@
         <v>44927</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -43287,7 +43287,7 @@
         <v>44929</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -43344,7 +43344,7 @@
         <v>44929</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -43401,7 +43401,7 @@
         <v>44929</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -43458,7 +43458,7 @@
         <v>44938</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -43520,7 +43520,7 @@
         <v>44938</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -43582,7 +43582,7 @@
         <v>44939</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -43644,7 +43644,7 @@
         <v>44939</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -43706,7 +43706,7 @@
         <v>44942</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -43763,7 +43763,7 @@
         <v>44942</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -43825,7 +43825,7 @@
         <v>44942</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -43882,7 +43882,7 @@
         <v>44942</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -43944,7 +43944,7 @@
         <v>44944</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -44001,7 +44001,7 @@
         <v>44953</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -44063,7 +44063,7 @@
         <v>44953</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -44125,7 +44125,7 @@
         <v>44956</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -44187,7 +44187,7 @@
         <v>44957</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -44249,7 +44249,7 @@
         <v>44958</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -44306,7 +44306,7 @@
         <v>44958</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -44363,7 +44363,7 @@
         <v>44958</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -44425,7 +44425,7 @@
         <v>44959</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -44482,7 +44482,7 @@
         <v>44963</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -44539,7 +44539,7 @@
         <v>44963</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -44601,7 +44601,7 @@
         <v>44965</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -44663,7 +44663,7 @@
         <v>44966</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -44725,7 +44725,7 @@
         <v>44966</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -44787,7 +44787,7 @@
         <v>44967</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -44849,7 +44849,7 @@
         <v>44971</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -44911,7 +44911,7 @@
         <v>44978</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -44973,7 +44973,7 @@
         <v>44979</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -45030,7 +45030,7 @@
         <v>44979</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -45087,7 +45087,7 @@
         <v>44979</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -45149,7 +45149,7 @@
         <v>44980</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -45206,7 +45206,7 @@
         <v>44984</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -45263,7 +45263,7 @@
         <v>44986</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -45320,7 +45320,7 @@
         <v>44987</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -45382,7 +45382,7 @@
         <v>44991</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -45444,7 +45444,7 @@
         <v>44991</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -45506,7 +45506,7 @@
         <v>44991</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -45568,7 +45568,7 @@
         <v>44991</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -45630,7 +45630,7 @@
         <v>44992</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -45687,7 +45687,7 @@
         <v>44993</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -45749,7 +45749,7 @@
         <v>44993</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -45811,7 +45811,7 @@
         <v>44993</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -45873,7 +45873,7 @@
         <v>44993</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -45930,7 +45930,7 @@
         <v>44995</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -45992,7 +45992,7 @@
         <v>44995</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -46054,7 +46054,7 @@
         <v>44995</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -46116,7 +46116,7 @@
         <v>45000</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -46173,7 +46173,7 @@
         <v>45000</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -46235,7 +46235,7 @@
         <v>45000</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -46297,7 +46297,7 @@
         <v>45000</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -46359,7 +46359,7 @@
         <v>45000</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -46421,7 +46421,7 @@
         <v>45002</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -46478,7 +46478,7 @@
         <v>45006</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -46540,7 +46540,7 @@
         <v>45007</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -46597,7 +46597,7 @@
         <v>45009</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -46654,7 +46654,7 @@
         <v>45009</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -46711,7 +46711,7 @@
         <v>45015</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -46773,7 +46773,7 @@
         <v>45015</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -46835,7 +46835,7 @@
         <v>45015</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -46892,7 +46892,7 @@
         <v>45015</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -46949,7 +46949,7 @@
         <v>45016</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -47006,7 +47006,7 @@
         <v>45016</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -47063,7 +47063,7 @@
         <v>45028</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -47120,7 +47120,7 @@
         <v>45033</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -47177,7 +47177,7 @@
         <v>45034</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -47234,7 +47234,7 @@
         <v>45040</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -47291,7 +47291,7 @@
         <v>45042</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -47348,7 +47348,7 @@
         <v>45044</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -47410,7 +47410,7 @@
         <v>45048</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -47472,7 +47472,7 @@
         <v>45048</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -47534,7 +47534,7 @@
         <v>45049</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -47596,7 +47596,7 @@
         <v>45050</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -47658,7 +47658,7 @@
         <v>45054</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -47720,7 +47720,7 @@
         <v>45056</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -47777,7 +47777,7 @@
         <v>45056</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -47834,7 +47834,7 @@
         <v>45063</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -47891,7 +47891,7 @@
         <v>45063</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -47948,7 +47948,7 @@
         <v>45068</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -48010,7 +48010,7 @@
         <v>45069</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -48067,7 +48067,7 @@
         <v>45070</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -48124,7 +48124,7 @@
         <v>45070</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -48181,7 +48181,7 @@
         <v>45070</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -48243,7 +48243,7 @@
         <v>45071</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -48300,7 +48300,7 @@
         <v>45071</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -48357,7 +48357,7 @@
         <v>45078</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -48414,7 +48414,7 @@
         <v>45078</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -48471,7 +48471,7 @@
         <v>45078</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -48528,7 +48528,7 @@
         <v>45079</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -48590,7 +48590,7 @@
         <v>45084</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -48647,7 +48647,7 @@
         <v>45085</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -48704,7 +48704,7 @@
         <v>45086</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -48761,7 +48761,7 @@
         <v>45086</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -48823,7 +48823,7 @@
         <v>45089</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -48880,7 +48880,7 @@
         <v>45089</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -48937,7 +48937,7 @@
         <v>45089</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -48999,7 +48999,7 @@
         <v>45089</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -49056,7 +49056,7 @@
         <v>45090</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -49113,7 +49113,7 @@
         <v>45091</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -49175,7 +49175,7 @@
         <v>45092</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -49232,7 +49232,7 @@
         <v>45092</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -49289,7 +49289,7 @@
         <v>45092</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -49346,7 +49346,7 @@
         <v>45092</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -49403,7 +49403,7 @@
         <v>45093</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -49460,7 +49460,7 @@
         <v>45093</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -49517,7 +49517,7 @@
         <v>45096</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -49574,7 +49574,7 @@
         <v>45096</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -49631,7 +49631,7 @@
         <v>45098</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -49688,7 +49688,7 @@
         <v>45098</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -49745,7 +49745,7 @@
         <v>45103</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -49802,7 +49802,7 @@
         <v>45103</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -49859,7 +49859,7 @@
         <v>45104</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -49916,7 +49916,7 @@
         <v>45105</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -49978,7 +49978,7 @@
         <v>45107</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -50035,7 +50035,7 @@
         <v>45107</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -50092,7 +50092,7 @@
         <v>45111</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -50149,7 +50149,7 @@
         <v>45112</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -50211,7 +50211,7 @@
         <v>45112</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -50273,7 +50273,7 @@
         <v>45121</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -50330,7 +50330,7 @@
         <v>45138</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -50392,7 +50392,7 @@
         <v>45146</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -50449,7 +50449,7 @@
         <v>45148</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -50506,7 +50506,7 @@
         <v>45148</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -50563,7 +50563,7 @@
         <v>45149</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -50620,7 +50620,7 @@
         <v>45153</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -50677,7 +50677,7 @@
         <v>45153</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -50734,7 +50734,7 @@
         <v>45166</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>

--- a/Översikt RAGUNDA.xlsx
+++ b/Översikt RAGUNDA.xlsx
@@ -572,7 +572,7 @@
         <v>44874</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -699,7 +699,7 @@
         <v>43865</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>44894</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         <v>44917</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
         <v>43865</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1145,7 +1145,7 @@
         <v>44504</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1256,7 +1256,7 @@
         <v>44644</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1362,7 +1362,7 @@
         <v>43866</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1466,7 +1466,7 @@
         <v>44504</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1575,7 +1575,7 @@
         <v>44473</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1678,7 +1678,7 @@
         <v>44088</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1784,7 +1784,7 @@
         <v>44151</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1881,7 +1881,7 @@
         <v>44644</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1983,7 +1983,7 @@
         <v>44838</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2080,7 +2080,7 @@
         <v>43900</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2181,7 +2181,7 @@
         <v>44062</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2282,7 +2282,7 @@
         <v>45104</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2383,7 +2383,7 @@
         <v>43910</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2487,7 +2487,7 @@
         <v>44776</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2591,7 +2591,7 @@
         <v>44645</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2690,7 +2690,7 @@
         <v>44888</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2789,7 +2789,7 @@
         <v>43353</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2887,7 +2887,7 @@
         <v>44504</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2985,7 +2985,7 @@
         <v>45113</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3083,7 +3083,7 @@
         <v>44133</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3180,7 +3180,7 @@
         <v>44644</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3277,7 +3277,7 @@
         <v>44901</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3378,7 +3378,7 @@
         <v>45113</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3475,7 +3475,7 @@
         <v>43411</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3571,7 +3571,7 @@
         <v>43413</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3667,7 +3667,7 @@
         <v>44133</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         <v>44336</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3854,7 +3854,7 @@
         <v>44438</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3950,7 +3950,7 @@
         <v>44662</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4046,7 +4046,7 @@
         <v>44804</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4142,7 +4142,7 @@
         <v>44915</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4242,7 +4242,7 @@
         <v>44953</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4333,7 +4333,7 @@
         <v>44994</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4433,7 +4433,7 @@
         <v>45009</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4524,7 +4524,7 @@
         <v>44209</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4614,7 +4614,7 @@
         <v>44875</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4709,7 +4709,7 @@
         <v>44876</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4804,7 +4804,7 @@
         <v>44911</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4899,7 +4899,7 @@
         <v>44932</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4994,7 +4994,7 @@
         <v>44994</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -5089,7 +5089,7 @@
         <v>45015</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5183,7 +5183,7 @@
         <v>45027</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5282,7 +5282,7 @@
         <v>45070</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5377,7 +5377,7 @@
         <v>44111</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5470,7 +5470,7 @@
         <v>44139</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5559,7 +5559,7 @@
         <v>44645</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5657,7 +5657,7 @@
         <v>44656</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5751,7 +5751,7 @@
         <v>44734</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5845,7 +5845,7 @@
         <v>44865</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5939,7 +5939,7 @@
         <v>44911</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -6033,7 +6033,7 @@
         <v>45054</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -6122,7 +6122,7 @@
         <v>45093</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6215,7 +6215,7 @@
         <v>43977</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6308,7 +6308,7 @@
         <v>44113</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6401,7 +6401,7 @@
         <v>44245</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6494,7 +6494,7 @@
         <v>44334</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6586,7 +6586,7 @@
         <v>44334</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6678,7 +6678,7 @@
         <v>44446</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6771,7 +6771,7 @@
         <v>44610</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6864,7 +6864,7 @@
         <v>44624</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6957,7 +6957,7 @@
         <v>44662</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -7050,7 +7050,7 @@
         <v>44677</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -7142,7 +7142,7 @@
         <v>44696</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -7235,7 +7235,7 @@
         <v>44732</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7332,7 +7332,7 @@
         <v>44911</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7425,7 +7425,7 @@
         <v>45034</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7518,7 +7518,7 @@
         <v>43817</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7609,7 +7609,7 @@
         <v>44111</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7701,7 +7701,7 @@
         <v>44421</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7793,7 +7793,7 @@
         <v>44740</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7880,7 +7880,7 @@
         <v>44855</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7976,7 +7976,7 @@
         <v>44855</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -8068,7 +8068,7 @@
         <v>44875</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -8160,7 +8160,7 @@
         <v>44902</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -8252,7 +8252,7 @@
         <v>44971</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -8344,7 +8344,7 @@
         <v>44987</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8435,7 +8435,7 @@
         <v>44987</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8522,7 +8522,7 @@
         <v>45049</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8614,7 +8614,7 @@
         <v>43329</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8700,7 +8700,7 @@
         <v>43411</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8786,7 +8786,7 @@
         <v>43707</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8876,7 +8876,7 @@
         <v>43948</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8962,7 +8962,7 @@
         <v>44676</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -9053,7 +9053,7 @@
         <v>44680</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -9139,7 +9139,7 @@
         <v>44855</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -9230,7 +9230,7 @@
         <v>44855</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -9321,7 +9321,7 @@
         <v>44860</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9412,7 +9412,7 @@
         <v>44973</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9503,7 +9503,7 @@
         <v>44980</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9589,7 +9589,7 @@
         <v>45005</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9680,7 +9680,7 @@
         <v>45121</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9771,7 +9771,7 @@
         <v>43515</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9856,7 +9856,7 @@
         <v>43619</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9946,7 +9946,7 @@
         <v>43650</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -10031,7 +10031,7 @@
         <v>43784</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -10121,7 +10121,7 @@
         <v>43791</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -10206,7 +10206,7 @@
         <v>43977</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -10296,7 +10296,7 @@
         <v>44012</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -10386,7 +10386,7 @@
         <v>44049</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -10476,7 +10476,7 @@
         <v>44062</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10566,7 +10566,7 @@
         <v>44098</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10656,7 +10656,7 @@
         <v>44119</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -10741,7 +10741,7 @@
         <v>44166</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10826,7 +10826,7 @@
         <v>44319</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10916,7 +10916,7 @@
         <v>44369</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -11001,7 +11001,7 @@
         <v>44462</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -11091,7 +11091,7 @@
         <v>44601</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -11176,7 +11176,7 @@
         <v>44607</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -11266,7 +11266,7 @@
         <v>44705</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -11351,7 +11351,7 @@
         <v>44741</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -11441,7 +11441,7 @@
         <v>44741</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -11526,7 +11526,7 @@
         <v>44830</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -11616,7 +11616,7 @@
         <v>44832</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -11706,7 +11706,7 @@
         <v>44855</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -11796,7 +11796,7 @@
         <v>44860</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -11881,7 +11881,7 @@
         <v>45033</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -11970,7 +11970,7 @@
         <v>45042</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -12055,7 +12055,7 @@
         <v>45044</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -12145,7 +12145,7 @@
         <v>45089</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -12230,7 +12230,7 @@
         <v>45097</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -12320,7 +12320,7 @@
         <v>45120</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -12410,7 +12410,7 @@
         <v>45121</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -12495,7 +12495,7 @@
         <v>45149</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -12585,7 +12585,7 @@
         <v>45153</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -12670,7 +12670,7 @@
         <v>43321</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -12727,7 +12727,7 @@
         <v>43322</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -12789,7 +12789,7 @@
         <v>43326</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -12846,7 +12846,7 @@
         <v>43341</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -12903,7 +12903,7 @@
         <v>43360</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -12960,7 +12960,7 @@
         <v>43395</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -13017,7 +13017,7 @@
         <v>43396</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -13074,7 +13074,7 @@
         <v>43398</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -13131,7 +13131,7 @@
         <v>43398</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -13188,7 +13188,7 @@
         <v>43398</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -13245,7 +13245,7 @@
         <v>43403</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -13307,7 +13307,7 @@
         <v>43403</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -13369,7 +13369,7 @@
         <v>43403</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -13431,7 +13431,7 @@
         <v>43405</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -13493,7 +13493,7 @@
         <v>43406</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -13555,7 +13555,7 @@
         <v>43410</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -13617,7 +13617,7 @@
         <v>43411</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -13674,7 +13674,7 @@
         <v>43411</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -13736,7 +13736,7 @@
         <v>43411</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -13798,7 +13798,7 @@
         <v>43411</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -13860,7 +13860,7 @@
         <v>43411</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -13922,7 +13922,7 @@
         <v>43411</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -13984,7 +13984,7 @@
         <v>43411</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -14041,7 +14041,7 @@
         <v>43413</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -14098,7 +14098,7 @@
         <v>43418</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -14155,7 +14155,7 @@
         <v>43419</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -14212,7 +14212,7 @@
         <v>43423</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -14269,7 +14269,7 @@
         <v>43423</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -14326,7 +14326,7 @@
         <v>43427</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -14383,7 +14383,7 @@
         <v>43427</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -14440,7 +14440,7 @@
         <v>43431</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -14497,7 +14497,7 @@
         <v>43431</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -14559,7 +14559,7 @@
         <v>43431</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -14621,7 +14621,7 @@
         <v>43437</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -14683,7 +14683,7 @@
         <v>43438</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -14740,7 +14740,7 @@
         <v>43440</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -14797,7 +14797,7 @@
         <v>43444</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -14854,7 +14854,7 @@
         <v>43448</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -14911,7 +14911,7 @@
         <v>43461</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -14968,7 +14968,7 @@
         <v>43461</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -15025,7 +15025,7 @@
         <v>43467</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -15082,7 +15082,7 @@
         <v>43467</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -15139,7 +15139,7 @@
         <v>43473</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -15196,7 +15196,7 @@
         <v>43473</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -15253,7 +15253,7 @@
         <v>43474</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -15310,7 +15310,7 @@
         <v>43481</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -15367,7 +15367,7 @@
         <v>43481</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -15424,7 +15424,7 @@
         <v>43483</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -15481,7 +15481,7 @@
         <v>43495</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -15538,7 +15538,7 @@
         <v>43496</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -15600,7 +15600,7 @@
         <v>43509</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -15657,7 +15657,7 @@
         <v>43510</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -15714,7 +15714,7 @@
         <v>43515</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -15771,7 +15771,7 @@
         <v>43530</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -15828,7 +15828,7 @@
         <v>43537</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -15890,7 +15890,7 @@
         <v>43538</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -15947,7 +15947,7 @@
         <v>43542</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -16004,7 +16004,7 @@
         <v>43543</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -16061,7 +16061,7 @@
         <v>43551</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -16118,7 +16118,7 @@
         <v>43551</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -16175,7 +16175,7 @@
         <v>43552</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -16232,7 +16232,7 @@
         <v>43563</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -16289,7 +16289,7 @@
         <v>43565</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -16346,7 +16346,7 @@
         <v>43578</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -16408,7 +16408,7 @@
         <v>43584</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -16465,7 +16465,7 @@
         <v>43589</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -16522,7 +16522,7 @@
         <v>43594</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -16579,7 +16579,7 @@
         <v>43594</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -16641,7 +16641,7 @@
         <v>43622</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -16703,7 +16703,7 @@
         <v>43633</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -16760,7 +16760,7 @@
         <v>43633</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -16817,7 +16817,7 @@
         <v>43640</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -16879,7 +16879,7 @@
         <v>43641</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -16941,7 +16941,7 @@
         <v>43641</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -17003,7 +17003,7 @@
         <v>43643</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -17065,7 +17065,7 @@
         <v>43650</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -17127,7 +17127,7 @@
         <v>43651</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -17184,7 +17184,7 @@
         <v>43654</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -17246,7 +17246,7 @@
         <v>43654</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -17308,7 +17308,7 @@
         <v>43656</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -17370,7 +17370,7 @@
         <v>43669</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -17427,7 +17427,7 @@
         <v>43678</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -17489,7 +17489,7 @@
         <v>43704</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -17551,7 +17551,7 @@
         <v>43704</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -17613,7 +17613,7 @@
         <v>43704</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -17675,7 +17675,7 @@
         <v>43706</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -17732,7 +17732,7 @@
         <v>43706</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -17789,7 +17789,7 @@
         <v>43713</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -17846,7 +17846,7 @@
         <v>43713</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -17903,7 +17903,7 @@
         <v>43728</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -17965,7 +17965,7 @@
         <v>43733</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -18022,7 +18022,7 @@
         <v>43733</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -18079,7 +18079,7 @@
         <v>43735</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -18136,7 +18136,7 @@
         <v>43740</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -18193,7 +18193,7 @@
         <v>43742</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -18250,7 +18250,7 @@
         <v>43746</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -18307,7 +18307,7 @@
         <v>43756</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -18364,7 +18364,7 @@
         <v>43759</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -18421,7 +18421,7 @@
         <v>43760</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -18478,7 +18478,7 @@
         <v>43768</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -18535,7 +18535,7 @@
         <v>43768</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -18597,7 +18597,7 @@
         <v>43770</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -18659,7 +18659,7 @@
         <v>43770</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -18721,7 +18721,7 @@
         <v>43773</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -18778,7 +18778,7 @@
         <v>43773</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -18840,7 +18840,7 @@
         <v>43773</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -18897,7 +18897,7 @@
         <v>43775</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -18954,7 +18954,7 @@
         <v>43777</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -19016,7 +19016,7 @@
         <v>43782</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -19073,7 +19073,7 @@
         <v>43783</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -19130,7 +19130,7 @@
         <v>43788</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -19207,7 +19207,7 @@
         <v>43791</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -19264,7 +19264,7 @@
         <v>43797</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -19321,7 +19321,7 @@
         <v>43797</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -19378,7 +19378,7 @@
         <v>43803</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -19435,7 +19435,7 @@
         <v>43805</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -19492,7 +19492,7 @@
         <v>43812</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -19549,7 +19549,7 @@
         <v>43818</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -19606,7 +19606,7 @@
         <v>43819</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -19663,7 +19663,7 @@
         <v>43833</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -19720,7 +19720,7 @@
         <v>43847</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -19777,7 +19777,7 @@
         <v>43850</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -19834,7 +19834,7 @@
         <v>43861</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -19891,7 +19891,7 @@
         <v>43868</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -19948,7 +19948,7 @@
         <v>43872</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -20005,7 +20005,7 @@
         <v>43873</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -20062,7 +20062,7 @@
         <v>43880</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -20119,7 +20119,7 @@
         <v>43881</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -20181,7 +20181,7 @@
         <v>43882</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -20238,7 +20238,7 @@
         <v>43887</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -20295,7 +20295,7 @@
         <v>43896</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -20377,7 +20377,7 @@
         <v>43900</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -20434,7 +20434,7 @@
         <v>43901</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -20491,7 +20491,7 @@
         <v>43902</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -20553,7 +20553,7 @@
         <v>43907</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -20610,7 +20610,7 @@
         <v>43910</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -20667,7 +20667,7 @@
         <v>43910</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -20724,7 +20724,7 @@
         <v>43913</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -20781,7 +20781,7 @@
         <v>43916</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -20838,7 +20838,7 @@
         <v>43923</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -20895,7 +20895,7 @@
         <v>43943</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -20952,7 +20952,7 @@
         <v>43948</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -21009,7 +21009,7 @@
         <v>43949</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -21071,7 +21071,7 @@
         <v>43951</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -21128,7 +21128,7 @@
         <v>43955</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -21190,7 +21190,7 @@
         <v>43955</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -21252,7 +21252,7 @@
         <v>43955</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -21314,7 +21314,7 @@
         <v>43955</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -21376,7 +21376,7 @@
         <v>43956</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -21438,7 +21438,7 @@
         <v>43957</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -21495,7 +21495,7 @@
         <v>43965</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -21552,7 +21552,7 @@
         <v>43969</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -21614,7 +21614,7 @@
         <v>43971</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -21671,7 +21671,7 @@
         <v>43971</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -21728,7 +21728,7 @@
         <v>43977</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -21790,7 +21790,7 @@
         <v>43979</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -21847,7 +21847,7 @@
         <v>43984</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -21909,7 +21909,7 @@
         <v>43984</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -21971,7 +21971,7 @@
         <v>43986</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -22033,7 +22033,7 @@
         <v>43986</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -22095,7 +22095,7 @@
         <v>43990</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -22157,7 +22157,7 @@
         <v>43992</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -22214,7 +22214,7 @@
         <v>43999</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -22276,7 +22276,7 @@
         <v>44000</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -22333,7 +22333,7 @@
         <v>44004</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -22395,7 +22395,7 @@
         <v>44006</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -22457,7 +22457,7 @@
         <v>44011</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -22519,7 +22519,7 @@
         <v>44013</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -22581,7 +22581,7 @@
         <v>44013</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -22643,7 +22643,7 @@
         <v>44013</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -22705,7 +22705,7 @@
         <v>44019</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -22767,7 +22767,7 @@
         <v>44026</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -22824,7 +22824,7 @@
         <v>44027</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -22886,7 +22886,7 @@
         <v>44029</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -22948,7 +22948,7 @@
         <v>44029</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -23005,7 +23005,7 @@
         <v>44040</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -23062,7 +23062,7 @@
         <v>44041</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -23124,7 +23124,7 @@
         <v>44051</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -23181,7 +23181,7 @@
         <v>44051</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -23238,7 +23238,7 @@
         <v>44055</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -23295,7 +23295,7 @@
         <v>44056</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -23352,7 +23352,7 @@
         <v>44057</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -23409,7 +23409,7 @@
         <v>44057</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -23471,7 +23471,7 @@
         <v>44062</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -23533,7 +23533,7 @@
         <v>44063</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -23595,7 +23595,7 @@
         <v>44067</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -23657,7 +23657,7 @@
         <v>44069</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -23719,7 +23719,7 @@
         <v>44071</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -23781,7 +23781,7 @@
         <v>44074</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -23843,7 +23843,7 @@
         <v>44074</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -23905,7 +23905,7 @@
         <v>44074</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -23967,7 +23967,7 @@
         <v>44075</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -24029,7 +24029,7 @@
         <v>44078</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -24086,7 +24086,7 @@
         <v>44082</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -24148,7 +24148,7 @@
         <v>44084</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -24210,7 +24210,7 @@
         <v>44084</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -24267,7 +24267,7 @@
         <v>44084</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -24324,7 +24324,7 @@
         <v>44090</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -24381,7 +24381,7 @@
         <v>44095</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -24438,7 +24438,7 @@
         <v>44096</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -24500,7 +24500,7 @@
         <v>44096</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -24562,7 +24562,7 @@
         <v>44098</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -24619,7 +24619,7 @@
         <v>44099</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -24681,7 +24681,7 @@
         <v>44103</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -24743,7 +24743,7 @@
         <v>44106</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -24800,7 +24800,7 @@
         <v>44111</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -24857,7 +24857,7 @@
         <v>44111</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -24914,7 +24914,7 @@
         <v>44111</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -24971,7 +24971,7 @@
         <v>44113</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -25033,7 +25033,7 @@
         <v>44124</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -25090,7 +25090,7 @@
         <v>44126</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -25147,7 +25147,7 @@
         <v>44132</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -25209,7 +25209,7 @@
         <v>44134</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -25266,7 +25266,7 @@
         <v>44137</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -25323,7 +25323,7 @@
         <v>44138</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -25380,7 +25380,7 @@
         <v>44140</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -25442,7 +25442,7 @@
         <v>44140</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -25504,7 +25504,7 @@
         <v>44140</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -25566,7 +25566,7 @@
         <v>44140</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -25628,7 +25628,7 @@
         <v>44141</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -25690,7 +25690,7 @@
         <v>44153</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -25747,7 +25747,7 @@
         <v>44153</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -25809,7 +25809,7 @@
         <v>44155</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -25866,7 +25866,7 @@
         <v>44157</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -25923,7 +25923,7 @@
         <v>44159</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -25985,7 +25985,7 @@
         <v>44165</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -26047,7 +26047,7 @@
         <v>44167</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -26109,7 +26109,7 @@
         <v>44168</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -26166,7 +26166,7 @@
         <v>44172</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -26228,7 +26228,7 @@
         <v>44173</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -26285,7 +26285,7 @@
         <v>44174</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -26347,7 +26347,7 @@
         <v>44175</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -26409,7 +26409,7 @@
         <v>44188</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -26471,7 +26471,7 @@
         <v>44194</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -26528,7 +26528,7 @@
         <v>44195</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -26585,7 +26585,7 @@
         <v>44210</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -26642,7 +26642,7 @@
         <v>44214</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -26699,7 +26699,7 @@
         <v>44218</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -26756,7 +26756,7 @@
         <v>44225</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -26813,7 +26813,7 @@
         <v>44228</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -26870,7 +26870,7 @@
         <v>44229</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -26927,7 +26927,7 @@
         <v>44230</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -26989,7 +26989,7 @@
         <v>44231</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -27046,7 +27046,7 @@
         <v>44231</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -27103,7 +27103,7 @@
         <v>44236</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -27160,7 +27160,7 @@
         <v>44239</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -27222,7 +27222,7 @@
         <v>44242</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -27284,7 +27284,7 @@
         <v>44243</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -27341,7 +27341,7 @@
         <v>44245</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -27398,7 +27398,7 @@
         <v>44259</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -27455,7 +27455,7 @@
         <v>44259</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -27512,7 +27512,7 @@
         <v>44273</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -27569,7 +27569,7 @@
         <v>44280</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -27626,7 +27626,7 @@
         <v>44280</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -27683,7 +27683,7 @@
         <v>44281</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -27745,7 +27745,7 @@
         <v>44286</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -27802,7 +27802,7 @@
         <v>44286</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -27859,7 +27859,7 @@
         <v>44287</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -27916,7 +27916,7 @@
         <v>44292</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -27973,7 +27973,7 @@
         <v>44298</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -28030,7 +28030,7 @@
         <v>44299</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -28087,7 +28087,7 @@
         <v>44308</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -28144,7 +28144,7 @@
         <v>44308</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -28201,7 +28201,7 @@
         <v>44308</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -28258,7 +28258,7 @@
         <v>44308</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -28315,7 +28315,7 @@
         <v>44315</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -28377,7 +28377,7 @@
         <v>44322</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -28434,7 +28434,7 @@
         <v>44323</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -28496,7 +28496,7 @@
         <v>44332</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -28558,7 +28558,7 @@
         <v>44336</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -28615,7 +28615,7 @@
         <v>44336</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -28672,7 +28672,7 @@
         <v>44349</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -28729,7 +28729,7 @@
         <v>44351</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -28791,7 +28791,7 @@
         <v>44351</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -28853,7 +28853,7 @@
         <v>44356</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -28910,7 +28910,7 @@
         <v>44357</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -28967,7 +28967,7 @@
         <v>44362</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -29024,7 +29024,7 @@
         <v>44362</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -29081,7 +29081,7 @@
         <v>44368</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -29138,7 +29138,7 @@
         <v>44375</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -29195,7 +29195,7 @@
         <v>44379</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -29252,7 +29252,7 @@
         <v>44384</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -29309,7 +29309,7 @@
         <v>44385</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -29366,7 +29366,7 @@
         <v>44396</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -29423,7 +29423,7 @@
         <v>44405</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -29480,7 +29480,7 @@
         <v>44410</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -29537,7 +29537,7 @@
         <v>44413</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -29594,7 +29594,7 @@
         <v>44424</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -29651,7 +29651,7 @@
         <v>44425</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -29713,7 +29713,7 @@
         <v>44425</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -29775,7 +29775,7 @@
         <v>44425</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -29837,7 +29837,7 @@
         <v>44431</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -29894,7 +29894,7 @@
         <v>44434</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -29951,7 +29951,7 @@
         <v>44441</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -30008,7 +30008,7 @@
         <v>44443</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -30065,7 +30065,7 @@
         <v>44448</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -30122,7 +30122,7 @@
         <v>44452</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -30179,7 +30179,7 @@
         <v>44453</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -30236,7 +30236,7 @@
         <v>44466</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -30298,7 +30298,7 @@
         <v>44475</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -30355,7 +30355,7 @@
         <v>44476</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -30417,7 +30417,7 @@
         <v>44480</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -30474,7 +30474,7 @@
         <v>44495</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -30536,7 +30536,7 @@
         <v>44496</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -30593,7 +30593,7 @@
         <v>44505</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -30655,7 +30655,7 @@
         <v>44505</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -30717,7 +30717,7 @@
         <v>44511</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -30774,7 +30774,7 @@
         <v>44512</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -30831,7 +30831,7 @@
         <v>44517</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -30888,7 +30888,7 @@
         <v>44517</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -30945,7 +30945,7 @@
         <v>44518</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -31002,7 +31002,7 @@
         <v>44518</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -31064,7 +31064,7 @@
         <v>44530</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -31121,7 +31121,7 @@
         <v>44536</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -31178,7 +31178,7 @@
         <v>44537</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -31235,7 +31235,7 @@
         <v>44538</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -31292,7 +31292,7 @@
         <v>44571</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -31349,7 +31349,7 @@
         <v>44573</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -31406,7 +31406,7 @@
         <v>44574</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -31463,7 +31463,7 @@
         <v>44574</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -31520,7 +31520,7 @@
         <v>44578</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -31577,7 +31577,7 @@
         <v>44586</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -31634,7 +31634,7 @@
         <v>44593</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -31691,7 +31691,7 @@
         <v>44595</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -31748,7 +31748,7 @@
         <v>44599</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -31805,7 +31805,7 @@
         <v>44601</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -31862,7 +31862,7 @@
         <v>44601</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -31919,7 +31919,7 @@
         <v>44601</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -31976,7 +31976,7 @@
         <v>44606</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -32033,7 +32033,7 @@
         <v>44609</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -32095,7 +32095,7 @@
         <v>44614</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -32152,7 +32152,7 @@
         <v>44614</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -32209,7 +32209,7 @@
         <v>44614</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -32266,7 +32266,7 @@
         <v>44614</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -32323,7 +32323,7 @@
         <v>44614</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -32380,7 +32380,7 @@
         <v>44615</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -32437,7 +32437,7 @@
         <v>44615</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -32494,7 +32494,7 @@
         <v>44621</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -32551,7 +32551,7 @@
         <v>44627</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -32608,7 +32608,7 @@
         <v>44628</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -32665,7 +32665,7 @@
         <v>44629</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -32722,7 +32722,7 @@
         <v>44635</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -32784,7 +32784,7 @@
         <v>44641</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -32846,7 +32846,7 @@
         <v>44641</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -32908,7 +32908,7 @@
         <v>44644</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -32970,7 +32970,7 @@
         <v>44644</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -33032,7 +33032,7 @@
         <v>44649</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -33094,7 +33094,7 @@
         <v>44650</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -33151,7 +33151,7 @@
         <v>44650</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -33208,7 +33208,7 @@
         <v>44652</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -33270,7 +33270,7 @@
         <v>44655</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -33332,7 +33332,7 @@
         <v>44655</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -33394,7 +33394,7 @@
         <v>44656</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -33456,7 +33456,7 @@
         <v>44656</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -33518,7 +33518,7 @@
         <v>44657</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -33575,7 +33575,7 @@
         <v>44662</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -33637,7 +33637,7 @@
         <v>44663</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -33699,7 +33699,7 @@
         <v>44663</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -33761,7 +33761,7 @@
         <v>44670</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -33823,7 +33823,7 @@
         <v>44670</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -33880,7 +33880,7 @@
         <v>44670</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -33937,7 +33937,7 @@
         <v>44671</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -33994,7 +33994,7 @@
         <v>44671</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -34051,7 +34051,7 @@
         <v>44679</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -34108,7 +34108,7 @@
         <v>44680</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -34165,7 +34165,7 @@
         <v>44685</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -34222,7 +34222,7 @@
         <v>44685</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -34279,7 +34279,7 @@
         <v>44685</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -34341,7 +34341,7 @@
         <v>44686</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -34398,7 +34398,7 @@
         <v>44690</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -34455,7 +34455,7 @@
         <v>44690</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -34517,7 +34517,7 @@
         <v>44690</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -34579,7 +34579,7 @@
         <v>44690</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -34636,7 +34636,7 @@
         <v>44690</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -34698,7 +34698,7 @@
         <v>44690</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -34760,7 +34760,7 @@
         <v>44704</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -34817,7 +34817,7 @@
         <v>44705</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -34874,7 +34874,7 @@
         <v>44706</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -34931,7 +34931,7 @@
         <v>44714</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -34988,7 +34988,7 @@
         <v>44714</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -35050,7 +35050,7 @@
         <v>44714</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -35107,7 +35107,7 @@
         <v>44725</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -35164,7 +35164,7 @@
         <v>44727</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -35226,7 +35226,7 @@
         <v>44732</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -35283,7 +35283,7 @@
         <v>44734</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -35340,7 +35340,7 @@
         <v>44734</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -35402,7 +35402,7 @@
         <v>44741</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -35459,7 +35459,7 @@
         <v>44743</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -35516,7 +35516,7 @@
         <v>44746</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -35573,7 +35573,7 @@
         <v>44746</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -35635,7 +35635,7 @@
         <v>44761</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -35712,7 +35712,7 @@
         <v>44774</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -35769,7 +35769,7 @@
         <v>44774</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -35826,7 +35826,7 @@
         <v>44776</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -35888,7 +35888,7 @@
         <v>44776</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -35950,7 +35950,7 @@
         <v>44777</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -36012,7 +36012,7 @@
         <v>44778</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -36074,7 +36074,7 @@
         <v>44781</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -36131,7 +36131,7 @@
         <v>44782</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -36193,7 +36193,7 @@
         <v>44783</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -36255,7 +36255,7 @@
         <v>44788</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -36312,7 +36312,7 @@
         <v>44788</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -36369,7 +36369,7 @@
         <v>44791</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -36431,7 +36431,7 @@
         <v>44797</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -36493,7 +36493,7 @@
         <v>44798</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -36555,7 +36555,7 @@
         <v>44799</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -36617,7 +36617,7 @@
         <v>44802</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -36674,7 +36674,7 @@
         <v>44802</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -36736,7 +36736,7 @@
         <v>44804</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -36793,7 +36793,7 @@
         <v>44804</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -36855,7 +36855,7 @@
         <v>44805</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -36917,7 +36917,7 @@
         <v>44805</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -36979,7 +36979,7 @@
         <v>44806</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -37036,7 +37036,7 @@
         <v>44812</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -37098,7 +37098,7 @@
         <v>44813</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -37160,7 +37160,7 @@
         <v>44813</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -37222,7 +37222,7 @@
         <v>44815</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -37284,7 +37284,7 @@
         <v>44816</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -37346,7 +37346,7 @@
         <v>44816</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -37408,7 +37408,7 @@
         <v>44817</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -37470,7 +37470,7 @@
         <v>44818</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -37532,7 +37532,7 @@
         <v>44818</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -37589,7 +37589,7 @@
         <v>44820</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -37651,7 +37651,7 @@
         <v>44820</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -37708,7 +37708,7 @@
         <v>44820</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -37770,7 +37770,7 @@
         <v>44820</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -37832,7 +37832,7 @@
         <v>44823</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -37889,7 +37889,7 @@
         <v>44823</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -37946,7 +37946,7 @@
         <v>44825</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -38008,7 +38008,7 @@
         <v>44825</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -38070,7 +38070,7 @@
         <v>44830</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -38132,7 +38132,7 @@
         <v>44831</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -38194,7 +38194,7 @@
         <v>44831</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -38256,7 +38256,7 @@
         <v>44832</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -38318,7 +38318,7 @@
         <v>44832</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -38380,7 +38380,7 @@
         <v>44832</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -38442,7 +38442,7 @@
         <v>44837</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -38504,7 +38504,7 @@
         <v>44837</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -38566,7 +38566,7 @@
         <v>44838</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -38628,7 +38628,7 @@
         <v>44839</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -38685,7 +38685,7 @@
         <v>44839</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -38742,7 +38742,7 @@
         <v>44840</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -38804,7 +38804,7 @@
         <v>44841</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -38861,7 +38861,7 @@
         <v>44844</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -38923,7 +38923,7 @@
         <v>44845</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -38985,7 +38985,7 @@
         <v>44845</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -39047,7 +39047,7 @@
         <v>44845</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -39109,7 +39109,7 @@
         <v>44845</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -39171,7 +39171,7 @@
         <v>44846</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -39233,7 +39233,7 @@
         <v>44846</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -39295,7 +39295,7 @@
         <v>44852</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -39357,7 +39357,7 @@
         <v>44852</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -39419,7 +39419,7 @@
         <v>44852</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -39481,7 +39481,7 @@
         <v>44852</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -39543,7 +39543,7 @@
         <v>44853</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -39605,7 +39605,7 @@
         <v>44854</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -39667,7 +39667,7 @@
         <v>44855</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -39729,7 +39729,7 @@
         <v>44855</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -39791,7 +39791,7 @@
         <v>44855</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -39853,7 +39853,7 @@
         <v>44858</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -39915,7 +39915,7 @@
         <v>44858</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -39977,7 +39977,7 @@
         <v>44860</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -40039,7 +40039,7 @@
         <v>44860</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -40101,7 +40101,7 @@
         <v>44861</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -40163,7 +40163,7 @@
         <v>44861</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -40225,7 +40225,7 @@
         <v>44865</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -40282,7 +40282,7 @@
         <v>44865</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -40339,7 +40339,7 @@
         <v>44866</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -40401,7 +40401,7 @@
         <v>44866</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -40463,7 +40463,7 @@
         <v>44866</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -40525,7 +40525,7 @@
         <v>44867</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -40587,7 +40587,7 @@
         <v>44869</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -40644,7 +40644,7 @@
         <v>44869</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -40701,7 +40701,7 @@
         <v>44869</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -40758,7 +40758,7 @@
         <v>44874</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -40815,7 +40815,7 @@
         <v>44876</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -40877,7 +40877,7 @@
         <v>44879</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -40939,7 +40939,7 @@
         <v>44880</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -41001,7 +41001,7 @@
         <v>44880</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -41063,7 +41063,7 @@
         <v>44881</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -41120,7 +41120,7 @@
         <v>44883</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -41182,7 +41182,7 @@
         <v>44883</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -41244,7 +41244,7 @@
         <v>44886</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -41306,7 +41306,7 @@
         <v>44887</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -41363,7 +41363,7 @@
         <v>44887</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -41420,7 +41420,7 @@
         <v>44887</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -41477,7 +41477,7 @@
         <v>44888</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -41539,7 +41539,7 @@
         <v>44889</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -41601,7 +41601,7 @@
         <v>44889</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -41658,7 +41658,7 @@
         <v>44889</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -41720,7 +41720,7 @@
         <v>44893</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -41777,7 +41777,7 @@
         <v>44894</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -41834,7 +41834,7 @@
         <v>44895</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -41896,7 +41896,7 @@
         <v>44896</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -41953,7 +41953,7 @@
         <v>44897</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -42010,7 +42010,7 @@
         <v>44897</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -42072,7 +42072,7 @@
         <v>44900</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -42134,7 +42134,7 @@
         <v>44901</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -42196,7 +42196,7 @@
         <v>44901</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -42258,7 +42258,7 @@
         <v>44901</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -42320,7 +42320,7 @@
         <v>44903</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -42377,7 +42377,7 @@
         <v>44903</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -42439,7 +42439,7 @@
         <v>44904</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -42501,7 +42501,7 @@
         <v>44909</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -42563,7 +42563,7 @@
         <v>44911</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -42625,7 +42625,7 @@
         <v>44911</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -42687,7 +42687,7 @@
         <v>44913</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -42749,7 +42749,7 @@
         <v>44914</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -42806,7 +42806,7 @@
         <v>44914</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -42868,7 +42868,7 @@
         <v>44915</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -42925,7 +42925,7 @@
         <v>44915</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -42987,7 +42987,7 @@
         <v>44917</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -43049,7 +43049,7 @@
         <v>44917</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -43106,7 +43106,7 @@
         <v>44918</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -43168,7 +43168,7 @@
         <v>44922</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -43225,7 +43225,7 @@
         <v>44927</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -43287,7 +43287,7 @@
         <v>44929</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -43344,7 +43344,7 @@
         <v>44929</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -43401,7 +43401,7 @@
         <v>44929</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -43458,7 +43458,7 @@
         <v>44938</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -43520,7 +43520,7 @@
         <v>44938</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -43582,7 +43582,7 @@
         <v>44939</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -43644,7 +43644,7 @@
         <v>44939</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -43706,7 +43706,7 @@
         <v>44942</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -43763,7 +43763,7 @@
         <v>44942</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -43825,7 +43825,7 @@
         <v>44942</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -43882,7 +43882,7 @@
         <v>44942</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -43944,7 +43944,7 @@
         <v>44944</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -44001,7 +44001,7 @@
         <v>44953</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -44063,7 +44063,7 @@
         <v>44953</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -44125,7 +44125,7 @@
         <v>44956</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -44187,7 +44187,7 @@
         <v>44957</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -44249,7 +44249,7 @@
         <v>44958</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -44306,7 +44306,7 @@
         <v>44958</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -44363,7 +44363,7 @@
         <v>44958</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -44425,7 +44425,7 @@
         <v>44959</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -44482,7 +44482,7 @@
         <v>44963</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -44539,7 +44539,7 @@
         <v>44963</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -44601,7 +44601,7 @@
         <v>44965</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -44663,7 +44663,7 @@
         <v>44966</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -44725,7 +44725,7 @@
         <v>44966</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -44787,7 +44787,7 @@
         <v>44967</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -44849,7 +44849,7 @@
         <v>44971</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -44911,7 +44911,7 @@
         <v>44978</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -44973,7 +44973,7 @@
         <v>44979</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -45030,7 +45030,7 @@
         <v>44979</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -45087,7 +45087,7 @@
         <v>44979</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -45149,7 +45149,7 @@
         <v>44980</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -45206,7 +45206,7 @@
         <v>44984</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -45263,7 +45263,7 @@
         <v>44986</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -45320,7 +45320,7 @@
         <v>44987</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -45382,7 +45382,7 @@
         <v>44991</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -45444,7 +45444,7 @@
         <v>44991</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -45506,7 +45506,7 @@
         <v>44991</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -45568,7 +45568,7 @@
         <v>44991</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -45630,7 +45630,7 @@
         <v>44992</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -45687,7 +45687,7 @@
         <v>44993</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -45749,7 +45749,7 @@
         <v>44993</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -45811,7 +45811,7 @@
         <v>44993</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -45873,7 +45873,7 @@
         <v>44993</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -45930,7 +45930,7 @@
         <v>44995</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -45992,7 +45992,7 @@
         <v>44995</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -46054,7 +46054,7 @@
         <v>44995</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -46116,7 +46116,7 @@
         <v>45000</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -46173,7 +46173,7 @@
         <v>45000</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -46235,7 +46235,7 @@
         <v>45000</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -46297,7 +46297,7 @@
         <v>45000</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -46359,7 +46359,7 @@
         <v>45000</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -46421,7 +46421,7 @@
         <v>45002</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -46478,7 +46478,7 @@
         <v>45006</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -46540,7 +46540,7 @@
         <v>45007</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -46597,7 +46597,7 @@
         <v>45009</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -46654,7 +46654,7 @@
         <v>45009</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -46711,7 +46711,7 @@
         <v>45015</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -46773,7 +46773,7 @@
         <v>45015</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -46835,7 +46835,7 @@
         <v>45015</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -46892,7 +46892,7 @@
         <v>45015</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -46949,7 +46949,7 @@
         <v>45016</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -47006,7 +47006,7 @@
         <v>45016</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -47063,7 +47063,7 @@
         <v>45028</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -47120,7 +47120,7 @@
         <v>45033</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -47177,7 +47177,7 @@
         <v>45034</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -47234,7 +47234,7 @@
         <v>45040</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -47291,7 +47291,7 @@
         <v>45042</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -47348,7 +47348,7 @@
         <v>45044</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -47410,7 +47410,7 @@
         <v>45048</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -47472,7 +47472,7 @@
         <v>45048</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -47534,7 +47534,7 @@
         <v>45049</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -47596,7 +47596,7 @@
         <v>45050</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -47658,7 +47658,7 @@
         <v>45054</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -47720,7 +47720,7 @@
         <v>45056</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -47777,7 +47777,7 @@
         <v>45056</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -47834,7 +47834,7 @@
         <v>45063</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -47891,7 +47891,7 @@
         <v>45063</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -47948,7 +47948,7 @@
         <v>45068</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -48010,7 +48010,7 @@
         <v>45069</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -48067,7 +48067,7 @@
         <v>45070</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -48124,7 +48124,7 @@
         <v>45070</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -48181,7 +48181,7 @@
         <v>45070</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -48243,7 +48243,7 @@
         <v>45071</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -48300,7 +48300,7 @@
         <v>45071</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -48357,7 +48357,7 @@
         <v>45078</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -48414,7 +48414,7 @@
         <v>45078</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -48471,7 +48471,7 @@
         <v>45078</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -48528,7 +48528,7 @@
         <v>45079</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -48590,7 +48590,7 @@
         <v>45084</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -48647,7 +48647,7 @@
         <v>45085</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -48704,7 +48704,7 @@
         <v>45086</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -48761,7 +48761,7 @@
         <v>45086</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -48823,7 +48823,7 @@
         <v>45089</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -48880,7 +48880,7 @@
         <v>45089</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -48937,7 +48937,7 @@
         <v>45089</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -48999,7 +48999,7 @@
         <v>45089</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -49056,7 +49056,7 @@
         <v>45090</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -49113,7 +49113,7 @@
         <v>45091</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -49175,7 +49175,7 @@
         <v>45092</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -49232,7 +49232,7 @@
         <v>45092</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -49289,7 +49289,7 @@
         <v>45092</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -49346,7 +49346,7 @@
         <v>45092</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -49403,7 +49403,7 @@
         <v>45093</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -49460,7 +49460,7 @@
         <v>45093</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -49517,7 +49517,7 @@
         <v>45096</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -49574,7 +49574,7 @@
         <v>45096</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -49631,7 +49631,7 @@
         <v>45098</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -49688,7 +49688,7 @@
         <v>45098</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -49745,7 +49745,7 @@
         <v>45103</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -49802,7 +49802,7 @@
         <v>45103</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -49859,7 +49859,7 @@
         <v>45104</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -49916,7 +49916,7 @@
         <v>45105</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -49978,7 +49978,7 @@
         <v>45107</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -50035,7 +50035,7 @@
         <v>45107</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -50092,7 +50092,7 @@
         <v>45111</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -50149,7 +50149,7 @@
         <v>45112</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -50211,7 +50211,7 @@
         <v>45112</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -50273,7 +50273,7 @@
         <v>45121</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -50330,7 +50330,7 @@
         <v>45138</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -50392,7 +50392,7 @@
         <v>45146</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -50449,7 +50449,7 @@
         <v>45148</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -50506,7 +50506,7 @@
         <v>45148</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -50563,7 +50563,7 @@
         <v>45149</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -50620,7 +50620,7 @@
         <v>45153</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -50677,7 +50677,7 @@
         <v>45153</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -50734,7 +50734,7 @@
         <v>45166</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>

--- a/Översikt RAGUNDA.xlsx
+++ b/Översikt RAGUNDA.xlsx
@@ -572,7 +572,7 @@
         <v>44874</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -699,7 +699,7 @@
         <v>43865</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>44894</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         <v>44917</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
         <v>43865</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1145,7 +1145,7 @@
         <v>44504</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1256,7 +1256,7 @@
         <v>44644</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1362,7 +1362,7 @@
         <v>43866</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1466,7 +1466,7 @@
         <v>44504</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1575,7 +1575,7 @@
         <v>44473</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1678,7 +1678,7 @@
         <v>44088</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1784,7 +1784,7 @@
         <v>44151</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1881,7 +1881,7 @@
         <v>44644</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1983,7 +1983,7 @@
         <v>44838</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2080,7 +2080,7 @@
         <v>43900</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2181,7 +2181,7 @@
         <v>44062</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2282,7 +2282,7 @@
         <v>45104</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2383,7 +2383,7 @@
         <v>43910</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2487,7 +2487,7 @@
         <v>44776</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2591,7 +2591,7 @@
         <v>44645</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2690,7 +2690,7 @@
         <v>44888</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2789,7 +2789,7 @@
         <v>43353</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2887,7 +2887,7 @@
         <v>44504</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2985,7 +2985,7 @@
         <v>45113</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3083,7 +3083,7 @@
         <v>44133</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3180,7 +3180,7 @@
         <v>44644</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3277,7 +3277,7 @@
         <v>44901</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3378,7 +3378,7 @@
         <v>45113</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3475,7 +3475,7 @@
         <v>43411</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3571,7 +3571,7 @@
         <v>43413</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3667,7 +3667,7 @@
         <v>44133</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         <v>44336</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3854,7 +3854,7 @@
         <v>44438</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3950,7 +3950,7 @@
         <v>44662</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4046,7 +4046,7 @@
         <v>44804</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4142,7 +4142,7 @@
         <v>44915</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4242,7 +4242,7 @@
         <v>44953</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4333,7 +4333,7 @@
         <v>44994</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4433,7 +4433,7 @@
         <v>45009</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4524,7 +4524,7 @@
         <v>44209</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4614,7 +4614,7 @@
         <v>44875</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4709,7 +4709,7 @@
         <v>44876</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4804,7 +4804,7 @@
         <v>44911</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4899,7 +4899,7 @@
         <v>44932</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4994,7 +4994,7 @@
         <v>44994</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -5089,7 +5089,7 @@
         <v>45015</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5183,7 +5183,7 @@
         <v>45027</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5282,7 +5282,7 @@
         <v>45070</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5377,7 +5377,7 @@
         <v>44111</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5470,7 +5470,7 @@
         <v>44139</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5559,7 +5559,7 @@
         <v>44645</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5657,7 +5657,7 @@
         <v>44656</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5751,7 +5751,7 @@
         <v>44734</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5845,7 +5845,7 @@
         <v>44865</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5939,7 +5939,7 @@
         <v>44911</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -6033,7 +6033,7 @@
         <v>45054</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -6122,7 +6122,7 @@
         <v>45093</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6215,7 +6215,7 @@
         <v>43977</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6308,7 +6308,7 @@
         <v>44113</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6401,7 +6401,7 @@
         <v>44245</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6494,7 +6494,7 @@
         <v>44334</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6586,7 +6586,7 @@
         <v>44334</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6678,7 +6678,7 @@
         <v>44446</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6771,7 +6771,7 @@
         <v>44610</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6864,7 +6864,7 @@
         <v>44624</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6957,7 +6957,7 @@
         <v>44662</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -7050,7 +7050,7 @@
         <v>44677</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -7142,7 +7142,7 @@
         <v>44696</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -7235,7 +7235,7 @@
         <v>44732</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7332,7 +7332,7 @@
         <v>44911</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7425,7 +7425,7 @@
         <v>45034</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7518,7 +7518,7 @@
         <v>43817</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7609,7 +7609,7 @@
         <v>44111</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7701,7 +7701,7 @@
         <v>44421</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7793,7 +7793,7 @@
         <v>44740</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7880,7 +7880,7 @@
         <v>44855</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7976,7 +7976,7 @@
         <v>44855</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -8068,7 +8068,7 @@
         <v>44875</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -8160,7 +8160,7 @@
         <v>44902</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -8252,7 +8252,7 @@
         <v>44971</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -8344,7 +8344,7 @@
         <v>44987</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8435,7 +8435,7 @@
         <v>44987</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8522,7 +8522,7 @@
         <v>45049</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8614,7 +8614,7 @@
         <v>43329</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8700,7 +8700,7 @@
         <v>43411</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8786,7 +8786,7 @@
         <v>43707</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8876,7 +8876,7 @@
         <v>43948</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8962,7 +8962,7 @@
         <v>44676</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -9053,7 +9053,7 @@
         <v>44680</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -9139,7 +9139,7 @@
         <v>44855</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -9230,7 +9230,7 @@
         <v>44855</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -9321,7 +9321,7 @@
         <v>44860</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9412,7 +9412,7 @@
         <v>44973</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9503,7 +9503,7 @@
         <v>44980</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9589,7 +9589,7 @@
         <v>45005</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9680,7 +9680,7 @@
         <v>45121</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9771,7 +9771,7 @@
         <v>43515</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9856,7 +9856,7 @@
         <v>43619</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9946,7 +9946,7 @@
         <v>43650</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -10031,7 +10031,7 @@
         <v>43784</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -10121,7 +10121,7 @@
         <v>43791</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -10206,7 +10206,7 @@
         <v>43977</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -10296,7 +10296,7 @@
         <v>44012</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -10386,7 +10386,7 @@
         <v>44049</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -10476,7 +10476,7 @@
         <v>44062</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10566,7 +10566,7 @@
         <v>44098</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10656,7 +10656,7 @@
         <v>44119</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -10741,7 +10741,7 @@
         <v>44166</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10826,7 +10826,7 @@
         <v>44319</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10916,7 +10916,7 @@
         <v>44369</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -11001,7 +11001,7 @@
         <v>44462</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -11091,7 +11091,7 @@
         <v>44601</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -11176,7 +11176,7 @@
         <v>44607</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -11266,7 +11266,7 @@
         <v>44705</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -11351,7 +11351,7 @@
         <v>44741</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -11441,7 +11441,7 @@
         <v>44741</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -11526,7 +11526,7 @@
         <v>44830</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -11616,7 +11616,7 @@
         <v>44832</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -11706,7 +11706,7 @@
         <v>44855</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -11796,7 +11796,7 @@
         <v>44860</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -11881,7 +11881,7 @@
         <v>45033</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -11970,7 +11970,7 @@
         <v>45042</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -12055,7 +12055,7 @@
         <v>45044</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -12145,7 +12145,7 @@
         <v>45089</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -12230,7 +12230,7 @@
         <v>45097</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -12320,7 +12320,7 @@
         <v>45120</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -12410,7 +12410,7 @@
         <v>45121</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -12495,7 +12495,7 @@
         <v>45149</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -12585,7 +12585,7 @@
         <v>45153</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -12670,7 +12670,7 @@
         <v>43321</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -12727,7 +12727,7 @@
         <v>43322</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -12789,7 +12789,7 @@
         <v>43326</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -12846,7 +12846,7 @@
         <v>43341</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -12903,7 +12903,7 @@
         <v>43360</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -12960,7 +12960,7 @@
         <v>43395</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -13017,7 +13017,7 @@
         <v>43396</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -13074,7 +13074,7 @@
         <v>43398</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -13131,7 +13131,7 @@
         <v>43398</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -13188,7 +13188,7 @@
         <v>43398</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -13245,7 +13245,7 @@
         <v>43403</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -13307,7 +13307,7 @@
         <v>43403</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -13369,7 +13369,7 @@
         <v>43403</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -13431,7 +13431,7 @@
         <v>43405</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -13493,7 +13493,7 @@
         <v>43406</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -13555,7 +13555,7 @@
         <v>43410</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -13617,7 +13617,7 @@
         <v>43411</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -13674,7 +13674,7 @@
         <v>43411</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -13736,7 +13736,7 @@
         <v>43411</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -13798,7 +13798,7 @@
         <v>43411</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -13860,7 +13860,7 @@
         <v>43411</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -13922,7 +13922,7 @@
         <v>43411</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -13984,7 +13984,7 @@
         <v>43411</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -14041,7 +14041,7 @@
         <v>43413</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -14098,7 +14098,7 @@
         <v>43418</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -14155,7 +14155,7 @@
         <v>43419</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -14212,7 +14212,7 @@
         <v>43423</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -14269,7 +14269,7 @@
         <v>43423</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -14326,7 +14326,7 @@
         <v>43427</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -14383,7 +14383,7 @@
         <v>43427</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -14440,7 +14440,7 @@
         <v>43431</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -14497,7 +14497,7 @@
         <v>43431</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -14559,7 +14559,7 @@
         <v>43431</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -14621,7 +14621,7 @@
         <v>43437</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -14683,7 +14683,7 @@
         <v>43438</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -14740,7 +14740,7 @@
         <v>43440</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -14797,7 +14797,7 @@
         <v>43444</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -14854,7 +14854,7 @@
         <v>43448</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -14911,7 +14911,7 @@
         <v>43461</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -14968,7 +14968,7 @@
         <v>43461</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -15025,7 +15025,7 @@
         <v>43467</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -15082,7 +15082,7 @@
         <v>43467</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -15139,7 +15139,7 @@
         <v>43473</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -15196,7 +15196,7 @@
         <v>43473</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -15253,7 +15253,7 @@
         <v>43474</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -15310,7 +15310,7 @@
         <v>43481</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -15367,7 +15367,7 @@
         <v>43481</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -15424,7 +15424,7 @@
         <v>43483</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -15481,7 +15481,7 @@
         <v>43495</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -15538,7 +15538,7 @@
         <v>43496</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -15600,7 +15600,7 @@
         <v>43509</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -15657,7 +15657,7 @@
         <v>43510</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -15714,7 +15714,7 @@
         <v>43515</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -15771,7 +15771,7 @@
         <v>43530</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -15828,7 +15828,7 @@
         <v>43537</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -15890,7 +15890,7 @@
         <v>43538</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -15947,7 +15947,7 @@
         <v>43542</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -16004,7 +16004,7 @@
         <v>43543</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -16061,7 +16061,7 @@
         <v>43551</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -16118,7 +16118,7 @@
         <v>43551</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -16175,7 +16175,7 @@
         <v>43552</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -16232,7 +16232,7 @@
         <v>43563</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -16289,7 +16289,7 @@
         <v>43565</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -16346,7 +16346,7 @@
         <v>43578</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -16408,7 +16408,7 @@
         <v>43584</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -16465,7 +16465,7 @@
         <v>43589</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -16522,7 +16522,7 @@
         <v>43594</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -16579,7 +16579,7 @@
         <v>43594</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -16641,7 +16641,7 @@
         <v>43622</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -16703,7 +16703,7 @@
         <v>43633</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -16760,7 +16760,7 @@
         <v>43633</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -16817,7 +16817,7 @@
         <v>43640</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -16879,7 +16879,7 @@
         <v>43641</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -16941,7 +16941,7 @@
         <v>43641</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -17003,7 +17003,7 @@
         <v>43643</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -17065,7 +17065,7 @@
         <v>43650</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -17127,7 +17127,7 @@
         <v>43651</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -17184,7 +17184,7 @@
         <v>43654</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -17246,7 +17246,7 @@
         <v>43654</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -17308,7 +17308,7 @@
         <v>43656</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -17370,7 +17370,7 @@
         <v>43669</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -17427,7 +17427,7 @@
         <v>43678</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -17489,7 +17489,7 @@
         <v>43704</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -17551,7 +17551,7 @@
         <v>43704</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -17613,7 +17613,7 @@
         <v>43704</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -17675,7 +17675,7 @@
         <v>43706</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -17732,7 +17732,7 @@
         <v>43706</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -17789,7 +17789,7 @@
         <v>43713</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -17846,7 +17846,7 @@
         <v>43713</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -17903,7 +17903,7 @@
         <v>43728</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -17965,7 +17965,7 @@
         <v>43733</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -18022,7 +18022,7 @@
         <v>43733</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -18079,7 +18079,7 @@
         <v>43735</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -18136,7 +18136,7 @@
         <v>43740</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -18193,7 +18193,7 @@
         <v>43742</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -18250,7 +18250,7 @@
         <v>43746</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -18307,7 +18307,7 @@
         <v>43756</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -18364,7 +18364,7 @@
         <v>43759</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -18421,7 +18421,7 @@
         <v>43760</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -18478,7 +18478,7 @@
         <v>43768</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -18535,7 +18535,7 @@
         <v>43768</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -18597,7 +18597,7 @@
         <v>43770</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -18659,7 +18659,7 @@
         <v>43770</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -18721,7 +18721,7 @@
         <v>43773</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -18778,7 +18778,7 @@
         <v>43773</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -18840,7 +18840,7 @@
         <v>43773</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -18897,7 +18897,7 @@
         <v>43775</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -18954,7 +18954,7 @@
         <v>43777</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -19016,7 +19016,7 @@
         <v>43782</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -19073,7 +19073,7 @@
         <v>43783</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -19130,7 +19130,7 @@
         <v>43788</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -19207,7 +19207,7 @@
         <v>43791</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -19264,7 +19264,7 @@
         <v>43797</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -19321,7 +19321,7 @@
         <v>43797</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -19378,7 +19378,7 @@
         <v>43803</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -19435,7 +19435,7 @@
         <v>43805</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -19492,7 +19492,7 @@
         <v>43812</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -19549,7 +19549,7 @@
         <v>43818</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -19606,7 +19606,7 @@
         <v>43819</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -19663,7 +19663,7 @@
         <v>43833</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -19720,7 +19720,7 @@
         <v>43847</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -19777,7 +19777,7 @@
         <v>43850</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -19834,7 +19834,7 @@
         <v>43861</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -19891,7 +19891,7 @@
         <v>43868</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -19948,7 +19948,7 @@
         <v>43872</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -20005,7 +20005,7 @@
         <v>43873</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -20062,7 +20062,7 @@
         <v>43880</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -20119,7 +20119,7 @@
         <v>43881</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -20181,7 +20181,7 @@
         <v>43882</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -20238,7 +20238,7 @@
         <v>43887</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -20295,7 +20295,7 @@
         <v>43896</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -20377,7 +20377,7 @@
         <v>43900</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -20434,7 +20434,7 @@
         <v>43901</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -20491,7 +20491,7 @@
         <v>43902</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -20553,7 +20553,7 @@
         <v>43907</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -20610,7 +20610,7 @@
         <v>43910</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -20667,7 +20667,7 @@
         <v>43910</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -20724,7 +20724,7 @@
         <v>43913</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -20781,7 +20781,7 @@
         <v>43916</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -20838,7 +20838,7 @@
         <v>43923</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -20895,7 +20895,7 @@
         <v>43943</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -20952,7 +20952,7 @@
         <v>43948</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -21009,7 +21009,7 @@
         <v>43949</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -21071,7 +21071,7 @@
         <v>43951</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -21128,7 +21128,7 @@
         <v>43955</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -21190,7 +21190,7 @@
         <v>43955</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -21252,7 +21252,7 @@
         <v>43955</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -21314,7 +21314,7 @@
         <v>43955</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -21376,7 +21376,7 @@
         <v>43956</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -21438,7 +21438,7 @@
         <v>43957</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -21495,7 +21495,7 @@
         <v>43965</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -21552,7 +21552,7 @@
         <v>43969</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -21614,7 +21614,7 @@
         <v>43971</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -21671,7 +21671,7 @@
         <v>43971</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -21728,7 +21728,7 @@
         <v>43977</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -21790,7 +21790,7 @@
         <v>43979</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -21847,7 +21847,7 @@
         <v>43984</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -21909,7 +21909,7 @@
         <v>43984</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -21971,7 +21971,7 @@
         <v>43986</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -22033,7 +22033,7 @@
         <v>43986</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -22095,7 +22095,7 @@
         <v>43990</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -22157,7 +22157,7 @@
         <v>43992</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -22214,7 +22214,7 @@
         <v>43999</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -22276,7 +22276,7 @@
         <v>44000</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -22333,7 +22333,7 @@
         <v>44004</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -22395,7 +22395,7 @@
         <v>44006</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -22457,7 +22457,7 @@
         <v>44011</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -22519,7 +22519,7 @@
         <v>44013</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -22581,7 +22581,7 @@
         <v>44013</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -22643,7 +22643,7 @@
         <v>44013</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -22705,7 +22705,7 @@
         <v>44019</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -22767,7 +22767,7 @@
         <v>44026</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -22824,7 +22824,7 @@
         <v>44027</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -22886,7 +22886,7 @@
         <v>44029</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -22948,7 +22948,7 @@
         <v>44029</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -23005,7 +23005,7 @@
         <v>44040</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -23062,7 +23062,7 @@
         <v>44041</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -23124,7 +23124,7 @@
         <v>44051</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -23181,7 +23181,7 @@
         <v>44051</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -23238,7 +23238,7 @@
         <v>44055</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -23295,7 +23295,7 @@
         <v>44056</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -23352,7 +23352,7 @@
         <v>44057</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -23409,7 +23409,7 @@
         <v>44057</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -23471,7 +23471,7 @@
         <v>44062</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -23533,7 +23533,7 @@
         <v>44063</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -23595,7 +23595,7 @@
         <v>44067</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -23657,7 +23657,7 @@
         <v>44069</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -23719,7 +23719,7 @@
         <v>44071</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -23781,7 +23781,7 @@
         <v>44074</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -23843,7 +23843,7 @@
         <v>44074</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -23905,7 +23905,7 @@
         <v>44074</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -23967,7 +23967,7 @@
         <v>44075</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -24029,7 +24029,7 @@
         <v>44078</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -24086,7 +24086,7 @@
         <v>44082</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -24148,7 +24148,7 @@
         <v>44084</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -24210,7 +24210,7 @@
         <v>44084</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -24267,7 +24267,7 @@
         <v>44084</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -24324,7 +24324,7 @@
         <v>44090</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -24381,7 +24381,7 @@
         <v>44095</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -24438,7 +24438,7 @@
         <v>44096</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -24500,7 +24500,7 @@
         <v>44096</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -24562,7 +24562,7 @@
         <v>44098</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -24619,7 +24619,7 @@
         <v>44099</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -24681,7 +24681,7 @@
         <v>44103</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -24743,7 +24743,7 @@
         <v>44106</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -24800,7 +24800,7 @@
         <v>44111</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -24857,7 +24857,7 @@
         <v>44111</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -24914,7 +24914,7 @@
         <v>44111</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -24971,7 +24971,7 @@
         <v>44113</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -25033,7 +25033,7 @@
         <v>44124</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -25090,7 +25090,7 @@
         <v>44126</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -25147,7 +25147,7 @@
         <v>44132</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -25209,7 +25209,7 @@
         <v>44134</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -25266,7 +25266,7 @@
         <v>44137</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -25323,7 +25323,7 @@
         <v>44138</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -25380,7 +25380,7 @@
         <v>44140</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -25442,7 +25442,7 @@
         <v>44140</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -25504,7 +25504,7 @@
         <v>44140</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -25566,7 +25566,7 @@
         <v>44140</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -25628,7 +25628,7 @@
         <v>44141</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -25690,7 +25690,7 @@
         <v>44153</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -25747,7 +25747,7 @@
         <v>44153</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -25809,7 +25809,7 @@
         <v>44155</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -25866,7 +25866,7 @@
         <v>44157</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -25923,7 +25923,7 @@
         <v>44159</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -25985,7 +25985,7 @@
         <v>44165</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -26047,7 +26047,7 @@
         <v>44167</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -26109,7 +26109,7 @@
         <v>44168</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -26166,7 +26166,7 @@
         <v>44172</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -26228,7 +26228,7 @@
         <v>44173</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -26285,7 +26285,7 @@
         <v>44174</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -26347,7 +26347,7 @@
         <v>44175</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -26409,7 +26409,7 @@
         <v>44188</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -26471,7 +26471,7 @@
         <v>44194</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -26528,7 +26528,7 @@
         <v>44195</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -26585,7 +26585,7 @@
         <v>44210</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -26642,7 +26642,7 @@
         <v>44214</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -26699,7 +26699,7 @@
         <v>44218</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -26756,7 +26756,7 @@
         <v>44225</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -26813,7 +26813,7 @@
         <v>44228</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -26870,7 +26870,7 @@
         <v>44229</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -26927,7 +26927,7 @@
         <v>44230</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -26989,7 +26989,7 @@
         <v>44231</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -27046,7 +27046,7 @@
         <v>44231</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -27103,7 +27103,7 @@
         <v>44236</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -27160,7 +27160,7 @@
         <v>44239</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -27222,7 +27222,7 @@
         <v>44242</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -27284,7 +27284,7 @@
         <v>44243</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -27341,7 +27341,7 @@
         <v>44245</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -27398,7 +27398,7 @@
         <v>44259</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -27455,7 +27455,7 @@
         <v>44259</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -27512,7 +27512,7 @@
         <v>44273</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -27569,7 +27569,7 @@
         <v>44280</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -27626,7 +27626,7 @@
         <v>44280</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -27683,7 +27683,7 @@
         <v>44281</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -27745,7 +27745,7 @@
         <v>44286</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -27802,7 +27802,7 @@
         <v>44286</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -27859,7 +27859,7 @@
         <v>44287</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -27916,7 +27916,7 @@
         <v>44292</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -27973,7 +27973,7 @@
         <v>44298</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -28030,7 +28030,7 @@
         <v>44299</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -28087,7 +28087,7 @@
         <v>44308</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -28144,7 +28144,7 @@
         <v>44308</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -28201,7 +28201,7 @@
         <v>44308</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -28258,7 +28258,7 @@
         <v>44308</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -28315,7 +28315,7 @@
         <v>44315</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -28377,7 +28377,7 @@
         <v>44322</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -28434,7 +28434,7 @@
         <v>44323</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -28496,7 +28496,7 @@
         <v>44332</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -28558,7 +28558,7 @@
         <v>44336</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -28615,7 +28615,7 @@
         <v>44336</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -28672,7 +28672,7 @@
         <v>44349</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -28729,7 +28729,7 @@
         <v>44351</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -28791,7 +28791,7 @@
         <v>44351</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -28853,7 +28853,7 @@
         <v>44356</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -28910,7 +28910,7 @@
         <v>44357</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -28967,7 +28967,7 @@
         <v>44362</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -29024,7 +29024,7 @@
         <v>44362</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -29081,7 +29081,7 @@
         <v>44368</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -29138,7 +29138,7 @@
         <v>44375</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -29195,7 +29195,7 @@
         <v>44379</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -29252,7 +29252,7 @@
         <v>44384</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -29309,7 +29309,7 @@
         <v>44385</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -29366,7 +29366,7 @@
         <v>44396</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -29423,7 +29423,7 @@
         <v>44405</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -29480,7 +29480,7 @@
         <v>44410</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -29537,7 +29537,7 @@
         <v>44413</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -29594,7 +29594,7 @@
         <v>44424</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -29651,7 +29651,7 @@
         <v>44425</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -29713,7 +29713,7 @@
         <v>44425</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -29775,7 +29775,7 @@
         <v>44425</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -29837,7 +29837,7 @@
         <v>44431</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -29894,7 +29894,7 @@
         <v>44434</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -29951,7 +29951,7 @@
         <v>44441</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -30008,7 +30008,7 @@
         <v>44443</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -30065,7 +30065,7 @@
         <v>44448</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -30122,7 +30122,7 @@
         <v>44452</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -30179,7 +30179,7 @@
         <v>44453</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -30236,7 +30236,7 @@
         <v>44466</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -30298,7 +30298,7 @@
         <v>44475</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -30355,7 +30355,7 @@
         <v>44476</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -30417,7 +30417,7 @@
         <v>44480</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -30474,7 +30474,7 @@
         <v>44495</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -30536,7 +30536,7 @@
         <v>44496</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -30593,7 +30593,7 @@
         <v>44505</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -30655,7 +30655,7 @@
         <v>44505</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -30717,7 +30717,7 @@
         <v>44511</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -30774,7 +30774,7 @@
         <v>44512</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -30831,7 +30831,7 @@
         <v>44517</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -30888,7 +30888,7 @@
         <v>44517</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -30945,7 +30945,7 @@
         <v>44518</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -31002,7 +31002,7 @@
         <v>44518</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -31064,7 +31064,7 @@
         <v>44530</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -31121,7 +31121,7 @@
         <v>44536</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -31178,7 +31178,7 @@
         <v>44537</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -31235,7 +31235,7 @@
         <v>44538</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -31292,7 +31292,7 @@
         <v>44571</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -31349,7 +31349,7 @@
         <v>44573</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -31406,7 +31406,7 @@
         <v>44574</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -31463,7 +31463,7 @@
         <v>44574</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -31520,7 +31520,7 @@
         <v>44578</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -31577,7 +31577,7 @@
         <v>44586</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -31634,7 +31634,7 @@
         <v>44593</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -31691,7 +31691,7 @@
         <v>44595</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -31748,7 +31748,7 @@
         <v>44599</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -31805,7 +31805,7 @@
         <v>44601</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -31862,7 +31862,7 @@
         <v>44601</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -31919,7 +31919,7 @@
         <v>44601</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -31976,7 +31976,7 @@
         <v>44606</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -32033,7 +32033,7 @@
         <v>44609</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -32095,7 +32095,7 @@
         <v>44614</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -32152,7 +32152,7 @@
         <v>44614</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -32209,7 +32209,7 @@
         <v>44614</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -32266,7 +32266,7 @@
         <v>44614</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -32323,7 +32323,7 @@
         <v>44614</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -32380,7 +32380,7 @@
         <v>44615</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -32437,7 +32437,7 @@
         <v>44615</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -32494,7 +32494,7 @@
         <v>44621</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -32551,7 +32551,7 @@
         <v>44627</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -32608,7 +32608,7 @@
         <v>44628</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -32665,7 +32665,7 @@
         <v>44629</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -32722,7 +32722,7 @@
         <v>44635</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -32784,7 +32784,7 @@
         <v>44641</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -32846,7 +32846,7 @@
         <v>44641</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -32908,7 +32908,7 @@
         <v>44644</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -32970,7 +32970,7 @@
         <v>44644</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -33032,7 +33032,7 @@
         <v>44649</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -33094,7 +33094,7 @@
         <v>44650</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -33151,7 +33151,7 @@
         <v>44650</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -33208,7 +33208,7 @@
         <v>44652</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -33270,7 +33270,7 @@
         <v>44655</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -33332,7 +33332,7 @@
         <v>44655</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -33394,7 +33394,7 @@
         <v>44656</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -33456,7 +33456,7 @@
         <v>44656</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -33518,7 +33518,7 @@
         <v>44657</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -33575,7 +33575,7 @@
         <v>44662</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -33637,7 +33637,7 @@
         <v>44663</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -33699,7 +33699,7 @@
         <v>44663</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -33761,7 +33761,7 @@
         <v>44670</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -33823,7 +33823,7 @@
         <v>44670</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -33880,7 +33880,7 @@
         <v>44670</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -33937,7 +33937,7 @@
         <v>44671</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -33994,7 +33994,7 @@
         <v>44671</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -34051,7 +34051,7 @@
         <v>44679</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -34108,7 +34108,7 @@
         <v>44680</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -34165,7 +34165,7 @@
         <v>44685</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -34222,7 +34222,7 @@
         <v>44685</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -34279,7 +34279,7 @@
         <v>44685</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -34341,7 +34341,7 @@
         <v>44686</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -34398,7 +34398,7 @@
         <v>44690</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -34455,7 +34455,7 @@
         <v>44690</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -34517,7 +34517,7 @@
         <v>44690</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -34579,7 +34579,7 @@
         <v>44690</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -34636,7 +34636,7 @@
         <v>44690</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -34698,7 +34698,7 @@
         <v>44690</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -34760,7 +34760,7 @@
         <v>44704</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -34817,7 +34817,7 @@
         <v>44705</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -34874,7 +34874,7 @@
         <v>44706</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -34931,7 +34931,7 @@
         <v>44714</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -34988,7 +34988,7 @@
         <v>44714</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -35050,7 +35050,7 @@
         <v>44714</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -35107,7 +35107,7 @@
         <v>44725</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -35164,7 +35164,7 @@
         <v>44727</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -35226,7 +35226,7 @@
         <v>44732</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -35283,7 +35283,7 @@
         <v>44734</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -35340,7 +35340,7 @@
         <v>44734</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -35402,7 +35402,7 @@
         <v>44741</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -35459,7 +35459,7 @@
         <v>44743</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -35516,7 +35516,7 @@
         <v>44746</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -35573,7 +35573,7 @@
         <v>44746</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -35635,7 +35635,7 @@
         <v>44761</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -35712,7 +35712,7 @@
         <v>44774</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -35769,7 +35769,7 @@
         <v>44774</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -35826,7 +35826,7 @@
         <v>44776</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -35888,7 +35888,7 @@
         <v>44776</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -35950,7 +35950,7 @@
         <v>44777</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -36012,7 +36012,7 @@
         <v>44778</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -36074,7 +36074,7 @@
         <v>44781</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -36131,7 +36131,7 @@
         <v>44782</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -36193,7 +36193,7 @@
         <v>44783</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -36255,7 +36255,7 @@
         <v>44788</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -36312,7 +36312,7 @@
         <v>44788</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -36369,7 +36369,7 @@
         <v>44791</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -36431,7 +36431,7 @@
         <v>44797</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -36493,7 +36493,7 @@
         <v>44798</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -36555,7 +36555,7 @@
         <v>44799</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -36617,7 +36617,7 @@
         <v>44802</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -36674,7 +36674,7 @@
         <v>44802</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -36736,7 +36736,7 @@
         <v>44804</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -36793,7 +36793,7 @@
         <v>44804</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -36855,7 +36855,7 @@
         <v>44805</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -36917,7 +36917,7 @@
         <v>44805</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -36979,7 +36979,7 @@
         <v>44806</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -37036,7 +37036,7 @@
         <v>44812</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -37098,7 +37098,7 @@
         <v>44813</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -37160,7 +37160,7 @@
         <v>44813</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -37222,7 +37222,7 @@
         <v>44815</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -37284,7 +37284,7 @@
         <v>44816</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -37346,7 +37346,7 @@
         <v>44816</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -37408,7 +37408,7 @@
         <v>44817</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -37470,7 +37470,7 @@
         <v>44818</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -37532,7 +37532,7 @@
         <v>44818</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -37589,7 +37589,7 @@
         <v>44820</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -37651,7 +37651,7 @@
         <v>44820</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -37708,7 +37708,7 @@
         <v>44820</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -37770,7 +37770,7 @@
         <v>44820</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -37832,7 +37832,7 @@
         <v>44823</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -37889,7 +37889,7 @@
         <v>44823</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -37946,7 +37946,7 @@
         <v>44825</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -38008,7 +38008,7 @@
         <v>44825</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -38070,7 +38070,7 @@
         <v>44830</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -38132,7 +38132,7 @@
         <v>44831</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -38194,7 +38194,7 @@
         <v>44831</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -38256,7 +38256,7 @@
         <v>44832</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -38318,7 +38318,7 @@
         <v>44832</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -38380,7 +38380,7 @@
         <v>44832</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -38442,7 +38442,7 @@
         <v>44837</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -38504,7 +38504,7 @@
         <v>44837</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -38566,7 +38566,7 @@
         <v>44838</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -38628,7 +38628,7 @@
         <v>44839</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -38685,7 +38685,7 @@
         <v>44839</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -38742,7 +38742,7 @@
         <v>44840</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -38804,7 +38804,7 @@
         <v>44841</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -38861,7 +38861,7 @@
         <v>44844</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -38923,7 +38923,7 @@
         <v>44845</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -38985,7 +38985,7 @@
         <v>44845</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -39047,7 +39047,7 @@
         <v>44845</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -39109,7 +39109,7 @@
         <v>44845</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -39171,7 +39171,7 @@
         <v>44846</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -39233,7 +39233,7 @@
         <v>44846</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -39295,7 +39295,7 @@
         <v>44852</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -39357,7 +39357,7 @@
         <v>44852</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -39419,7 +39419,7 @@
         <v>44852</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -39481,7 +39481,7 @@
         <v>44852</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -39543,7 +39543,7 @@
         <v>44853</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -39605,7 +39605,7 @@
         <v>44854</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -39667,7 +39667,7 @@
         <v>44855</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -39729,7 +39729,7 @@
         <v>44855</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -39791,7 +39791,7 @@
         <v>44855</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -39853,7 +39853,7 @@
         <v>44858</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -39915,7 +39915,7 @@
         <v>44858</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -39977,7 +39977,7 @@
         <v>44860</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -40039,7 +40039,7 @@
         <v>44860</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -40101,7 +40101,7 @@
         <v>44861</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -40163,7 +40163,7 @@
         <v>44861</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -40225,7 +40225,7 @@
         <v>44865</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -40282,7 +40282,7 @@
         <v>44865</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -40339,7 +40339,7 @@
         <v>44866</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -40401,7 +40401,7 @@
         <v>44866</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -40463,7 +40463,7 @@
         <v>44866</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -40525,7 +40525,7 @@
         <v>44867</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -40587,7 +40587,7 @@
         <v>44869</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -40644,7 +40644,7 @@
         <v>44869</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -40701,7 +40701,7 @@
         <v>44869</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -40758,7 +40758,7 @@
         <v>44874</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -40815,7 +40815,7 @@
         <v>44876</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -40877,7 +40877,7 @@
         <v>44879</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -40939,7 +40939,7 @@
         <v>44880</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -41001,7 +41001,7 @@
         <v>44880</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -41063,7 +41063,7 @@
         <v>44881</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -41120,7 +41120,7 @@
         <v>44883</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -41182,7 +41182,7 @@
         <v>44883</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -41244,7 +41244,7 @@
         <v>44886</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -41306,7 +41306,7 @@
         <v>44887</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -41363,7 +41363,7 @@
         <v>44887</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -41420,7 +41420,7 @@
         <v>44887</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -41477,7 +41477,7 @@
         <v>44888</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -41539,7 +41539,7 @@
         <v>44889</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -41601,7 +41601,7 @@
         <v>44889</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -41658,7 +41658,7 @@
         <v>44889</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -41720,7 +41720,7 @@
         <v>44893</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -41777,7 +41777,7 @@
         <v>44894</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -41834,7 +41834,7 @@
         <v>44895</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -41896,7 +41896,7 @@
         <v>44896</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -41953,7 +41953,7 @@
         <v>44897</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -42010,7 +42010,7 @@
         <v>44897</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -42072,7 +42072,7 @@
         <v>44900</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -42134,7 +42134,7 @@
         <v>44901</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -42196,7 +42196,7 @@
         <v>44901</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -42258,7 +42258,7 @@
         <v>44901</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -42320,7 +42320,7 @@
         <v>44903</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -42377,7 +42377,7 @@
         <v>44903</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -42439,7 +42439,7 @@
         <v>44904</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -42501,7 +42501,7 @@
         <v>44909</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -42563,7 +42563,7 @@
         <v>44911</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -42625,7 +42625,7 @@
         <v>44911</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -42687,7 +42687,7 @@
         <v>44913</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -42749,7 +42749,7 @@
         <v>44914</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -42806,7 +42806,7 @@
         <v>44914</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -42868,7 +42868,7 @@
         <v>44915</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -42925,7 +42925,7 @@
         <v>44915</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -42987,7 +42987,7 @@
         <v>44917</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -43049,7 +43049,7 @@
         <v>44917</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -43106,7 +43106,7 @@
         <v>44918</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -43168,7 +43168,7 @@
         <v>44922</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -43225,7 +43225,7 @@
         <v>44927</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -43287,7 +43287,7 @@
         <v>44929</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -43344,7 +43344,7 @@
         <v>44929</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -43401,7 +43401,7 @@
         <v>44929</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -43458,7 +43458,7 @@
         <v>44938</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -43520,7 +43520,7 @@
         <v>44938</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -43582,7 +43582,7 @@
         <v>44939</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -43644,7 +43644,7 @@
         <v>44939</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -43706,7 +43706,7 @@
         <v>44942</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -43763,7 +43763,7 @@
         <v>44942</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -43825,7 +43825,7 @@
         <v>44942</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -43882,7 +43882,7 @@
         <v>44942</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -43944,7 +43944,7 @@
         <v>44944</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -44001,7 +44001,7 @@
         <v>44953</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -44063,7 +44063,7 @@
         <v>44953</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -44125,7 +44125,7 @@
         <v>44956</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -44187,7 +44187,7 @@
         <v>44957</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -44249,7 +44249,7 @@
         <v>44958</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -44306,7 +44306,7 @@
         <v>44958</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -44363,7 +44363,7 @@
         <v>44958</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -44425,7 +44425,7 @@
         <v>44959</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -44482,7 +44482,7 @@
         <v>44963</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -44539,7 +44539,7 @@
         <v>44963</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -44601,7 +44601,7 @@
         <v>44965</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -44663,7 +44663,7 @@
         <v>44966</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -44725,7 +44725,7 @@
         <v>44966</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -44787,7 +44787,7 @@
         <v>44967</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -44849,7 +44849,7 @@
         <v>44971</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -44911,7 +44911,7 @@
         <v>44978</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -44973,7 +44973,7 @@
         <v>44979</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -45030,7 +45030,7 @@
         <v>44979</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -45087,7 +45087,7 @@
         <v>44979</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -45149,7 +45149,7 @@
         <v>44980</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -45206,7 +45206,7 @@
         <v>44984</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -45263,7 +45263,7 @@
         <v>44986</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -45320,7 +45320,7 @@
         <v>44987</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -45382,7 +45382,7 @@
         <v>44991</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -45444,7 +45444,7 @@
         <v>44991</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -45506,7 +45506,7 @@
         <v>44991</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -45568,7 +45568,7 @@
         <v>44991</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -45630,7 +45630,7 @@
         <v>44992</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -45687,7 +45687,7 @@
         <v>44993</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -45749,7 +45749,7 @@
         <v>44993</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -45811,7 +45811,7 @@
         <v>44993</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -45873,7 +45873,7 @@
         <v>44993</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -45930,7 +45930,7 @@
         <v>44995</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -45992,7 +45992,7 @@
         <v>44995</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -46054,7 +46054,7 @@
         <v>44995</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -46116,7 +46116,7 @@
         <v>45000</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -46173,7 +46173,7 @@
         <v>45000</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -46235,7 +46235,7 @@
         <v>45000</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -46297,7 +46297,7 @@
         <v>45000</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -46359,7 +46359,7 @@
         <v>45000</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -46421,7 +46421,7 @@
         <v>45002</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -46478,7 +46478,7 @@
         <v>45006</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -46540,7 +46540,7 @@
         <v>45007</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -46597,7 +46597,7 @@
         <v>45009</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -46654,7 +46654,7 @@
         <v>45009</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -46711,7 +46711,7 @@
         <v>45015</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -46773,7 +46773,7 @@
         <v>45015</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -46835,7 +46835,7 @@
         <v>45015</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -46892,7 +46892,7 @@
         <v>45015</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -46949,7 +46949,7 @@
         <v>45016</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -47006,7 +47006,7 @@
         <v>45016</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -47063,7 +47063,7 @@
         <v>45028</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -47120,7 +47120,7 @@
         <v>45033</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -47177,7 +47177,7 @@
         <v>45034</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -47234,7 +47234,7 @@
         <v>45040</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -47291,7 +47291,7 @@
         <v>45042</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -47348,7 +47348,7 @@
         <v>45044</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -47410,7 +47410,7 @@
         <v>45048</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -47472,7 +47472,7 @@
         <v>45048</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -47534,7 +47534,7 @@
         <v>45049</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -47596,7 +47596,7 @@
         <v>45050</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -47658,7 +47658,7 @@
         <v>45054</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -47720,7 +47720,7 @@
         <v>45056</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -47777,7 +47777,7 @@
         <v>45056</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -47834,7 +47834,7 @@
         <v>45063</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -47891,7 +47891,7 @@
         <v>45063</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -47948,7 +47948,7 @@
         <v>45068</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -48010,7 +48010,7 @@
         <v>45069</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -48067,7 +48067,7 @@
         <v>45070</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -48124,7 +48124,7 @@
         <v>45070</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -48181,7 +48181,7 @@
         <v>45070</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -48243,7 +48243,7 @@
         <v>45071</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -48300,7 +48300,7 @@
         <v>45071</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -48357,7 +48357,7 @@
         <v>45078</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -48414,7 +48414,7 @@
         <v>45078</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -48471,7 +48471,7 @@
         <v>45078</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -48528,7 +48528,7 @@
         <v>45079</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -48590,7 +48590,7 @@
         <v>45084</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -48647,7 +48647,7 @@
         <v>45085</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -48704,7 +48704,7 @@
         <v>45086</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -48761,7 +48761,7 @@
         <v>45086</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -48823,7 +48823,7 @@
         <v>45089</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -48880,7 +48880,7 @@
         <v>45089</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -48937,7 +48937,7 @@
         <v>45089</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -48999,7 +48999,7 @@
         <v>45089</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -49056,7 +49056,7 @@
         <v>45090</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -49113,7 +49113,7 @@
         <v>45091</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -49175,7 +49175,7 @@
         <v>45092</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -49232,7 +49232,7 @@
         <v>45092</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -49289,7 +49289,7 @@
         <v>45092</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -49346,7 +49346,7 @@
         <v>45092</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -49403,7 +49403,7 @@
         <v>45093</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -49460,7 +49460,7 @@
         <v>45093</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -49517,7 +49517,7 @@
         <v>45096</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -49574,7 +49574,7 @@
         <v>45096</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -49631,7 +49631,7 @@
         <v>45098</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -49688,7 +49688,7 @@
         <v>45098</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -49745,7 +49745,7 @@
         <v>45103</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -49802,7 +49802,7 @@
         <v>45103</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -49859,7 +49859,7 @@
         <v>45104</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -49916,7 +49916,7 @@
         <v>45105</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -49978,7 +49978,7 @@
         <v>45107</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -50035,7 +50035,7 @@
         <v>45107</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -50092,7 +50092,7 @@
         <v>45111</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -50149,7 +50149,7 @@
         <v>45112</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -50211,7 +50211,7 @@
         <v>45112</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -50273,7 +50273,7 @@
         <v>45121</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -50330,7 +50330,7 @@
         <v>45138</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -50392,7 +50392,7 @@
         <v>45146</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -50449,7 +50449,7 @@
         <v>45148</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -50506,7 +50506,7 @@
         <v>45148</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -50563,7 +50563,7 @@
         <v>45149</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -50620,7 +50620,7 @@
         <v>45153</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -50677,7 +50677,7 @@
         <v>45153</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -50734,7 +50734,7 @@
         <v>45166</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>

--- a/Översikt RAGUNDA.xlsx
+++ b/Översikt RAGUNDA.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y773"/>
+  <dimension ref="A1:Y774"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44874</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -699,7 +699,7 @@
         <v>43865</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>44894</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         <v>44917</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
         <v>43865</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1145,7 +1145,7 @@
         <v>44504</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1256,7 +1256,7 @@
         <v>44644</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1362,7 +1362,7 @@
         <v>43866</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1466,7 +1466,7 @@
         <v>44504</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1575,7 +1575,7 @@
         <v>44473</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1678,7 +1678,7 @@
         <v>44088</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1784,7 +1784,7 @@
         <v>44151</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1881,7 +1881,7 @@
         <v>44644</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1983,7 +1983,7 @@
         <v>44838</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2080,7 +2080,7 @@
         <v>43900</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2181,7 +2181,7 @@
         <v>44062</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2282,7 +2282,7 @@
         <v>45104</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2383,7 +2383,7 @@
         <v>43910</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2487,7 +2487,7 @@
         <v>44776</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2591,7 +2591,7 @@
         <v>44645</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2690,7 +2690,7 @@
         <v>44888</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2789,7 +2789,7 @@
         <v>43353</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2887,7 +2887,7 @@
         <v>44504</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2985,7 +2985,7 @@
         <v>45113</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3083,7 +3083,7 @@
         <v>44133</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3180,7 +3180,7 @@
         <v>44644</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3277,7 +3277,7 @@
         <v>44901</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3378,7 +3378,7 @@
         <v>45113</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3475,7 +3475,7 @@
         <v>43411</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3571,7 +3571,7 @@
         <v>43413</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3667,7 +3667,7 @@
         <v>44133</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         <v>44336</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3854,7 +3854,7 @@
         <v>44438</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3950,7 +3950,7 @@
         <v>44662</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4046,7 +4046,7 @@
         <v>44804</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4142,7 +4142,7 @@
         <v>44915</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4242,7 +4242,7 @@
         <v>44953</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4333,7 +4333,7 @@
         <v>44994</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4433,7 +4433,7 @@
         <v>45009</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4524,7 +4524,7 @@
         <v>44209</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4614,7 +4614,7 @@
         <v>44875</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4709,7 +4709,7 @@
         <v>44876</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4804,7 +4804,7 @@
         <v>44911</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4899,7 +4899,7 @@
         <v>44932</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4994,7 +4994,7 @@
         <v>44994</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -5089,7 +5089,7 @@
         <v>45015</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5183,7 +5183,7 @@
         <v>45027</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5282,7 +5282,7 @@
         <v>45070</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5377,7 +5377,7 @@
         <v>44111</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5470,7 +5470,7 @@
         <v>44139</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5559,7 +5559,7 @@
         <v>44645</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5657,7 +5657,7 @@
         <v>44656</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5751,7 +5751,7 @@
         <v>44734</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5845,7 +5845,7 @@
         <v>44865</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5939,7 +5939,7 @@
         <v>44911</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -6033,7 +6033,7 @@
         <v>45054</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -6122,7 +6122,7 @@
         <v>45093</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6215,7 +6215,7 @@
         <v>43977</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6308,7 +6308,7 @@
         <v>44113</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6401,7 +6401,7 @@
         <v>44245</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6494,7 +6494,7 @@
         <v>44334</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6586,7 +6586,7 @@
         <v>44334</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6678,7 +6678,7 @@
         <v>44446</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6771,7 +6771,7 @@
         <v>44610</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6864,7 +6864,7 @@
         <v>44624</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6957,7 +6957,7 @@
         <v>44662</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -7050,7 +7050,7 @@
         <v>44677</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -7142,7 +7142,7 @@
         <v>44696</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -7235,7 +7235,7 @@
         <v>44732</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7332,7 +7332,7 @@
         <v>44911</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7425,7 +7425,7 @@
         <v>45034</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7518,7 +7518,7 @@
         <v>43817</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7609,7 +7609,7 @@
         <v>44111</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7701,7 +7701,7 @@
         <v>44421</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7793,7 +7793,7 @@
         <v>44740</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7880,7 +7880,7 @@
         <v>44855</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7976,7 +7976,7 @@
         <v>44855</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -8068,7 +8068,7 @@
         <v>44875</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -8160,7 +8160,7 @@
         <v>44902</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -8252,7 +8252,7 @@
         <v>44971</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -8344,7 +8344,7 @@
         <v>44987</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8435,7 +8435,7 @@
         <v>44987</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8522,7 +8522,7 @@
         <v>45049</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8614,7 +8614,7 @@
         <v>43329</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8700,7 +8700,7 @@
         <v>43411</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8786,7 +8786,7 @@
         <v>43707</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8876,7 +8876,7 @@
         <v>43948</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8962,7 +8962,7 @@
         <v>44676</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -9053,7 +9053,7 @@
         <v>44680</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -9139,7 +9139,7 @@
         <v>44855</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -9230,7 +9230,7 @@
         <v>44855</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -9321,7 +9321,7 @@
         <v>44860</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9412,7 +9412,7 @@
         <v>44973</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9503,7 +9503,7 @@
         <v>44980</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9589,7 +9589,7 @@
         <v>45005</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9680,7 +9680,7 @@
         <v>45121</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9771,7 +9771,7 @@
         <v>43515</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9856,7 +9856,7 @@
         <v>43619</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9946,7 +9946,7 @@
         <v>43650</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -10031,7 +10031,7 @@
         <v>43784</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -10121,7 +10121,7 @@
         <v>43791</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -10206,7 +10206,7 @@
         <v>43977</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -10296,7 +10296,7 @@
         <v>44012</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -10386,7 +10386,7 @@
         <v>44049</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -10476,7 +10476,7 @@
         <v>44062</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10566,7 +10566,7 @@
         <v>44098</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10656,7 +10656,7 @@
         <v>44119</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -10741,7 +10741,7 @@
         <v>44166</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10826,7 +10826,7 @@
         <v>44319</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10916,7 +10916,7 @@
         <v>44369</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -11001,7 +11001,7 @@
         <v>44462</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -11091,7 +11091,7 @@
         <v>44601</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -11176,7 +11176,7 @@
         <v>44607</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -11266,7 +11266,7 @@
         <v>44705</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -11351,7 +11351,7 @@
         <v>44741</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -11441,7 +11441,7 @@
         <v>44741</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -11526,7 +11526,7 @@
         <v>44830</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -11616,7 +11616,7 @@
         <v>44832</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -11706,7 +11706,7 @@
         <v>44855</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -11796,7 +11796,7 @@
         <v>44860</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -11881,7 +11881,7 @@
         <v>45033</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -11970,7 +11970,7 @@
         <v>45042</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -12055,7 +12055,7 @@
         <v>45044</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -12145,7 +12145,7 @@
         <v>45089</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -12230,7 +12230,7 @@
         <v>45097</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -12320,7 +12320,7 @@
         <v>45120</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -12410,7 +12410,7 @@
         <v>45121</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -12495,7 +12495,7 @@
         <v>45149</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -12585,7 +12585,7 @@
         <v>45153</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -12670,7 +12670,7 @@
         <v>43321</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -12727,7 +12727,7 @@
         <v>43322</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -12789,7 +12789,7 @@
         <v>43326</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -12846,7 +12846,7 @@
         <v>43341</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -12903,7 +12903,7 @@
         <v>43360</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -12960,7 +12960,7 @@
         <v>43395</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -13017,7 +13017,7 @@
         <v>43396</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -13074,7 +13074,7 @@
         <v>43398</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -13131,7 +13131,7 @@
         <v>43398</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -13188,7 +13188,7 @@
         <v>43398</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -13245,7 +13245,7 @@
         <v>43403</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -13307,7 +13307,7 @@
         <v>43403</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -13369,7 +13369,7 @@
         <v>43403</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -13431,7 +13431,7 @@
         <v>43405</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -13493,7 +13493,7 @@
         <v>43406</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -13555,7 +13555,7 @@
         <v>43410</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -13617,7 +13617,7 @@
         <v>43411</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -13674,7 +13674,7 @@
         <v>43411</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -13736,7 +13736,7 @@
         <v>43411</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -13798,7 +13798,7 @@
         <v>43411</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -13860,7 +13860,7 @@
         <v>43411</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -13922,7 +13922,7 @@
         <v>43411</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -13984,7 +13984,7 @@
         <v>43411</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -14041,7 +14041,7 @@
         <v>43413</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -14098,7 +14098,7 @@
         <v>43418</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -14155,7 +14155,7 @@
         <v>43419</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -14212,7 +14212,7 @@
         <v>43423</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -14269,7 +14269,7 @@
         <v>43423</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -14326,7 +14326,7 @@
         <v>43427</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -14383,7 +14383,7 @@
         <v>43427</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -14440,7 +14440,7 @@
         <v>43431</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -14497,7 +14497,7 @@
         <v>43431</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -14559,7 +14559,7 @@
         <v>43431</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -14621,7 +14621,7 @@
         <v>43437</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -14683,7 +14683,7 @@
         <v>43438</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -14740,7 +14740,7 @@
         <v>43440</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -14797,7 +14797,7 @@
         <v>43444</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -14854,7 +14854,7 @@
         <v>43448</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -14911,7 +14911,7 @@
         <v>43461</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -14968,7 +14968,7 @@
         <v>43461</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -15025,7 +15025,7 @@
         <v>43467</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -15082,7 +15082,7 @@
         <v>43467</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -15139,7 +15139,7 @@
         <v>43473</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -15196,7 +15196,7 @@
         <v>43473</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -15253,7 +15253,7 @@
         <v>43474</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -15310,7 +15310,7 @@
         <v>43481</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -15367,7 +15367,7 @@
         <v>43481</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -15424,7 +15424,7 @@
         <v>43483</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -15481,7 +15481,7 @@
         <v>43495</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -15538,7 +15538,7 @@
         <v>43496</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -15600,7 +15600,7 @@
         <v>43509</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -15657,7 +15657,7 @@
         <v>43510</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -15714,7 +15714,7 @@
         <v>43515</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -15771,7 +15771,7 @@
         <v>43530</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -15828,7 +15828,7 @@
         <v>43537</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -15890,7 +15890,7 @@
         <v>43538</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -15947,7 +15947,7 @@
         <v>43542</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -16004,7 +16004,7 @@
         <v>43543</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -16061,7 +16061,7 @@
         <v>43551</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -16118,7 +16118,7 @@
         <v>43551</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -16175,7 +16175,7 @@
         <v>43552</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -16232,7 +16232,7 @@
         <v>43563</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -16289,7 +16289,7 @@
         <v>43565</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -16346,7 +16346,7 @@
         <v>43578</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -16408,7 +16408,7 @@
         <v>43584</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -16465,7 +16465,7 @@
         <v>43589</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -16522,7 +16522,7 @@
         <v>43594</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -16579,7 +16579,7 @@
         <v>43594</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -16641,7 +16641,7 @@
         <v>43622</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -16703,7 +16703,7 @@
         <v>43633</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -16760,7 +16760,7 @@
         <v>43633</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -16817,7 +16817,7 @@
         <v>43640</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -16879,7 +16879,7 @@
         <v>43641</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -16941,7 +16941,7 @@
         <v>43641</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -17003,7 +17003,7 @@
         <v>43643</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -17065,7 +17065,7 @@
         <v>43650</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -17127,7 +17127,7 @@
         <v>43651</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -17184,7 +17184,7 @@
         <v>43654</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -17246,7 +17246,7 @@
         <v>43654</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -17308,7 +17308,7 @@
         <v>43656</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -17370,7 +17370,7 @@
         <v>43669</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -17427,7 +17427,7 @@
         <v>43678</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -17489,7 +17489,7 @@
         <v>43704</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -17551,7 +17551,7 @@
         <v>43704</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -17613,7 +17613,7 @@
         <v>43704</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -17675,7 +17675,7 @@
         <v>43706</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -17732,7 +17732,7 @@
         <v>43706</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -17789,7 +17789,7 @@
         <v>43713</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -17846,7 +17846,7 @@
         <v>43713</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -17903,7 +17903,7 @@
         <v>43728</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -17965,7 +17965,7 @@
         <v>43733</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -18022,7 +18022,7 @@
         <v>43733</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -18079,7 +18079,7 @@
         <v>43735</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -18136,7 +18136,7 @@
         <v>43740</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -18193,7 +18193,7 @@
         <v>43742</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -18250,7 +18250,7 @@
         <v>43746</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -18307,7 +18307,7 @@
         <v>43756</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -18364,7 +18364,7 @@
         <v>43759</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -18421,7 +18421,7 @@
         <v>43760</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -18478,7 +18478,7 @@
         <v>43768</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -18535,7 +18535,7 @@
         <v>43768</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -18597,7 +18597,7 @@
         <v>43770</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -18659,7 +18659,7 @@
         <v>43770</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -18721,7 +18721,7 @@
         <v>43773</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -18778,7 +18778,7 @@
         <v>43773</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -18840,7 +18840,7 @@
         <v>43773</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -18897,7 +18897,7 @@
         <v>43775</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -18954,7 +18954,7 @@
         <v>43777</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -19016,7 +19016,7 @@
         <v>43782</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -19073,7 +19073,7 @@
         <v>43783</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -19130,7 +19130,7 @@
         <v>43788</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -19207,7 +19207,7 @@
         <v>43791</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -19264,7 +19264,7 @@
         <v>43797</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -19321,7 +19321,7 @@
         <v>43797</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -19378,7 +19378,7 @@
         <v>43803</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -19435,7 +19435,7 @@
         <v>43805</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -19492,7 +19492,7 @@
         <v>43812</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -19549,7 +19549,7 @@
         <v>43818</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -19606,7 +19606,7 @@
         <v>43819</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -19663,7 +19663,7 @@
         <v>43833</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -19720,7 +19720,7 @@
         <v>43847</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -19777,7 +19777,7 @@
         <v>43850</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -19834,7 +19834,7 @@
         <v>43861</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -19891,7 +19891,7 @@
         <v>43868</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -19948,7 +19948,7 @@
         <v>43872</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -20005,7 +20005,7 @@
         <v>43873</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -20062,7 +20062,7 @@
         <v>43880</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -20119,7 +20119,7 @@
         <v>43881</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -20181,7 +20181,7 @@
         <v>43882</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -20238,7 +20238,7 @@
         <v>43887</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -20295,7 +20295,7 @@
         <v>43896</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -20377,7 +20377,7 @@
         <v>43900</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -20434,7 +20434,7 @@
         <v>43901</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -20491,7 +20491,7 @@
         <v>43902</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -20553,7 +20553,7 @@
         <v>43907</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -20610,7 +20610,7 @@
         <v>43910</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -20667,7 +20667,7 @@
         <v>43910</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -20724,7 +20724,7 @@
         <v>43913</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -20781,7 +20781,7 @@
         <v>43916</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -20838,7 +20838,7 @@
         <v>43923</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -20895,7 +20895,7 @@
         <v>43943</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -20952,7 +20952,7 @@
         <v>43948</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -21009,7 +21009,7 @@
         <v>43949</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -21071,7 +21071,7 @@
         <v>43951</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -21128,7 +21128,7 @@
         <v>43955</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -21190,7 +21190,7 @@
         <v>43955</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -21252,7 +21252,7 @@
         <v>43955</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -21314,7 +21314,7 @@
         <v>43955</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -21376,7 +21376,7 @@
         <v>43956</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -21438,7 +21438,7 @@
         <v>43957</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -21495,7 +21495,7 @@
         <v>43965</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -21552,7 +21552,7 @@
         <v>43969</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -21614,7 +21614,7 @@
         <v>43971</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -21671,7 +21671,7 @@
         <v>43971</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -21728,7 +21728,7 @@
         <v>43977</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -21790,7 +21790,7 @@
         <v>43979</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -21847,7 +21847,7 @@
         <v>43984</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -21909,7 +21909,7 @@
         <v>43984</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -21971,7 +21971,7 @@
         <v>43986</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -22033,7 +22033,7 @@
         <v>43986</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -22095,7 +22095,7 @@
         <v>43990</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -22157,7 +22157,7 @@
         <v>43992</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -22214,7 +22214,7 @@
         <v>43999</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -22276,7 +22276,7 @@
         <v>44000</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -22333,7 +22333,7 @@
         <v>44004</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -22395,7 +22395,7 @@
         <v>44006</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -22457,7 +22457,7 @@
         <v>44011</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -22519,7 +22519,7 @@
         <v>44013</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -22581,7 +22581,7 @@
         <v>44013</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -22643,7 +22643,7 @@
         <v>44013</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -22705,7 +22705,7 @@
         <v>44019</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -22767,7 +22767,7 @@
         <v>44026</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -22824,7 +22824,7 @@
         <v>44027</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -22886,7 +22886,7 @@
         <v>44029</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -22948,7 +22948,7 @@
         <v>44029</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -23005,7 +23005,7 @@
         <v>44040</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -23062,7 +23062,7 @@
         <v>44041</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -23124,7 +23124,7 @@
         <v>44051</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -23181,7 +23181,7 @@
         <v>44051</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -23238,7 +23238,7 @@
         <v>44055</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -23295,7 +23295,7 @@
         <v>44056</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -23352,7 +23352,7 @@
         <v>44057</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -23409,7 +23409,7 @@
         <v>44057</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -23471,7 +23471,7 @@
         <v>44062</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -23533,7 +23533,7 @@
         <v>44063</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -23595,7 +23595,7 @@
         <v>44067</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -23657,7 +23657,7 @@
         <v>44069</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -23719,7 +23719,7 @@
         <v>44071</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -23781,7 +23781,7 @@
         <v>44074</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -23843,7 +23843,7 @@
         <v>44074</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -23905,7 +23905,7 @@
         <v>44074</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -23967,7 +23967,7 @@
         <v>44075</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -24029,7 +24029,7 @@
         <v>44078</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -24086,7 +24086,7 @@
         <v>44082</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -24148,7 +24148,7 @@
         <v>44084</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -24210,7 +24210,7 @@
         <v>44084</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -24267,7 +24267,7 @@
         <v>44084</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -24324,7 +24324,7 @@
         <v>44090</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -24381,7 +24381,7 @@
         <v>44095</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -24438,7 +24438,7 @@
         <v>44096</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -24500,7 +24500,7 @@
         <v>44096</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -24562,7 +24562,7 @@
         <v>44098</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -24619,7 +24619,7 @@
         <v>44099</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -24681,7 +24681,7 @@
         <v>44103</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -24743,7 +24743,7 @@
         <v>44106</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -24800,7 +24800,7 @@
         <v>44111</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -24857,7 +24857,7 @@
         <v>44111</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -24914,7 +24914,7 @@
         <v>44111</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -24971,7 +24971,7 @@
         <v>44113</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -25033,7 +25033,7 @@
         <v>44124</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -25090,7 +25090,7 @@
         <v>44126</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -25147,7 +25147,7 @@
         <v>44132</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -25209,7 +25209,7 @@
         <v>44134</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -25266,7 +25266,7 @@
         <v>44137</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -25323,7 +25323,7 @@
         <v>44138</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -25380,7 +25380,7 @@
         <v>44140</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -25442,7 +25442,7 @@
         <v>44140</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -25504,7 +25504,7 @@
         <v>44140</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -25566,7 +25566,7 @@
         <v>44140</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -25628,7 +25628,7 @@
         <v>44141</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -25690,7 +25690,7 @@
         <v>44153</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -25747,7 +25747,7 @@
         <v>44153</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -25809,7 +25809,7 @@
         <v>44155</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -25866,7 +25866,7 @@
         <v>44157</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -25923,7 +25923,7 @@
         <v>44159</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -25985,7 +25985,7 @@
         <v>44165</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -26047,7 +26047,7 @@
         <v>44167</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -26109,7 +26109,7 @@
         <v>44168</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -26166,7 +26166,7 @@
         <v>44172</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -26228,7 +26228,7 @@
         <v>44173</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -26285,7 +26285,7 @@
         <v>44174</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -26347,7 +26347,7 @@
         <v>44175</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -26409,7 +26409,7 @@
         <v>44188</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -26471,7 +26471,7 @@
         <v>44194</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -26528,7 +26528,7 @@
         <v>44195</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -26585,7 +26585,7 @@
         <v>44210</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -26642,7 +26642,7 @@
         <v>44214</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -26699,7 +26699,7 @@
         <v>44218</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -26756,7 +26756,7 @@
         <v>44225</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -26813,7 +26813,7 @@
         <v>44228</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -26870,7 +26870,7 @@
         <v>44229</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -26927,7 +26927,7 @@
         <v>44230</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -26989,7 +26989,7 @@
         <v>44231</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -27046,7 +27046,7 @@
         <v>44231</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -27103,7 +27103,7 @@
         <v>44236</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -27160,7 +27160,7 @@
         <v>44239</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -27222,7 +27222,7 @@
         <v>44242</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -27284,7 +27284,7 @@
         <v>44243</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -27341,7 +27341,7 @@
         <v>44245</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -27398,7 +27398,7 @@
         <v>44259</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -27455,7 +27455,7 @@
         <v>44259</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -27512,7 +27512,7 @@
         <v>44273</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -27569,7 +27569,7 @@
         <v>44280</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -27626,7 +27626,7 @@
         <v>44280</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -27683,7 +27683,7 @@
         <v>44281</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -27745,7 +27745,7 @@
         <v>44286</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -27802,7 +27802,7 @@
         <v>44286</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -27859,7 +27859,7 @@
         <v>44287</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -27916,7 +27916,7 @@
         <v>44292</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -27973,7 +27973,7 @@
         <v>44298</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -28030,7 +28030,7 @@
         <v>44299</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -28087,7 +28087,7 @@
         <v>44308</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -28144,7 +28144,7 @@
         <v>44308</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -28201,7 +28201,7 @@
         <v>44308</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -28258,7 +28258,7 @@
         <v>44308</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -28315,7 +28315,7 @@
         <v>44315</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -28377,7 +28377,7 @@
         <v>44322</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -28434,7 +28434,7 @@
         <v>44323</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -28496,7 +28496,7 @@
         <v>44332</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -28558,7 +28558,7 @@
         <v>44336</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -28615,7 +28615,7 @@
         <v>44336</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -28672,7 +28672,7 @@
         <v>44349</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -28729,7 +28729,7 @@
         <v>44351</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -28791,7 +28791,7 @@
         <v>44351</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -28853,7 +28853,7 @@
         <v>44356</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -28910,7 +28910,7 @@
         <v>44357</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -28967,7 +28967,7 @@
         <v>44362</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -29024,7 +29024,7 @@
         <v>44362</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -29081,7 +29081,7 @@
         <v>44368</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -29138,7 +29138,7 @@
         <v>44375</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -29195,7 +29195,7 @@
         <v>44379</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -29252,7 +29252,7 @@
         <v>44384</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -29309,7 +29309,7 @@
         <v>44385</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -29366,7 +29366,7 @@
         <v>44396</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -29423,7 +29423,7 @@
         <v>44405</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -29480,7 +29480,7 @@
         <v>44410</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -29537,7 +29537,7 @@
         <v>44413</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -29594,7 +29594,7 @@
         <v>44424</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -29651,7 +29651,7 @@
         <v>44425</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -29713,7 +29713,7 @@
         <v>44425</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -29775,7 +29775,7 @@
         <v>44425</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -29837,7 +29837,7 @@
         <v>44431</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -29894,7 +29894,7 @@
         <v>44434</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -29951,7 +29951,7 @@
         <v>44441</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -30008,7 +30008,7 @@
         <v>44443</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -30065,7 +30065,7 @@
         <v>44448</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -30122,7 +30122,7 @@
         <v>44452</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -30179,7 +30179,7 @@
         <v>44453</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -30236,7 +30236,7 @@
         <v>44466</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -30298,7 +30298,7 @@
         <v>44475</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -30355,7 +30355,7 @@
         <v>44476</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -30417,7 +30417,7 @@
         <v>44480</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -30474,7 +30474,7 @@
         <v>44495</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -30536,7 +30536,7 @@
         <v>44496</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -30593,7 +30593,7 @@
         <v>44505</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -30655,7 +30655,7 @@
         <v>44505</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -30717,7 +30717,7 @@
         <v>44511</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -30774,7 +30774,7 @@
         <v>44512</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -30831,7 +30831,7 @@
         <v>44517</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -30888,7 +30888,7 @@
         <v>44517</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -30945,7 +30945,7 @@
         <v>44518</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -31002,7 +31002,7 @@
         <v>44518</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -31064,7 +31064,7 @@
         <v>44530</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -31121,7 +31121,7 @@
         <v>44536</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -31178,7 +31178,7 @@
         <v>44537</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -31235,7 +31235,7 @@
         <v>44538</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -31292,7 +31292,7 @@
         <v>44571</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -31349,7 +31349,7 @@
         <v>44573</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -31406,7 +31406,7 @@
         <v>44574</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -31463,7 +31463,7 @@
         <v>44574</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -31520,7 +31520,7 @@
         <v>44578</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -31577,7 +31577,7 @@
         <v>44586</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -31634,7 +31634,7 @@
         <v>44593</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -31691,7 +31691,7 @@
         <v>44595</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -31748,7 +31748,7 @@
         <v>44599</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -31805,7 +31805,7 @@
         <v>44601</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -31862,7 +31862,7 @@
         <v>44601</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -31919,7 +31919,7 @@
         <v>44601</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -31976,7 +31976,7 @@
         <v>44606</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -32033,7 +32033,7 @@
         <v>44609</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -32095,7 +32095,7 @@
         <v>44614</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -32152,7 +32152,7 @@
         <v>44614</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -32209,7 +32209,7 @@
         <v>44614</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -32266,7 +32266,7 @@
         <v>44614</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -32323,7 +32323,7 @@
         <v>44614</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -32380,7 +32380,7 @@
         <v>44615</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -32437,7 +32437,7 @@
         <v>44615</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -32494,7 +32494,7 @@
         <v>44621</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -32551,7 +32551,7 @@
         <v>44627</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -32608,7 +32608,7 @@
         <v>44628</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -32665,7 +32665,7 @@
         <v>44629</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -32722,7 +32722,7 @@
         <v>44635</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -32784,7 +32784,7 @@
         <v>44641</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -32846,7 +32846,7 @@
         <v>44641</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -32908,7 +32908,7 @@
         <v>44644</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -32970,7 +32970,7 @@
         <v>44644</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -33032,7 +33032,7 @@
         <v>44649</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -33094,7 +33094,7 @@
         <v>44650</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -33151,7 +33151,7 @@
         <v>44650</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -33208,7 +33208,7 @@
         <v>44652</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -33270,7 +33270,7 @@
         <v>44655</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -33332,7 +33332,7 @@
         <v>44655</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -33394,7 +33394,7 @@
         <v>44656</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -33456,7 +33456,7 @@
         <v>44656</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -33518,7 +33518,7 @@
         <v>44657</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -33575,7 +33575,7 @@
         <v>44662</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -33637,7 +33637,7 @@
         <v>44663</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -33699,7 +33699,7 @@
         <v>44663</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -33761,7 +33761,7 @@
         <v>44670</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -33823,7 +33823,7 @@
         <v>44670</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -33880,7 +33880,7 @@
         <v>44670</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -33937,7 +33937,7 @@
         <v>44671</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -33994,7 +33994,7 @@
         <v>44671</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -34051,7 +34051,7 @@
         <v>44679</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -34108,7 +34108,7 @@
         <v>44680</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -34165,7 +34165,7 @@
         <v>44685</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -34222,7 +34222,7 @@
         <v>44685</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -34279,7 +34279,7 @@
         <v>44685</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -34341,7 +34341,7 @@
         <v>44686</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -34398,7 +34398,7 @@
         <v>44690</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -34455,7 +34455,7 @@
         <v>44690</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -34517,7 +34517,7 @@
         <v>44690</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -34579,7 +34579,7 @@
         <v>44690</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -34636,7 +34636,7 @@
         <v>44690</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -34698,7 +34698,7 @@
         <v>44690</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -34760,7 +34760,7 @@
         <v>44704</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -34817,7 +34817,7 @@
         <v>44705</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -34874,7 +34874,7 @@
         <v>44706</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -34931,7 +34931,7 @@
         <v>44714</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -34988,7 +34988,7 @@
         <v>44714</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -35050,7 +35050,7 @@
         <v>44714</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -35107,7 +35107,7 @@
         <v>44725</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -35164,7 +35164,7 @@
         <v>44727</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -35226,7 +35226,7 @@
         <v>44732</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -35283,7 +35283,7 @@
         <v>44734</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -35340,7 +35340,7 @@
         <v>44734</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -35402,7 +35402,7 @@
         <v>44741</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -35459,7 +35459,7 @@
         <v>44743</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -35516,7 +35516,7 @@
         <v>44746</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -35573,7 +35573,7 @@
         <v>44746</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -35635,7 +35635,7 @@
         <v>44761</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -35712,7 +35712,7 @@
         <v>44774</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -35769,7 +35769,7 @@
         <v>44774</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -35826,7 +35826,7 @@
         <v>44776</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -35888,7 +35888,7 @@
         <v>44776</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -35950,7 +35950,7 @@
         <v>44777</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -36012,7 +36012,7 @@
         <v>44778</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -36074,7 +36074,7 @@
         <v>44781</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -36131,7 +36131,7 @@
         <v>44782</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -36193,7 +36193,7 @@
         <v>44783</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -36255,7 +36255,7 @@
         <v>44788</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -36312,7 +36312,7 @@
         <v>44788</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -36369,7 +36369,7 @@
         <v>44791</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -36431,7 +36431,7 @@
         <v>44797</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -36493,7 +36493,7 @@
         <v>44798</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -36555,7 +36555,7 @@
         <v>44799</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -36617,7 +36617,7 @@
         <v>44802</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -36674,7 +36674,7 @@
         <v>44802</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -36736,7 +36736,7 @@
         <v>44804</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -36793,7 +36793,7 @@
         <v>44804</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -36855,7 +36855,7 @@
         <v>44805</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -36917,7 +36917,7 @@
         <v>44805</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -36979,7 +36979,7 @@
         <v>44806</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -37036,7 +37036,7 @@
         <v>44812</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -37098,7 +37098,7 @@
         <v>44813</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -37160,7 +37160,7 @@
         <v>44813</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -37222,7 +37222,7 @@
         <v>44815</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -37284,7 +37284,7 @@
         <v>44816</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -37346,7 +37346,7 @@
         <v>44816</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -37408,7 +37408,7 @@
         <v>44817</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -37470,7 +37470,7 @@
         <v>44818</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -37532,7 +37532,7 @@
         <v>44818</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -37589,7 +37589,7 @@
         <v>44820</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -37651,7 +37651,7 @@
         <v>44820</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -37708,7 +37708,7 @@
         <v>44820</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -37770,7 +37770,7 @@
         <v>44820</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -37832,7 +37832,7 @@
         <v>44823</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -37889,7 +37889,7 @@
         <v>44823</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -37946,7 +37946,7 @@
         <v>44825</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -38008,7 +38008,7 @@
         <v>44825</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -38070,7 +38070,7 @@
         <v>44830</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -38132,7 +38132,7 @@
         <v>44831</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -38194,7 +38194,7 @@
         <v>44831</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -38256,7 +38256,7 @@
         <v>44832</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -38318,7 +38318,7 @@
         <v>44832</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -38380,7 +38380,7 @@
         <v>44832</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -38442,7 +38442,7 @@
         <v>44837</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -38504,7 +38504,7 @@
         <v>44837</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -38566,7 +38566,7 @@
         <v>44838</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -38628,7 +38628,7 @@
         <v>44839</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -38685,7 +38685,7 @@
         <v>44839</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -38742,7 +38742,7 @@
         <v>44840</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -38804,7 +38804,7 @@
         <v>44841</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -38861,7 +38861,7 @@
         <v>44844</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -38923,7 +38923,7 @@
         <v>44845</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -38985,7 +38985,7 @@
         <v>44845</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -39047,7 +39047,7 @@
         <v>44845</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -39109,7 +39109,7 @@
         <v>44845</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -39171,7 +39171,7 @@
         <v>44846</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -39233,7 +39233,7 @@
         <v>44846</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -39295,7 +39295,7 @@
         <v>44852</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -39357,7 +39357,7 @@
         <v>44852</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -39419,7 +39419,7 @@
         <v>44852</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -39481,7 +39481,7 @@
         <v>44852</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -39543,7 +39543,7 @@
         <v>44853</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -39605,7 +39605,7 @@
         <v>44854</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -39667,7 +39667,7 @@
         <v>44855</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -39729,7 +39729,7 @@
         <v>44855</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -39791,7 +39791,7 @@
         <v>44855</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -39853,7 +39853,7 @@
         <v>44858</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -39915,7 +39915,7 @@
         <v>44858</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -39977,7 +39977,7 @@
         <v>44860</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -40039,7 +40039,7 @@
         <v>44860</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -40101,7 +40101,7 @@
         <v>44861</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -40163,7 +40163,7 @@
         <v>44861</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -40225,7 +40225,7 @@
         <v>44865</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -40282,7 +40282,7 @@
         <v>44865</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -40339,7 +40339,7 @@
         <v>44866</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -40401,7 +40401,7 @@
         <v>44866</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -40463,7 +40463,7 @@
         <v>44866</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -40525,7 +40525,7 @@
         <v>44867</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -40587,7 +40587,7 @@
         <v>44869</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -40644,7 +40644,7 @@
         <v>44869</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -40701,7 +40701,7 @@
         <v>44869</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -40758,7 +40758,7 @@
         <v>44874</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -40815,7 +40815,7 @@
         <v>44876</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -40877,7 +40877,7 @@
         <v>44879</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -40939,7 +40939,7 @@
         <v>44880</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -41001,7 +41001,7 @@
         <v>44880</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -41063,7 +41063,7 @@
         <v>44881</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -41120,7 +41120,7 @@
         <v>44883</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -41182,7 +41182,7 @@
         <v>44883</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -41244,7 +41244,7 @@
         <v>44886</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -41306,7 +41306,7 @@
         <v>44887</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -41363,7 +41363,7 @@
         <v>44887</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -41420,7 +41420,7 @@
         <v>44887</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -41477,7 +41477,7 @@
         <v>44888</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -41539,7 +41539,7 @@
         <v>44889</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -41601,7 +41601,7 @@
         <v>44889</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -41658,7 +41658,7 @@
         <v>44889</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -41720,7 +41720,7 @@
         <v>44893</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -41777,7 +41777,7 @@
         <v>44894</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -41834,7 +41834,7 @@
         <v>44895</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -41896,7 +41896,7 @@
         <v>44896</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -41953,7 +41953,7 @@
         <v>44897</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -42010,7 +42010,7 @@
         <v>44897</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -42072,7 +42072,7 @@
         <v>44900</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -42134,7 +42134,7 @@
         <v>44901</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -42196,7 +42196,7 @@
         <v>44901</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -42258,7 +42258,7 @@
         <v>44901</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -42320,7 +42320,7 @@
         <v>44903</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -42377,7 +42377,7 @@
         <v>44903</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -42439,7 +42439,7 @@
         <v>44904</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -42501,7 +42501,7 @@
         <v>44909</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -42563,7 +42563,7 @@
         <v>44911</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -42625,7 +42625,7 @@
         <v>44911</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -42687,7 +42687,7 @@
         <v>44913</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -42749,7 +42749,7 @@
         <v>44914</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -42806,7 +42806,7 @@
         <v>44914</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -42868,7 +42868,7 @@
         <v>44915</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -42925,7 +42925,7 @@
         <v>44915</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -42987,7 +42987,7 @@
         <v>44917</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -43049,7 +43049,7 @@
         <v>44917</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -43106,7 +43106,7 @@
         <v>44918</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -43168,7 +43168,7 @@
         <v>44922</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -43225,7 +43225,7 @@
         <v>44927</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -43287,7 +43287,7 @@
         <v>44929</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -43344,7 +43344,7 @@
         <v>44929</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -43401,7 +43401,7 @@
         <v>44929</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -43458,7 +43458,7 @@
         <v>44938</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -43520,7 +43520,7 @@
         <v>44938</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -43582,7 +43582,7 @@
         <v>44939</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -43644,7 +43644,7 @@
         <v>44939</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -43706,7 +43706,7 @@
         <v>44942</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -43763,7 +43763,7 @@
         <v>44942</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -43825,7 +43825,7 @@
         <v>44942</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -43882,7 +43882,7 @@
         <v>44942</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -43944,7 +43944,7 @@
         <v>44944</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -44001,7 +44001,7 @@
         <v>44953</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -44063,7 +44063,7 @@
         <v>44953</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -44125,7 +44125,7 @@
         <v>44956</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -44187,7 +44187,7 @@
         <v>44957</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -44249,7 +44249,7 @@
         <v>44958</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -44306,7 +44306,7 @@
         <v>44958</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -44363,7 +44363,7 @@
         <v>44958</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -44425,7 +44425,7 @@
         <v>44959</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -44482,7 +44482,7 @@
         <v>44963</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -44539,7 +44539,7 @@
         <v>44963</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -44601,7 +44601,7 @@
         <v>44965</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -44663,7 +44663,7 @@
         <v>44966</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -44725,7 +44725,7 @@
         <v>44966</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -44787,7 +44787,7 @@
         <v>44967</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -44849,7 +44849,7 @@
         <v>44971</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -44911,7 +44911,7 @@
         <v>44978</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -44973,7 +44973,7 @@
         <v>44979</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -45030,7 +45030,7 @@
         <v>44979</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -45087,7 +45087,7 @@
         <v>44979</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -45149,7 +45149,7 @@
         <v>44980</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -45206,7 +45206,7 @@
         <v>44984</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -45263,7 +45263,7 @@
         <v>44986</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -45320,7 +45320,7 @@
         <v>44987</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -45382,7 +45382,7 @@
         <v>44991</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -45444,7 +45444,7 @@
         <v>44991</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -45506,7 +45506,7 @@
         <v>44991</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -45568,7 +45568,7 @@
         <v>44991</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -45630,7 +45630,7 @@
         <v>44992</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -45687,7 +45687,7 @@
         <v>44993</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -45749,7 +45749,7 @@
         <v>44993</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -45811,7 +45811,7 @@
         <v>44993</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -45873,7 +45873,7 @@
         <v>44993</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -45930,7 +45930,7 @@
         <v>44995</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -45992,7 +45992,7 @@
         <v>44995</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -46054,7 +46054,7 @@
         <v>44995</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -46116,7 +46116,7 @@
         <v>45000</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -46173,7 +46173,7 @@
         <v>45000</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -46235,7 +46235,7 @@
         <v>45000</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -46297,7 +46297,7 @@
         <v>45000</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -46359,7 +46359,7 @@
         <v>45000</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -46421,7 +46421,7 @@
         <v>45002</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -46478,7 +46478,7 @@
         <v>45006</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -46540,7 +46540,7 @@
         <v>45007</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -46597,7 +46597,7 @@
         <v>45009</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -46654,7 +46654,7 @@
         <v>45009</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -46711,7 +46711,7 @@
         <v>45015</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -46773,7 +46773,7 @@
         <v>45015</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -46835,7 +46835,7 @@
         <v>45015</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -46892,7 +46892,7 @@
         <v>45015</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -46949,7 +46949,7 @@
         <v>45016</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -47006,7 +47006,7 @@
         <v>45016</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -47063,7 +47063,7 @@
         <v>45028</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -47120,7 +47120,7 @@
         <v>45033</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -47177,7 +47177,7 @@
         <v>45034</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -47234,7 +47234,7 @@
         <v>45040</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -47291,7 +47291,7 @@
         <v>45042</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -47348,7 +47348,7 @@
         <v>45044</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -47410,7 +47410,7 @@
         <v>45048</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -47472,7 +47472,7 @@
         <v>45048</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -47534,7 +47534,7 @@
         <v>45049</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -47596,7 +47596,7 @@
         <v>45050</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -47658,7 +47658,7 @@
         <v>45054</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -47720,7 +47720,7 @@
         <v>45056</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -47777,7 +47777,7 @@
         <v>45056</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -47834,7 +47834,7 @@
         <v>45063</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -47891,7 +47891,7 @@
         <v>45063</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -47948,7 +47948,7 @@
         <v>45068</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -48010,7 +48010,7 @@
         <v>45069</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -48067,7 +48067,7 @@
         <v>45070</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -48124,7 +48124,7 @@
         <v>45070</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -48181,7 +48181,7 @@
         <v>45070</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -48243,7 +48243,7 @@
         <v>45071</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -48300,7 +48300,7 @@
         <v>45071</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -48357,7 +48357,7 @@
         <v>45078</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -48414,7 +48414,7 @@
         <v>45078</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -48471,7 +48471,7 @@
         <v>45078</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -48528,7 +48528,7 @@
         <v>45079</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -48590,7 +48590,7 @@
         <v>45084</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -48647,7 +48647,7 @@
         <v>45085</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -48704,7 +48704,7 @@
         <v>45086</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -48761,7 +48761,7 @@
         <v>45086</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -48823,7 +48823,7 @@
         <v>45089</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -48880,7 +48880,7 @@
         <v>45089</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -48937,7 +48937,7 @@
         <v>45089</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -48999,7 +48999,7 @@
         <v>45089</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -49056,7 +49056,7 @@
         <v>45090</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -49113,7 +49113,7 @@
         <v>45091</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -49175,7 +49175,7 @@
         <v>45092</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -49232,7 +49232,7 @@
         <v>45092</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -49289,7 +49289,7 @@
         <v>45092</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -49346,7 +49346,7 @@
         <v>45092</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -49403,7 +49403,7 @@
         <v>45093</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -49460,7 +49460,7 @@
         <v>45093</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -49517,7 +49517,7 @@
         <v>45096</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -49574,7 +49574,7 @@
         <v>45096</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -49631,7 +49631,7 @@
         <v>45098</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -49688,7 +49688,7 @@
         <v>45098</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -49745,7 +49745,7 @@
         <v>45103</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -49802,7 +49802,7 @@
         <v>45103</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -49859,7 +49859,7 @@
         <v>45104</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -49916,7 +49916,7 @@
         <v>45105</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -49978,7 +49978,7 @@
         <v>45107</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -50035,7 +50035,7 @@
         <v>45107</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -50092,7 +50092,7 @@
         <v>45111</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -50149,7 +50149,7 @@
         <v>45112</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -50211,7 +50211,7 @@
         <v>45112</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -50273,7 +50273,7 @@
         <v>45121</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -50330,7 +50330,7 @@
         <v>45138</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -50392,7 +50392,7 @@
         <v>45146</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -50449,7 +50449,7 @@
         <v>45148</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -50506,7 +50506,7 @@
         <v>45148</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -50563,7 +50563,7 @@
         <v>45149</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -50620,7 +50620,7 @@
         <v>45153</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -50677,7 +50677,7 @@
         <v>45153</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -50724,7 +50724,7 @@
       </c>
       <c r="R772" s="2" t="inlineStr"/>
     </row>
-    <row r="773">
+    <row r="773" ht="15" customHeight="1">
       <c r="A773" t="inlineStr">
         <is>
           <t>A 39478-2023</t>
@@ -50734,7 +50734,7 @@
         <v>45166</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -50780,6 +50780,68 @@
         <v>0</v>
       </c>
       <c r="R773" s="2" t="inlineStr"/>
+    </row>
+    <row r="774">
+      <c r="A774" t="inlineStr">
+        <is>
+          <t>A 43132-2023</t>
+        </is>
+      </c>
+      <c r="B774" s="1" t="n">
+        <v>45182</v>
+      </c>
+      <c r="C774" s="1" t="n">
+        <v>45184</v>
+      </c>
+      <c r="D774" t="inlineStr">
+        <is>
+          <t>JÄMTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E774" t="inlineStr">
+        <is>
+          <t>RAGUNDA</t>
+        </is>
+      </c>
+      <c r="F774" t="inlineStr">
+        <is>
+          <t>SCA</t>
+        </is>
+      </c>
+      <c r="G774" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H774" t="n">
+        <v>0</v>
+      </c>
+      <c r="I774" t="n">
+        <v>0</v>
+      </c>
+      <c r="J774" t="n">
+        <v>0</v>
+      </c>
+      <c r="K774" t="n">
+        <v>0</v>
+      </c>
+      <c r="L774" t="n">
+        <v>0</v>
+      </c>
+      <c r="M774" t="n">
+        <v>0</v>
+      </c>
+      <c r="N774" t="n">
+        <v>0</v>
+      </c>
+      <c r="O774" t="n">
+        <v>0</v>
+      </c>
+      <c r="P774" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q774" t="n">
+        <v>0</v>
+      </c>
+      <c r="R774" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt RAGUNDA.xlsx
+++ b/Översikt RAGUNDA.xlsx
@@ -572,7 +572,7 @@
         <v>44874</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -699,7 +699,7 @@
         <v>43865</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>44894</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         <v>44917</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
         <v>43865</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1145,7 +1145,7 @@
         <v>44504</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1256,7 +1256,7 @@
         <v>44644</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1362,7 +1362,7 @@
         <v>43866</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1466,7 +1466,7 @@
         <v>44504</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1575,7 +1575,7 @@
         <v>44473</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1678,7 +1678,7 @@
         <v>44088</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1784,7 +1784,7 @@
         <v>44151</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1881,7 +1881,7 @@
         <v>44644</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1983,7 +1983,7 @@
         <v>44838</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2080,7 +2080,7 @@
         <v>43900</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2181,7 +2181,7 @@
         <v>44062</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2282,7 +2282,7 @@
         <v>45104</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2383,7 +2383,7 @@
         <v>43910</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2487,7 +2487,7 @@
         <v>44776</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2591,7 +2591,7 @@
         <v>44645</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2690,7 +2690,7 @@
         <v>44888</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2789,7 +2789,7 @@
         <v>43353</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2887,7 +2887,7 @@
         <v>44504</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2985,7 +2985,7 @@
         <v>45113</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3083,7 +3083,7 @@
         <v>44133</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3180,7 +3180,7 @@
         <v>44644</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3277,7 +3277,7 @@
         <v>44901</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3378,7 +3378,7 @@
         <v>45113</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3475,7 +3475,7 @@
         <v>43411</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3571,7 +3571,7 @@
         <v>43413</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3667,7 +3667,7 @@
         <v>44133</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         <v>44336</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3854,7 +3854,7 @@
         <v>44438</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3950,7 +3950,7 @@
         <v>44662</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4046,7 +4046,7 @@
         <v>44804</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4142,7 +4142,7 @@
         <v>44915</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4242,7 +4242,7 @@
         <v>44953</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4333,7 +4333,7 @@
         <v>44994</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4433,7 +4433,7 @@
         <v>45009</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4524,7 +4524,7 @@
         <v>44209</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4614,7 +4614,7 @@
         <v>44875</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4709,7 +4709,7 @@
         <v>44876</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4804,7 +4804,7 @@
         <v>44911</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4899,7 +4899,7 @@
         <v>44932</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4994,7 +4994,7 @@
         <v>44994</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -5089,7 +5089,7 @@
         <v>45015</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5183,7 +5183,7 @@
         <v>45027</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5282,7 +5282,7 @@
         <v>45070</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5377,7 +5377,7 @@
         <v>44111</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5470,7 +5470,7 @@
         <v>44139</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5559,7 +5559,7 @@
         <v>44645</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5657,7 +5657,7 @@
         <v>44656</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5751,7 +5751,7 @@
         <v>44734</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5845,7 +5845,7 @@
         <v>44865</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5939,7 +5939,7 @@
         <v>44911</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -6033,7 +6033,7 @@
         <v>45054</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -6122,7 +6122,7 @@
         <v>45093</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6215,7 +6215,7 @@
         <v>43977</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6308,7 +6308,7 @@
         <v>44113</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6401,7 +6401,7 @@
         <v>44245</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6494,7 +6494,7 @@
         <v>44334</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6586,7 +6586,7 @@
         <v>44334</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6678,7 +6678,7 @@
         <v>44446</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6771,7 +6771,7 @@
         <v>44610</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6864,7 +6864,7 @@
         <v>44624</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6957,7 +6957,7 @@
         <v>44662</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -7050,7 +7050,7 @@
         <v>44677</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -7142,7 +7142,7 @@
         <v>44696</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -7235,7 +7235,7 @@
         <v>44732</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7332,7 +7332,7 @@
         <v>44911</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7425,7 +7425,7 @@
         <v>45034</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7518,7 +7518,7 @@
         <v>43817</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7609,7 +7609,7 @@
         <v>44111</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7701,7 +7701,7 @@
         <v>44421</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7793,7 +7793,7 @@
         <v>44740</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7880,7 +7880,7 @@
         <v>44855</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7976,7 +7976,7 @@
         <v>44855</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -8068,7 +8068,7 @@
         <v>44875</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -8160,7 +8160,7 @@
         <v>44902</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -8252,7 +8252,7 @@
         <v>44971</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -8344,7 +8344,7 @@
         <v>44987</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8435,7 +8435,7 @@
         <v>44987</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8522,7 +8522,7 @@
         <v>45049</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8614,7 +8614,7 @@
         <v>43329</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8700,7 +8700,7 @@
         <v>43411</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8786,7 +8786,7 @@
         <v>43707</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8876,7 +8876,7 @@
         <v>43948</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8962,7 +8962,7 @@
         <v>44676</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -9053,7 +9053,7 @@
         <v>44680</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -9139,7 +9139,7 @@
         <v>44855</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -9230,7 +9230,7 @@
         <v>44855</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -9321,7 +9321,7 @@
         <v>44860</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9412,7 +9412,7 @@
         <v>44973</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9503,7 +9503,7 @@
         <v>44980</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9589,7 +9589,7 @@
         <v>45005</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9680,7 +9680,7 @@
         <v>45121</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9771,7 +9771,7 @@
         <v>43515</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9856,7 +9856,7 @@
         <v>43619</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9946,7 +9946,7 @@
         <v>43650</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -10031,7 +10031,7 @@
         <v>43784</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -10121,7 +10121,7 @@
         <v>43791</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -10206,7 +10206,7 @@
         <v>43977</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -10296,7 +10296,7 @@
         <v>44012</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -10386,7 +10386,7 @@
         <v>44049</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -10476,7 +10476,7 @@
         <v>44062</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10566,7 +10566,7 @@
         <v>44098</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10656,7 +10656,7 @@
         <v>44119</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -10741,7 +10741,7 @@
         <v>44166</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10826,7 +10826,7 @@
         <v>44319</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10916,7 +10916,7 @@
         <v>44369</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -11001,7 +11001,7 @@
         <v>44462</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -11091,7 +11091,7 @@
         <v>44601</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -11176,7 +11176,7 @@
         <v>44607</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -11266,7 +11266,7 @@
         <v>44705</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -11351,7 +11351,7 @@
         <v>44741</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -11441,7 +11441,7 @@
         <v>44741</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -11526,7 +11526,7 @@
         <v>44830</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -11616,7 +11616,7 @@
         <v>44832</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -11706,7 +11706,7 @@
         <v>44855</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -11796,7 +11796,7 @@
         <v>44860</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -11881,7 +11881,7 @@
         <v>45033</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -11970,7 +11970,7 @@
         <v>45042</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -12055,7 +12055,7 @@
         <v>45044</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -12145,7 +12145,7 @@
         <v>45089</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -12230,7 +12230,7 @@
         <v>45097</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -12320,7 +12320,7 @@
         <v>45120</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -12410,7 +12410,7 @@
         <v>45121</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -12495,7 +12495,7 @@
         <v>45149</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -12585,7 +12585,7 @@
         <v>45153</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -12670,7 +12670,7 @@
         <v>43321</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -12727,7 +12727,7 @@
         <v>43322</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -12789,7 +12789,7 @@
         <v>43326</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -12846,7 +12846,7 @@
         <v>43341</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -12903,7 +12903,7 @@
         <v>43360</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -12960,7 +12960,7 @@
         <v>43395</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -13017,7 +13017,7 @@
         <v>43396</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -13074,7 +13074,7 @@
         <v>43398</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -13131,7 +13131,7 @@
         <v>43398</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -13188,7 +13188,7 @@
         <v>43398</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -13245,7 +13245,7 @@
         <v>43403</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -13307,7 +13307,7 @@
         <v>43403</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -13369,7 +13369,7 @@
         <v>43403</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -13431,7 +13431,7 @@
         <v>43405</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -13493,7 +13493,7 @@
         <v>43406</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -13555,7 +13555,7 @@
         <v>43410</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -13617,7 +13617,7 @@
         <v>43411</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -13674,7 +13674,7 @@
         <v>43411</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -13736,7 +13736,7 @@
         <v>43411</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -13798,7 +13798,7 @@
         <v>43411</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -13860,7 +13860,7 @@
         <v>43411</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -13922,7 +13922,7 @@
         <v>43411</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -13984,7 +13984,7 @@
         <v>43411</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -14041,7 +14041,7 @@
         <v>43413</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -14098,7 +14098,7 @@
         <v>43418</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -14155,7 +14155,7 @@
         <v>43419</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -14212,7 +14212,7 @@
         <v>43423</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -14269,7 +14269,7 @@
         <v>43423</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -14326,7 +14326,7 @@
         <v>43427</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -14383,7 +14383,7 @@
         <v>43427</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -14440,7 +14440,7 @@
         <v>43431</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -14497,7 +14497,7 @@
         <v>43431</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -14559,7 +14559,7 @@
         <v>43431</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -14621,7 +14621,7 @@
         <v>43437</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -14683,7 +14683,7 @@
         <v>43438</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -14740,7 +14740,7 @@
         <v>43440</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -14797,7 +14797,7 @@
         <v>43444</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -14854,7 +14854,7 @@
         <v>43448</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -14911,7 +14911,7 @@
         <v>43461</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -14968,7 +14968,7 @@
         <v>43461</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -15025,7 +15025,7 @@
         <v>43467</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -15082,7 +15082,7 @@
         <v>43467</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -15139,7 +15139,7 @@
         <v>43473</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -15196,7 +15196,7 @@
         <v>43473</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -15253,7 +15253,7 @@
         <v>43474</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -15310,7 +15310,7 @@
         <v>43481</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -15367,7 +15367,7 @@
         <v>43481</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -15424,7 +15424,7 @@
         <v>43483</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -15481,7 +15481,7 @@
         <v>43495</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -15538,7 +15538,7 @@
         <v>43496</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -15600,7 +15600,7 @@
         <v>43509</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -15657,7 +15657,7 @@
         <v>43510</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -15714,7 +15714,7 @@
         <v>43515</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -15771,7 +15771,7 @@
         <v>43530</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -15828,7 +15828,7 @@
         <v>43537</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -15890,7 +15890,7 @@
         <v>43538</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -15947,7 +15947,7 @@
         <v>43542</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -16004,7 +16004,7 @@
         <v>43543</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -16061,7 +16061,7 @@
         <v>43551</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -16118,7 +16118,7 @@
         <v>43551</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -16175,7 +16175,7 @@
         <v>43552</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -16232,7 +16232,7 @@
         <v>43563</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -16289,7 +16289,7 @@
         <v>43565</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -16346,7 +16346,7 @@
         <v>43578</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -16408,7 +16408,7 @@
         <v>43584</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -16465,7 +16465,7 @@
         <v>43589</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -16522,7 +16522,7 @@
         <v>43594</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -16579,7 +16579,7 @@
         <v>43594</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -16641,7 +16641,7 @@
         <v>43622</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -16703,7 +16703,7 @@
         <v>43633</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -16760,7 +16760,7 @@
         <v>43633</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -16817,7 +16817,7 @@
         <v>43640</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -16879,7 +16879,7 @@
         <v>43641</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -16941,7 +16941,7 @@
         <v>43641</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -17003,7 +17003,7 @@
         <v>43643</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -17065,7 +17065,7 @@
         <v>43650</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -17127,7 +17127,7 @@
         <v>43651</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -17184,7 +17184,7 @@
         <v>43654</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -17246,7 +17246,7 @@
         <v>43654</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -17308,7 +17308,7 @@
         <v>43656</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -17370,7 +17370,7 @@
         <v>43669</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -17427,7 +17427,7 @@
         <v>43678</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -17489,7 +17489,7 @@
         <v>43704</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -17551,7 +17551,7 @@
         <v>43704</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -17613,7 +17613,7 @@
         <v>43704</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -17675,7 +17675,7 @@
         <v>43706</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -17732,7 +17732,7 @@
         <v>43706</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -17789,7 +17789,7 @@
         <v>43713</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -17846,7 +17846,7 @@
         <v>43713</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -17903,7 +17903,7 @@
         <v>43728</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -17965,7 +17965,7 @@
         <v>43733</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -18022,7 +18022,7 @@
         <v>43733</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -18079,7 +18079,7 @@
         <v>43735</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -18136,7 +18136,7 @@
         <v>43740</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -18193,7 +18193,7 @@
         <v>43742</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -18250,7 +18250,7 @@
         <v>43746</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -18307,7 +18307,7 @@
         <v>43756</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -18364,7 +18364,7 @@
         <v>43759</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -18421,7 +18421,7 @@
         <v>43760</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -18478,7 +18478,7 @@
         <v>43768</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -18535,7 +18535,7 @@
         <v>43768</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -18597,7 +18597,7 @@
         <v>43770</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -18659,7 +18659,7 @@
         <v>43770</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -18721,7 +18721,7 @@
         <v>43773</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -18778,7 +18778,7 @@
         <v>43773</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -18840,7 +18840,7 @@
         <v>43773</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -18897,7 +18897,7 @@
         <v>43775</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -18954,7 +18954,7 @@
         <v>43777</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -19016,7 +19016,7 @@
         <v>43782</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -19073,7 +19073,7 @@
         <v>43783</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -19130,7 +19130,7 @@
         <v>43788</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -19207,7 +19207,7 @@
         <v>43791</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -19264,7 +19264,7 @@
         <v>43797</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -19321,7 +19321,7 @@
         <v>43797</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -19378,7 +19378,7 @@
         <v>43803</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -19435,7 +19435,7 @@
         <v>43805</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -19492,7 +19492,7 @@
         <v>43812</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -19549,7 +19549,7 @@
         <v>43818</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -19606,7 +19606,7 @@
         <v>43819</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -19663,7 +19663,7 @@
         <v>43833</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -19720,7 +19720,7 @@
         <v>43847</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -19777,7 +19777,7 @@
         <v>43850</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -19834,7 +19834,7 @@
         <v>43861</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -19891,7 +19891,7 @@
         <v>43868</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -19948,7 +19948,7 @@
         <v>43872</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -20005,7 +20005,7 @@
         <v>43873</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -20062,7 +20062,7 @@
         <v>43880</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -20119,7 +20119,7 @@
         <v>43881</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -20181,7 +20181,7 @@
         <v>43882</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -20238,7 +20238,7 @@
         <v>43887</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -20295,7 +20295,7 @@
         <v>43896</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -20377,7 +20377,7 @@
         <v>43900</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -20434,7 +20434,7 @@
         <v>43901</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -20491,7 +20491,7 @@
         <v>43902</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -20553,7 +20553,7 @@
         <v>43907</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -20610,7 +20610,7 @@
         <v>43910</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -20667,7 +20667,7 @@
         <v>43910</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -20724,7 +20724,7 @@
         <v>43913</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -20781,7 +20781,7 @@
         <v>43916</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -20838,7 +20838,7 @@
         <v>43923</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -20895,7 +20895,7 @@
         <v>43943</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -20952,7 +20952,7 @@
         <v>43948</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -21009,7 +21009,7 @@
         <v>43949</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -21071,7 +21071,7 @@
         <v>43951</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -21128,7 +21128,7 @@
         <v>43955</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -21190,7 +21190,7 @@
         <v>43955</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -21252,7 +21252,7 @@
         <v>43955</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -21314,7 +21314,7 @@
         <v>43955</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -21376,7 +21376,7 @@
         <v>43956</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -21438,7 +21438,7 @@
         <v>43957</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -21495,7 +21495,7 @@
         <v>43965</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -21552,7 +21552,7 @@
         <v>43969</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -21614,7 +21614,7 @@
         <v>43971</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -21671,7 +21671,7 @@
         <v>43971</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -21728,7 +21728,7 @@
         <v>43977</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -21790,7 +21790,7 @@
         <v>43979</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -21847,7 +21847,7 @@
         <v>43984</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -21909,7 +21909,7 @@
         <v>43984</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -21971,7 +21971,7 @@
         <v>43986</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -22033,7 +22033,7 @@
         <v>43986</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -22095,7 +22095,7 @@
         <v>43990</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -22157,7 +22157,7 @@
         <v>43992</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -22214,7 +22214,7 @@
         <v>43999</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -22276,7 +22276,7 @@
         <v>44000</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -22333,7 +22333,7 @@
         <v>44004</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -22395,7 +22395,7 @@
         <v>44006</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -22457,7 +22457,7 @@
         <v>44011</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -22519,7 +22519,7 @@
         <v>44013</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -22581,7 +22581,7 @@
         <v>44013</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -22643,7 +22643,7 @@
         <v>44013</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -22705,7 +22705,7 @@
         <v>44019</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -22767,7 +22767,7 @@
         <v>44026</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -22824,7 +22824,7 @@
         <v>44027</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -22886,7 +22886,7 @@
         <v>44029</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -22948,7 +22948,7 @@
         <v>44029</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -23005,7 +23005,7 @@
         <v>44040</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -23062,7 +23062,7 @@
         <v>44041</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -23124,7 +23124,7 @@
         <v>44051</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -23181,7 +23181,7 @@
         <v>44051</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -23238,7 +23238,7 @@
         <v>44055</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -23295,7 +23295,7 @@
         <v>44056</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -23352,7 +23352,7 @@
         <v>44057</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -23409,7 +23409,7 @@
         <v>44057</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -23471,7 +23471,7 @@
         <v>44062</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -23533,7 +23533,7 @@
         <v>44063</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -23595,7 +23595,7 @@
         <v>44067</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -23657,7 +23657,7 @@
         <v>44069</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -23719,7 +23719,7 @@
         <v>44071</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -23781,7 +23781,7 @@
         <v>44074</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -23843,7 +23843,7 @@
         <v>44074</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -23905,7 +23905,7 @@
         <v>44074</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -23967,7 +23967,7 @@
         <v>44075</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -24029,7 +24029,7 @@
         <v>44078</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -24086,7 +24086,7 @@
         <v>44082</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -24148,7 +24148,7 @@
         <v>44084</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -24210,7 +24210,7 @@
         <v>44084</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -24267,7 +24267,7 @@
         <v>44084</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -24324,7 +24324,7 @@
         <v>44090</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -24381,7 +24381,7 @@
         <v>44095</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -24438,7 +24438,7 @@
         <v>44096</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -24500,7 +24500,7 @@
         <v>44096</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -24562,7 +24562,7 @@
         <v>44098</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -24619,7 +24619,7 @@
         <v>44099</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -24681,7 +24681,7 @@
         <v>44103</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -24743,7 +24743,7 @@
         <v>44106</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -24800,7 +24800,7 @@
         <v>44111</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -24857,7 +24857,7 @@
         <v>44111</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -24914,7 +24914,7 @@
         <v>44111</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -24971,7 +24971,7 @@
         <v>44113</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -25033,7 +25033,7 @@
         <v>44124</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -25090,7 +25090,7 @@
         <v>44126</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -25147,7 +25147,7 @@
         <v>44132</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -25209,7 +25209,7 @@
         <v>44134</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -25266,7 +25266,7 @@
         <v>44137</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -25323,7 +25323,7 @@
         <v>44138</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -25380,7 +25380,7 @@
         <v>44140</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -25442,7 +25442,7 @@
         <v>44140</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -25504,7 +25504,7 @@
         <v>44140</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -25566,7 +25566,7 @@
         <v>44140</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -25628,7 +25628,7 @@
         <v>44141</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -25690,7 +25690,7 @@
         <v>44153</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -25747,7 +25747,7 @@
         <v>44153</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -25809,7 +25809,7 @@
         <v>44155</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -25866,7 +25866,7 @@
         <v>44157</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -25923,7 +25923,7 @@
         <v>44159</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -25985,7 +25985,7 @@
         <v>44165</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -26047,7 +26047,7 @@
         <v>44167</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -26109,7 +26109,7 @@
         <v>44168</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -26166,7 +26166,7 @@
         <v>44172</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -26228,7 +26228,7 @@
         <v>44173</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -26285,7 +26285,7 @@
         <v>44174</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -26347,7 +26347,7 @@
         <v>44175</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -26409,7 +26409,7 @@
         <v>44188</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -26471,7 +26471,7 @@
         <v>44194</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -26528,7 +26528,7 @@
         <v>44195</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -26585,7 +26585,7 @@
         <v>44210</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -26642,7 +26642,7 @@
         <v>44214</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -26699,7 +26699,7 @@
         <v>44218</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -26756,7 +26756,7 @@
         <v>44225</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -26813,7 +26813,7 @@
         <v>44228</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -26870,7 +26870,7 @@
         <v>44229</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -26927,7 +26927,7 @@
         <v>44230</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -26989,7 +26989,7 @@
         <v>44231</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -27046,7 +27046,7 @@
         <v>44231</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -27103,7 +27103,7 @@
         <v>44236</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -27160,7 +27160,7 @@
         <v>44239</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -27222,7 +27222,7 @@
         <v>44242</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -27284,7 +27284,7 @@
         <v>44243</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -27341,7 +27341,7 @@
         <v>44245</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -27398,7 +27398,7 @@
         <v>44259</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -27455,7 +27455,7 @@
         <v>44259</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -27512,7 +27512,7 @@
         <v>44273</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -27569,7 +27569,7 @@
         <v>44280</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -27626,7 +27626,7 @@
         <v>44280</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -27683,7 +27683,7 @@
         <v>44281</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -27745,7 +27745,7 @@
         <v>44286</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -27802,7 +27802,7 @@
         <v>44286</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -27859,7 +27859,7 @@
         <v>44287</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -27916,7 +27916,7 @@
         <v>44292</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -27973,7 +27973,7 @@
         <v>44298</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -28030,7 +28030,7 @@
         <v>44299</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -28087,7 +28087,7 @@
         <v>44308</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -28144,7 +28144,7 @@
         <v>44308</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -28201,7 +28201,7 @@
         <v>44308</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -28258,7 +28258,7 @@
         <v>44308</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -28315,7 +28315,7 @@
         <v>44315</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -28377,7 +28377,7 @@
         <v>44322</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -28434,7 +28434,7 @@
         <v>44323</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -28496,7 +28496,7 @@
         <v>44332</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -28558,7 +28558,7 @@
         <v>44336</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -28615,7 +28615,7 @@
         <v>44336</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -28672,7 +28672,7 @@
         <v>44349</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -28729,7 +28729,7 @@
         <v>44351</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -28791,7 +28791,7 @@
         <v>44351</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -28853,7 +28853,7 @@
         <v>44356</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -28910,7 +28910,7 @@
         <v>44357</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -28967,7 +28967,7 @@
         <v>44362</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -29024,7 +29024,7 @@
         <v>44362</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -29081,7 +29081,7 @@
         <v>44368</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -29138,7 +29138,7 @@
         <v>44375</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -29195,7 +29195,7 @@
         <v>44379</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -29252,7 +29252,7 @@
         <v>44384</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -29309,7 +29309,7 @@
         <v>44385</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -29366,7 +29366,7 @@
         <v>44396</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -29423,7 +29423,7 @@
         <v>44405</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -29480,7 +29480,7 @@
         <v>44410</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -29537,7 +29537,7 @@
         <v>44413</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -29594,7 +29594,7 @@
         <v>44424</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -29651,7 +29651,7 @@
         <v>44425</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -29713,7 +29713,7 @@
         <v>44425</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -29775,7 +29775,7 @@
         <v>44425</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -29837,7 +29837,7 @@
         <v>44431</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -29894,7 +29894,7 @@
         <v>44434</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -29951,7 +29951,7 @@
         <v>44441</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -30008,7 +30008,7 @@
         <v>44443</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -30065,7 +30065,7 @@
         <v>44448</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -30122,7 +30122,7 @@
         <v>44452</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -30179,7 +30179,7 @@
         <v>44453</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -30236,7 +30236,7 @@
         <v>44466</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -30298,7 +30298,7 @@
         <v>44475</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -30355,7 +30355,7 @@
         <v>44476</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -30417,7 +30417,7 @@
         <v>44480</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -30474,7 +30474,7 @@
         <v>44495</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -30536,7 +30536,7 @@
         <v>44496</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -30593,7 +30593,7 @@
         <v>44505</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -30655,7 +30655,7 @@
         <v>44505</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -30717,7 +30717,7 @@
         <v>44511</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -30774,7 +30774,7 @@
         <v>44512</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -30831,7 +30831,7 @@
         <v>44517</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -30888,7 +30888,7 @@
         <v>44517</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -30945,7 +30945,7 @@
         <v>44518</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -31002,7 +31002,7 @@
         <v>44518</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -31064,7 +31064,7 @@
         <v>44530</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -31121,7 +31121,7 @@
         <v>44536</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -31178,7 +31178,7 @@
         <v>44537</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -31235,7 +31235,7 @@
         <v>44538</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -31292,7 +31292,7 @@
         <v>44571</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -31349,7 +31349,7 @@
         <v>44573</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -31406,7 +31406,7 @@
         <v>44574</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -31463,7 +31463,7 @@
         <v>44574</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -31520,7 +31520,7 @@
         <v>44578</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -31577,7 +31577,7 @@
         <v>44586</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -31634,7 +31634,7 @@
         <v>44593</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -31691,7 +31691,7 @@
         <v>44595</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -31748,7 +31748,7 @@
         <v>44599</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -31805,7 +31805,7 @@
         <v>44601</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -31862,7 +31862,7 @@
         <v>44601</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -31919,7 +31919,7 @@
         <v>44601</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -31976,7 +31976,7 @@
         <v>44606</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -32033,7 +32033,7 @@
         <v>44609</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -32095,7 +32095,7 @@
         <v>44614</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -32152,7 +32152,7 @@
         <v>44614</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -32209,7 +32209,7 @@
         <v>44614</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -32266,7 +32266,7 @@
         <v>44614</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -32323,7 +32323,7 @@
         <v>44614</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -32380,7 +32380,7 @@
         <v>44615</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -32437,7 +32437,7 @@
         <v>44615</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -32494,7 +32494,7 @@
         <v>44621</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -32551,7 +32551,7 @@
         <v>44627</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -32608,7 +32608,7 @@
         <v>44628</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -32665,7 +32665,7 @@
         <v>44629</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -32722,7 +32722,7 @@
         <v>44635</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -32784,7 +32784,7 @@
         <v>44641</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -32846,7 +32846,7 @@
         <v>44641</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -32908,7 +32908,7 @@
         <v>44644</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -32970,7 +32970,7 @@
         <v>44644</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -33032,7 +33032,7 @@
         <v>44649</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -33094,7 +33094,7 @@
         <v>44650</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -33151,7 +33151,7 @@
         <v>44650</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -33208,7 +33208,7 @@
         <v>44652</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -33270,7 +33270,7 @@
         <v>44655</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -33332,7 +33332,7 @@
         <v>44655</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -33394,7 +33394,7 @@
         <v>44656</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -33456,7 +33456,7 @@
         <v>44656</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -33518,7 +33518,7 @@
         <v>44657</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -33575,7 +33575,7 @@
         <v>44662</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -33637,7 +33637,7 @@
         <v>44663</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -33699,7 +33699,7 @@
         <v>44663</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -33761,7 +33761,7 @@
         <v>44670</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -33823,7 +33823,7 @@
         <v>44670</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -33880,7 +33880,7 @@
         <v>44670</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -33937,7 +33937,7 @@
         <v>44671</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -33994,7 +33994,7 @@
         <v>44671</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -34051,7 +34051,7 @@
         <v>44679</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -34108,7 +34108,7 @@
         <v>44680</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -34165,7 +34165,7 @@
         <v>44685</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -34222,7 +34222,7 @@
         <v>44685</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -34279,7 +34279,7 @@
         <v>44685</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -34341,7 +34341,7 @@
         <v>44686</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -34398,7 +34398,7 @@
         <v>44690</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -34455,7 +34455,7 @@
         <v>44690</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -34517,7 +34517,7 @@
         <v>44690</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -34579,7 +34579,7 @@
         <v>44690</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -34636,7 +34636,7 @@
         <v>44690</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -34698,7 +34698,7 @@
         <v>44690</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -34760,7 +34760,7 @@
         <v>44704</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -34817,7 +34817,7 @@
         <v>44705</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -34874,7 +34874,7 @@
         <v>44706</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -34931,7 +34931,7 @@
         <v>44714</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -34988,7 +34988,7 @@
         <v>44714</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -35050,7 +35050,7 @@
         <v>44714</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -35107,7 +35107,7 @@
         <v>44725</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -35164,7 +35164,7 @@
         <v>44727</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -35226,7 +35226,7 @@
         <v>44732</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -35283,7 +35283,7 @@
         <v>44734</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -35340,7 +35340,7 @@
         <v>44734</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -35402,7 +35402,7 @@
         <v>44741</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -35459,7 +35459,7 @@
         <v>44743</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -35516,7 +35516,7 @@
         <v>44746</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -35573,7 +35573,7 @@
         <v>44746</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -35635,7 +35635,7 @@
         <v>44761</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -35712,7 +35712,7 @@
         <v>44774</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -35769,7 +35769,7 @@
         <v>44774</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -35826,7 +35826,7 @@
         <v>44776</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -35888,7 +35888,7 @@
         <v>44776</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -35950,7 +35950,7 @@
         <v>44777</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -36012,7 +36012,7 @@
         <v>44778</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -36074,7 +36074,7 @@
         <v>44781</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -36131,7 +36131,7 @@
         <v>44782</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -36193,7 +36193,7 @@
         <v>44783</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -36255,7 +36255,7 @@
         <v>44788</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -36312,7 +36312,7 @@
         <v>44788</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -36369,7 +36369,7 @@
         <v>44791</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -36431,7 +36431,7 @@
         <v>44797</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -36493,7 +36493,7 @@
         <v>44798</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -36555,7 +36555,7 @@
         <v>44799</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -36617,7 +36617,7 @@
         <v>44802</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -36674,7 +36674,7 @@
         <v>44802</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -36736,7 +36736,7 @@
         <v>44804</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -36793,7 +36793,7 @@
         <v>44804</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -36855,7 +36855,7 @@
         <v>44805</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -36917,7 +36917,7 @@
         <v>44805</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -36979,7 +36979,7 @@
         <v>44806</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -37036,7 +37036,7 @@
         <v>44812</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -37098,7 +37098,7 @@
         <v>44813</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -37160,7 +37160,7 @@
         <v>44813</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -37222,7 +37222,7 @@
         <v>44815</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -37284,7 +37284,7 @@
         <v>44816</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -37346,7 +37346,7 @@
         <v>44816</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -37408,7 +37408,7 @@
         <v>44817</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -37470,7 +37470,7 @@
         <v>44818</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -37532,7 +37532,7 @@
         <v>44818</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -37589,7 +37589,7 @@
         <v>44820</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -37651,7 +37651,7 @@
         <v>44820</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -37708,7 +37708,7 @@
         <v>44820</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -37770,7 +37770,7 @@
         <v>44820</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -37832,7 +37832,7 @@
         <v>44823</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -37889,7 +37889,7 @@
         <v>44823</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -37946,7 +37946,7 @@
         <v>44825</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -38008,7 +38008,7 @@
         <v>44825</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -38070,7 +38070,7 @@
         <v>44830</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -38132,7 +38132,7 @@
         <v>44831</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -38194,7 +38194,7 @@
         <v>44831</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -38256,7 +38256,7 @@
         <v>44832</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -38318,7 +38318,7 @@
         <v>44832</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -38380,7 +38380,7 @@
         <v>44832</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -38442,7 +38442,7 @@
         <v>44837</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -38504,7 +38504,7 @@
         <v>44837</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -38566,7 +38566,7 @@
         <v>44838</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -38628,7 +38628,7 @@
         <v>44839</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -38685,7 +38685,7 @@
         <v>44839</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -38742,7 +38742,7 @@
         <v>44840</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -38804,7 +38804,7 @@
         <v>44841</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -38861,7 +38861,7 @@
         <v>44844</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -38923,7 +38923,7 @@
         <v>44845</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -38985,7 +38985,7 @@
         <v>44845</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -39047,7 +39047,7 @@
         <v>44845</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -39109,7 +39109,7 @@
         <v>44845</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -39171,7 +39171,7 @@
         <v>44846</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -39233,7 +39233,7 @@
         <v>44846</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -39295,7 +39295,7 @@
         <v>44852</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -39357,7 +39357,7 @@
         <v>44852</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -39419,7 +39419,7 @@
         <v>44852</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -39481,7 +39481,7 @@
         <v>44852</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -39543,7 +39543,7 @@
         <v>44853</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -39605,7 +39605,7 @@
         <v>44854</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -39667,7 +39667,7 @@
         <v>44855</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -39729,7 +39729,7 @@
         <v>44855</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -39791,7 +39791,7 @@
         <v>44855</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -39853,7 +39853,7 @@
         <v>44858</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -39915,7 +39915,7 @@
         <v>44858</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -39977,7 +39977,7 @@
         <v>44860</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -40039,7 +40039,7 @@
         <v>44860</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -40101,7 +40101,7 @@
         <v>44861</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -40163,7 +40163,7 @@
         <v>44861</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -40225,7 +40225,7 @@
         <v>44865</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -40282,7 +40282,7 @@
         <v>44865</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -40339,7 +40339,7 @@
         <v>44866</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -40401,7 +40401,7 @@
         <v>44866</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -40463,7 +40463,7 @@
         <v>44866</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -40525,7 +40525,7 @@
         <v>44867</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -40587,7 +40587,7 @@
         <v>44869</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -40644,7 +40644,7 @@
         <v>44869</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -40701,7 +40701,7 @@
         <v>44869</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -40758,7 +40758,7 @@
         <v>44874</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -40815,7 +40815,7 @@
         <v>44876</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -40877,7 +40877,7 @@
         <v>44879</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -40939,7 +40939,7 @@
         <v>44880</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -41001,7 +41001,7 @@
         <v>44880</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -41063,7 +41063,7 @@
         <v>44881</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -41120,7 +41120,7 @@
         <v>44883</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -41182,7 +41182,7 @@
         <v>44883</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -41244,7 +41244,7 @@
         <v>44886</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -41306,7 +41306,7 @@
         <v>44887</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -41363,7 +41363,7 @@
         <v>44887</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -41420,7 +41420,7 @@
         <v>44887</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -41477,7 +41477,7 @@
         <v>44888</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -41539,7 +41539,7 @@
         <v>44889</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -41601,7 +41601,7 @@
         <v>44889</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -41658,7 +41658,7 @@
         <v>44889</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -41720,7 +41720,7 @@
         <v>44893</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -41777,7 +41777,7 @@
         <v>44894</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -41834,7 +41834,7 @@
         <v>44895</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -41896,7 +41896,7 @@
         <v>44896</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -41953,7 +41953,7 @@
         <v>44897</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -42010,7 +42010,7 @@
         <v>44897</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -42072,7 +42072,7 @@
         <v>44900</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -42134,7 +42134,7 @@
         <v>44901</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -42196,7 +42196,7 @@
         <v>44901</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -42258,7 +42258,7 @@
         <v>44901</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -42320,7 +42320,7 @@
         <v>44903</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -42377,7 +42377,7 @@
         <v>44903</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -42439,7 +42439,7 @@
         <v>44904</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -42501,7 +42501,7 @@
         <v>44909</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -42563,7 +42563,7 @@
         <v>44911</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -42625,7 +42625,7 @@
         <v>44911</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -42687,7 +42687,7 @@
         <v>44913</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -42749,7 +42749,7 @@
         <v>44914</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -42806,7 +42806,7 @@
         <v>44914</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -42868,7 +42868,7 @@
         <v>44915</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -42925,7 +42925,7 @@
         <v>44915</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -42987,7 +42987,7 @@
         <v>44917</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -43049,7 +43049,7 @@
         <v>44917</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -43106,7 +43106,7 @@
         <v>44918</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -43168,7 +43168,7 @@
         <v>44922</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -43225,7 +43225,7 @@
         <v>44927</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -43287,7 +43287,7 @@
         <v>44929</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -43344,7 +43344,7 @@
         <v>44929</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -43401,7 +43401,7 @@
         <v>44929</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -43458,7 +43458,7 @@
         <v>44938</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -43520,7 +43520,7 @@
         <v>44938</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -43582,7 +43582,7 @@
         <v>44939</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -43644,7 +43644,7 @@
         <v>44939</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -43706,7 +43706,7 @@
         <v>44942</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -43763,7 +43763,7 @@
         <v>44942</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -43825,7 +43825,7 @@
         <v>44942</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -43882,7 +43882,7 @@
         <v>44942</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -43944,7 +43944,7 @@
         <v>44944</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -44001,7 +44001,7 @@
         <v>44953</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -44063,7 +44063,7 @@
         <v>44953</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -44125,7 +44125,7 @@
         <v>44956</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -44187,7 +44187,7 @@
         <v>44957</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -44249,7 +44249,7 @@
         <v>44958</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -44306,7 +44306,7 @@
         <v>44958</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -44363,7 +44363,7 @@
         <v>44958</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -44425,7 +44425,7 @@
         <v>44959</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -44482,7 +44482,7 @@
         <v>44963</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -44539,7 +44539,7 @@
         <v>44963</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -44601,7 +44601,7 @@
         <v>44965</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -44663,7 +44663,7 @@
         <v>44966</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -44725,7 +44725,7 @@
         <v>44966</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -44787,7 +44787,7 @@
         <v>44967</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -44849,7 +44849,7 @@
         <v>44971</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -44911,7 +44911,7 @@
         <v>44978</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -44973,7 +44973,7 @@
         <v>44979</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -45030,7 +45030,7 @@
         <v>44979</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -45087,7 +45087,7 @@
         <v>44979</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -45149,7 +45149,7 @@
         <v>44980</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -45206,7 +45206,7 @@
         <v>44984</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -45263,7 +45263,7 @@
         <v>44986</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -45320,7 +45320,7 @@
         <v>44987</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -45382,7 +45382,7 @@
         <v>44991</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -45444,7 +45444,7 @@
         <v>44991</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -45506,7 +45506,7 @@
         <v>44991</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -45568,7 +45568,7 @@
         <v>44991</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -45630,7 +45630,7 @@
         <v>44992</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -45687,7 +45687,7 @@
         <v>44993</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -45749,7 +45749,7 @@
         <v>44993</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -45811,7 +45811,7 @@
         <v>44993</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -45873,7 +45873,7 @@
         <v>44993</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -45930,7 +45930,7 @@
         <v>44995</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -45992,7 +45992,7 @@
         <v>44995</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -46054,7 +46054,7 @@
         <v>44995</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -46116,7 +46116,7 @@
         <v>45000</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -46173,7 +46173,7 @@
         <v>45000</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -46235,7 +46235,7 @@
         <v>45000</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -46297,7 +46297,7 @@
         <v>45000</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -46359,7 +46359,7 @@
         <v>45000</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -46421,7 +46421,7 @@
         <v>45002</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -46478,7 +46478,7 @@
         <v>45006</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -46540,7 +46540,7 @@
         <v>45007</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -46597,7 +46597,7 @@
         <v>45009</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -46654,7 +46654,7 @@
         <v>45009</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -46711,7 +46711,7 @@
         <v>45015</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -46773,7 +46773,7 @@
         <v>45015</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -46835,7 +46835,7 @@
         <v>45015</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -46892,7 +46892,7 @@
         <v>45015</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -46949,7 +46949,7 @@
         <v>45016</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -47006,7 +47006,7 @@
         <v>45016</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -47063,7 +47063,7 @@
         <v>45028</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -47120,7 +47120,7 @@
         <v>45033</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -47177,7 +47177,7 @@
         <v>45034</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -47234,7 +47234,7 @@
         <v>45040</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -47291,7 +47291,7 @@
         <v>45042</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -47348,7 +47348,7 @@
         <v>45044</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -47410,7 +47410,7 @@
         <v>45048</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -47472,7 +47472,7 @@
         <v>45048</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -47534,7 +47534,7 @@
         <v>45049</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -47596,7 +47596,7 @@
         <v>45050</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -47658,7 +47658,7 @@
         <v>45054</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -47720,7 +47720,7 @@
         <v>45056</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -47777,7 +47777,7 @@
         <v>45056</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -47834,7 +47834,7 @@
         <v>45063</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -47891,7 +47891,7 @@
         <v>45063</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -47948,7 +47948,7 @@
         <v>45068</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -48010,7 +48010,7 @@
         <v>45069</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -48067,7 +48067,7 @@
         <v>45070</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -48124,7 +48124,7 @@
         <v>45070</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -48181,7 +48181,7 @@
         <v>45070</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -48243,7 +48243,7 @@
         <v>45071</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -48300,7 +48300,7 @@
         <v>45071</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -48357,7 +48357,7 @@
         <v>45078</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -48414,7 +48414,7 @@
         <v>45078</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -48471,7 +48471,7 @@
         <v>45078</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -48528,7 +48528,7 @@
         <v>45079</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -48590,7 +48590,7 @@
         <v>45084</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -48647,7 +48647,7 @@
         <v>45085</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -48704,7 +48704,7 @@
         <v>45086</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -48761,7 +48761,7 @@
         <v>45086</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -48823,7 +48823,7 @@
         <v>45089</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -48880,7 +48880,7 @@
         <v>45089</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -48937,7 +48937,7 @@
         <v>45089</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -48999,7 +48999,7 @@
         <v>45089</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -49056,7 +49056,7 @@
         <v>45090</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -49113,7 +49113,7 @@
         <v>45091</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -49175,7 +49175,7 @@
         <v>45092</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -49232,7 +49232,7 @@
         <v>45092</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -49289,7 +49289,7 @@
         <v>45092</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -49346,7 +49346,7 @@
         <v>45092</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -49403,7 +49403,7 @@
         <v>45093</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -49460,7 +49460,7 @@
         <v>45093</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -49517,7 +49517,7 @@
         <v>45096</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -49574,7 +49574,7 @@
         <v>45096</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -49631,7 +49631,7 @@
         <v>45098</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -49688,7 +49688,7 @@
         <v>45098</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -49745,7 +49745,7 @@
         <v>45103</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -49802,7 +49802,7 @@
         <v>45103</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -49859,7 +49859,7 @@
         <v>45104</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -49916,7 +49916,7 @@
         <v>45105</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -49978,7 +49978,7 @@
         <v>45107</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -50035,7 +50035,7 @@
         <v>45107</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -50092,7 +50092,7 @@
         <v>45111</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -50149,7 +50149,7 @@
         <v>45112</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -50211,7 +50211,7 @@
         <v>45112</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -50273,7 +50273,7 @@
         <v>45121</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -50330,7 +50330,7 @@
         <v>45138</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -50392,7 +50392,7 @@
         <v>45146</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -50449,7 +50449,7 @@
         <v>45148</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -50506,7 +50506,7 @@
         <v>45148</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -50563,7 +50563,7 @@
         <v>45149</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -50620,7 +50620,7 @@
         <v>45153</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -50677,7 +50677,7 @@
         <v>45153</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -50734,7 +50734,7 @@
         <v>45166</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -50791,7 +50791,7 @@
         <v>45182</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>

--- a/Översikt RAGUNDA.xlsx
+++ b/Översikt RAGUNDA.xlsx
@@ -572,7 +572,7 @@
         <v>44874</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -699,7 +699,7 @@
         <v>43865</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>44894</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         <v>44917</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
         <v>43865</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1145,7 +1145,7 @@
         <v>44504</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1256,7 +1256,7 @@
         <v>44644</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1362,7 +1362,7 @@
         <v>43866</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1466,7 +1466,7 @@
         <v>44504</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1575,7 +1575,7 @@
         <v>44473</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1678,7 +1678,7 @@
         <v>44088</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1784,7 +1784,7 @@
         <v>44151</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1881,7 +1881,7 @@
         <v>44644</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1983,7 +1983,7 @@
         <v>44838</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2080,7 +2080,7 @@
         <v>43900</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2181,7 +2181,7 @@
         <v>44062</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2282,7 +2282,7 @@
         <v>45104</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2383,7 +2383,7 @@
         <v>43910</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2487,7 +2487,7 @@
         <v>44776</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2591,7 +2591,7 @@
         <v>44645</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2690,7 +2690,7 @@
         <v>44888</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2789,7 +2789,7 @@
         <v>43353</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2887,7 +2887,7 @@
         <v>44504</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2985,7 +2985,7 @@
         <v>45113</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3083,7 +3083,7 @@
         <v>44133</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3180,7 +3180,7 @@
         <v>44644</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3277,7 +3277,7 @@
         <v>44901</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3378,7 +3378,7 @@
         <v>45113</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3475,7 +3475,7 @@
         <v>43411</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3571,7 +3571,7 @@
         <v>43413</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3667,7 +3667,7 @@
         <v>44133</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         <v>44336</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3854,7 +3854,7 @@
         <v>44438</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3950,7 +3950,7 @@
         <v>44662</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4046,7 +4046,7 @@
         <v>44804</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4142,7 +4142,7 @@
         <v>44915</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4242,7 +4242,7 @@
         <v>44953</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4333,7 +4333,7 @@
         <v>44994</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4433,7 +4433,7 @@
         <v>45009</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4524,7 +4524,7 @@
         <v>44209</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4614,7 +4614,7 @@
         <v>44875</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4709,7 +4709,7 @@
         <v>44876</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4804,7 +4804,7 @@
         <v>44911</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4899,7 +4899,7 @@
         <v>44932</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4994,7 +4994,7 @@
         <v>44994</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -5089,7 +5089,7 @@
         <v>45015</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5183,7 +5183,7 @@
         <v>45027</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5282,7 +5282,7 @@
         <v>45070</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5377,7 +5377,7 @@
         <v>44111</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5470,7 +5470,7 @@
         <v>44139</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5559,7 +5559,7 @@
         <v>44645</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5657,7 +5657,7 @@
         <v>44656</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5751,7 +5751,7 @@
         <v>44734</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5845,7 +5845,7 @@
         <v>44865</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5939,7 +5939,7 @@
         <v>44911</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -6033,7 +6033,7 @@
         <v>45054</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -6122,7 +6122,7 @@
         <v>45093</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6215,7 +6215,7 @@
         <v>43977</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6308,7 +6308,7 @@
         <v>44113</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6401,7 +6401,7 @@
         <v>44245</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6494,7 +6494,7 @@
         <v>44334</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6586,7 +6586,7 @@
         <v>44334</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6678,7 +6678,7 @@
         <v>44446</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6771,7 +6771,7 @@
         <v>44610</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6864,7 +6864,7 @@
         <v>44624</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6957,7 +6957,7 @@
         <v>44662</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -7050,7 +7050,7 @@
         <v>44677</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -7142,7 +7142,7 @@
         <v>44696</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -7235,7 +7235,7 @@
         <v>44732</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7332,7 +7332,7 @@
         <v>44911</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7425,7 +7425,7 @@
         <v>45034</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7518,7 +7518,7 @@
         <v>43817</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7609,7 +7609,7 @@
         <v>44111</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7701,7 +7701,7 @@
         <v>44421</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7793,7 +7793,7 @@
         <v>44740</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7880,7 +7880,7 @@
         <v>44855</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7976,7 +7976,7 @@
         <v>44855</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -8068,7 +8068,7 @@
         <v>44875</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -8160,7 +8160,7 @@
         <v>44902</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -8252,7 +8252,7 @@
         <v>44971</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -8344,7 +8344,7 @@
         <v>44987</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8435,7 +8435,7 @@
         <v>44987</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8522,7 +8522,7 @@
         <v>45049</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8614,7 +8614,7 @@
         <v>43329</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8700,7 +8700,7 @@
         <v>43411</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8786,7 +8786,7 @@
         <v>43707</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8876,7 +8876,7 @@
         <v>43948</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8962,7 +8962,7 @@
         <v>44676</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -9053,7 +9053,7 @@
         <v>44680</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -9139,7 +9139,7 @@
         <v>44855</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -9230,7 +9230,7 @@
         <v>44855</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -9321,7 +9321,7 @@
         <v>44860</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9412,7 +9412,7 @@
         <v>44973</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9503,7 +9503,7 @@
         <v>44980</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9589,7 +9589,7 @@
         <v>45005</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9680,7 +9680,7 @@
         <v>45121</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9771,7 +9771,7 @@
         <v>43515</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9856,7 +9856,7 @@
         <v>43619</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9946,7 +9946,7 @@
         <v>43650</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -10031,7 +10031,7 @@
         <v>43784</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -10121,7 +10121,7 @@
         <v>43791</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -10206,7 +10206,7 @@
         <v>43977</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -10296,7 +10296,7 @@
         <v>44012</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -10386,7 +10386,7 @@
         <v>44049</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -10476,7 +10476,7 @@
         <v>44062</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10566,7 +10566,7 @@
         <v>44098</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10656,7 +10656,7 @@
         <v>44119</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -10741,7 +10741,7 @@
         <v>44166</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10826,7 +10826,7 @@
         <v>44319</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10916,7 +10916,7 @@
         <v>44369</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -11001,7 +11001,7 @@
         <v>44462</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -11091,7 +11091,7 @@
         <v>44601</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -11176,7 +11176,7 @@
         <v>44607</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -11266,7 +11266,7 @@
         <v>44705</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -11351,7 +11351,7 @@
         <v>44741</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -11441,7 +11441,7 @@
         <v>44741</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -11526,7 +11526,7 @@
         <v>44830</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -11616,7 +11616,7 @@
         <v>44832</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -11706,7 +11706,7 @@
         <v>44855</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -11796,7 +11796,7 @@
         <v>44860</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -11881,7 +11881,7 @@
         <v>45033</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -11970,7 +11970,7 @@
         <v>45042</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -12055,7 +12055,7 @@
         <v>45044</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -12145,7 +12145,7 @@
         <v>45089</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -12230,7 +12230,7 @@
         <v>45097</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -12320,7 +12320,7 @@
         <v>45120</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -12410,7 +12410,7 @@
         <v>45121</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -12495,7 +12495,7 @@
         <v>45149</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -12585,7 +12585,7 @@
         <v>45153</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -12670,7 +12670,7 @@
         <v>43321</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -12727,7 +12727,7 @@
         <v>43322</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -12789,7 +12789,7 @@
         <v>43326</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -12846,7 +12846,7 @@
         <v>43341</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -12903,7 +12903,7 @@
         <v>43360</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -12960,7 +12960,7 @@
         <v>43395</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -13017,7 +13017,7 @@
         <v>43396</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -13074,7 +13074,7 @@
         <v>43398</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -13131,7 +13131,7 @@
         <v>43398</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -13188,7 +13188,7 @@
         <v>43398</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -13245,7 +13245,7 @@
         <v>43403</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -13307,7 +13307,7 @@
         <v>43403</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -13369,7 +13369,7 @@
         <v>43403</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -13431,7 +13431,7 @@
         <v>43405</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -13493,7 +13493,7 @@
         <v>43406</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -13555,7 +13555,7 @@
         <v>43410</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -13617,7 +13617,7 @@
         <v>43411</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -13674,7 +13674,7 @@
         <v>43411</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -13736,7 +13736,7 @@
         <v>43411</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -13798,7 +13798,7 @@
         <v>43411</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -13860,7 +13860,7 @@
         <v>43411</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -13922,7 +13922,7 @@
         <v>43411</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -13984,7 +13984,7 @@
         <v>43411</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -14041,7 +14041,7 @@
         <v>43413</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -14098,7 +14098,7 @@
         <v>43418</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -14155,7 +14155,7 @@
         <v>43419</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -14212,7 +14212,7 @@
         <v>43423</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -14269,7 +14269,7 @@
         <v>43423</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -14326,7 +14326,7 @@
         <v>43427</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -14383,7 +14383,7 @@
         <v>43427</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -14440,7 +14440,7 @@
         <v>43431</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -14497,7 +14497,7 @@
         <v>43431</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -14559,7 +14559,7 @@
         <v>43431</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -14621,7 +14621,7 @@
         <v>43437</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -14683,7 +14683,7 @@
         <v>43438</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -14740,7 +14740,7 @@
         <v>43440</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -14797,7 +14797,7 @@
         <v>43444</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -14854,7 +14854,7 @@
         <v>43448</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -14911,7 +14911,7 @@
         <v>43461</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -14968,7 +14968,7 @@
         <v>43461</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -15025,7 +15025,7 @@
         <v>43467</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -15082,7 +15082,7 @@
         <v>43467</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -15139,7 +15139,7 @@
         <v>43473</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -15196,7 +15196,7 @@
         <v>43473</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -15253,7 +15253,7 @@
         <v>43474</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -15310,7 +15310,7 @@
         <v>43481</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -15367,7 +15367,7 @@
         <v>43481</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -15424,7 +15424,7 @@
         <v>43483</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -15481,7 +15481,7 @@
         <v>43495</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -15538,7 +15538,7 @@
         <v>43496</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -15600,7 +15600,7 @@
         <v>43509</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -15657,7 +15657,7 @@
         <v>43510</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -15714,7 +15714,7 @@
         <v>43515</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -15771,7 +15771,7 @@
         <v>43530</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -15828,7 +15828,7 @@
         <v>43537</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -15890,7 +15890,7 @@
         <v>43538</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -15947,7 +15947,7 @@
         <v>43542</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -16004,7 +16004,7 @@
         <v>43543</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -16061,7 +16061,7 @@
         <v>43551</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -16118,7 +16118,7 @@
         <v>43551</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -16175,7 +16175,7 @@
         <v>43552</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -16232,7 +16232,7 @@
         <v>43563</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -16289,7 +16289,7 @@
         <v>43565</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -16346,7 +16346,7 @@
         <v>43578</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -16408,7 +16408,7 @@
         <v>43584</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -16465,7 +16465,7 @@
         <v>43589</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -16522,7 +16522,7 @@
         <v>43594</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -16579,7 +16579,7 @@
         <v>43594</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -16641,7 +16641,7 @@
         <v>43622</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -16703,7 +16703,7 @@
         <v>43633</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -16760,7 +16760,7 @@
         <v>43633</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -16817,7 +16817,7 @@
         <v>43640</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -16879,7 +16879,7 @@
         <v>43641</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -16941,7 +16941,7 @@
         <v>43641</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -17003,7 +17003,7 @@
         <v>43643</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -17065,7 +17065,7 @@
         <v>43650</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -17127,7 +17127,7 @@
         <v>43651</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -17184,7 +17184,7 @@
         <v>43654</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -17246,7 +17246,7 @@
         <v>43654</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -17308,7 +17308,7 @@
         <v>43656</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -17370,7 +17370,7 @@
         <v>43669</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -17427,7 +17427,7 @@
         <v>43678</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -17489,7 +17489,7 @@
         <v>43704</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -17551,7 +17551,7 @@
         <v>43704</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -17613,7 +17613,7 @@
         <v>43704</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -17675,7 +17675,7 @@
         <v>43706</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -17732,7 +17732,7 @@
         <v>43706</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -17789,7 +17789,7 @@
         <v>43713</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -17846,7 +17846,7 @@
         <v>43713</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -17903,7 +17903,7 @@
         <v>43728</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -17965,7 +17965,7 @@
         <v>43733</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -18022,7 +18022,7 @@
         <v>43733</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -18079,7 +18079,7 @@
         <v>43735</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -18136,7 +18136,7 @@
         <v>43740</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -18193,7 +18193,7 @@
         <v>43742</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -18250,7 +18250,7 @@
         <v>43746</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -18307,7 +18307,7 @@
         <v>43756</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -18364,7 +18364,7 @@
         <v>43759</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -18421,7 +18421,7 @@
         <v>43760</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -18478,7 +18478,7 @@
         <v>43768</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -18535,7 +18535,7 @@
         <v>43768</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -18597,7 +18597,7 @@
         <v>43770</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -18659,7 +18659,7 @@
         <v>43770</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -18721,7 +18721,7 @@
         <v>43773</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -18778,7 +18778,7 @@
         <v>43773</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -18840,7 +18840,7 @@
         <v>43773</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -18897,7 +18897,7 @@
         <v>43775</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -18954,7 +18954,7 @@
         <v>43777</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -19016,7 +19016,7 @@
         <v>43782</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -19073,7 +19073,7 @@
         <v>43783</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -19130,7 +19130,7 @@
         <v>43788</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -19207,7 +19207,7 @@
         <v>43791</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -19264,7 +19264,7 @@
         <v>43797</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -19321,7 +19321,7 @@
         <v>43797</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -19378,7 +19378,7 @@
         <v>43803</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -19435,7 +19435,7 @@
         <v>43805</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -19492,7 +19492,7 @@
         <v>43812</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -19549,7 +19549,7 @@
         <v>43818</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -19606,7 +19606,7 @@
         <v>43819</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -19663,7 +19663,7 @@
         <v>43833</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -19720,7 +19720,7 @@
         <v>43847</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -19777,7 +19777,7 @@
         <v>43850</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -19834,7 +19834,7 @@
         <v>43861</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -19891,7 +19891,7 @@
         <v>43868</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -19948,7 +19948,7 @@
         <v>43872</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -20005,7 +20005,7 @@
         <v>43873</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -20062,7 +20062,7 @@
         <v>43880</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -20119,7 +20119,7 @@
         <v>43881</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -20181,7 +20181,7 @@
         <v>43882</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -20238,7 +20238,7 @@
         <v>43887</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -20295,7 +20295,7 @@
         <v>43896</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -20377,7 +20377,7 @@
         <v>43900</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -20434,7 +20434,7 @@
         <v>43901</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -20491,7 +20491,7 @@
         <v>43902</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -20553,7 +20553,7 @@
         <v>43907</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -20610,7 +20610,7 @@
         <v>43910</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -20667,7 +20667,7 @@
         <v>43910</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -20724,7 +20724,7 @@
         <v>43913</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -20781,7 +20781,7 @@
         <v>43916</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -20838,7 +20838,7 @@
         <v>43923</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -20895,7 +20895,7 @@
         <v>43943</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -20952,7 +20952,7 @@
         <v>43948</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -21009,7 +21009,7 @@
         <v>43949</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -21071,7 +21071,7 @@
         <v>43951</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -21128,7 +21128,7 @@
         <v>43955</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -21190,7 +21190,7 @@
         <v>43955</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -21252,7 +21252,7 @@
         <v>43955</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -21314,7 +21314,7 @@
         <v>43955</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -21376,7 +21376,7 @@
         <v>43956</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -21438,7 +21438,7 @@
         <v>43957</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -21495,7 +21495,7 @@
         <v>43965</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -21552,7 +21552,7 @@
         <v>43969</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -21614,7 +21614,7 @@
         <v>43971</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -21671,7 +21671,7 @@
         <v>43971</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -21728,7 +21728,7 @@
         <v>43977</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -21790,7 +21790,7 @@
         <v>43979</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -21847,7 +21847,7 @@
         <v>43984</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -21909,7 +21909,7 @@
         <v>43984</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -21971,7 +21971,7 @@
         <v>43986</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -22033,7 +22033,7 @@
         <v>43986</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -22095,7 +22095,7 @@
         <v>43990</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -22157,7 +22157,7 @@
         <v>43992</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -22214,7 +22214,7 @@
         <v>43999</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -22276,7 +22276,7 @@
         <v>44000</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -22333,7 +22333,7 @@
         <v>44004</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -22395,7 +22395,7 @@
         <v>44006</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -22457,7 +22457,7 @@
         <v>44011</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -22519,7 +22519,7 @@
         <v>44013</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -22581,7 +22581,7 @@
         <v>44013</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -22643,7 +22643,7 @@
         <v>44013</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -22705,7 +22705,7 @@
         <v>44019</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -22767,7 +22767,7 @@
         <v>44026</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -22824,7 +22824,7 @@
         <v>44027</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -22886,7 +22886,7 @@
         <v>44029</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -22948,7 +22948,7 @@
         <v>44029</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -23005,7 +23005,7 @@
         <v>44040</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -23062,7 +23062,7 @@
         <v>44041</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -23124,7 +23124,7 @@
         <v>44051</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -23181,7 +23181,7 @@
         <v>44051</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -23238,7 +23238,7 @@
         <v>44055</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -23295,7 +23295,7 @@
         <v>44056</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -23352,7 +23352,7 @@
         <v>44057</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -23409,7 +23409,7 @@
         <v>44057</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -23471,7 +23471,7 @@
         <v>44062</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -23533,7 +23533,7 @@
         <v>44063</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -23595,7 +23595,7 @@
         <v>44067</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -23657,7 +23657,7 @@
         <v>44069</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -23719,7 +23719,7 @@
         <v>44071</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -23781,7 +23781,7 @@
         <v>44074</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -23843,7 +23843,7 @@
         <v>44074</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -23905,7 +23905,7 @@
         <v>44074</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -23967,7 +23967,7 @@
         <v>44075</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -24029,7 +24029,7 @@
         <v>44078</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -24086,7 +24086,7 @@
         <v>44082</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -24148,7 +24148,7 @@
         <v>44084</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -24210,7 +24210,7 @@
         <v>44084</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -24267,7 +24267,7 @@
         <v>44084</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -24324,7 +24324,7 @@
         <v>44090</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -24381,7 +24381,7 @@
         <v>44095</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -24438,7 +24438,7 @@
         <v>44096</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -24500,7 +24500,7 @@
         <v>44096</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -24562,7 +24562,7 @@
         <v>44098</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -24619,7 +24619,7 @@
         <v>44099</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -24681,7 +24681,7 @@
         <v>44103</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -24743,7 +24743,7 @@
         <v>44106</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -24800,7 +24800,7 @@
         <v>44111</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -24857,7 +24857,7 @@
         <v>44111</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -24914,7 +24914,7 @@
         <v>44111</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -24971,7 +24971,7 @@
         <v>44113</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -25033,7 +25033,7 @@
         <v>44124</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -25090,7 +25090,7 @@
         <v>44126</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -25147,7 +25147,7 @@
         <v>44132</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -25209,7 +25209,7 @@
         <v>44134</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -25266,7 +25266,7 @@
         <v>44137</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -25323,7 +25323,7 @@
         <v>44138</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -25380,7 +25380,7 @@
         <v>44140</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -25442,7 +25442,7 @@
         <v>44140</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -25504,7 +25504,7 @@
         <v>44140</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -25566,7 +25566,7 @@
         <v>44140</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -25628,7 +25628,7 @@
         <v>44141</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -25690,7 +25690,7 @@
         <v>44153</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -25747,7 +25747,7 @@
         <v>44153</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -25809,7 +25809,7 @@
         <v>44155</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -25866,7 +25866,7 @@
         <v>44157</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -25923,7 +25923,7 @@
         <v>44159</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -25985,7 +25985,7 @@
         <v>44165</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -26047,7 +26047,7 @@
         <v>44167</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -26109,7 +26109,7 @@
         <v>44168</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -26166,7 +26166,7 @@
         <v>44172</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -26228,7 +26228,7 @@
         <v>44173</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -26285,7 +26285,7 @@
         <v>44174</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -26347,7 +26347,7 @@
         <v>44175</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -26409,7 +26409,7 @@
         <v>44188</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -26471,7 +26471,7 @@
         <v>44194</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -26528,7 +26528,7 @@
         <v>44195</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -26585,7 +26585,7 @@
         <v>44210</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -26642,7 +26642,7 @@
         <v>44214</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -26699,7 +26699,7 @@
         <v>44218</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -26756,7 +26756,7 @@
         <v>44225</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -26813,7 +26813,7 @@
         <v>44228</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -26870,7 +26870,7 @@
         <v>44229</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -26927,7 +26927,7 @@
         <v>44230</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -26989,7 +26989,7 @@
         <v>44231</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -27046,7 +27046,7 @@
         <v>44231</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -27103,7 +27103,7 @@
         <v>44236</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -27160,7 +27160,7 @@
         <v>44239</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -27222,7 +27222,7 @@
         <v>44242</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -27284,7 +27284,7 @@
         <v>44243</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -27341,7 +27341,7 @@
         <v>44245</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -27398,7 +27398,7 @@
         <v>44259</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -27455,7 +27455,7 @@
         <v>44259</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -27512,7 +27512,7 @@
         <v>44273</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -27569,7 +27569,7 @@
         <v>44280</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -27626,7 +27626,7 @@
         <v>44280</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -27683,7 +27683,7 @@
         <v>44281</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -27745,7 +27745,7 @@
         <v>44286</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -27802,7 +27802,7 @@
         <v>44286</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -27859,7 +27859,7 @@
         <v>44287</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -27916,7 +27916,7 @@
         <v>44292</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -27973,7 +27973,7 @@
         <v>44298</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -28030,7 +28030,7 @@
         <v>44299</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -28087,7 +28087,7 @@
         <v>44308</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -28144,7 +28144,7 @@
         <v>44308</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -28201,7 +28201,7 @@
         <v>44308</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -28258,7 +28258,7 @@
         <v>44308</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -28315,7 +28315,7 @@
         <v>44315</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -28377,7 +28377,7 @@
         <v>44322</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -28434,7 +28434,7 @@
         <v>44323</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -28496,7 +28496,7 @@
         <v>44332</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -28558,7 +28558,7 @@
         <v>44336</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -28615,7 +28615,7 @@
         <v>44336</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -28672,7 +28672,7 @@
         <v>44349</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -28729,7 +28729,7 @@
         <v>44351</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -28791,7 +28791,7 @@
         <v>44351</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -28853,7 +28853,7 @@
         <v>44356</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -28910,7 +28910,7 @@
         <v>44357</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -28967,7 +28967,7 @@
         <v>44362</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -29024,7 +29024,7 @@
         <v>44362</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -29081,7 +29081,7 @@
         <v>44368</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -29138,7 +29138,7 @@
         <v>44375</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -29195,7 +29195,7 @@
         <v>44379</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -29252,7 +29252,7 @@
         <v>44384</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -29309,7 +29309,7 @@
         <v>44385</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -29366,7 +29366,7 @@
         <v>44396</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -29423,7 +29423,7 @@
         <v>44405</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -29480,7 +29480,7 @@
         <v>44410</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -29537,7 +29537,7 @@
         <v>44413</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -29594,7 +29594,7 @@
         <v>44424</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -29651,7 +29651,7 @@
         <v>44425</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -29713,7 +29713,7 @@
         <v>44425</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -29775,7 +29775,7 @@
         <v>44425</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -29837,7 +29837,7 @@
         <v>44431</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -29894,7 +29894,7 @@
         <v>44434</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -29951,7 +29951,7 @@
         <v>44441</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -30008,7 +30008,7 @@
         <v>44443</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -30065,7 +30065,7 @@
         <v>44448</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -30122,7 +30122,7 @@
         <v>44452</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -30179,7 +30179,7 @@
         <v>44453</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -30236,7 +30236,7 @@
         <v>44466</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -30298,7 +30298,7 @@
         <v>44475</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -30355,7 +30355,7 @@
         <v>44476</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -30417,7 +30417,7 @@
         <v>44480</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -30474,7 +30474,7 @@
         <v>44495</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -30536,7 +30536,7 @@
         <v>44496</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -30593,7 +30593,7 @@
         <v>44505</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -30655,7 +30655,7 @@
         <v>44505</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -30717,7 +30717,7 @@
         <v>44511</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -30774,7 +30774,7 @@
         <v>44512</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -30831,7 +30831,7 @@
         <v>44517</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -30888,7 +30888,7 @@
         <v>44517</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -30945,7 +30945,7 @@
         <v>44518</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -31002,7 +31002,7 @@
         <v>44518</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -31064,7 +31064,7 @@
         <v>44530</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -31121,7 +31121,7 @@
         <v>44536</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -31178,7 +31178,7 @@
         <v>44537</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -31235,7 +31235,7 @@
         <v>44538</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -31292,7 +31292,7 @@
         <v>44571</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -31349,7 +31349,7 @@
         <v>44573</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -31406,7 +31406,7 @@
         <v>44574</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -31463,7 +31463,7 @@
         <v>44574</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -31520,7 +31520,7 @@
         <v>44578</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -31577,7 +31577,7 @@
         <v>44586</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -31634,7 +31634,7 @@
         <v>44593</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -31691,7 +31691,7 @@
         <v>44595</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -31748,7 +31748,7 @@
         <v>44599</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -31805,7 +31805,7 @@
         <v>44601</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -31862,7 +31862,7 @@
         <v>44601</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -31919,7 +31919,7 @@
         <v>44601</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -31976,7 +31976,7 @@
         <v>44606</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -32033,7 +32033,7 @@
         <v>44609</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -32095,7 +32095,7 @@
         <v>44614</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -32152,7 +32152,7 @@
         <v>44614</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -32209,7 +32209,7 @@
         <v>44614</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -32266,7 +32266,7 @@
         <v>44614</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -32323,7 +32323,7 @@
         <v>44614</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -32380,7 +32380,7 @@
         <v>44615</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -32437,7 +32437,7 @@
         <v>44615</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -32494,7 +32494,7 @@
         <v>44621</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -32551,7 +32551,7 @@
         <v>44627</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -32608,7 +32608,7 @@
         <v>44628</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -32665,7 +32665,7 @@
         <v>44629</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -32722,7 +32722,7 @@
         <v>44635</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -32784,7 +32784,7 @@
         <v>44641</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -32846,7 +32846,7 @@
         <v>44641</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -32908,7 +32908,7 @@
         <v>44644</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -32970,7 +32970,7 @@
         <v>44644</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -33032,7 +33032,7 @@
         <v>44649</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -33094,7 +33094,7 @@
         <v>44650</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -33151,7 +33151,7 @@
         <v>44650</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -33208,7 +33208,7 @@
         <v>44652</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -33270,7 +33270,7 @@
         <v>44655</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -33332,7 +33332,7 @@
         <v>44655</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -33394,7 +33394,7 @@
         <v>44656</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -33456,7 +33456,7 @@
         <v>44656</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -33518,7 +33518,7 @@
         <v>44657</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -33575,7 +33575,7 @@
         <v>44662</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -33637,7 +33637,7 @@
         <v>44663</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -33699,7 +33699,7 @@
         <v>44663</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -33761,7 +33761,7 @@
         <v>44670</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -33823,7 +33823,7 @@
         <v>44670</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -33880,7 +33880,7 @@
         <v>44670</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -33937,7 +33937,7 @@
         <v>44671</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -33994,7 +33994,7 @@
         <v>44671</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -34051,7 +34051,7 @@
         <v>44679</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -34108,7 +34108,7 @@
         <v>44680</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -34165,7 +34165,7 @@
         <v>44685</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -34222,7 +34222,7 @@
         <v>44685</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -34279,7 +34279,7 @@
         <v>44685</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -34341,7 +34341,7 @@
         <v>44686</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -34398,7 +34398,7 @@
         <v>44690</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -34455,7 +34455,7 @@
         <v>44690</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -34517,7 +34517,7 @@
         <v>44690</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -34579,7 +34579,7 @@
         <v>44690</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -34636,7 +34636,7 @@
         <v>44690</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -34698,7 +34698,7 @@
         <v>44690</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -34760,7 +34760,7 @@
         <v>44704</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -34817,7 +34817,7 @@
         <v>44705</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -34874,7 +34874,7 @@
         <v>44706</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -34931,7 +34931,7 @@
         <v>44714</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -34988,7 +34988,7 @@
         <v>44714</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -35050,7 +35050,7 @@
         <v>44714</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -35107,7 +35107,7 @@
         <v>44725</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -35164,7 +35164,7 @@
         <v>44727</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -35226,7 +35226,7 @@
         <v>44732</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -35283,7 +35283,7 @@
         <v>44734</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -35340,7 +35340,7 @@
         <v>44734</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -35402,7 +35402,7 @@
         <v>44741</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -35459,7 +35459,7 @@
         <v>44743</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -35516,7 +35516,7 @@
         <v>44746</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -35573,7 +35573,7 @@
         <v>44746</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -35635,7 +35635,7 @@
         <v>44761</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -35712,7 +35712,7 @@
         <v>44774</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -35769,7 +35769,7 @@
         <v>44774</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -35826,7 +35826,7 @@
         <v>44776</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -35888,7 +35888,7 @@
         <v>44776</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -35950,7 +35950,7 @@
         <v>44777</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -36012,7 +36012,7 @@
         <v>44778</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -36074,7 +36074,7 @@
         <v>44781</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -36131,7 +36131,7 @@
         <v>44782</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -36193,7 +36193,7 @@
         <v>44783</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -36255,7 +36255,7 @@
         <v>44788</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -36312,7 +36312,7 @@
         <v>44788</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -36369,7 +36369,7 @@
         <v>44791</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -36431,7 +36431,7 @@
         <v>44797</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -36493,7 +36493,7 @@
         <v>44798</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -36555,7 +36555,7 @@
         <v>44799</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -36617,7 +36617,7 @@
         <v>44802</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -36674,7 +36674,7 @@
         <v>44802</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -36736,7 +36736,7 @@
         <v>44804</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -36793,7 +36793,7 @@
         <v>44804</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -36855,7 +36855,7 @@
         <v>44805</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -36917,7 +36917,7 @@
         <v>44805</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -36979,7 +36979,7 @@
         <v>44806</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -37036,7 +37036,7 @@
         <v>44812</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -37098,7 +37098,7 @@
         <v>44813</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -37160,7 +37160,7 @@
         <v>44813</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -37222,7 +37222,7 @@
         <v>44815</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -37284,7 +37284,7 @@
         <v>44816</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -37346,7 +37346,7 @@
         <v>44816</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -37408,7 +37408,7 @@
         <v>44817</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -37470,7 +37470,7 @@
         <v>44818</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -37532,7 +37532,7 @@
         <v>44818</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -37589,7 +37589,7 @@
         <v>44820</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -37651,7 +37651,7 @@
         <v>44820</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -37708,7 +37708,7 @@
         <v>44820</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -37770,7 +37770,7 @@
         <v>44820</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -37832,7 +37832,7 @@
         <v>44823</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -37889,7 +37889,7 @@
         <v>44823</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -37946,7 +37946,7 @@
         <v>44825</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -38008,7 +38008,7 @@
         <v>44825</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -38070,7 +38070,7 @@
         <v>44830</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -38132,7 +38132,7 @@
         <v>44831</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -38194,7 +38194,7 @@
         <v>44831</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -38256,7 +38256,7 @@
         <v>44832</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -38318,7 +38318,7 @@
         <v>44832</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -38380,7 +38380,7 @@
         <v>44832</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -38442,7 +38442,7 @@
         <v>44837</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -38504,7 +38504,7 @@
         <v>44837</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -38566,7 +38566,7 @@
         <v>44838</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -38628,7 +38628,7 @@
         <v>44839</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -38685,7 +38685,7 @@
         <v>44839</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -38742,7 +38742,7 @@
         <v>44840</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -38804,7 +38804,7 @@
         <v>44841</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -38861,7 +38861,7 @@
         <v>44844</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -38923,7 +38923,7 @@
         <v>44845</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -38985,7 +38985,7 @@
         <v>44845</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -39047,7 +39047,7 @@
         <v>44845</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -39109,7 +39109,7 @@
         <v>44845</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -39171,7 +39171,7 @@
         <v>44846</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -39233,7 +39233,7 @@
         <v>44846</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -39295,7 +39295,7 @@
         <v>44852</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -39357,7 +39357,7 @@
         <v>44852</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -39419,7 +39419,7 @@
         <v>44852</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -39481,7 +39481,7 @@
         <v>44852</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -39543,7 +39543,7 @@
         <v>44853</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -39605,7 +39605,7 @@
         <v>44854</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -39667,7 +39667,7 @@
         <v>44855</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -39729,7 +39729,7 @@
         <v>44855</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -39791,7 +39791,7 @@
         <v>44855</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -39853,7 +39853,7 @@
         <v>44858</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -39915,7 +39915,7 @@
         <v>44858</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -39977,7 +39977,7 @@
         <v>44860</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -40039,7 +40039,7 @@
         <v>44860</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -40101,7 +40101,7 @@
         <v>44861</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -40163,7 +40163,7 @@
         <v>44861</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -40225,7 +40225,7 @@
         <v>44865</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -40282,7 +40282,7 @@
         <v>44865</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -40339,7 +40339,7 @@
         <v>44866</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -40401,7 +40401,7 @@
         <v>44866</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -40463,7 +40463,7 @@
         <v>44866</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -40525,7 +40525,7 @@
         <v>44867</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -40587,7 +40587,7 @@
         <v>44869</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -40644,7 +40644,7 @@
         <v>44869</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -40701,7 +40701,7 @@
         <v>44869</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -40758,7 +40758,7 @@
         <v>44874</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -40815,7 +40815,7 @@
         <v>44876</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -40877,7 +40877,7 @@
         <v>44879</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -40939,7 +40939,7 @@
         <v>44880</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -41001,7 +41001,7 @@
         <v>44880</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -41063,7 +41063,7 @@
         <v>44881</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -41120,7 +41120,7 @@
         <v>44883</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -41182,7 +41182,7 @@
         <v>44883</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -41244,7 +41244,7 @@
         <v>44886</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -41306,7 +41306,7 @@
         <v>44887</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -41363,7 +41363,7 @@
         <v>44887</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -41420,7 +41420,7 @@
         <v>44887</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -41477,7 +41477,7 @@
         <v>44888</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -41539,7 +41539,7 @@
         <v>44889</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -41601,7 +41601,7 @@
         <v>44889</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -41658,7 +41658,7 @@
         <v>44889</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -41720,7 +41720,7 @@
         <v>44893</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -41777,7 +41777,7 @@
         <v>44894</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -41834,7 +41834,7 @@
         <v>44895</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -41896,7 +41896,7 @@
         <v>44896</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -41953,7 +41953,7 @@
         <v>44897</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -42010,7 +42010,7 @@
         <v>44897</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -42072,7 +42072,7 @@
         <v>44900</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -42134,7 +42134,7 @@
         <v>44901</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -42196,7 +42196,7 @@
         <v>44901</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -42258,7 +42258,7 @@
         <v>44901</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -42320,7 +42320,7 @@
         <v>44903</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -42377,7 +42377,7 @@
         <v>44903</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -42439,7 +42439,7 @@
         <v>44904</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -42501,7 +42501,7 @@
         <v>44909</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -42563,7 +42563,7 @@
         <v>44911</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -42625,7 +42625,7 @@
         <v>44911</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -42687,7 +42687,7 @@
         <v>44913</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -42749,7 +42749,7 @@
         <v>44914</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -42806,7 +42806,7 @@
         <v>44914</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -42868,7 +42868,7 @@
         <v>44915</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -42925,7 +42925,7 @@
         <v>44915</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -42987,7 +42987,7 @@
         <v>44917</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -43049,7 +43049,7 @@
         <v>44917</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -43106,7 +43106,7 @@
         <v>44918</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -43168,7 +43168,7 @@
         <v>44922</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -43225,7 +43225,7 @@
         <v>44927</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -43287,7 +43287,7 @@
         <v>44929</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -43344,7 +43344,7 @@
         <v>44929</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -43401,7 +43401,7 @@
         <v>44929</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -43458,7 +43458,7 @@
         <v>44938</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -43520,7 +43520,7 @@
         <v>44938</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -43582,7 +43582,7 @@
         <v>44939</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -43644,7 +43644,7 @@
         <v>44939</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -43706,7 +43706,7 @@
         <v>44942</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -43763,7 +43763,7 @@
         <v>44942</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -43825,7 +43825,7 @@
         <v>44942</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -43882,7 +43882,7 @@
         <v>44942</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -43944,7 +43944,7 @@
         <v>44944</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -44001,7 +44001,7 @@
         <v>44953</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -44063,7 +44063,7 @@
         <v>44953</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -44125,7 +44125,7 @@
         <v>44956</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -44187,7 +44187,7 @@
         <v>44957</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -44249,7 +44249,7 @@
         <v>44958</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -44306,7 +44306,7 @@
         <v>44958</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -44363,7 +44363,7 @@
         <v>44958</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -44425,7 +44425,7 @@
         <v>44959</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -44482,7 +44482,7 @@
         <v>44963</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -44539,7 +44539,7 @@
         <v>44963</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -44601,7 +44601,7 @@
         <v>44965</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -44663,7 +44663,7 @@
         <v>44966</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -44725,7 +44725,7 @@
         <v>44966</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -44787,7 +44787,7 @@
         <v>44967</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -44849,7 +44849,7 @@
         <v>44971</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -44911,7 +44911,7 @@
         <v>44978</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -44973,7 +44973,7 @@
         <v>44979</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -45030,7 +45030,7 @@
         <v>44979</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -45087,7 +45087,7 @@
         <v>44979</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -45149,7 +45149,7 @@
         <v>44980</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -45206,7 +45206,7 @@
         <v>44984</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -45263,7 +45263,7 @@
         <v>44986</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -45320,7 +45320,7 @@
         <v>44987</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -45382,7 +45382,7 @@
         <v>44991</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -45444,7 +45444,7 @@
         <v>44991</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -45506,7 +45506,7 @@
         <v>44991</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -45568,7 +45568,7 @@
         <v>44991</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -45630,7 +45630,7 @@
         <v>44992</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -45687,7 +45687,7 @@
         <v>44993</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -45749,7 +45749,7 @@
         <v>44993</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -45811,7 +45811,7 @@
         <v>44993</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -45873,7 +45873,7 @@
         <v>44993</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -45930,7 +45930,7 @@
         <v>44995</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -45992,7 +45992,7 @@
         <v>44995</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -46054,7 +46054,7 @@
         <v>44995</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -46116,7 +46116,7 @@
         <v>45000</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -46173,7 +46173,7 @@
         <v>45000</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -46235,7 +46235,7 @@
         <v>45000</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -46297,7 +46297,7 @@
         <v>45000</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -46359,7 +46359,7 @@
         <v>45000</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -46421,7 +46421,7 @@
         <v>45002</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -46478,7 +46478,7 @@
         <v>45006</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -46540,7 +46540,7 @@
         <v>45007</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -46597,7 +46597,7 @@
         <v>45009</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -46654,7 +46654,7 @@
         <v>45009</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -46711,7 +46711,7 @@
         <v>45015</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -46773,7 +46773,7 @@
         <v>45015</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -46835,7 +46835,7 @@
         <v>45015</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -46892,7 +46892,7 @@
         <v>45015</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -46949,7 +46949,7 @@
         <v>45016</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -47006,7 +47006,7 @@
         <v>45016</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -47063,7 +47063,7 @@
         <v>45028</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -47120,7 +47120,7 @@
         <v>45033</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -47177,7 +47177,7 @@
         <v>45034</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -47234,7 +47234,7 @@
         <v>45040</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -47291,7 +47291,7 @@
         <v>45042</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -47348,7 +47348,7 @@
         <v>45044</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -47410,7 +47410,7 @@
         <v>45048</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -47472,7 +47472,7 @@
         <v>45048</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -47534,7 +47534,7 @@
         <v>45049</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -47596,7 +47596,7 @@
         <v>45050</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -47658,7 +47658,7 @@
         <v>45054</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -47720,7 +47720,7 @@
         <v>45056</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -47777,7 +47777,7 @@
         <v>45056</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -47834,7 +47834,7 @@
         <v>45063</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -47891,7 +47891,7 @@
         <v>45063</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -47948,7 +47948,7 @@
         <v>45068</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -48010,7 +48010,7 @@
         <v>45069</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -48067,7 +48067,7 @@
         <v>45070</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -48124,7 +48124,7 @@
         <v>45070</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -48181,7 +48181,7 @@
         <v>45070</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -48243,7 +48243,7 @@
         <v>45071</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -48300,7 +48300,7 @@
         <v>45071</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -48357,7 +48357,7 @@
         <v>45078</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -48414,7 +48414,7 @@
         <v>45078</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -48471,7 +48471,7 @@
         <v>45078</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -48528,7 +48528,7 @@
         <v>45079</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -48590,7 +48590,7 @@
         <v>45084</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -48647,7 +48647,7 @@
         <v>45085</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -48704,7 +48704,7 @@
         <v>45086</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -48761,7 +48761,7 @@
         <v>45086</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -48823,7 +48823,7 @@
         <v>45089</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -48880,7 +48880,7 @@
         <v>45089</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -48937,7 +48937,7 @@
         <v>45089</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -48999,7 +48999,7 @@
         <v>45089</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -49056,7 +49056,7 @@
         <v>45090</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -49113,7 +49113,7 @@
         <v>45091</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -49175,7 +49175,7 @@
         <v>45092</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -49232,7 +49232,7 @@
         <v>45092</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -49289,7 +49289,7 @@
         <v>45092</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -49346,7 +49346,7 @@
         <v>45092</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -49403,7 +49403,7 @@
         <v>45093</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -49460,7 +49460,7 @@
         <v>45093</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -49517,7 +49517,7 @@
         <v>45096</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -49574,7 +49574,7 @@
         <v>45096</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -49631,7 +49631,7 @@
         <v>45098</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -49688,7 +49688,7 @@
         <v>45098</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -49745,7 +49745,7 @@
         <v>45103</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -49802,7 +49802,7 @@
         <v>45103</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -49859,7 +49859,7 @@
         <v>45104</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -49916,7 +49916,7 @@
         <v>45105</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -49978,7 +49978,7 @@
         <v>45107</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -50035,7 +50035,7 @@
         <v>45107</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -50092,7 +50092,7 @@
         <v>45111</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -50149,7 +50149,7 @@
         <v>45112</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -50211,7 +50211,7 @@
         <v>45112</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -50273,7 +50273,7 @@
         <v>45121</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -50330,7 +50330,7 @@
         <v>45138</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -50392,7 +50392,7 @@
         <v>45146</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -50449,7 +50449,7 @@
         <v>45148</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -50506,7 +50506,7 @@
         <v>45148</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -50563,7 +50563,7 @@
         <v>45149</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -50620,7 +50620,7 @@
         <v>45153</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -50677,7 +50677,7 @@
         <v>45153</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -50734,7 +50734,7 @@
         <v>45166</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -50791,7 +50791,7 @@
         <v>45182</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>

--- a/Översikt RAGUNDA.xlsx
+++ b/Översikt RAGUNDA.xlsx
@@ -572,7 +572,7 @@
         <v>44874</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -699,7 +699,7 @@
         <v>43865</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>44894</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         <v>44917</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
         <v>43865</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1145,7 +1145,7 @@
         <v>44504</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1256,7 +1256,7 @@
         <v>44644</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1362,7 +1362,7 @@
         <v>43866</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1466,7 +1466,7 @@
         <v>44504</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1575,7 +1575,7 @@
         <v>44473</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1678,7 +1678,7 @@
         <v>44088</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1784,7 +1784,7 @@
         <v>44151</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1881,7 +1881,7 @@
         <v>44644</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1983,7 +1983,7 @@
         <v>44838</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2080,7 +2080,7 @@
         <v>43900</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2181,7 +2181,7 @@
         <v>44062</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2282,7 +2282,7 @@
         <v>45104</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2383,7 +2383,7 @@
         <v>43910</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2487,7 +2487,7 @@
         <v>44776</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2591,7 +2591,7 @@
         <v>44645</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2690,7 +2690,7 @@
         <v>44888</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2789,7 +2789,7 @@
         <v>43353</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2887,7 +2887,7 @@
         <v>44504</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2985,7 +2985,7 @@
         <v>45113</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3083,7 +3083,7 @@
         <v>44133</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3180,7 +3180,7 @@
         <v>44644</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3277,7 +3277,7 @@
         <v>44901</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3378,7 +3378,7 @@
         <v>45113</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3475,7 +3475,7 @@
         <v>43411</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3571,7 +3571,7 @@
         <v>43413</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3667,7 +3667,7 @@
         <v>44133</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         <v>44336</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3854,7 +3854,7 @@
         <v>44438</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3950,7 +3950,7 @@
         <v>44662</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4046,7 +4046,7 @@
         <v>44804</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4142,7 +4142,7 @@
         <v>44915</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4242,7 +4242,7 @@
         <v>44953</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4333,7 +4333,7 @@
         <v>44994</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4433,7 +4433,7 @@
         <v>45009</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4524,7 +4524,7 @@
         <v>44209</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4614,7 +4614,7 @@
         <v>44875</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4709,7 +4709,7 @@
         <v>44876</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4804,7 +4804,7 @@
         <v>44911</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4899,7 +4899,7 @@
         <v>44932</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4994,7 +4994,7 @@
         <v>44994</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -5089,7 +5089,7 @@
         <v>45015</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5183,7 +5183,7 @@
         <v>45027</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5282,7 +5282,7 @@
         <v>45070</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5377,7 +5377,7 @@
         <v>44111</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5470,7 +5470,7 @@
         <v>44139</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5559,7 +5559,7 @@
         <v>44645</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5657,7 +5657,7 @@
         <v>44656</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5751,7 +5751,7 @@
         <v>44734</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5845,7 +5845,7 @@
         <v>44865</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5939,7 +5939,7 @@
         <v>44911</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -6033,7 +6033,7 @@
         <v>45054</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -6122,7 +6122,7 @@
         <v>45093</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6215,7 +6215,7 @@
         <v>43977</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6308,7 +6308,7 @@
         <v>44113</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6401,7 +6401,7 @@
         <v>44245</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6494,7 +6494,7 @@
         <v>44334</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6586,7 +6586,7 @@
         <v>44334</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6678,7 +6678,7 @@
         <v>44446</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6771,7 +6771,7 @@
         <v>44610</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6864,7 +6864,7 @@
         <v>44624</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6957,7 +6957,7 @@
         <v>44662</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -7050,7 +7050,7 @@
         <v>44677</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -7142,7 +7142,7 @@
         <v>44696</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -7235,7 +7235,7 @@
         <v>44732</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7332,7 +7332,7 @@
         <v>44911</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7425,7 +7425,7 @@
         <v>45034</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7518,7 +7518,7 @@
         <v>43817</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7609,7 +7609,7 @@
         <v>44111</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7701,7 +7701,7 @@
         <v>44421</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7793,7 +7793,7 @@
         <v>44740</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7880,7 +7880,7 @@
         <v>44855</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7976,7 +7976,7 @@
         <v>44855</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -8068,7 +8068,7 @@
         <v>44875</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -8160,7 +8160,7 @@
         <v>44902</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -8252,7 +8252,7 @@
         <v>44971</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -8344,7 +8344,7 @@
         <v>44987</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8435,7 +8435,7 @@
         <v>44987</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8522,7 +8522,7 @@
         <v>45049</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8614,7 +8614,7 @@
         <v>43329</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8700,7 +8700,7 @@
         <v>43411</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8786,7 +8786,7 @@
         <v>43707</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8876,7 +8876,7 @@
         <v>43948</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8962,7 +8962,7 @@
         <v>44676</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -9053,7 +9053,7 @@
         <v>44680</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -9139,7 +9139,7 @@
         <v>44855</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -9230,7 +9230,7 @@
         <v>44855</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -9321,7 +9321,7 @@
         <v>44860</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9412,7 +9412,7 @@
         <v>44973</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9503,7 +9503,7 @@
         <v>44980</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9589,7 +9589,7 @@
         <v>45005</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9680,7 +9680,7 @@
         <v>45121</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9771,7 +9771,7 @@
         <v>43515</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9856,7 +9856,7 @@
         <v>43619</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9946,7 +9946,7 @@
         <v>43650</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -10031,7 +10031,7 @@
         <v>43784</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -10121,7 +10121,7 @@
         <v>43791</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -10206,7 +10206,7 @@
         <v>43977</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -10296,7 +10296,7 @@
         <v>44012</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -10386,7 +10386,7 @@
         <v>44049</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -10476,7 +10476,7 @@
         <v>44062</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10566,7 +10566,7 @@
         <v>44098</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10656,7 +10656,7 @@
         <v>44119</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -10741,7 +10741,7 @@
         <v>44166</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10826,7 +10826,7 @@
         <v>44319</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10916,7 +10916,7 @@
         <v>44369</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -11001,7 +11001,7 @@
         <v>44462</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -11091,7 +11091,7 @@
         <v>44601</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -11176,7 +11176,7 @@
         <v>44607</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -11266,7 +11266,7 @@
         <v>44705</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -11351,7 +11351,7 @@
         <v>44741</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -11441,7 +11441,7 @@
         <v>44741</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -11526,7 +11526,7 @@
         <v>44830</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -11616,7 +11616,7 @@
         <v>44832</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -11706,7 +11706,7 @@
         <v>44855</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -11796,7 +11796,7 @@
         <v>44860</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -11881,7 +11881,7 @@
         <v>45033</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -11970,7 +11970,7 @@
         <v>45042</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -12055,7 +12055,7 @@
         <v>45044</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -12145,7 +12145,7 @@
         <v>45089</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -12230,7 +12230,7 @@
         <v>45097</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -12320,7 +12320,7 @@
         <v>45120</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -12410,7 +12410,7 @@
         <v>45121</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -12495,7 +12495,7 @@
         <v>45149</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -12585,7 +12585,7 @@
         <v>45153</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -12670,7 +12670,7 @@
         <v>43321</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -12727,7 +12727,7 @@
         <v>43322</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -12789,7 +12789,7 @@
         <v>43326</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -12846,7 +12846,7 @@
         <v>43341</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -12903,7 +12903,7 @@
         <v>43360</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -12960,7 +12960,7 @@
         <v>43395</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -13017,7 +13017,7 @@
         <v>43396</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -13074,7 +13074,7 @@
         <v>43398</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -13131,7 +13131,7 @@
         <v>43398</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -13188,7 +13188,7 @@
         <v>43398</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -13245,7 +13245,7 @@
         <v>43403</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -13307,7 +13307,7 @@
         <v>43403</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -13369,7 +13369,7 @@
         <v>43403</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -13431,7 +13431,7 @@
         <v>43405</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -13493,7 +13493,7 @@
         <v>43406</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -13555,7 +13555,7 @@
         <v>43410</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -13617,7 +13617,7 @@
         <v>43411</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -13674,7 +13674,7 @@
         <v>43411</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -13736,7 +13736,7 @@
         <v>43411</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -13798,7 +13798,7 @@
         <v>43411</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -13860,7 +13860,7 @@
         <v>43411</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -13922,7 +13922,7 @@
         <v>43411</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -13984,7 +13984,7 @@
         <v>43411</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -14041,7 +14041,7 @@
         <v>43413</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -14098,7 +14098,7 @@
         <v>43418</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -14155,7 +14155,7 @@
         <v>43419</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -14212,7 +14212,7 @@
         <v>43423</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -14269,7 +14269,7 @@
         <v>43423</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -14326,7 +14326,7 @@
         <v>43427</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -14383,7 +14383,7 @@
         <v>43427</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -14440,7 +14440,7 @@
         <v>43431</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -14497,7 +14497,7 @@
         <v>43431</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -14559,7 +14559,7 @@
         <v>43431</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -14621,7 +14621,7 @@
         <v>43437</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -14683,7 +14683,7 @@
         <v>43438</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -14740,7 +14740,7 @@
         <v>43440</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -14797,7 +14797,7 @@
         <v>43444</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -14854,7 +14854,7 @@
         <v>43448</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -14911,7 +14911,7 @@
         <v>43461</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -14968,7 +14968,7 @@
         <v>43461</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -15025,7 +15025,7 @@
         <v>43467</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -15082,7 +15082,7 @@
         <v>43467</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -15139,7 +15139,7 @@
         <v>43473</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -15196,7 +15196,7 @@
         <v>43473</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -15253,7 +15253,7 @@
         <v>43474</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -15310,7 +15310,7 @@
         <v>43481</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -15367,7 +15367,7 @@
         <v>43481</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -15424,7 +15424,7 @@
         <v>43483</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -15481,7 +15481,7 @@
         <v>43495</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -15538,7 +15538,7 @@
         <v>43496</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -15600,7 +15600,7 @@
         <v>43509</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -15657,7 +15657,7 @@
         <v>43510</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -15714,7 +15714,7 @@
         <v>43515</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -15771,7 +15771,7 @@
         <v>43530</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -15828,7 +15828,7 @@
         <v>43537</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -15890,7 +15890,7 @@
         <v>43538</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -15947,7 +15947,7 @@
         <v>43542</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -16004,7 +16004,7 @@
         <v>43543</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -16061,7 +16061,7 @@
         <v>43551</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -16118,7 +16118,7 @@
         <v>43551</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -16175,7 +16175,7 @@
         <v>43552</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -16232,7 +16232,7 @@
         <v>43563</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -16289,7 +16289,7 @@
         <v>43565</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -16346,7 +16346,7 @@
         <v>43578</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -16408,7 +16408,7 @@
         <v>43584</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -16465,7 +16465,7 @@
         <v>43589</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -16522,7 +16522,7 @@
         <v>43594</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -16579,7 +16579,7 @@
         <v>43594</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -16641,7 +16641,7 @@
         <v>43622</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -16703,7 +16703,7 @@
         <v>43633</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -16760,7 +16760,7 @@
         <v>43633</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -16817,7 +16817,7 @@
         <v>43640</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -16879,7 +16879,7 @@
         <v>43641</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -16941,7 +16941,7 @@
         <v>43641</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -17003,7 +17003,7 @@
         <v>43643</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -17065,7 +17065,7 @@
         <v>43650</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -17127,7 +17127,7 @@
         <v>43651</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -17184,7 +17184,7 @@
         <v>43654</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -17246,7 +17246,7 @@
         <v>43654</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -17308,7 +17308,7 @@
         <v>43656</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -17370,7 +17370,7 @@
         <v>43669</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -17427,7 +17427,7 @@
         <v>43678</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -17489,7 +17489,7 @@
         <v>43704</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -17551,7 +17551,7 @@
         <v>43704</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -17613,7 +17613,7 @@
         <v>43704</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -17675,7 +17675,7 @@
         <v>43706</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -17732,7 +17732,7 @@
         <v>43706</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -17789,7 +17789,7 @@
         <v>43713</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -17846,7 +17846,7 @@
         <v>43713</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -17903,7 +17903,7 @@
         <v>43728</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -17965,7 +17965,7 @@
         <v>43733</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -18022,7 +18022,7 @@
         <v>43733</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -18079,7 +18079,7 @@
         <v>43735</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -18136,7 +18136,7 @@
         <v>43740</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -18193,7 +18193,7 @@
         <v>43742</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -18250,7 +18250,7 @@
         <v>43746</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -18307,7 +18307,7 @@
         <v>43756</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -18364,7 +18364,7 @@
         <v>43759</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -18421,7 +18421,7 @@
         <v>43760</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -18478,7 +18478,7 @@
         <v>43768</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -18535,7 +18535,7 @@
         <v>43768</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -18597,7 +18597,7 @@
         <v>43770</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -18659,7 +18659,7 @@
         <v>43770</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -18721,7 +18721,7 @@
         <v>43773</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -18778,7 +18778,7 @@
         <v>43773</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -18840,7 +18840,7 @@
         <v>43773</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -18897,7 +18897,7 @@
         <v>43775</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -18954,7 +18954,7 @@
         <v>43777</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -19016,7 +19016,7 @@
         <v>43782</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -19073,7 +19073,7 @@
         <v>43783</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -19130,7 +19130,7 @@
         <v>43788</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -19207,7 +19207,7 @@
         <v>43791</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -19264,7 +19264,7 @@
         <v>43797</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -19321,7 +19321,7 @@
         <v>43797</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -19378,7 +19378,7 @@
         <v>43803</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -19435,7 +19435,7 @@
         <v>43805</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -19492,7 +19492,7 @@
         <v>43812</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -19549,7 +19549,7 @@
         <v>43818</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -19606,7 +19606,7 @@
         <v>43819</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -19663,7 +19663,7 @@
         <v>43833</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -19720,7 +19720,7 @@
         <v>43847</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -19777,7 +19777,7 @@
         <v>43850</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -19834,7 +19834,7 @@
         <v>43861</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -19891,7 +19891,7 @@
         <v>43868</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -19948,7 +19948,7 @@
         <v>43872</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -20005,7 +20005,7 @@
         <v>43873</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -20062,7 +20062,7 @@
         <v>43880</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -20119,7 +20119,7 @@
         <v>43881</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -20181,7 +20181,7 @@
         <v>43882</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -20238,7 +20238,7 @@
         <v>43887</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -20295,7 +20295,7 @@
         <v>43896</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -20377,7 +20377,7 @@
         <v>43900</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -20434,7 +20434,7 @@
         <v>43901</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -20491,7 +20491,7 @@
         <v>43902</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -20553,7 +20553,7 @@
         <v>43907</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -20610,7 +20610,7 @@
         <v>43910</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -20667,7 +20667,7 @@
         <v>43910</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -20724,7 +20724,7 @@
         <v>43913</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -20781,7 +20781,7 @@
         <v>43916</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -20838,7 +20838,7 @@
         <v>43923</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -20895,7 +20895,7 @@
         <v>43943</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -20952,7 +20952,7 @@
         <v>43948</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -21009,7 +21009,7 @@
         <v>43949</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -21071,7 +21071,7 @@
         <v>43951</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -21128,7 +21128,7 @@
         <v>43955</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -21190,7 +21190,7 @@
         <v>43955</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -21252,7 +21252,7 @@
         <v>43955</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -21314,7 +21314,7 @@
         <v>43955</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -21376,7 +21376,7 @@
         <v>43956</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -21438,7 +21438,7 @@
         <v>43957</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -21495,7 +21495,7 @@
         <v>43965</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -21552,7 +21552,7 @@
         <v>43969</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -21614,7 +21614,7 @@
         <v>43971</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -21671,7 +21671,7 @@
         <v>43971</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -21728,7 +21728,7 @@
         <v>43977</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -21790,7 +21790,7 @@
         <v>43979</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -21847,7 +21847,7 @@
         <v>43984</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -21909,7 +21909,7 @@
         <v>43984</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -21971,7 +21971,7 @@
         <v>43986</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -22033,7 +22033,7 @@
         <v>43986</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -22095,7 +22095,7 @@
         <v>43990</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -22157,7 +22157,7 @@
         <v>43992</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -22214,7 +22214,7 @@
         <v>43999</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -22276,7 +22276,7 @@
         <v>44000</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -22333,7 +22333,7 @@
         <v>44004</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -22395,7 +22395,7 @@
         <v>44006</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -22457,7 +22457,7 @@
         <v>44011</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -22519,7 +22519,7 @@
         <v>44013</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -22581,7 +22581,7 @@
         <v>44013</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -22643,7 +22643,7 @@
         <v>44013</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -22705,7 +22705,7 @@
         <v>44019</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -22767,7 +22767,7 @@
         <v>44026</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -22824,7 +22824,7 @@
         <v>44027</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -22886,7 +22886,7 @@
         <v>44029</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -22948,7 +22948,7 @@
         <v>44029</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -23005,7 +23005,7 @@
         <v>44040</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -23062,7 +23062,7 @@
         <v>44041</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -23124,7 +23124,7 @@
         <v>44051</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -23181,7 +23181,7 @@
         <v>44051</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -23238,7 +23238,7 @@
         <v>44055</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -23295,7 +23295,7 @@
         <v>44056</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -23352,7 +23352,7 @@
         <v>44057</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -23409,7 +23409,7 @@
         <v>44057</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -23471,7 +23471,7 @@
         <v>44062</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -23533,7 +23533,7 @@
         <v>44063</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -23595,7 +23595,7 @@
         <v>44067</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -23657,7 +23657,7 @@
         <v>44069</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -23719,7 +23719,7 @@
         <v>44071</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -23781,7 +23781,7 @@
         <v>44074</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -23843,7 +23843,7 @@
         <v>44074</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -23905,7 +23905,7 @@
         <v>44074</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -23967,7 +23967,7 @@
         <v>44075</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -24029,7 +24029,7 @@
         <v>44078</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -24086,7 +24086,7 @@
         <v>44082</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -24148,7 +24148,7 @@
         <v>44084</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -24210,7 +24210,7 @@
         <v>44084</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -24267,7 +24267,7 @@
         <v>44084</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -24324,7 +24324,7 @@
         <v>44090</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -24381,7 +24381,7 @@
         <v>44095</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -24438,7 +24438,7 @@
         <v>44096</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -24500,7 +24500,7 @@
         <v>44096</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -24562,7 +24562,7 @@
         <v>44098</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -24619,7 +24619,7 @@
         <v>44099</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -24681,7 +24681,7 @@
         <v>44103</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -24743,7 +24743,7 @@
         <v>44106</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -24800,7 +24800,7 @@
         <v>44111</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -24857,7 +24857,7 @@
         <v>44111</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -24914,7 +24914,7 @@
         <v>44111</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -24971,7 +24971,7 @@
         <v>44113</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -25033,7 +25033,7 @@
         <v>44124</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -25090,7 +25090,7 @@
         <v>44126</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -25147,7 +25147,7 @@
         <v>44132</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -25209,7 +25209,7 @@
         <v>44134</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -25266,7 +25266,7 @@
         <v>44137</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -25323,7 +25323,7 @@
         <v>44138</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -25380,7 +25380,7 @@
         <v>44140</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -25442,7 +25442,7 @@
         <v>44140</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -25504,7 +25504,7 @@
         <v>44140</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -25566,7 +25566,7 @@
         <v>44140</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -25628,7 +25628,7 @@
         <v>44141</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -25690,7 +25690,7 @@
         <v>44153</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -25747,7 +25747,7 @@
         <v>44153</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -25809,7 +25809,7 @@
         <v>44155</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -25866,7 +25866,7 @@
         <v>44157</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -25923,7 +25923,7 @@
         <v>44159</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -25985,7 +25985,7 @@
         <v>44165</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -26047,7 +26047,7 @@
         <v>44167</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -26109,7 +26109,7 @@
         <v>44168</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -26166,7 +26166,7 @@
         <v>44172</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -26228,7 +26228,7 @@
         <v>44173</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -26285,7 +26285,7 @@
         <v>44174</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -26347,7 +26347,7 @@
         <v>44175</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -26409,7 +26409,7 @@
         <v>44188</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -26471,7 +26471,7 @@
         <v>44194</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -26528,7 +26528,7 @@
         <v>44195</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -26585,7 +26585,7 @@
         <v>44210</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -26642,7 +26642,7 @@
         <v>44214</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -26699,7 +26699,7 @@
         <v>44218</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -26756,7 +26756,7 @@
         <v>44225</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -26813,7 +26813,7 @@
         <v>44228</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -26870,7 +26870,7 @@
         <v>44229</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -26927,7 +26927,7 @@
         <v>44230</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -26989,7 +26989,7 @@
         <v>44231</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -27046,7 +27046,7 @@
         <v>44231</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -27103,7 +27103,7 @@
         <v>44236</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -27160,7 +27160,7 @@
         <v>44239</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -27222,7 +27222,7 @@
         <v>44242</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -27284,7 +27284,7 @@
         <v>44243</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -27341,7 +27341,7 @@
         <v>44245</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -27398,7 +27398,7 @@
         <v>44259</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -27455,7 +27455,7 @@
         <v>44259</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -27512,7 +27512,7 @@
         <v>44273</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -27569,7 +27569,7 @@
         <v>44280</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -27626,7 +27626,7 @@
         <v>44280</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -27683,7 +27683,7 @@
         <v>44281</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -27745,7 +27745,7 @@
         <v>44286</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -27802,7 +27802,7 @@
         <v>44286</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -27859,7 +27859,7 @@
         <v>44287</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -27916,7 +27916,7 @@
         <v>44292</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -27973,7 +27973,7 @@
         <v>44298</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -28030,7 +28030,7 @@
         <v>44299</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -28087,7 +28087,7 @@
         <v>44308</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -28144,7 +28144,7 @@
         <v>44308</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -28201,7 +28201,7 @@
         <v>44308</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -28258,7 +28258,7 @@
         <v>44308</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -28315,7 +28315,7 @@
         <v>44315</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -28377,7 +28377,7 @@
         <v>44322</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -28434,7 +28434,7 @@
         <v>44323</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -28496,7 +28496,7 @@
         <v>44332</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -28558,7 +28558,7 @@
         <v>44336</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -28615,7 +28615,7 @@
         <v>44336</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -28672,7 +28672,7 @@
         <v>44349</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -28729,7 +28729,7 @@
         <v>44351</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -28791,7 +28791,7 @@
         <v>44351</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -28853,7 +28853,7 @@
         <v>44356</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -28910,7 +28910,7 @@
         <v>44357</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -28967,7 +28967,7 @@
         <v>44362</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -29024,7 +29024,7 @@
         <v>44362</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -29081,7 +29081,7 @@
         <v>44368</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -29138,7 +29138,7 @@
         <v>44375</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -29195,7 +29195,7 @@
         <v>44379</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -29252,7 +29252,7 @@
         <v>44384</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -29309,7 +29309,7 @@
         <v>44385</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -29366,7 +29366,7 @@
         <v>44396</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -29423,7 +29423,7 @@
         <v>44405</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -29480,7 +29480,7 @@
         <v>44410</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -29537,7 +29537,7 @@
         <v>44413</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -29594,7 +29594,7 @@
         <v>44424</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -29651,7 +29651,7 @@
         <v>44425</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -29713,7 +29713,7 @@
         <v>44425</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -29775,7 +29775,7 @@
         <v>44425</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -29837,7 +29837,7 @@
         <v>44431</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -29894,7 +29894,7 @@
         <v>44434</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -29951,7 +29951,7 @@
         <v>44441</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -30008,7 +30008,7 @@
         <v>44443</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -30065,7 +30065,7 @@
         <v>44448</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -30122,7 +30122,7 @@
         <v>44452</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -30179,7 +30179,7 @@
         <v>44453</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -30236,7 +30236,7 @@
         <v>44466</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -30298,7 +30298,7 @@
         <v>44475</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -30355,7 +30355,7 @@
         <v>44476</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -30417,7 +30417,7 @@
         <v>44480</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -30474,7 +30474,7 @@
         <v>44495</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -30536,7 +30536,7 @@
         <v>44496</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -30593,7 +30593,7 @@
         <v>44505</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -30655,7 +30655,7 @@
         <v>44505</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -30717,7 +30717,7 @@
         <v>44511</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -30774,7 +30774,7 @@
         <v>44512</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -30831,7 +30831,7 @@
         <v>44517</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -30888,7 +30888,7 @@
         <v>44517</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -30945,7 +30945,7 @@
         <v>44518</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -31002,7 +31002,7 @@
         <v>44518</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -31064,7 +31064,7 @@
         <v>44530</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -31121,7 +31121,7 @@
         <v>44536</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -31178,7 +31178,7 @@
         <v>44537</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -31235,7 +31235,7 @@
         <v>44538</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -31292,7 +31292,7 @@
         <v>44571</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -31349,7 +31349,7 @@
         <v>44573</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -31406,7 +31406,7 @@
         <v>44574</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -31463,7 +31463,7 @@
         <v>44574</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -31520,7 +31520,7 @@
         <v>44578</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -31577,7 +31577,7 @@
         <v>44586</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -31634,7 +31634,7 @@
         <v>44593</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -31691,7 +31691,7 @@
         <v>44595</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -31748,7 +31748,7 @@
         <v>44599</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -31805,7 +31805,7 @@
         <v>44601</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -31862,7 +31862,7 @@
         <v>44601</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -31919,7 +31919,7 @@
         <v>44601</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -31976,7 +31976,7 @@
         <v>44606</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -32033,7 +32033,7 @@
         <v>44609</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -32095,7 +32095,7 @@
         <v>44614</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -32152,7 +32152,7 @@
         <v>44614</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -32209,7 +32209,7 @@
         <v>44614</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -32266,7 +32266,7 @@
         <v>44614</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -32323,7 +32323,7 @@
         <v>44614</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -32380,7 +32380,7 @@
         <v>44615</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -32437,7 +32437,7 @@
         <v>44615</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -32494,7 +32494,7 @@
         <v>44621</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -32551,7 +32551,7 @@
         <v>44627</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -32608,7 +32608,7 @@
         <v>44628</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -32665,7 +32665,7 @@
         <v>44629</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -32722,7 +32722,7 @@
         <v>44635</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -32784,7 +32784,7 @@
         <v>44641</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -32846,7 +32846,7 @@
         <v>44641</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -32908,7 +32908,7 @@
         <v>44644</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -32970,7 +32970,7 @@
         <v>44644</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -33032,7 +33032,7 @@
         <v>44649</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -33094,7 +33094,7 @@
         <v>44650</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -33151,7 +33151,7 @@
         <v>44650</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -33208,7 +33208,7 @@
         <v>44652</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -33270,7 +33270,7 @@
         <v>44655</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -33332,7 +33332,7 @@
         <v>44655</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -33394,7 +33394,7 @@
         <v>44656</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -33456,7 +33456,7 @@
         <v>44656</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -33518,7 +33518,7 @@
         <v>44657</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -33575,7 +33575,7 @@
         <v>44662</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -33637,7 +33637,7 @@
         <v>44663</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -33699,7 +33699,7 @@
         <v>44663</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -33761,7 +33761,7 @@
         <v>44670</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -33823,7 +33823,7 @@
         <v>44670</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -33880,7 +33880,7 @@
         <v>44670</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -33937,7 +33937,7 @@
         <v>44671</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -33994,7 +33994,7 @@
         <v>44671</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -34051,7 +34051,7 @@
         <v>44679</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -34108,7 +34108,7 @@
         <v>44680</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -34165,7 +34165,7 @@
         <v>44685</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -34222,7 +34222,7 @@
         <v>44685</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -34279,7 +34279,7 @@
         <v>44685</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -34341,7 +34341,7 @@
         <v>44686</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -34398,7 +34398,7 @@
         <v>44690</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -34455,7 +34455,7 @@
         <v>44690</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -34517,7 +34517,7 @@
         <v>44690</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -34579,7 +34579,7 @@
         <v>44690</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -34636,7 +34636,7 @@
         <v>44690</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -34698,7 +34698,7 @@
         <v>44690</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -34760,7 +34760,7 @@
         <v>44704</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -34817,7 +34817,7 @@
         <v>44705</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -34874,7 +34874,7 @@
         <v>44706</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -34931,7 +34931,7 @@
         <v>44714</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -34988,7 +34988,7 @@
         <v>44714</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -35050,7 +35050,7 @@
         <v>44714</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -35107,7 +35107,7 @@
         <v>44725</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -35164,7 +35164,7 @@
         <v>44727</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -35226,7 +35226,7 @@
         <v>44732</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -35283,7 +35283,7 @@
         <v>44734</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -35340,7 +35340,7 @@
         <v>44734</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -35402,7 +35402,7 @@
         <v>44741</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -35459,7 +35459,7 @@
         <v>44743</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -35516,7 +35516,7 @@
         <v>44746</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -35573,7 +35573,7 @@
         <v>44746</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -35635,7 +35635,7 @@
         <v>44761</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -35712,7 +35712,7 @@
         <v>44774</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -35769,7 +35769,7 @@
         <v>44774</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -35826,7 +35826,7 @@
         <v>44776</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -35888,7 +35888,7 @@
         <v>44776</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -35950,7 +35950,7 @@
         <v>44777</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -36012,7 +36012,7 @@
         <v>44778</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -36074,7 +36074,7 @@
         <v>44781</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -36131,7 +36131,7 @@
         <v>44782</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -36193,7 +36193,7 @@
         <v>44783</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -36255,7 +36255,7 @@
         <v>44788</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -36312,7 +36312,7 @@
         <v>44788</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -36369,7 +36369,7 @@
         <v>44791</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -36431,7 +36431,7 @@
         <v>44797</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -36493,7 +36493,7 @@
         <v>44798</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -36555,7 +36555,7 @@
         <v>44799</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -36617,7 +36617,7 @@
         <v>44802</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -36674,7 +36674,7 @@
         <v>44802</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -36736,7 +36736,7 @@
         <v>44804</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -36793,7 +36793,7 @@
         <v>44804</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -36855,7 +36855,7 @@
         <v>44805</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -36917,7 +36917,7 @@
         <v>44805</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -36979,7 +36979,7 @@
         <v>44806</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -37036,7 +37036,7 @@
         <v>44812</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -37098,7 +37098,7 @@
         <v>44813</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -37160,7 +37160,7 @@
         <v>44813</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -37222,7 +37222,7 @@
         <v>44815</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -37284,7 +37284,7 @@
         <v>44816</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -37346,7 +37346,7 @@
         <v>44816</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -37408,7 +37408,7 @@
         <v>44817</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -37470,7 +37470,7 @@
         <v>44818</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -37532,7 +37532,7 @@
         <v>44818</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -37589,7 +37589,7 @@
         <v>44820</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -37651,7 +37651,7 @@
         <v>44820</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -37708,7 +37708,7 @@
         <v>44820</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -37770,7 +37770,7 @@
         <v>44820</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -37832,7 +37832,7 @@
         <v>44823</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -37889,7 +37889,7 @@
         <v>44823</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -37946,7 +37946,7 @@
         <v>44825</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -38008,7 +38008,7 @@
         <v>44825</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -38070,7 +38070,7 @@
         <v>44830</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -38132,7 +38132,7 @@
         <v>44831</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -38194,7 +38194,7 @@
         <v>44831</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -38256,7 +38256,7 @@
         <v>44832</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -38318,7 +38318,7 @@
         <v>44832</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -38380,7 +38380,7 @@
         <v>44832</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -38442,7 +38442,7 @@
         <v>44837</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -38504,7 +38504,7 @@
         <v>44837</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -38566,7 +38566,7 @@
         <v>44838</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -38628,7 +38628,7 @@
         <v>44839</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -38685,7 +38685,7 @@
         <v>44839</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -38742,7 +38742,7 @@
         <v>44840</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -38804,7 +38804,7 @@
         <v>44841</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -38861,7 +38861,7 @@
         <v>44844</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -38923,7 +38923,7 @@
         <v>44845</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -38985,7 +38985,7 @@
         <v>44845</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -39047,7 +39047,7 @@
         <v>44845</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -39109,7 +39109,7 @@
         <v>44845</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -39171,7 +39171,7 @@
         <v>44846</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -39233,7 +39233,7 @@
         <v>44846</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -39295,7 +39295,7 @@
         <v>44852</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -39357,7 +39357,7 @@
         <v>44852</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -39419,7 +39419,7 @@
         <v>44852</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -39481,7 +39481,7 @@
         <v>44852</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -39543,7 +39543,7 @@
         <v>44853</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -39605,7 +39605,7 @@
         <v>44854</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -39667,7 +39667,7 @@
         <v>44855</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -39729,7 +39729,7 @@
         <v>44855</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -39791,7 +39791,7 @@
         <v>44855</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -39853,7 +39853,7 @@
         <v>44858</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -39915,7 +39915,7 @@
         <v>44858</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -39977,7 +39977,7 @@
         <v>44860</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -40039,7 +40039,7 @@
         <v>44860</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -40101,7 +40101,7 @@
         <v>44861</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -40163,7 +40163,7 @@
         <v>44861</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -40225,7 +40225,7 @@
         <v>44865</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -40282,7 +40282,7 @@
         <v>44865</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -40339,7 +40339,7 @@
         <v>44866</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -40401,7 +40401,7 @@
         <v>44866</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -40463,7 +40463,7 @@
         <v>44866</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -40525,7 +40525,7 @@
         <v>44867</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -40587,7 +40587,7 @@
         <v>44869</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -40644,7 +40644,7 @@
         <v>44869</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -40701,7 +40701,7 @@
         <v>44869</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -40758,7 +40758,7 @@
         <v>44874</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -40815,7 +40815,7 @@
         <v>44876</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -40877,7 +40877,7 @@
         <v>44879</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -40939,7 +40939,7 @@
         <v>44880</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -41001,7 +41001,7 @@
         <v>44880</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -41063,7 +41063,7 @@
         <v>44881</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -41120,7 +41120,7 @@
         <v>44883</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -41182,7 +41182,7 @@
         <v>44883</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -41244,7 +41244,7 @@
         <v>44886</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -41306,7 +41306,7 @@
         <v>44887</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -41363,7 +41363,7 @@
         <v>44887</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -41420,7 +41420,7 @@
         <v>44887</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -41477,7 +41477,7 @@
         <v>44888</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -41539,7 +41539,7 @@
         <v>44889</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -41601,7 +41601,7 @@
         <v>44889</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -41658,7 +41658,7 @@
         <v>44889</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -41720,7 +41720,7 @@
         <v>44893</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -41777,7 +41777,7 @@
         <v>44894</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -41834,7 +41834,7 @@
         <v>44895</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -41896,7 +41896,7 @@
         <v>44896</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -41953,7 +41953,7 @@
         <v>44897</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -42010,7 +42010,7 @@
         <v>44897</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -42072,7 +42072,7 @@
         <v>44900</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -42134,7 +42134,7 @@
         <v>44901</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -42196,7 +42196,7 @@
         <v>44901</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -42258,7 +42258,7 @@
         <v>44901</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -42320,7 +42320,7 @@
         <v>44903</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -42377,7 +42377,7 @@
         <v>44903</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -42439,7 +42439,7 @@
         <v>44904</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -42501,7 +42501,7 @@
         <v>44909</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -42563,7 +42563,7 @@
         <v>44911</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -42625,7 +42625,7 @@
         <v>44911</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -42687,7 +42687,7 @@
         <v>44913</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -42749,7 +42749,7 @@
         <v>44914</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -42806,7 +42806,7 @@
         <v>44914</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -42868,7 +42868,7 @@
         <v>44915</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -42925,7 +42925,7 @@
         <v>44915</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -42987,7 +42987,7 @@
         <v>44917</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -43049,7 +43049,7 @@
         <v>44917</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -43106,7 +43106,7 @@
         <v>44918</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -43168,7 +43168,7 @@
         <v>44922</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -43225,7 +43225,7 @@
         <v>44927</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -43287,7 +43287,7 @@
         <v>44929</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -43344,7 +43344,7 @@
         <v>44929</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -43401,7 +43401,7 @@
         <v>44929</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -43458,7 +43458,7 @@
         <v>44938</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -43520,7 +43520,7 @@
         <v>44938</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -43582,7 +43582,7 @@
         <v>44939</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -43644,7 +43644,7 @@
         <v>44939</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -43706,7 +43706,7 @@
         <v>44942</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -43763,7 +43763,7 @@
         <v>44942</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -43825,7 +43825,7 @@
         <v>44942</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -43882,7 +43882,7 @@
         <v>44942</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -43944,7 +43944,7 @@
         <v>44944</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -44001,7 +44001,7 @@
         <v>44953</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -44063,7 +44063,7 @@
         <v>44953</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -44125,7 +44125,7 @@
         <v>44956</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -44187,7 +44187,7 @@
         <v>44957</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -44249,7 +44249,7 @@
         <v>44958</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -44306,7 +44306,7 @@
         <v>44958</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -44363,7 +44363,7 @@
         <v>44958</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -44425,7 +44425,7 @@
         <v>44959</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -44482,7 +44482,7 @@
         <v>44963</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -44539,7 +44539,7 @@
         <v>44963</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -44601,7 +44601,7 @@
         <v>44965</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -44663,7 +44663,7 @@
         <v>44966</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -44725,7 +44725,7 @@
         <v>44966</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -44787,7 +44787,7 @@
         <v>44967</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -44849,7 +44849,7 @@
         <v>44971</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -44911,7 +44911,7 @@
         <v>44978</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -44973,7 +44973,7 @@
         <v>44979</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -45030,7 +45030,7 @@
         <v>44979</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -45087,7 +45087,7 @@
         <v>44979</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -45149,7 +45149,7 @@
         <v>44980</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -45206,7 +45206,7 @@
         <v>44984</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -45263,7 +45263,7 @@
         <v>44986</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -45320,7 +45320,7 @@
         <v>44987</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -45382,7 +45382,7 @@
         <v>44991</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -45444,7 +45444,7 @@
         <v>44991</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -45506,7 +45506,7 @@
         <v>44991</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -45568,7 +45568,7 @@
         <v>44991</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -45630,7 +45630,7 @@
         <v>44992</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -45687,7 +45687,7 @@
         <v>44993</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -45749,7 +45749,7 @@
         <v>44993</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -45811,7 +45811,7 @@
         <v>44993</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -45873,7 +45873,7 @@
         <v>44993</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -45930,7 +45930,7 @@
         <v>44995</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -45992,7 +45992,7 @@
         <v>44995</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -46054,7 +46054,7 @@
         <v>44995</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -46116,7 +46116,7 @@
         <v>45000</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -46173,7 +46173,7 @@
         <v>45000</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -46235,7 +46235,7 @@
         <v>45000</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -46297,7 +46297,7 @@
         <v>45000</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -46359,7 +46359,7 @@
         <v>45000</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -46421,7 +46421,7 @@
         <v>45002</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -46478,7 +46478,7 @@
         <v>45006</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -46540,7 +46540,7 @@
         <v>45007</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -46597,7 +46597,7 @@
         <v>45009</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -46654,7 +46654,7 @@
         <v>45009</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -46711,7 +46711,7 @@
         <v>45015</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -46773,7 +46773,7 @@
         <v>45015</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -46835,7 +46835,7 @@
         <v>45015</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -46892,7 +46892,7 @@
         <v>45015</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -46949,7 +46949,7 @@
         <v>45016</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -47006,7 +47006,7 @@
         <v>45016</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -47063,7 +47063,7 @@
         <v>45028</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -47120,7 +47120,7 @@
         <v>45033</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -47177,7 +47177,7 @@
         <v>45034</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -47234,7 +47234,7 @@
         <v>45040</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -47291,7 +47291,7 @@
         <v>45042</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -47348,7 +47348,7 @@
         <v>45044</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -47410,7 +47410,7 @@
         <v>45048</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -47472,7 +47472,7 @@
         <v>45048</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -47534,7 +47534,7 @@
         <v>45049</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -47596,7 +47596,7 @@
         <v>45050</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -47658,7 +47658,7 @@
         <v>45054</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -47720,7 +47720,7 @@
         <v>45056</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -47777,7 +47777,7 @@
         <v>45056</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -47834,7 +47834,7 @@
         <v>45063</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -47891,7 +47891,7 @@
         <v>45063</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -47948,7 +47948,7 @@
         <v>45068</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -48010,7 +48010,7 @@
         <v>45069</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -48067,7 +48067,7 @@
         <v>45070</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -48124,7 +48124,7 @@
         <v>45070</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -48181,7 +48181,7 @@
         <v>45070</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -48243,7 +48243,7 @@
         <v>45071</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -48300,7 +48300,7 @@
         <v>45071</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -48357,7 +48357,7 @@
         <v>45078</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -48414,7 +48414,7 @@
         <v>45078</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -48471,7 +48471,7 @@
         <v>45078</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -48528,7 +48528,7 @@
         <v>45079</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -48590,7 +48590,7 @@
         <v>45084</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -48647,7 +48647,7 @@
         <v>45085</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -48704,7 +48704,7 @@
         <v>45086</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -48761,7 +48761,7 @@
         <v>45086</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -48823,7 +48823,7 @@
         <v>45089</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -48880,7 +48880,7 @@
         <v>45089</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -48937,7 +48937,7 @@
         <v>45089</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -48999,7 +48999,7 @@
         <v>45089</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -49056,7 +49056,7 @@
         <v>45090</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -49113,7 +49113,7 @@
         <v>45091</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -49175,7 +49175,7 @@
         <v>45092</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -49232,7 +49232,7 @@
         <v>45092</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -49289,7 +49289,7 @@
         <v>45092</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -49346,7 +49346,7 @@
         <v>45092</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -49403,7 +49403,7 @@
         <v>45093</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -49460,7 +49460,7 @@
         <v>45093</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -49517,7 +49517,7 @@
         <v>45096</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -49574,7 +49574,7 @@
         <v>45096</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -49631,7 +49631,7 @@
         <v>45098</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -49688,7 +49688,7 @@
         <v>45098</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -49745,7 +49745,7 @@
         <v>45103</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -49802,7 +49802,7 @@
         <v>45103</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -49859,7 +49859,7 @@
         <v>45104</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -49916,7 +49916,7 @@
         <v>45105</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -49978,7 +49978,7 @@
         <v>45107</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -50035,7 +50035,7 @@
         <v>45107</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -50092,7 +50092,7 @@
         <v>45111</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -50149,7 +50149,7 @@
         <v>45112</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -50211,7 +50211,7 @@
         <v>45112</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -50273,7 +50273,7 @@
         <v>45121</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -50330,7 +50330,7 @@
         <v>45138</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -50392,7 +50392,7 @@
         <v>45146</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -50449,7 +50449,7 @@
         <v>45148</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -50506,7 +50506,7 @@
         <v>45148</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -50563,7 +50563,7 @@
         <v>45149</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -50620,7 +50620,7 @@
         <v>45153</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -50677,7 +50677,7 @@
         <v>45153</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -50734,7 +50734,7 @@
         <v>45166</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -50791,7 +50791,7 @@
         <v>45182</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>

--- a/Översikt RAGUNDA.xlsx
+++ b/Översikt RAGUNDA.xlsx
@@ -572,7 +572,7 @@
         <v>44874</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -699,7 +699,7 @@
         <v>43865</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>44894</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         <v>44917</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
         <v>43865</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1145,7 +1145,7 @@
         <v>44504</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1256,7 +1256,7 @@
         <v>44644</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1362,7 +1362,7 @@
         <v>43866</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1466,7 +1466,7 @@
         <v>44504</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1575,7 +1575,7 @@
         <v>44838</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1674,7 +1674,7 @@
         <v>44473</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1777,7 +1777,7 @@
         <v>44088</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1883,7 +1883,7 @@
         <v>44151</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1980,7 +1980,7 @@
         <v>44644</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2082,7 +2082,7 @@
         <v>43900</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2183,7 +2183,7 @@
         <v>44062</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2284,7 +2284,7 @@
         <v>45104</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2385,7 +2385,7 @@
         <v>43910</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2489,7 +2489,7 @@
         <v>44776</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2593,7 +2593,7 @@
         <v>44645</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2665,6 +2665,10 @@
         <f>HYPERLINK("https://klasma.github.io/Logging_RAGUNDA/kartor/A 13484-2022.png", "A 13484-2022")</f>
         <v/>
       </c>
+      <c r="U21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_RAGUNDA/knärot/A 13484-2022.png", "A 13484-2022")</f>
+        <v/>
+      </c>
       <c r="V21">
         <f>HYPERLINK("https://klasma.github.io/Logging_RAGUNDA/klagomål/A 13484-2022.docx", "A 13484-2022")</f>
         <v/>
@@ -2692,7 +2696,7 @@
         <v>44888</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2791,7 +2795,7 @@
         <v>43353</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2889,7 +2893,7 @@
         <v>44504</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2987,7 +2991,7 @@
         <v>45113</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3085,7 +3089,7 @@
         <v>44133</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3182,7 +3186,7 @@
         <v>44644</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3279,7 +3283,7 @@
         <v>44901</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3373,14 +3377,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 31197-2023</t>
+          <t>A 10527-2023</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45113</v>
+        <v>44987</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3390,18 +3394,13 @@
       <c r="E29" t="inlineStr">
         <is>
           <t>RAGUNDA</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>SCA</t>
         </is>
       </c>
       <c r="G29" t="n">
         <v>4.6</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>2</v>
@@ -3431,6 +3430,103 @@
         <v>8</v>
       </c>
       <c r="R29" s="2" t="inlineStr">
+        <is>
+          <t>Rynkskinn
+Sprickporing
+Lunglav
+Spillkråka
+Stjärntagging
+Ullticka
+Kransrams
+Vedticka</t>
+        </is>
+      </c>
+      <c r="S29">
+        <f>HYPERLINK("https://klasma.github.io/Logging_RAGUNDA/artfynd/A 10527-2023.xlsx", "A 10527-2023")</f>
+        <v/>
+      </c>
+      <c r="T29">
+        <f>HYPERLINK("https://klasma.github.io/Logging_RAGUNDA/kartor/A 10527-2023.png", "A 10527-2023")</f>
+        <v/>
+      </c>
+      <c r="V29">
+        <f>HYPERLINK("https://klasma.github.io/Logging_RAGUNDA/klagomål/A 10527-2023.docx", "A 10527-2023")</f>
+        <v/>
+      </c>
+      <c r="W29">
+        <f>HYPERLINK("https://klasma.github.io/Logging_RAGUNDA/klagomålsmail/A 10527-2023.docx", "A 10527-2023")</f>
+        <v/>
+      </c>
+      <c r="X29">
+        <f>HYPERLINK("https://klasma.github.io/Logging_RAGUNDA/tillsyn/A 10527-2023.docx", "A 10527-2023")</f>
+        <v/>
+      </c>
+      <c r="Y29">
+        <f>HYPERLINK("https://klasma.github.io/Logging_RAGUNDA/tillsynsmail/A 10527-2023.docx", "A 10527-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" ht="15" customHeight="1">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>A 31197-2023</t>
+        </is>
+      </c>
+      <c r="B30" s="1" t="n">
+        <v>45113</v>
+      </c>
+      <c r="C30" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>JÄMTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>RAGUNDA</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>SCA</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>2</v>
+      </c>
+      <c r="J30" t="n">
+        <v>4</v>
+      </c>
+      <c r="K30" t="n">
+        <v>2</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>6</v>
+      </c>
+      <c r="P30" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>8</v>
+      </c>
+      <c r="R30" s="2" t="inlineStr">
         <is>
           <t>Gräddporing
 Smalfotad taggsvamp
@@ -3442,92 +3538,92 @@
 Skarp dropptaggsvamp</t>
         </is>
       </c>
-      <c r="S29">
+      <c r="S30">
         <f>HYPERLINK("https://klasma.github.io/Logging_RAGUNDA/artfynd/A 31197-2023.xlsx", "A 31197-2023")</f>
         <v/>
       </c>
-      <c r="T29">
+      <c r="T30">
         <f>HYPERLINK("https://klasma.github.io/Logging_RAGUNDA/kartor/A 31197-2023.png", "A 31197-2023")</f>
         <v/>
       </c>
-      <c r="V29">
+      <c r="V30">
         <f>HYPERLINK("https://klasma.github.io/Logging_RAGUNDA/klagomål/A 31197-2023.docx", "A 31197-2023")</f>
         <v/>
       </c>
-      <c r="W29">
+      <c r="W30">
         <f>HYPERLINK("https://klasma.github.io/Logging_RAGUNDA/klagomålsmail/A 31197-2023.docx", "A 31197-2023")</f>
         <v/>
       </c>
-      <c r="X29">
+      <c r="X30">
         <f>HYPERLINK("https://klasma.github.io/Logging_RAGUNDA/tillsyn/A 31197-2023.docx", "A 31197-2023")</f>
         <v/>
       </c>
-      <c r="Y29">
+      <c r="Y30">
         <f>HYPERLINK("https://klasma.github.io/Logging_RAGUNDA/tillsynsmail/A 31197-2023.docx", "A 31197-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="30" ht="15" customHeight="1">
-      <c r="A30" t="inlineStr">
+    <row r="31" ht="15" customHeight="1">
+      <c r="A31" t="inlineStr">
         <is>
           <t>A 59985-2018</t>
         </is>
       </c>
-      <c r="B30" s="1" t="n">
+      <c r="B31" s="1" t="n">
         <v>43411</v>
       </c>
-      <c r="C30" s="1" t="n">
-        <v>45192</v>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>JÄMTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>RAGUNDA</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
+      <c r="C31" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>JÄMTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>RAGUNDA</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
         <is>
           <t>SCA</t>
         </is>
       </c>
-      <c r="G30" t="n">
+      <c r="G31" t="n">
         <v>13.3</v>
       </c>
-      <c r="H30" t="n">
+      <c r="H31" t="n">
         <v>1</v>
       </c>
-      <c r="I30" t="n">
+      <c r="I31" t="n">
         <v>3</v>
       </c>
-      <c r="J30" t="n">
+      <c r="J31" t="n">
         <v>3</v>
       </c>
-      <c r="K30" t="n">
+      <c r="K31" t="n">
         <v>1</v>
       </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
         <v>4</v>
       </c>
-      <c r="P30" t="n">
+      <c r="P31" t="n">
         <v>1</v>
       </c>
-      <c r="Q30" t="n">
+      <c r="Q31" t="n">
         <v>7</v>
       </c>
-      <c r="R30" s="2" t="inlineStr">
+      <c r="R31" s="2" t="inlineStr">
         <is>
           <t>Doftticka
 Lunglav
@@ -3538,92 +3634,92 @@
 Stuplav</t>
         </is>
       </c>
-      <c r="S30">
+      <c r="S31">
         <f>HYPERLINK("https://klasma.github.io/Logging_RAGUNDA/artfynd/A 59985-2018.xlsx", "A 59985-2018")</f>
         <v/>
       </c>
-      <c r="T30">
+      <c r="T31">
         <f>HYPERLINK("https://klasma.github.io/Logging_RAGUNDA/kartor/A 59985-2018.png", "A 59985-2018")</f>
         <v/>
       </c>
-      <c r="V30">
+      <c r="V31">
         <f>HYPERLINK("https://klasma.github.io/Logging_RAGUNDA/klagomål/A 59985-2018.docx", "A 59985-2018")</f>
         <v/>
       </c>
-      <c r="W30">
+      <c r="W31">
         <f>HYPERLINK("https://klasma.github.io/Logging_RAGUNDA/klagomålsmail/A 59985-2018.docx", "A 59985-2018")</f>
         <v/>
       </c>
-      <c r="X30">
+      <c r="X31">
         <f>HYPERLINK("https://klasma.github.io/Logging_RAGUNDA/tillsyn/A 59985-2018.docx", "A 59985-2018")</f>
         <v/>
       </c>
-      <c r="Y30">
+      <c r="Y31">
         <f>HYPERLINK("https://klasma.github.io/Logging_RAGUNDA/tillsynsmail/A 59985-2018.docx", "A 59985-2018")</f>
         <v/>
       </c>
     </row>
-    <row r="31" ht="15" customHeight="1">
-      <c r="A31" t="inlineStr">
+    <row r="32" ht="15" customHeight="1">
+      <c r="A32" t="inlineStr">
         <is>
           <t>A 62637-2018</t>
         </is>
       </c>
-      <c r="B31" s="1" t="n">
+      <c r="B32" s="1" t="n">
         <v>43413</v>
       </c>
-      <c r="C31" s="1" t="n">
-        <v>45192</v>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>JÄMTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>RAGUNDA</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
+      <c r="C32" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>JÄMTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>RAGUNDA</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
         <is>
           <t>SCA</t>
         </is>
       </c>
-      <c r="G31" t="n">
+      <c r="G32" t="n">
         <v>13.3</v>
       </c>
-      <c r="H31" t="n">
+      <c r="H32" t="n">
         <v>1</v>
       </c>
-      <c r="I31" t="n">
+      <c r="I32" t="n">
         <v>3</v>
       </c>
-      <c r="J31" t="n">
+      <c r="J32" t="n">
         <v>3</v>
       </c>
-      <c r="K31" t="n">
+      <c r="K32" t="n">
         <v>1</v>
       </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="n">
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
         <v>4</v>
       </c>
-      <c r="P31" t="n">
+      <c r="P32" t="n">
         <v>1</v>
       </c>
-      <c r="Q31" t="n">
+      <c r="Q32" t="n">
         <v>7</v>
       </c>
-      <c r="R31" s="2" t="inlineStr">
+      <c r="R32" s="2" t="inlineStr">
         <is>
           <t>Doftticka
 Lunglav
@@ -3634,92 +3730,92 @@
 Stuplav</t>
         </is>
       </c>
-      <c r="S31">
+      <c r="S32">
         <f>HYPERLINK("https://klasma.github.io/Logging_RAGUNDA/artfynd/A 62637-2018.xlsx", "A 62637-2018")</f>
         <v/>
       </c>
-      <c r="T31">
+      <c r="T32">
         <f>HYPERLINK("https://klasma.github.io/Logging_RAGUNDA/kartor/A 62637-2018.png", "A 62637-2018")</f>
         <v/>
       </c>
-      <c r="V31">
+      <c r="V32">
         <f>HYPERLINK("https://klasma.github.io/Logging_RAGUNDA/klagomål/A 62637-2018.docx", "A 62637-2018")</f>
         <v/>
       </c>
-      <c r="W31">
+      <c r="W32">
         <f>HYPERLINK("https://klasma.github.io/Logging_RAGUNDA/klagomålsmail/A 62637-2018.docx", "A 62637-2018")</f>
         <v/>
       </c>
-      <c r="X31">
+      <c r="X32">
         <f>HYPERLINK("https://klasma.github.io/Logging_RAGUNDA/tillsyn/A 62637-2018.docx", "A 62637-2018")</f>
         <v/>
       </c>
-      <c r="Y31">
+      <c r="Y32">
         <f>HYPERLINK("https://klasma.github.io/Logging_RAGUNDA/tillsynsmail/A 62637-2018.docx", "A 62637-2018")</f>
         <v/>
       </c>
     </row>
-    <row r="32" ht="15" customHeight="1">
-      <c r="A32" t="inlineStr">
+    <row r="33" ht="15" customHeight="1">
+      <c r="A33" t="inlineStr">
         <is>
           <t>A 56211-2020</t>
         </is>
       </c>
-      <c r="B32" s="1" t="n">
+      <c r="B33" s="1" t="n">
         <v>44133</v>
       </c>
-      <c r="C32" s="1" t="n">
-        <v>45192</v>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>JÄMTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>RAGUNDA</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
+      <c r="C33" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>JÄMTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>RAGUNDA</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
         <is>
           <t>SCA</t>
         </is>
       </c>
-      <c r="G32" t="n">
+      <c r="G33" t="n">
         <v>7.1</v>
       </c>
-      <c r="H32" t="n">
+      <c r="H33" t="n">
         <v>1</v>
       </c>
-      <c r="I32" t="n">
+      <c r="I33" t="n">
         <v>4</v>
       </c>
-      <c r="J32" t="n">
+      <c r="J33" t="n">
         <v>2</v>
       </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
         <v>2</v>
       </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
+      <c r="P33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="n">
         <v>7</v>
       </c>
-      <c r="R32" s="2" t="inlineStr">
+      <c r="R33" s="2" t="inlineStr">
         <is>
           <t>Kolflarnlav
 Lunglav
@@ -3730,87 +3826,87 @@
 Blåsippa</t>
         </is>
       </c>
-      <c r="S32">
+      <c r="S33">
         <f>HYPERLINK("https://klasma.github.io/Logging_RAGUNDA/artfynd/A 56211-2020.xlsx", "A 56211-2020")</f>
         <v/>
       </c>
-      <c r="T32">
+      <c r="T33">
         <f>HYPERLINK("https://klasma.github.io/Logging_RAGUNDA/kartor/A 56211-2020.png", "A 56211-2020")</f>
         <v/>
       </c>
-      <c r="V32">
+      <c r="V33">
         <f>HYPERLINK("https://klasma.github.io/Logging_RAGUNDA/klagomål/A 56211-2020.docx", "A 56211-2020")</f>
         <v/>
       </c>
-      <c r="W32">
+      <c r="W33">
         <f>HYPERLINK("https://klasma.github.io/Logging_RAGUNDA/klagomålsmail/A 56211-2020.docx", "A 56211-2020")</f>
         <v/>
       </c>
-      <c r="X32">
+      <c r="X33">
         <f>HYPERLINK("https://klasma.github.io/Logging_RAGUNDA/tillsyn/A 56211-2020.docx", "A 56211-2020")</f>
         <v/>
       </c>
-      <c r="Y32">
+      <c r="Y33">
         <f>HYPERLINK("https://klasma.github.io/Logging_RAGUNDA/tillsynsmail/A 56211-2020.docx", "A 56211-2020")</f>
         <v/>
       </c>
     </row>
-    <row r="33" ht="15" customHeight="1">
-      <c r="A33" t="inlineStr">
+    <row r="34" ht="15" customHeight="1">
+      <c r="A34" t="inlineStr">
         <is>
           <t>A 24169-2021</t>
         </is>
       </c>
-      <c r="B33" s="1" t="n">
+      <c r="B34" s="1" t="n">
         <v>44336</v>
       </c>
-      <c r="C33" s="1" t="n">
-        <v>45192</v>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>JÄMTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>RAGUNDA</t>
-        </is>
-      </c>
-      <c r="G33" t="n">
+      <c r="C34" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>JÄMTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>RAGUNDA</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
         <v>9.199999999999999</v>
       </c>
-      <c r="H33" t="n">
+      <c r="H34" t="n">
         <v>3</v>
       </c>
-      <c r="I33" t="n">
+      <c r="I34" t="n">
         <v>5</v>
       </c>
-      <c r="J33" t="n">
+      <c r="J34" t="n">
         <v>2</v>
       </c>
-      <c r="K33" t="n">
-        <v>0</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" t="n">
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
         <v>2</v>
       </c>
-      <c r="P33" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q33" t="n">
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
         <v>7</v>
       </c>
-      <c r="R33" s="2" t="inlineStr">
+      <c r="R34" s="2" t="inlineStr">
         <is>
           <t>Lunglav
 Tretåig hackspett
@@ -3821,92 +3917,92 @@
 Ögonpyrola</t>
         </is>
       </c>
-      <c r="S33">
+      <c r="S34">
         <f>HYPERLINK("https://klasma.github.io/Logging_RAGUNDA/artfynd/A 24169-2021.xlsx", "A 24169-2021")</f>
         <v/>
       </c>
-      <c r="T33">
+      <c r="T34">
         <f>HYPERLINK("https://klasma.github.io/Logging_RAGUNDA/kartor/A 24169-2021.png", "A 24169-2021")</f>
         <v/>
       </c>
-      <c r="V33">
+      <c r="V34">
         <f>HYPERLINK("https://klasma.github.io/Logging_RAGUNDA/klagomål/A 24169-2021.docx", "A 24169-2021")</f>
         <v/>
       </c>
-      <c r="W33">
+      <c r="W34">
         <f>HYPERLINK("https://klasma.github.io/Logging_RAGUNDA/klagomålsmail/A 24169-2021.docx", "A 24169-2021")</f>
         <v/>
       </c>
-      <c r="X33">
+      <c r="X34">
         <f>HYPERLINK("https://klasma.github.io/Logging_RAGUNDA/tillsyn/A 24169-2021.docx", "A 24169-2021")</f>
         <v/>
       </c>
-      <c r="Y33">
+      <c r="Y34">
         <f>HYPERLINK("https://klasma.github.io/Logging_RAGUNDA/tillsynsmail/A 24169-2021.docx", "A 24169-2021")</f>
         <v/>
       </c>
     </row>
-    <row r="34" ht="15" customHeight="1">
-      <c r="A34" t="inlineStr">
+    <row r="35" ht="15" customHeight="1">
+      <c r="A35" t="inlineStr">
         <is>
           <t>A 45020-2021</t>
         </is>
       </c>
-      <c r="B34" s="1" t="n">
+      <c r="B35" s="1" t="n">
         <v>44438</v>
       </c>
-      <c r="C34" s="1" t="n">
-        <v>45192</v>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>JÄMTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>RAGUNDA</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
+      <c r="C35" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>JÄMTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>RAGUNDA</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
         <is>
           <t>SCA</t>
         </is>
       </c>
-      <c r="G34" t="n">
+      <c r="G35" t="n">
         <v>3.1</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
         <v>6</v>
       </c>
-      <c r="K34" t="n">
+      <c r="K35" t="n">
         <v>1</v>
       </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
         <v>7</v>
       </c>
-      <c r="P34" t="n">
+      <c r="P35" t="n">
         <v>1</v>
       </c>
-      <c r="Q34" t="n">
+      <c r="Q35" t="n">
         <v>7</v>
       </c>
-      <c r="R34" s="2" t="inlineStr">
+      <c r="R35" s="2" t="inlineStr">
         <is>
           <t>Fläckporing
 Blanksvart spiklav
@@ -3917,92 +4013,92 @@
 Vitplätt</t>
         </is>
       </c>
-      <c r="S34">
+      <c r="S35">
         <f>HYPERLINK("https://klasma.github.io/Logging_RAGUNDA/artfynd/A 45020-2021.xlsx", "A 45020-2021")</f>
         <v/>
       </c>
-      <c r="T34">
+      <c r="T35">
         <f>HYPERLINK("https://klasma.github.io/Logging_RAGUNDA/kartor/A 45020-2021.png", "A 45020-2021")</f>
         <v/>
       </c>
-      <c r="V34">
+      <c r="V35">
         <f>HYPERLINK("https://klasma.github.io/Logging_RAGUNDA/klagomål/A 45020-2021.docx", "A 45020-2021")</f>
         <v/>
       </c>
-      <c r="W34">
+      <c r="W35">
         <f>HYPERLINK("https://klasma.github.io/Logging_RAGUNDA/klagomålsmail/A 45020-2021.docx", "A 45020-2021")</f>
         <v/>
       </c>
-      <c r="X34">
+      <c r="X35">
         <f>HYPERLINK("https://klasma.github.io/Logging_RAGUNDA/tillsyn/A 45020-2021.docx", "A 45020-2021")</f>
         <v/>
       </c>
-      <c r="Y34">
+      <c r="Y35">
         <f>HYPERLINK("https://klasma.github.io/Logging_RAGUNDA/tillsynsmail/A 45020-2021.docx", "A 45020-2021")</f>
         <v/>
       </c>
     </row>
-    <row r="35" ht="15" customHeight="1">
-      <c r="A35" t="inlineStr">
+    <row r="36" ht="15" customHeight="1">
+      <c r="A36" t="inlineStr">
         <is>
           <t>A 15665-2022</t>
         </is>
       </c>
-      <c r="B35" s="1" t="n">
+      <c r="B36" s="1" t="n">
         <v>44662</v>
       </c>
-      <c r="C35" s="1" t="n">
-        <v>45192</v>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>JÄMTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>RAGUNDA</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
+      <c r="C36" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>JÄMTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>RAGUNDA</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
         <is>
           <t>SCA</t>
         </is>
       </c>
-      <c r="G35" t="n">
+      <c r="G36" t="n">
         <v>4.8</v>
       </c>
-      <c r="H35" t="n">
+      <c r="H36" t="n">
         <v>3</v>
       </c>
-      <c r="I35" t="n">
+      <c r="I36" t="n">
         <v>1</v>
       </c>
-      <c r="J35" t="n">
+      <c r="J36" t="n">
         <v>5</v>
       </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
         <v>5</v>
       </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
+      <c r="P36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q36" t="n">
         <v>7</v>
       </c>
-      <c r="R35" s="2" t="inlineStr">
+      <c r="R36" s="2" t="inlineStr">
         <is>
           <t>Garnlav
 Granticka
@@ -4013,92 +4109,92 @@
 Revlummer</t>
         </is>
       </c>
-      <c r="S35">
+      <c r="S36">
         <f>HYPERLINK("https://klasma.github.io/Logging_RAGUNDA/artfynd/A 15665-2022.xlsx", "A 15665-2022")</f>
         <v/>
       </c>
-      <c r="T35">
+      <c r="T36">
         <f>HYPERLINK("https://klasma.github.io/Logging_RAGUNDA/kartor/A 15665-2022.png", "A 15665-2022")</f>
         <v/>
       </c>
-      <c r="V35">
+      <c r="V36">
         <f>HYPERLINK("https://klasma.github.io/Logging_RAGUNDA/klagomål/A 15665-2022.docx", "A 15665-2022")</f>
         <v/>
       </c>
-      <c r="W35">
+      <c r="W36">
         <f>HYPERLINK("https://klasma.github.io/Logging_RAGUNDA/klagomålsmail/A 15665-2022.docx", "A 15665-2022")</f>
         <v/>
       </c>
-      <c r="X35">
+      <c r="X36">
         <f>HYPERLINK("https://klasma.github.io/Logging_RAGUNDA/tillsyn/A 15665-2022.docx", "A 15665-2022")</f>
         <v/>
       </c>
-      <c r="Y35">
+      <c r="Y36">
         <f>HYPERLINK("https://klasma.github.io/Logging_RAGUNDA/tillsynsmail/A 15665-2022.docx", "A 15665-2022")</f>
         <v/>
       </c>
     </row>
-    <row r="36" ht="15" customHeight="1">
-      <c r="A36" t="inlineStr">
+    <row r="37" ht="15" customHeight="1">
+      <c r="A37" t="inlineStr">
         <is>
           <t>A 36693-2022</t>
         </is>
       </c>
-      <c r="B36" s="1" t="n">
+      <c r="B37" s="1" t="n">
         <v>44804</v>
       </c>
-      <c r="C36" s="1" t="n">
-        <v>45192</v>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>JÄMTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>RAGUNDA</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
+      <c r="C37" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>JÄMTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>RAGUNDA</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
         <is>
           <t>SCA</t>
         </is>
       </c>
-      <c r="G36" t="n">
+      <c r="G37" t="n">
         <v>9.1</v>
       </c>
-      <c r="H36" t="n">
+      <c r="H37" t="n">
         <v>2</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="n">
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
         <v>7</v>
       </c>
-      <c r="K36" t="n">
-        <v>0</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0</v>
-      </c>
-      <c r="O36" t="n">
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
         <v>7</v>
       </c>
-      <c r="P36" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q36" t="n">
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
         <v>7</v>
       </c>
-      <c r="R36" s="2" t="inlineStr">
+      <c r="R37" s="2" t="inlineStr">
         <is>
           <t>Garnlav
 Harticka
@@ -4109,92 +4205,92 @@
 Vitgrynig nållav</t>
         </is>
       </c>
-      <c r="S36">
+      <c r="S37">
         <f>HYPERLINK("https://klasma.github.io/Logging_RAGUNDA/artfynd/A 36693-2022.xlsx", "A 36693-2022")</f>
         <v/>
       </c>
-      <c r="T36">
+      <c r="T37">
         <f>HYPERLINK("https://klasma.github.io/Logging_RAGUNDA/kartor/A 36693-2022.png", "A 36693-2022")</f>
         <v/>
       </c>
-      <c r="V36">
+      <c r="V37">
         <f>HYPERLINK("https://klasma.github.io/Logging_RAGUNDA/klagomål/A 36693-2022.docx", "A 36693-2022")</f>
         <v/>
       </c>
-      <c r="W36">
+      <c r="W37">
         <f>HYPERLINK("https://klasma.github.io/Logging_RAGUNDA/klagomålsmail/A 36693-2022.docx", "A 36693-2022")</f>
         <v/>
       </c>
-      <c r="X36">
+      <c r="X37">
         <f>HYPERLINK("https://klasma.github.io/Logging_RAGUNDA/tillsyn/A 36693-2022.docx", "A 36693-2022")</f>
         <v/>
       </c>
-      <c r="Y36">
+      <c r="Y37">
         <f>HYPERLINK("https://klasma.github.io/Logging_RAGUNDA/tillsynsmail/A 36693-2022.docx", "A 36693-2022")</f>
         <v/>
       </c>
     </row>
-    <row r="37" ht="15" customHeight="1">
-      <c r="A37" t="inlineStr">
+    <row r="38" ht="15" customHeight="1">
+      <c r="A38" t="inlineStr">
         <is>
           <t>A 61386-2022</t>
         </is>
       </c>
-      <c r="B37" s="1" t="n">
+      <c r="B38" s="1" t="n">
         <v>44915</v>
       </c>
-      <c r="C37" s="1" t="n">
-        <v>45192</v>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>JÄMTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>RAGUNDA</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
+      <c r="C38" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>JÄMTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>RAGUNDA</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
         <is>
           <t>Övriga Aktiebolag</t>
         </is>
       </c>
-      <c r="G37" t="n">
+      <c r="G38" t="n">
         <v>19.7</v>
       </c>
-      <c r="H37" t="n">
+      <c r="H38" t="n">
         <v>1</v>
       </c>
-      <c r="I37" t="n">
+      <c r="I38" t="n">
         <v>2</v>
       </c>
-      <c r="J37" t="n">
+      <c r="J38" t="n">
         <v>3</v>
       </c>
-      <c r="K37" t="n">
+      <c r="K38" t="n">
         <v>2</v>
       </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
         <v>5</v>
       </c>
-      <c r="P37" t="n">
+      <c r="P38" t="n">
         <v>2</v>
       </c>
-      <c r="Q37" t="n">
+      <c r="Q38" t="n">
         <v>7</v>
       </c>
-      <c r="R37" s="2" t="inlineStr">
+      <c r="R38" s="2" t="inlineStr">
         <is>
           <t>Knärot
 Rynkskinn
@@ -4205,91 +4301,91 @@
 Vanlig flatbagge</t>
         </is>
       </c>
-      <c r="S37">
+      <c r="S38">
         <f>HYPERLINK("https://klasma.github.io/Logging_RAGUNDA/artfynd/A 61386-2022.xlsx", "A 61386-2022")</f>
         <v/>
       </c>
-      <c r="T37">
+      <c r="T38">
         <f>HYPERLINK("https://klasma.github.io/Logging_RAGUNDA/kartor/A 61386-2022.png", "A 61386-2022")</f>
         <v/>
       </c>
-      <c r="U37">
+      <c r="U38">
         <f>HYPERLINK("https://klasma.github.io/Logging_RAGUNDA/knärot/A 61386-2022.png", "A 61386-2022")</f>
         <v/>
       </c>
-      <c r="V37">
+      <c r="V38">
         <f>HYPERLINK("https://klasma.github.io/Logging_RAGUNDA/klagomål/A 61386-2022.docx", "A 61386-2022")</f>
         <v/>
       </c>
-      <c r="W37">
+      <c r="W38">
         <f>HYPERLINK("https://klasma.github.io/Logging_RAGUNDA/klagomålsmail/A 61386-2022.docx", "A 61386-2022")</f>
         <v/>
       </c>
-      <c r="X37">
+      <c r="X38">
         <f>HYPERLINK("https://klasma.github.io/Logging_RAGUNDA/tillsyn/A 61386-2022.docx", "A 61386-2022")</f>
         <v/>
       </c>
-      <c r="Y37">
+      <c r="Y38">
         <f>HYPERLINK("https://klasma.github.io/Logging_RAGUNDA/tillsynsmail/A 61386-2022.docx", "A 61386-2022")</f>
         <v/>
       </c>
     </row>
-    <row r="38" ht="15" customHeight="1">
-      <c r="A38" t="inlineStr">
+    <row r="39" ht="15" customHeight="1">
+      <c r="A39" t="inlineStr">
         <is>
           <t>A 4340-2023</t>
         </is>
       </c>
-      <c r="B38" s="1" t="n">
+      <c r="B39" s="1" t="n">
         <v>44953</v>
       </c>
-      <c r="C38" s="1" t="n">
-        <v>45192</v>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>JÄMTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>RAGUNDA</t>
-        </is>
-      </c>
-      <c r="G38" t="n">
+      <c r="C39" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>JÄMTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>RAGUNDA</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
         <v>13.2</v>
       </c>
-      <c r="H38" t="n">
+      <c r="H39" t="n">
         <v>2</v>
       </c>
-      <c r="I38" t="n">
+      <c r="I39" t="n">
         <v>4</v>
       </c>
-      <c r="J38" t="n">
+      <c r="J39" t="n">
         <v>2</v>
       </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
         <v>2</v>
       </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
+      <c r="P39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q39" t="n">
         <v>7</v>
       </c>
-      <c r="R38" s="2" t="inlineStr">
+      <c r="R39" s="2" t="inlineStr">
         <is>
           <t>Garnlav
 Vitgrynig nållav
@@ -4300,92 +4396,92 @@
 Revlummer</t>
         </is>
       </c>
-      <c r="S38">
+      <c r="S39">
         <f>HYPERLINK("https://klasma.github.io/Logging_RAGUNDA/artfynd/A 4340-2023.xlsx", "A 4340-2023")</f>
         <v/>
       </c>
-      <c r="T38">
+      <c r="T39">
         <f>HYPERLINK("https://klasma.github.io/Logging_RAGUNDA/kartor/A 4340-2023.png", "A 4340-2023")</f>
         <v/>
       </c>
-      <c r="V38">
+      <c r="V39">
         <f>HYPERLINK("https://klasma.github.io/Logging_RAGUNDA/klagomål/A 4340-2023.docx", "A 4340-2023")</f>
         <v/>
       </c>
-      <c r="W38">
+      <c r="W39">
         <f>HYPERLINK("https://klasma.github.io/Logging_RAGUNDA/klagomålsmail/A 4340-2023.docx", "A 4340-2023")</f>
         <v/>
       </c>
-      <c r="X38">
+      <c r="X39">
         <f>HYPERLINK("https://klasma.github.io/Logging_RAGUNDA/tillsyn/A 4340-2023.docx", "A 4340-2023")</f>
         <v/>
       </c>
-      <c r="Y38">
+      <c r="Y39">
         <f>HYPERLINK("https://klasma.github.io/Logging_RAGUNDA/tillsynsmail/A 4340-2023.docx", "A 4340-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="39" ht="15" customHeight="1">
-      <c r="A39" t="inlineStr">
+    <row r="40" ht="15" customHeight="1">
+      <c r="A40" t="inlineStr">
         <is>
           <t>A 11829-2023</t>
         </is>
       </c>
-      <c r="B39" s="1" t="n">
+      <c r="B40" s="1" t="n">
         <v>44994</v>
       </c>
-      <c r="C39" s="1" t="n">
-        <v>45192</v>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>JÄMTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>RAGUNDA</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
+      <c r="C40" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>JÄMTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>RAGUNDA</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
         <is>
           <t>SCA</t>
         </is>
       </c>
-      <c r="G39" t="n">
+      <c r="G40" t="n">
         <v>1.8</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
         <v>1</v>
       </c>
-      <c r="J39" t="n">
+      <c r="J40" t="n">
         <v>6</v>
       </c>
-      <c r="K39" t="n">
-        <v>0</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" t="n">
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
         <v>6</v>
       </c>
-      <c r="P39" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q39" t="n">
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
         <v>7</v>
       </c>
-      <c r="R39" s="2" t="inlineStr">
+      <c r="R40" s="2" t="inlineStr">
         <is>
           <t>Garnlav
 Kolflarnlav
@@ -4396,91 +4492,91 @@
 Vedticka</t>
         </is>
       </c>
-      <c r="S39">
+      <c r="S40">
         <f>HYPERLINK("https://klasma.github.io/Logging_RAGUNDA/artfynd/A 11829-2023.xlsx", "A 11829-2023")</f>
         <v/>
       </c>
-      <c r="T39">
+      <c r="T40">
         <f>HYPERLINK("https://klasma.github.io/Logging_RAGUNDA/kartor/A 11829-2023.png", "A 11829-2023")</f>
         <v/>
       </c>
-      <c r="U39">
+      <c r="U40">
         <f>HYPERLINK("https://klasma.github.io/Logging_RAGUNDA/knärot/A 11829-2023.png", "A 11829-2023")</f>
         <v/>
       </c>
-      <c r="V39">
+      <c r="V40">
         <f>HYPERLINK("https://klasma.github.io/Logging_RAGUNDA/klagomål/A 11829-2023.docx", "A 11829-2023")</f>
         <v/>
       </c>
-      <c r="W39">
+      <c r="W40">
         <f>HYPERLINK("https://klasma.github.io/Logging_RAGUNDA/klagomålsmail/A 11829-2023.docx", "A 11829-2023")</f>
         <v/>
       </c>
-      <c r="X39">
+      <c r="X40">
         <f>HYPERLINK("https://klasma.github.io/Logging_RAGUNDA/tillsyn/A 11829-2023.docx", "A 11829-2023")</f>
         <v/>
       </c>
-      <c r="Y39">
+      <c r="Y40">
         <f>HYPERLINK("https://klasma.github.io/Logging_RAGUNDA/tillsynsmail/A 11829-2023.docx", "A 11829-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="40" ht="15" customHeight="1">
-      <c r="A40" t="inlineStr">
+    <row r="41" ht="15" customHeight="1">
+      <c r="A41" t="inlineStr">
         <is>
           <t>A 14188-2023</t>
         </is>
       </c>
-      <c r="B40" s="1" t="n">
+      <c r="B41" s="1" t="n">
         <v>45009</v>
       </c>
-      <c r="C40" s="1" t="n">
-        <v>45192</v>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>JÄMTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>RAGUNDA</t>
-        </is>
-      </c>
-      <c r="G40" t="n">
+      <c r="C41" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>JÄMTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>RAGUNDA</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
         <v>7.5</v>
       </c>
-      <c r="H40" t="n">
+      <c r="H41" t="n">
         <v>1</v>
       </c>
-      <c r="I40" t="n">
+      <c r="I41" t="n">
         <v>1</v>
       </c>
-      <c r="J40" t="n">
+      <c r="J41" t="n">
         <v>5</v>
       </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
         <v>5</v>
       </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
         <v>7</v>
       </c>
-      <c r="R40" s="2" t="inlineStr">
+      <c r="R41" s="2" t="inlineStr">
         <is>
           <t>Garnlav
 Kolflarnlav
@@ -4491,87 +4587,87 @@
 Nattviol</t>
         </is>
       </c>
-      <c r="S40">
+      <c r="S41">
         <f>HYPERLINK("https://klasma.github.io/Logging_RAGUNDA/artfynd/A 14188-2023.xlsx", "A 14188-2023")</f>
         <v/>
       </c>
-      <c r="T40">
+      <c r="T41">
         <f>HYPERLINK("https://klasma.github.io/Logging_RAGUNDA/kartor/A 14188-2023.png", "A 14188-2023")</f>
         <v/>
       </c>
-      <c r="V40">
+      <c r="V41">
         <f>HYPERLINK("https://klasma.github.io/Logging_RAGUNDA/klagomål/A 14188-2023.docx", "A 14188-2023")</f>
         <v/>
       </c>
-      <c r="W40">
+      <c r="W41">
         <f>HYPERLINK("https://klasma.github.io/Logging_RAGUNDA/klagomålsmail/A 14188-2023.docx", "A 14188-2023")</f>
         <v/>
       </c>
-      <c r="X40">
+      <c r="X41">
         <f>HYPERLINK("https://klasma.github.io/Logging_RAGUNDA/tillsyn/A 14188-2023.docx", "A 14188-2023")</f>
         <v/>
       </c>
-      <c r="Y40">
+      <c r="Y41">
         <f>HYPERLINK("https://klasma.github.io/Logging_RAGUNDA/tillsynsmail/A 14188-2023.docx", "A 14188-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="41" ht="15" customHeight="1">
-      <c r="A41" t="inlineStr">
+    <row r="42" ht="15" customHeight="1">
+      <c r="A42" t="inlineStr">
         <is>
           <t>A 1762-2021</t>
         </is>
       </c>
-      <c r="B41" s="1" t="n">
+      <c r="B42" s="1" t="n">
         <v>44209</v>
       </c>
-      <c r="C41" s="1" t="n">
-        <v>45192</v>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>JÄMTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>RAGUNDA</t>
-        </is>
-      </c>
-      <c r="G41" t="n">
+      <c r="C42" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>JÄMTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>RAGUNDA</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
         <v>1</v>
       </c>
-      <c r="H41" t="n">
+      <c r="H42" t="n">
         <v>2</v>
       </c>
-      <c r="I41" t="n">
+      <c r="I42" t="n">
         <v>4</v>
       </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q42" t="n">
         <v>6</v>
       </c>
-      <c r="R41" s="2" t="inlineStr">
+      <c r="R42" s="2" t="inlineStr">
         <is>
           <t>Aspvedgnagare
 Strutbräken
@@ -4581,92 +4677,92 @@
 Revlummer</t>
         </is>
       </c>
-      <c r="S41">
+      <c r="S42">
         <f>HYPERLINK("https://klasma.github.io/Logging_RAGUNDA/artfynd/A 1762-2021.xlsx", "A 1762-2021")</f>
         <v/>
       </c>
-      <c r="T41">
+      <c r="T42">
         <f>HYPERLINK("https://klasma.github.io/Logging_RAGUNDA/kartor/A 1762-2021.png", "A 1762-2021")</f>
         <v/>
       </c>
-      <c r="V41">
+      <c r="V42">
         <f>HYPERLINK("https://klasma.github.io/Logging_RAGUNDA/klagomål/A 1762-2021.docx", "A 1762-2021")</f>
         <v/>
       </c>
-      <c r="W41">
+      <c r="W42">
         <f>HYPERLINK("https://klasma.github.io/Logging_RAGUNDA/klagomålsmail/A 1762-2021.docx", "A 1762-2021")</f>
         <v/>
       </c>
-      <c r="X41">
+      <c r="X42">
         <f>HYPERLINK("https://klasma.github.io/Logging_RAGUNDA/tillsyn/A 1762-2021.docx", "A 1762-2021")</f>
         <v/>
       </c>
-      <c r="Y41">
+      <c r="Y42">
         <f>HYPERLINK("https://klasma.github.io/Logging_RAGUNDA/tillsynsmail/A 1762-2021.docx", "A 1762-2021")</f>
         <v/>
       </c>
     </row>
-    <row r="42" ht="15" customHeight="1">
-      <c r="A42" t="inlineStr">
+    <row r="43" ht="15" customHeight="1">
+      <c r="A43" t="inlineStr">
         <is>
           <t>A 53021-2022</t>
         </is>
       </c>
-      <c r="B42" s="1" t="n">
+      <c r="B43" s="1" t="n">
         <v>44875</v>
       </c>
-      <c r="C42" s="1" t="n">
-        <v>45192</v>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>JÄMTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>RAGUNDA</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
+      <c r="C43" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>JÄMTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>RAGUNDA</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
         <is>
           <t>SCA</t>
         </is>
       </c>
-      <c r="G42" t="n">
+      <c r="G43" t="n">
         <v>6.1</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
         <v>2</v>
       </c>
-      <c r="J42" t="n">
+      <c r="J43" t="n">
         <v>4</v>
       </c>
-      <c r="K42" t="n">
-        <v>0</v>
-      </c>
-      <c r="L42" t="n">
-        <v>0</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="n">
-        <v>0</v>
-      </c>
-      <c r="O42" t="n">
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
         <v>4</v>
       </c>
-      <c r="P42" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q42" t="n">
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
         <v>6</v>
       </c>
-      <c r="R42" s="2" t="inlineStr">
+      <c r="R43" s="2" t="inlineStr">
         <is>
           <t>Gammelgransskål
 Garnlav
@@ -4676,92 +4772,92 @@
 Ögonpyrola</t>
         </is>
       </c>
-      <c r="S42">
+      <c r="S43">
         <f>HYPERLINK("https://klasma.github.io/Logging_RAGUNDA/artfynd/A 53021-2022.xlsx", "A 53021-2022")</f>
         <v/>
       </c>
-      <c r="T42">
+      <c r="T43">
         <f>HYPERLINK("https://klasma.github.io/Logging_RAGUNDA/kartor/A 53021-2022.png", "A 53021-2022")</f>
         <v/>
       </c>
-      <c r="V42">
+      <c r="V43">
         <f>HYPERLINK("https://klasma.github.io/Logging_RAGUNDA/klagomål/A 53021-2022.docx", "A 53021-2022")</f>
         <v/>
       </c>
-      <c r="W42">
+      <c r="W43">
         <f>HYPERLINK("https://klasma.github.io/Logging_RAGUNDA/klagomålsmail/A 53021-2022.docx", "A 53021-2022")</f>
         <v/>
       </c>
-      <c r="X42">
+      <c r="X43">
         <f>HYPERLINK("https://klasma.github.io/Logging_RAGUNDA/tillsyn/A 53021-2022.docx", "A 53021-2022")</f>
         <v/>
       </c>
-      <c r="Y42">
+      <c r="Y43">
         <f>HYPERLINK("https://klasma.github.io/Logging_RAGUNDA/tillsynsmail/A 53021-2022.docx", "A 53021-2022")</f>
         <v/>
       </c>
     </row>
-    <row r="43" ht="15" customHeight="1">
-      <c r="A43" t="inlineStr">
+    <row r="44" ht="15" customHeight="1">
+      <c r="A44" t="inlineStr">
         <is>
           <t>A 53277-2022</t>
         </is>
       </c>
-      <c r="B43" s="1" t="n">
+      <c r="B44" s="1" t="n">
         <v>44876</v>
       </c>
-      <c r="C43" s="1" t="n">
-        <v>45192</v>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>JÄMTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>RAGUNDA</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
+      <c r="C44" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>JÄMTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>RAGUNDA</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
         <is>
           <t>SCA</t>
         </is>
       </c>
-      <c r="G43" t="n">
+      <c r="G44" t="n">
         <v>2.5</v>
       </c>
-      <c r="H43" t="n">
+      <c r="H44" t="n">
         <v>1</v>
       </c>
-      <c r="I43" t="n">
+      <c r="I44" t="n">
         <v>3</v>
       </c>
-      <c r="J43" t="n">
+      <c r="J44" t="n">
         <v>3</v>
       </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
         <v>3</v>
       </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
         <v>6</v>
       </c>
-      <c r="R43" s="2" t="inlineStr">
+      <c r="R44" s="2" t="inlineStr">
         <is>
           <t>Garnlav
 Kolflarnlav
@@ -4771,92 +4867,92 @@
 Vedticka</t>
         </is>
       </c>
-      <c r="S43">
+      <c r="S44">
         <f>HYPERLINK("https://klasma.github.io/Logging_RAGUNDA/artfynd/A 53277-2022.xlsx", "A 53277-2022")</f>
         <v/>
       </c>
-      <c r="T43">
+      <c r="T44">
         <f>HYPERLINK("https://klasma.github.io/Logging_RAGUNDA/kartor/A 53277-2022.png", "A 53277-2022")</f>
         <v/>
       </c>
-      <c r="V43">
+      <c r="V44">
         <f>HYPERLINK("https://klasma.github.io/Logging_RAGUNDA/klagomål/A 53277-2022.docx", "A 53277-2022")</f>
         <v/>
       </c>
-      <c r="W43">
+      <c r="W44">
         <f>HYPERLINK("https://klasma.github.io/Logging_RAGUNDA/klagomålsmail/A 53277-2022.docx", "A 53277-2022")</f>
         <v/>
       </c>
-      <c r="X43">
+      <c r="X44">
         <f>HYPERLINK("https://klasma.github.io/Logging_RAGUNDA/tillsyn/A 53277-2022.docx", "A 53277-2022")</f>
         <v/>
       </c>
-      <c r="Y43">
+      <c r="Y44">
         <f>HYPERLINK("https://klasma.github.io/Logging_RAGUNDA/tillsynsmail/A 53277-2022.docx", "A 53277-2022")</f>
         <v/>
       </c>
     </row>
-    <row r="44" ht="15" customHeight="1">
-      <c r="A44" t="inlineStr">
+    <row r="45" ht="15" customHeight="1">
+      <c r="A45" t="inlineStr">
         <is>
           <t>A 60669-2022</t>
         </is>
       </c>
-      <c r="B44" s="1" t="n">
+      <c r="B45" s="1" t="n">
         <v>44911</v>
       </c>
-      <c r="C44" s="1" t="n">
-        <v>45192</v>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>JÄMTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>RAGUNDA</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
+      <c r="C45" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>JÄMTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>RAGUNDA</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
         <is>
           <t>SCA</t>
         </is>
       </c>
-      <c r="G44" t="n">
+      <c r="G45" t="n">
         <v>2.3</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
         <v>1</v>
       </c>
-      <c r="J44" t="n">
+      <c r="J45" t="n">
         <v>5</v>
       </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
+      <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
         <v>5</v>
       </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
+      <c r="P45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q45" t="n">
         <v>6</v>
       </c>
-      <c r="R44" s="2" t="inlineStr">
+      <c r="R45" s="2" t="inlineStr">
         <is>
           <t>Dvärgbägarlav
 Garnlav
@@ -4866,92 +4962,92 @@
 Dropptaggsvamp</t>
         </is>
       </c>
-      <c r="S44">
+      <c r="S45">
         <f>HYPERLINK("https://klasma.github.io/Logging_RAGUNDA/artfynd/A 60669-2022.xlsx", "A 60669-2022")</f>
         <v/>
       </c>
-      <c r="T44">
+      <c r="T45">
         <f>HYPERLINK("https://klasma.github.io/Logging_RAGUNDA/kartor/A 60669-2022.png", "A 60669-2022")</f>
         <v/>
       </c>
-      <c r="V44">
+      <c r="V45">
         <f>HYPERLINK("https://klasma.github.io/Logging_RAGUNDA/klagomål/A 60669-2022.docx", "A 60669-2022")</f>
         <v/>
       </c>
-      <c r="W44">
+      <c r="W45">
         <f>HYPERLINK("https://klasma.github.io/Logging_RAGUNDA/klagomålsmail/A 60669-2022.docx", "A 60669-2022")</f>
         <v/>
       </c>
-      <c r="X44">
+      <c r="X45">
         <f>HYPERLINK("https://klasma.github.io/Logging_RAGUNDA/tillsyn/A 60669-2022.docx", "A 60669-2022")</f>
         <v/>
       </c>
-      <c r="Y44">
+      <c r="Y45">
         <f>HYPERLINK("https://klasma.github.io/Logging_RAGUNDA/tillsynsmail/A 60669-2022.docx", "A 60669-2022")</f>
         <v/>
       </c>
     </row>
-    <row r="45" ht="15" customHeight="1">
-      <c r="A45" t="inlineStr">
+    <row r="46" ht="15" customHeight="1">
+      <c r="A46" t="inlineStr">
         <is>
           <t>A 933-2023</t>
         </is>
       </c>
-      <c r="B45" s="1" t="n">
+      <c r="B46" s="1" t="n">
         <v>44932</v>
       </c>
-      <c r="C45" s="1" t="n">
-        <v>45192</v>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>JÄMTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>RAGUNDA</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
+      <c r="C46" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>JÄMTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>RAGUNDA</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
         <is>
           <t>SCA</t>
         </is>
       </c>
-      <c r="G45" t="n">
+      <c r="G46" t="n">
         <v>2</v>
       </c>
-      <c r="H45" t="n">
+      <c r="H46" t="n">
         <v>3</v>
       </c>
-      <c r="I45" t="n">
+      <c r="I46" t="n">
         <v>3</v>
       </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0</v>
-      </c>
-      <c r="L45" t="n">
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
         <v>1</v>
       </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="n">
-        <v>0</v>
-      </c>
-      <c r="O45" t="n">
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
         <v>1</v>
       </c>
-      <c r="P45" t="n">
+      <c r="P46" t="n">
         <v>1</v>
       </c>
-      <c r="Q45" t="n">
+      <c r="Q46" t="n">
         <v>6</v>
       </c>
-      <c r="R45" s="2" t="inlineStr">
+      <c r="R46" s="2" t="inlineStr">
         <is>
           <t>Trolldruvemätare
 Stor aspticka
@@ -4961,118 +5057,28 @@
 Gullviva</t>
         </is>
       </c>
-      <c r="S45">
+      <c r="S46">
         <f>HYPERLINK("https://klasma.github.io/Logging_RAGUNDA/artfynd/A 933-2023.xlsx", "A 933-2023")</f>
         <v/>
       </c>
-      <c r="T45">
+      <c r="T46">
         <f>HYPERLINK("https://klasma.github.io/Logging_RAGUNDA/kartor/A 933-2023.png", "A 933-2023")</f>
         <v/>
       </c>
-      <c r="V45">
+      <c r="V46">
         <f>HYPERLINK("https://klasma.github.io/Logging_RAGUNDA/klagomål/A 933-2023.docx", "A 933-2023")</f>
         <v/>
       </c>
-      <c r="W45">
+      <c r="W46">
         <f>HYPERLINK("https://klasma.github.io/Logging_RAGUNDA/klagomålsmail/A 933-2023.docx", "A 933-2023")</f>
         <v/>
       </c>
-      <c r="X45">
+      <c r="X46">
         <f>HYPERLINK("https://klasma.github.io/Logging_RAGUNDA/tillsyn/A 933-2023.docx", "A 933-2023")</f>
         <v/>
       </c>
-      <c r="Y45">
+      <c r="Y46">
         <f>HYPERLINK("https://klasma.github.io/Logging_RAGUNDA/tillsynsmail/A 933-2023.docx", "A 933-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="46" ht="15" customHeight="1">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>A 10527-2023</t>
-        </is>
-      </c>
-      <c r="B46" s="1" t="n">
-        <v>44987</v>
-      </c>
-      <c r="C46" s="1" t="n">
-        <v>45192</v>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>JÄMTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>RAGUNDA</t>
-        </is>
-      </c>
-      <c r="G46" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>2</v>
-      </c>
-      <c r="J46" t="n">
-        <v>3</v>
-      </c>
-      <c r="K46" t="n">
-        <v>1</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>4</v>
-      </c>
-      <c r="P46" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>6</v>
-      </c>
-      <c r="R46" s="2" t="inlineStr">
-        <is>
-          <t>Rynkskinn
-Lunglav
-Spillkråka
-Ullticka
-Kransrams
-Vedticka</t>
-        </is>
-      </c>
-      <c r="S46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RAGUNDA/artfynd/A 10527-2023.xlsx", "A 10527-2023")</f>
-        <v/>
-      </c>
-      <c r="T46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RAGUNDA/kartor/A 10527-2023.png", "A 10527-2023")</f>
-        <v/>
-      </c>
-      <c r="V46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RAGUNDA/klagomål/A 10527-2023.docx", "A 10527-2023")</f>
-        <v/>
-      </c>
-      <c r="W46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RAGUNDA/klagomålsmail/A 10527-2023.docx", "A 10527-2023")</f>
-        <v/>
-      </c>
-      <c r="X46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RAGUNDA/tillsyn/A 10527-2023.docx", "A 10527-2023")</f>
-        <v/>
-      </c>
-      <c r="Y46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_RAGUNDA/tillsynsmail/A 10527-2023.docx", "A 10527-2023")</f>
         <v/>
       </c>
     </row>
@@ -5086,7 +5092,7 @@
         <v>44994</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5181,7 +5187,7 @@
         <v>45015</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5275,7 +5281,7 @@
         <v>45027</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5374,7 +5380,7 @@
         <v>45070</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5469,7 +5475,7 @@
         <v>44111</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5562,7 +5568,7 @@
         <v>44139</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5651,7 +5657,7 @@
         <v>44645</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5749,7 +5755,7 @@
         <v>44656</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5843,7 +5849,7 @@
         <v>44734</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5937,7 +5943,7 @@
         <v>44865</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -6031,7 +6037,7 @@
         <v>44911</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -6125,7 +6131,7 @@
         <v>45054</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6214,7 +6220,7 @@
         <v>45093</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6307,7 +6313,7 @@
         <v>43977</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6400,7 +6406,7 @@
         <v>44113</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6493,7 +6499,7 @@
         <v>44245</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6586,7 +6592,7 @@
         <v>44334</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6678,7 +6684,7 @@
         <v>44334</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6770,7 +6776,7 @@
         <v>44446</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6863,7 +6869,7 @@
         <v>44610</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6956,7 +6962,7 @@
         <v>44624</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -7049,7 +7055,7 @@
         <v>44662</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -7142,7 +7148,7 @@
         <v>44677</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -7234,7 +7240,7 @@
         <v>44696</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7327,7 +7333,7 @@
         <v>44732</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7424,7 +7430,7 @@
         <v>44911</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7517,7 +7523,7 @@
         <v>45034</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7610,7 +7616,7 @@
         <v>43817</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7701,7 +7707,7 @@
         <v>44111</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7793,7 +7799,7 @@
         <v>44421</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7885,7 +7891,7 @@
         <v>44740</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7972,7 +7978,7 @@
         <v>44855</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -8068,7 +8074,7 @@
         <v>44855</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -8160,7 +8166,7 @@
         <v>44875</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -8252,7 +8258,7 @@
         <v>44902</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -8344,7 +8350,7 @@
         <v>44971</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8436,7 +8442,7 @@
         <v>44987</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8527,7 +8533,7 @@
         <v>45049</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8619,7 +8625,7 @@
         <v>43329</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8705,7 +8711,7 @@
         <v>43411</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8791,7 +8797,7 @@
         <v>43707</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8881,7 +8887,7 @@
         <v>43948</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8967,7 +8973,7 @@
         <v>44676</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -9058,7 +9064,7 @@
         <v>44680</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -9144,7 +9150,7 @@
         <v>44855</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -9235,7 +9241,7 @@
         <v>44855</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -9326,7 +9332,7 @@
         <v>44860</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9417,7 +9423,7 @@
         <v>44973</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9508,7 +9514,7 @@
         <v>44980</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9594,7 +9600,7 @@
         <v>45005</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9685,7 +9691,7 @@
         <v>45071</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9771,7 +9777,7 @@
         <v>45121</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9862,7 +9868,7 @@
         <v>43515</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9947,7 +9953,7 @@
         <v>43619</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -10037,7 +10043,7 @@
         <v>43650</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -10122,7 +10128,7 @@
         <v>43784</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -10212,7 +10218,7 @@
         <v>43791</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -10297,7 +10303,7 @@
         <v>43977</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -10387,7 +10393,7 @@
         <v>44012</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -10477,7 +10483,7 @@
         <v>44049</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10567,7 +10573,7 @@
         <v>44062</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10657,7 +10663,7 @@
         <v>44098</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -10747,7 +10753,7 @@
         <v>44119</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10832,7 +10838,7 @@
         <v>44166</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10917,7 +10923,7 @@
         <v>44319</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -11007,7 +11013,7 @@
         <v>44369</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -11092,7 +11098,7 @@
         <v>44462</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -11182,7 +11188,7 @@
         <v>44601</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -11267,7 +11273,7 @@
         <v>44607</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -11357,7 +11363,7 @@
         <v>44705</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -11442,7 +11448,7 @@
         <v>44741</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -11532,7 +11538,7 @@
         <v>44741</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -11617,7 +11623,7 @@
         <v>44830</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -11707,7 +11713,7 @@
         <v>44832</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -11797,7 +11803,7 @@
         <v>44855</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -11887,7 +11893,7 @@
         <v>44860</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -11972,7 +11978,7 @@
         <v>45033</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -12061,7 +12067,7 @@
         <v>45042</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -12146,7 +12152,7 @@
         <v>45044</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -12236,7 +12242,7 @@
         <v>45089</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -12321,7 +12327,7 @@
         <v>45097</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -12411,7 +12417,7 @@
         <v>45120</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -12501,7 +12507,7 @@
         <v>45121</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -12586,7 +12592,7 @@
         <v>45149</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -12676,7 +12682,7 @@
         <v>45153</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -12761,7 +12767,7 @@
         <v>43321</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -12818,7 +12824,7 @@
         <v>43322</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -12880,7 +12886,7 @@
         <v>43326</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -12937,7 +12943,7 @@
         <v>43341</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -12994,7 +13000,7 @@
         <v>43360</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -13051,7 +13057,7 @@
         <v>43395</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -13108,7 +13114,7 @@
         <v>43396</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -13165,7 +13171,7 @@
         <v>43398</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -13222,7 +13228,7 @@
         <v>43398</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -13279,7 +13285,7 @@
         <v>43398</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -13336,7 +13342,7 @@
         <v>43403</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -13398,7 +13404,7 @@
         <v>43403</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -13460,7 +13466,7 @@
         <v>43403</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -13522,7 +13528,7 @@
         <v>43405</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -13584,7 +13590,7 @@
         <v>43406</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -13646,7 +13652,7 @@
         <v>43410</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -13708,7 +13714,7 @@
         <v>43411</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -13765,7 +13771,7 @@
         <v>43411</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -13827,7 +13833,7 @@
         <v>43411</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -13889,7 +13895,7 @@
         <v>43411</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -13951,7 +13957,7 @@
         <v>43411</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -14013,7 +14019,7 @@
         <v>43411</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -14075,7 +14081,7 @@
         <v>43411</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -14132,7 +14138,7 @@
         <v>43413</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -14189,7 +14195,7 @@
         <v>43418</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -14246,7 +14252,7 @@
         <v>43419</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -14303,7 +14309,7 @@
         <v>43423</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -14360,7 +14366,7 @@
         <v>43423</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -14417,7 +14423,7 @@
         <v>43427</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -14474,7 +14480,7 @@
         <v>43427</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -14531,7 +14537,7 @@
         <v>43431</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -14588,7 +14594,7 @@
         <v>43431</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -14650,7 +14656,7 @@
         <v>43431</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -14712,7 +14718,7 @@
         <v>43437</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -14774,7 +14780,7 @@
         <v>43438</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -14831,7 +14837,7 @@
         <v>43440</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -14888,7 +14894,7 @@
         <v>43444</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -14945,7 +14951,7 @@
         <v>43448</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -15002,7 +15008,7 @@
         <v>43461</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -15059,7 +15065,7 @@
         <v>43461</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -15116,7 +15122,7 @@
         <v>43467</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -15173,7 +15179,7 @@
         <v>43467</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -15230,7 +15236,7 @@
         <v>43473</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -15287,7 +15293,7 @@
         <v>43473</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -15344,7 +15350,7 @@
         <v>43474</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -15401,7 +15407,7 @@
         <v>43481</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -15458,7 +15464,7 @@
         <v>43481</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -15515,7 +15521,7 @@
         <v>43483</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -15572,7 +15578,7 @@
         <v>43495</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -15629,7 +15635,7 @@
         <v>43496</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -15691,7 +15697,7 @@
         <v>43509</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -15748,7 +15754,7 @@
         <v>43510</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -15805,7 +15811,7 @@
         <v>43515</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -15862,7 +15868,7 @@
         <v>43530</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -15919,7 +15925,7 @@
         <v>43537</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -15981,7 +15987,7 @@
         <v>43538</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -16038,7 +16044,7 @@
         <v>43542</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -16095,7 +16101,7 @@
         <v>43543</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -16152,7 +16158,7 @@
         <v>43551</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -16209,7 +16215,7 @@
         <v>43551</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -16266,7 +16272,7 @@
         <v>43552</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -16323,7 +16329,7 @@
         <v>43563</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -16380,7 +16386,7 @@
         <v>43565</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -16437,7 +16443,7 @@
         <v>43578</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -16499,7 +16505,7 @@
         <v>43584</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -16556,7 +16562,7 @@
         <v>43589</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -16613,7 +16619,7 @@
         <v>43594</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -16670,7 +16676,7 @@
         <v>43594</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -16732,7 +16738,7 @@
         <v>43622</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -16794,7 +16800,7 @@
         <v>43633</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -16851,7 +16857,7 @@
         <v>43633</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -16908,7 +16914,7 @@
         <v>43640</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -16970,7 +16976,7 @@
         <v>43641</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -17032,7 +17038,7 @@
         <v>43641</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -17094,7 +17100,7 @@
         <v>43643</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -17156,7 +17162,7 @@
         <v>43650</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -17218,7 +17224,7 @@
         <v>43651</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -17275,7 +17281,7 @@
         <v>43654</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -17337,7 +17343,7 @@
         <v>43654</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -17399,7 +17405,7 @@
         <v>43656</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -17461,7 +17467,7 @@
         <v>43669</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -17518,7 +17524,7 @@
         <v>43678</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -17580,7 +17586,7 @@
         <v>43704</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -17642,7 +17648,7 @@
         <v>43704</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -17704,7 +17710,7 @@
         <v>43704</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -17766,7 +17772,7 @@
         <v>43706</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -17823,7 +17829,7 @@
         <v>43706</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -17880,7 +17886,7 @@
         <v>43713</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -17937,7 +17943,7 @@
         <v>43713</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -17994,7 +18000,7 @@
         <v>43728</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -18056,7 +18062,7 @@
         <v>43733</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -18113,7 +18119,7 @@
         <v>43733</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -18170,7 +18176,7 @@
         <v>43735</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -18227,7 +18233,7 @@
         <v>43740</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -18284,7 +18290,7 @@
         <v>43742</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -18341,7 +18347,7 @@
         <v>43746</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -18398,7 +18404,7 @@
         <v>43756</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -18455,7 +18461,7 @@
         <v>43759</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -18512,7 +18518,7 @@
         <v>43760</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -18569,7 +18575,7 @@
         <v>43768</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -18626,7 +18632,7 @@
         <v>43768</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -18688,7 +18694,7 @@
         <v>43770</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -18750,7 +18756,7 @@
         <v>43770</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -18812,7 +18818,7 @@
         <v>43773</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -18869,7 +18875,7 @@
         <v>43773</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -18931,7 +18937,7 @@
         <v>43773</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -18988,7 +18994,7 @@
         <v>43775</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -19045,7 +19051,7 @@
         <v>43777</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -19107,7 +19113,7 @@
         <v>43782</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -19164,7 +19170,7 @@
         <v>43783</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -19221,7 +19227,7 @@
         <v>43788</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -19298,7 +19304,7 @@
         <v>43791</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -19355,7 +19361,7 @@
         <v>43797</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -19412,7 +19418,7 @@
         <v>43797</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -19469,7 +19475,7 @@
         <v>43803</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -19526,7 +19532,7 @@
         <v>43805</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -19583,7 +19589,7 @@
         <v>43812</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -19640,7 +19646,7 @@
         <v>43818</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -19697,7 +19703,7 @@
         <v>43819</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -19754,7 +19760,7 @@
         <v>43833</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -19811,7 +19817,7 @@
         <v>43847</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -19868,7 +19874,7 @@
         <v>43850</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -19925,7 +19931,7 @@
         <v>43861</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -19982,7 +19988,7 @@
         <v>43868</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -20039,7 +20045,7 @@
         <v>43872</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -20096,7 +20102,7 @@
         <v>43873</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -20153,7 +20159,7 @@
         <v>43880</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -20210,7 +20216,7 @@
         <v>43881</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -20272,7 +20278,7 @@
         <v>43882</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -20329,7 +20335,7 @@
         <v>43887</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -20386,7 +20392,7 @@
         <v>43896</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -20468,7 +20474,7 @@
         <v>43900</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -20525,7 +20531,7 @@
         <v>43901</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -20582,7 +20588,7 @@
         <v>43902</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -20644,7 +20650,7 @@
         <v>43907</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -20701,7 +20707,7 @@
         <v>43910</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -20758,7 +20764,7 @@
         <v>43910</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -20815,7 +20821,7 @@
         <v>43913</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -20872,7 +20878,7 @@
         <v>43916</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -20929,7 +20935,7 @@
         <v>43923</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -20986,7 +20992,7 @@
         <v>43943</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -21043,7 +21049,7 @@
         <v>43948</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -21100,7 +21106,7 @@
         <v>43949</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -21162,7 +21168,7 @@
         <v>43951</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -21219,7 +21225,7 @@
         <v>43955</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -21281,7 +21287,7 @@
         <v>43955</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -21343,7 +21349,7 @@
         <v>43955</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -21405,7 +21411,7 @@
         <v>43955</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -21467,7 +21473,7 @@
         <v>43956</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -21529,7 +21535,7 @@
         <v>43957</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -21586,7 +21592,7 @@
         <v>43965</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -21643,7 +21649,7 @@
         <v>43969</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -21705,7 +21711,7 @@
         <v>43971</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -21762,7 +21768,7 @@
         <v>43971</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -21819,7 +21825,7 @@
         <v>43977</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -21881,7 +21887,7 @@
         <v>43979</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -21938,7 +21944,7 @@
         <v>43984</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -22000,7 +22006,7 @@
         <v>43984</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -22062,7 +22068,7 @@
         <v>43986</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -22124,7 +22130,7 @@
         <v>43986</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -22186,7 +22192,7 @@
         <v>43990</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -22248,7 +22254,7 @@
         <v>43992</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -22305,7 +22311,7 @@
         <v>43999</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -22367,7 +22373,7 @@
         <v>44000</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -22424,7 +22430,7 @@
         <v>44004</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -22486,7 +22492,7 @@
         <v>44006</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -22548,7 +22554,7 @@
         <v>44011</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -22610,7 +22616,7 @@
         <v>44013</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -22672,7 +22678,7 @@
         <v>44013</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -22734,7 +22740,7 @@
         <v>44013</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -22796,7 +22802,7 @@
         <v>44019</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -22858,7 +22864,7 @@
         <v>44026</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -22915,7 +22921,7 @@
         <v>44027</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -22977,7 +22983,7 @@
         <v>44029</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -23039,7 +23045,7 @@
         <v>44029</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -23096,7 +23102,7 @@
         <v>44040</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -23153,7 +23159,7 @@
         <v>44041</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -23215,7 +23221,7 @@
         <v>44051</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -23272,7 +23278,7 @@
         <v>44051</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -23329,7 +23335,7 @@
         <v>44055</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -23386,7 +23392,7 @@
         <v>44056</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -23443,7 +23449,7 @@
         <v>44057</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -23500,7 +23506,7 @@
         <v>44057</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -23562,7 +23568,7 @@
         <v>44062</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -23624,7 +23630,7 @@
         <v>44063</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -23686,7 +23692,7 @@
         <v>44067</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -23748,7 +23754,7 @@
         <v>44069</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -23810,7 +23816,7 @@
         <v>44071</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -23872,7 +23878,7 @@
         <v>44074</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -23934,7 +23940,7 @@
         <v>44074</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -23996,7 +24002,7 @@
         <v>44074</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -24058,7 +24064,7 @@
         <v>44075</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -24120,7 +24126,7 @@
         <v>44078</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -24177,7 +24183,7 @@
         <v>44082</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -24239,7 +24245,7 @@
         <v>44084</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -24301,7 +24307,7 @@
         <v>44084</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -24358,7 +24364,7 @@
         <v>44084</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -24415,7 +24421,7 @@
         <v>44090</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -24472,7 +24478,7 @@
         <v>44095</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -24529,7 +24535,7 @@
         <v>44096</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -24591,7 +24597,7 @@
         <v>44096</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -24653,7 +24659,7 @@
         <v>44098</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -24710,7 +24716,7 @@
         <v>44099</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -24772,7 +24778,7 @@
         <v>44103</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -24834,7 +24840,7 @@
         <v>44106</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -24891,7 +24897,7 @@
         <v>44111</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -24948,7 +24954,7 @@
         <v>44111</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -25005,7 +25011,7 @@
         <v>44111</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -25062,7 +25068,7 @@
         <v>44113</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -25124,7 +25130,7 @@
         <v>44124</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -25181,7 +25187,7 @@
         <v>44126</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -25238,7 +25244,7 @@
         <v>44132</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -25300,7 +25306,7 @@
         <v>44134</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -25357,7 +25363,7 @@
         <v>44137</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -25414,7 +25420,7 @@
         <v>44138</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -25471,7 +25477,7 @@
         <v>44140</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -25533,7 +25539,7 @@
         <v>44140</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -25595,7 +25601,7 @@
         <v>44140</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -25657,7 +25663,7 @@
         <v>44140</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -25719,7 +25725,7 @@
         <v>44141</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -25781,7 +25787,7 @@
         <v>44153</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -25838,7 +25844,7 @@
         <v>44153</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -25900,7 +25906,7 @@
         <v>44155</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -25957,7 +25963,7 @@
         <v>44157</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -26014,7 +26020,7 @@
         <v>44159</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -26076,7 +26082,7 @@
         <v>44165</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -26138,7 +26144,7 @@
         <v>44167</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -26200,7 +26206,7 @@
         <v>44168</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -26257,7 +26263,7 @@
         <v>44172</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -26319,7 +26325,7 @@
         <v>44173</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -26376,7 +26382,7 @@
         <v>44174</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -26438,7 +26444,7 @@
         <v>44175</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -26500,7 +26506,7 @@
         <v>44188</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -26562,7 +26568,7 @@
         <v>44194</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -26619,7 +26625,7 @@
         <v>44195</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -26676,7 +26682,7 @@
         <v>44210</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -26733,7 +26739,7 @@
         <v>44214</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -26790,7 +26796,7 @@
         <v>44218</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -26847,7 +26853,7 @@
         <v>44225</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -26904,7 +26910,7 @@
         <v>44228</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -26961,7 +26967,7 @@
         <v>44229</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -27018,7 +27024,7 @@
         <v>44230</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -27080,7 +27086,7 @@
         <v>44231</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -27137,7 +27143,7 @@
         <v>44231</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -27194,7 +27200,7 @@
         <v>44236</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -27251,7 +27257,7 @@
         <v>44239</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -27313,7 +27319,7 @@
         <v>44242</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -27375,7 +27381,7 @@
         <v>44243</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -27432,7 +27438,7 @@
         <v>44245</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -27489,7 +27495,7 @@
         <v>44259</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -27546,7 +27552,7 @@
         <v>44259</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -27603,7 +27609,7 @@
         <v>44273</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -27660,7 +27666,7 @@
         <v>44280</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -27717,7 +27723,7 @@
         <v>44280</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -27774,7 +27780,7 @@
         <v>44281</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -27836,7 +27842,7 @@
         <v>44286</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -27893,7 +27899,7 @@
         <v>44286</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -27950,7 +27956,7 @@
         <v>44287</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -28007,7 +28013,7 @@
         <v>44292</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -28064,7 +28070,7 @@
         <v>44298</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -28121,7 +28127,7 @@
         <v>44299</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -28178,7 +28184,7 @@
         <v>44308</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -28235,7 +28241,7 @@
         <v>44308</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -28292,7 +28298,7 @@
         <v>44308</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -28349,7 +28355,7 @@
         <v>44308</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -28406,7 +28412,7 @@
         <v>44315</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -28468,7 +28474,7 @@
         <v>44322</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -28525,7 +28531,7 @@
         <v>44323</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -28587,7 +28593,7 @@
         <v>44332</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -28649,7 +28655,7 @@
         <v>44336</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -28706,7 +28712,7 @@
         <v>44336</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -28763,7 +28769,7 @@
         <v>44349</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -28820,7 +28826,7 @@
         <v>44351</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -28882,7 +28888,7 @@
         <v>44351</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -28944,7 +28950,7 @@
         <v>44356</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -29001,7 +29007,7 @@
         <v>44357</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -29058,7 +29064,7 @@
         <v>44362</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -29115,7 +29121,7 @@
         <v>44362</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -29172,7 +29178,7 @@
         <v>44368</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -29229,7 +29235,7 @@
         <v>44375</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -29286,7 +29292,7 @@
         <v>44379</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -29343,7 +29349,7 @@
         <v>44384</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -29400,7 +29406,7 @@
         <v>44385</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -29457,7 +29463,7 @@
         <v>44396</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -29514,7 +29520,7 @@
         <v>44405</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -29571,7 +29577,7 @@
         <v>44410</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -29628,7 +29634,7 @@
         <v>44413</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -29685,7 +29691,7 @@
         <v>44424</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -29742,7 +29748,7 @@
         <v>44425</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -29804,7 +29810,7 @@
         <v>44425</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -29866,7 +29872,7 @@
         <v>44425</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -29928,7 +29934,7 @@
         <v>44431</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -29985,7 +29991,7 @@
         <v>44434</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -30042,7 +30048,7 @@
         <v>44441</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -30099,7 +30105,7 @@
         <v>44443</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -30156,7 +30162,7 @@
         <v>44448</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -30213,7 +30219,7 @@
         <v>44452</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -30270,7 +30276,7 @@
         <v>44453</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -30327,7 +30333,7 @@
         <v>44466</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -30389,7 +30395,7 @@
         <v>44475</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -30446,7 +30452,7 @@
         <v>44476</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -30508,7 +30514,7 @@
         <v>44480</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -30565,7 +30571,7 @@
         <v>44495</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -30627,7 +30633,7 @@
         <v>44496</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -30684,7 +30690,7 @@
         <v>44505</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -30746,7 +30752,7 @@
         <v>44505</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -30808,7 +30814,7 @@
         <v>44511</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -30865,7 +30871,7 @@
         <v>44512</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -30922,7 +30928,7 @@
         <v>44517</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -30979,7 +30985,7 @@
         <v>44517</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -31036,7 +31042,7 @@
         <v>44518</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -31093,7 +31099,7 @@
         <v>44518</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -31155,7 +31161,7 @@
         <v>44530</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -31212,7 +31218,7 @@
         <v>44536</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -31269,7 +31275,7 @@
         <v>44537</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -31326,7 +31332,7 @@
         <v>44538</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -31383,7 +31389,7 @@
         <v>44571</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -31440,7 +31446,7 @@
         <v>44573</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -31497,7 +31503,7 @@
         <v>44574</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -31554,7 +31560,7 @@
         <v>44574</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -31611,7 +31617,7 @@
         <v>44578</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -31668,7 +31674,7 @@
         <v>44586</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -31725,7 +31731,7 @@
         <v>44593</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -31782,7 +31788,7 @@
         <v>44595</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -31839,7 +31845,7 @@
         <v>44599</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -31896,7 +31902,7 @@
         <v>44601</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -31953,7 +31959,7 @@
         <v>44601</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -32010,7 +32016,7 @@
         <v>44601</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -32067,7 +32073,7 @@
         <v>44606</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -32124,7 +32130,7 @@
         <v>44609</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -32186,7 +32192,7 @@
         <v>44614</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -32243,7 +32249,7 @@
         <v>44614</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -32300,7 +32306,7 @@
         <v>44614</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -32357,7 +32363,7 @@
         <v>44614</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -32414,7 +32420,7 @@
         <v>44614</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -32471,7 +32477,7 @@
         <v>44615</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -32528,7 +32534,7 @@
         <v>44615</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -32585,7 +32591,7 @@
         <v>44621</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -32642,7 +32648,7 @@
         <v>44627</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -32699,7 +32705,7 @@
         <v>44628</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -32756,7 +32762,7 @@
         <v>44629</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -32813,7 +32819,7 @@
         <v>44635</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -32875,7 +32881,7 @@
         <v>44641</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -32937,7 +32943,7 @@
         <v>44641</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -32999,7 +33005,7 @@
         <v>44644</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -33061,7 +33067,7 @@
         <v>44644</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -33123,7 +33129,7 @@
         <v>44649</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -33185,7 +33191,7 @@
         <v>44650</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -33242,7 +33248,7 @@
         <v>44650</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -33299,7 +33305,7 @@
         <v>44652</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -33361,7 +33367,7 @@
         <v>44655</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -33423,7 +33429,7 @@
         <v>44655</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -33485,7 +33491,7 @@
         <v>44656</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -33547,7 +33553,7 @@
         <v>44656</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -33609,7 +33615,7 @@
         <v>44657</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -33666,7 +33672,7 @@
         <v>44662</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -33728,7 +33734,7 @@
         <v>44663</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -33790,7 +33796,7 @@
         <v>44663</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -33852,7 +33858,7 @@
         <v>44670</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -33914,7 +33920,7 @@
         <v>44670</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -33971,7 +33977,7 @@
         <v>44670</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -34028,7 +34034,7 @@
         <v>44671</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -34085,7 +34091,7 @@
         <v>44671</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -34142,7 +34148,7 @@
         <v>44679</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -34199,7 +34205,7 @@
         <v>44680</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -34256,7 +34262,7 @@
         <v>44685</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -34313,7 +34319,7 @@
         <v>44685</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -34370,7 +34376,7 @@
         <v>44685</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -34432,7 +34438,7 @@
         <v>44686</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -34489,7 +34495,7 @@
         <v>44690</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -34546,7 +34552,7 @@
         <v>44690</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -34608,7 +34614,7 @@
         <v>44690</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -34670,7 +34676,7 @@
         <v>44690</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -34727,7 +34733,7 @@
         <v>44690</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -34789,7 +34795,7 @@
         <v>44690</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -34851,7 +34857,7 @@
         <v>44704</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -34908,7 +34914,7 @@
         <v>44705</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -34965,7 +34971,7 @@
         <v>44706</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -35022,7 +35028,7 @@
         <v>44714</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -35079,7 +35085,7 @@
         <v>44714</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -35141,7 +35147,7 @@
         <v>44714</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -35198,7 +35204,7 @@
         <v>44725</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -35255,7 +35261,7 @@
         <v>44727</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -35317,7 +35323,7 @@
         <v>44732</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -35374,7 +35380,7 @@
         <v>44734</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -35431,7 +35437,7 @@
         <v>44734</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -35493,7 +35499,7 @@
         <v>44741</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -35550,7 +35556,7 @@
         <v>44743</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -35607,7 +35613,7 @@
         <v>44746</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -35664,7 +35670,7 @@
         <v>44746</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -35726,7 +35732,7 @@
         <v>44761</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -35803,7 +35809,7 @@
         <v>44774</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -35860,7 +35866,7 @@
         <v>44774</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -35917,7 +35923,7 @@
         <v>44776</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -35979,7 +35985,7 @@
         <v>44776</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -36041,7 +36047,7 @@
         <v>44777</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -36103,7 +36109,7 @@
         <v>44778</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -36165,7 +36171,7 @@
         <v>44781</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -36222,7 +36228,7 @@
         <v>44782</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -36284,7 +36290,7 @@
         <v>44783</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -36346,7 +36352,7 @@
         <v>44788</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -36403,7 +36409,7 @@
         <v>44788</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -36460,7 +36466,7 @@
         <v>44791</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -36522,7 +36528,7 @@
         <v>44797</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -36584,7 +36590,7 @@
         <v>44798</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -36646,7 +36652,7 @@
         <v>44799</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -36708,7 +36714,7 @@
         <v>44802</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -36765,7 +36771,7 @@
         <v>44802</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -36827,7 +36833,7 @@
         <v>44804</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -36884,7 +36890,7 @@
         <v>44804</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -36946,7 +36952,7 @@
         <v>44805</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -37008,7 +37014,7 @@
         <v>44805</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -37070,7 +37076,7 @@
         <v>44806</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -37127,7 +37133,7 @@
         <v>44812</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -37189,7 +37195,7 @@
         <v>44813</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -37251,7 +37257,7 @@
         <v>44813</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -37313,7 +37319,7 @@
         <v>44815</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -37375,7 +37381,7 @@
         <v>44816</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -37437,7 +37443,7 @@
         <v>44816</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -37499,7 +37505,7 @@
         <v>44817</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -37561,7 +37567,7 @@
         <v>44818</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -37623,7 +37629,7 @@
         <v>44818</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -37680,7 +37686,7 @@
         <v>44820</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -37742,7 +37748,7 @@
         <v>44820</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -37799,7 +37805,7 @@
         <v>44820</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -37861,7 +37867,7 @@
         <v>44820</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -37923,7 +37929,7 @@
         <v>44823</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -37980,7 +37986,7 @@
         <v>44823</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -38037,7 +38043,7 @@
         <v>44825</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -38099,7 +38105,7 @@
         <v>44825</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -38161,7 +38167,7 @@
         <v>44830</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -38223,7 +38229,7 @@
         <v>44831</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -38285,7 +38291,7 @@
         <v>44831</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -38347,7 +38353,7 @@
         <v>44832</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -38409,7 +38415,7 @@
         <v>44832</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -38471,7 +38477,7 @@
         <v>44832</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -38533,7 +38539,7 @@
         <v>44837</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -38595,7 +38601,7 @@
         <v>44837</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -38657,7 +38663,7 @@
         <v>44838</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -38719,7 +38725,7 @@
         <v>44839</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -38776,7 +38782,7 @@
         <v>44839</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -38833,7 +38839,7 @@
         <v>44840</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -38895,7 +38901,7 @@
         <v>44841</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -38952,7 +38958,7 @@
         <v>44844</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -39014,7 +39020,7 @@
         <v>44845</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -39076,7 +39082,7 @@
         <v>44845</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -39138,7 +39144,7 @@
         <v>44845</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -39200,7 +39206,7 @@
         <v>44845</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -39262,7 +39268,7 @@
         <v>44846</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -39324,7 +39330,7 @@
         <v>44846</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -39386,7 +39392,7 @@
         <v>44852</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -39448,7 +39454,7 @@
         <v>44852</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -39510,7 +39516,7 @@
         <v>44852</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -39572,7 +39578,7 @@
         <v>44852</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -39634,7 +39640,7 @@
         <v>44853</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -39696,7 +39702,7 @@
         <v>44854</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -39758,7 +39764,7 @@
         <v>44855</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -39820,7 +39826,7 @@
         <v>44855</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -39882,7 +39888,7 @@
         <v>44855</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -39944,7 +39950,7 @@
         <v>44858</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -40006,7 +40012,7 @@
         <v>44858</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -40068,7 +40074,7 @@
         <v>44860</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -40130,7 +40136,7 @@
         <v>44860</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -40192,7 +40198,7 @@
         <v>44861</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -40254,7 +40260,7 @@
         <v>44861</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -40316,7 +40322,7 @@
         <v>44865</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -40373,7 +40379,7 @@
         <v>44865</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -40430,7 +40436,7 @@
         <v>44866</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -40492,7 +40498,7 @@
         <v>44866</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -40554,7 +40560,7 @@
         <v>44866</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -40616,7 +40622,7 @@
         <v>44867</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -40678,7 +40684,7 @@
         <v>44869</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -40735,7 +40741,7 @@
         <v>44869</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -40792,7 +40798,7 @@
         <v>44869</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -40849,7 +40855,7 @@
         <v>44874</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -40906,7 +40912,7 @@
         <v>44876</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -40968,7 +40974,7 @@
         <v>44879</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -41030,7 +41036,7 @@
         <v>44880</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -41092,7 +41098,7 @@
         <v>44880</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -41154,7 +41160,7 @@
         <v>44881</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -41211,7 +41217,7 @@
         <v>44883</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -41273,7 +41279,7 @@
         <v>44883</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -41335,7 +41341,7 @@
         <v>44886</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -41397,7 +41403,7 @@
         <v>44887</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -41454,7 +41460,7 @@
         <v>44887</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -41511,7 +41517,7 @@
         <v>44887</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -41568,7 +41574,7 @@
         <v>44888</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -41630,7 +41636,7 @@
         <v>44889</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -41692,7 +41698,7 @@
         <v>44889</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -41749,7 +41755,7 @@
         <v>44889</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -41811,7 +41817,7 @@
         <v>44893</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -41868,7 +41874,7 @@
         <v>44894</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -41925,7 +41931,7 @@
         <v>44895</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -41987,7 +41993,7 @@
         <v>44896</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -42044,7 +42050,7 @@
         <v>44897</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -42101,7 +42107,7 @@
         <v>44897</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -42163,7 +42169,7 @@
         <v>44900</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -42225,7 +42231,7 @@
         <v>44901</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -42287,7 +42293,7 @@
         <v>44901</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -42349,7 +42355,7 @@
         <v>44901</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -42411,7 +42417,7 @@
         <v>44903</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -42468,7 +42474,7 @@
         <v>44903</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -42530,7 +42536,7 @@
         <v>44904</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -42592,7 +42598,7 @@
         <v>44909</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -42654,7 +42660,7 @@
         <v>44911</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -42716,7 +42722,7 @@
         <v>44911</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -42778,7 +42784,7 @@
         <v>44913</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -42840,7 +42846,7 @@
         <v>44914</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -42897,7 +42903,7 @@
         <v>44914</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -42959,7 +42965,7 @@
         <v>44915</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -43016,7 +43022,7 @@
         <v>44915</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -43078,7 +43084,7 @@
         <v>44917</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -43140,7 +43146,7 @@
         <v>44917</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -43197,7 +43203,7 @@
         <v>44918</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -43259,7 +43265,7 @@
         <v>44922</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -43316,7 +43322,7 @@
         <v>44927</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -43378,7 +43384,7 @@
         <v>44929</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -43435,7 +43441,7 @@
         <v>44929</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -43492,7 +43498,7 @@
         <v>44929</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -43549,7 +43555,7 @@
         <v>44938</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -43611,7 +43617,7 @@
         <v>44938</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -43673,7 +43679,7 @@
         <v>44939</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -43735,7 +43741,7 @@
         <v>44939</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -43797,7 +43803,7 @@
         <v>44942</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -43854,7 +43860,7 @@
         <v>44942</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -43916,7 +43922,7 @@
         <v>44942</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -43973,7 +43979,7 @@
         <v>44942</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -44035,7 +44041,7 @@
         <v>44944</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -44092,7 +44098,7 @@
         <v>44953</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -44154,7 +44160,7 @@
         <v>44953</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -44216,7 +44222,7 @@
         <v>44956</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -44278,7 +44284,7 @@
         <v>44957</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -44340,7 +44346,7 @@
         <v>44958</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -44397,7 +44403,7 @@
         <v>44958</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -44454,7 +44460,7 @@
         <v>44958</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -44516,7 +44522,7 @@
         <v>44959</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -44573,7 +44579,7 @@
         <v>44963</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -44630,7 +44636,7 @@
         <v>44963</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -44692,7 +44698,7 @@
         <v>44965</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -44754,7 +44760,7 @@
         <v>44966</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -44816,7 +44822,7 @@
         <v>44966</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -44878,7 +44884,7 @@
         <v>44967</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -44940,7 +44946,7 @@
         <v>44971</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -45002,7 +45008,7 @@
         <v>44978</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -45064,7 +45070,7 @@
         <v>44979</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -45121,7 +45127,7 @@
         <v>44979</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -45178,7 +45184,7 @@
         <v>44979</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -45240,7 +45246,7 @@
         <v>44980</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -45297,7 +45303,7 @@
         <v>44984</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -45354,7 +45360,7 @@
         <v>44986</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -45411,7 +45417,7 @@
         <v>44987</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -45473,7 +45479,7 @@
         <v>44991</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -45535,7 +45541,7 @@
         <v>44991</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -45597,7 +45603,7 @@
         <v>44991</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -45659,7 +45665,7 @@
         <v>44991</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -45721,7 +45727,7 @@
         <v>44992</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -45778,7 +45784,7 @@
         <v>44993</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -45840,7 +45846,7 @@
         <v>44993</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -45902,7 +45908,7 @@
         <v>44993</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -45964,7 +45970,7 @@
         <v>44993</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -46021,7 +46027,7 @@
         <v>44995</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -46083,7 +46089,7 @@
         <v>44995</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -46145,7 +46151,7 @@
         <v>44995</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -46207,7 +46213,7 @@
         <v>45000</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -46264,7 +46270,7 @@
         <v>45000</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -46326,7 +46332,7 @@
         <v>45000</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -46388,7 +46394,7 @@
         <v>45000</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -46450,7 +46456,7 @@
         <v>45000</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -46512,7 +46518,7 @@
         <v>45002</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -46569,7 +46575,7 @@
         <v>45006</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -46631,7 +46637,7 @@
         <v>45007</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -46688,7 +46694,7 @@
         <v>45009</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -46745,7 +46751,7 @@
         <v>45009</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -46802,7 +46808,7 @@
         <v>45015</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -46864,7 +46870,7 @@
         <v>45015</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -46926,7 +46932,7 @@
         <v>45015</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -46983,7 +46989,7 @@
         <v>45015</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -47040,7 +47046,7 @@
         <v>45016</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -47097,7 +47103,7 @@
         <v>45016</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -47154,7 +47160,7 @@
         <v>45028</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -47211,7 +47217,7 @@
         <v>45033</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -47268,7 +47274,7 @@
         <v>45034</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -47325,7 +47331,7 @@
         <v>45040</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -47382,7 +47388,7 @@
         <v>45042</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -47439,7 +47445,7 @@
         <v>45044</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -47501,7 +47507,7 @@
         <v>45048</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -47563,7 +47569,7 @@
         <v>45048</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -47625,7 +47631,7 @@
         <v>45049</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -47687,7 +47693,7 @@
         <v>45050</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -47749,7 +47755,7 @@
         <v>45054</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -47811,7 +47817,7 @@
         <v>45056</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -47868,7 +47874,7 @@
         <v>45056</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -47925,7 +47931,7 @@
         <v>45063</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -47982,7 +47988,7 @@
         <v>45063</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -48039,7 +48045,7 @@
         <v>45068</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -48101,7 +48107,7 @@
         <v>45069</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -48158,7 +48164,7 @@
         <v>45070</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -48215,7 +48221,7 @@
         <v>45070</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -48272,7 +48278,7 @@
         <v>45070</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -48334,7 +48340,7 @@
         <v>45071</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -48391,7 +48397,7 @@
         <v>45078</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -48448,7 +48454,7 @@
         <v>45078</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -48505,7 +48511,7 @@
         <v>45078</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -48562,7 +48568,7 @@
         <v>45079</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -48624,7 +48630,7 @@
         <v>45084</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -48681,7 +48687,7 @@
         <v>45085</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -48738,7 +48744,7 @@
         <v>45086</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -48795,7 +48801,7 @@
         <v>45086</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -48857,7 +48863,7 @@
         <v>45089</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -48914,7 +48920,7 @@
         <v>45089</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -48971,7 +48977,7 @@
         <v>45089</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -49033,7 +49039,7 @@
         <v>45089</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -49090,7 +49096,7 @@
         <v>45090</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -49147,7 +49153,7 @@
         <v>45091</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -49209,7 +49215,7 @@
         <v>45092</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -49266,7 +49272,7 @@
         <v>45092</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -49323,7 +49329,7 @@
         <v>45092</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -49380,7 +49386,7 @@
         <v>45092</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -49437,7 +49443,7 @@
         <v>45093</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -49494,7 +49500,7 @@
         <v>45093</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -49551,7 +49557,7 @@
         <v>45096</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -49608,7 +49614,7 @@
         <v>45096</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -49665,7 +49671,7 @@
         <v>45098</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -49722,7 +49728,7 @@
         <v>45098</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -49779,7 +49785,7 @@
         <v>45103</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -49836,7 +49842,7 @@
         <v>45103</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -49893,7 +49899,7 @@
         <v>45104</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -49950,7 +49956,7 @@
         <v>45105</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -50012,7 +50018,7 @@
         <v>45107</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -50069,7 +50075,7 @@
         <v>45107</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -50126,7 +50132,7 @@
         <v>45111</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -50183,7 +50189,7 @@
         <v>45112</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -50245,7 +50251,7 @@
         <v>45112</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -50307,7 +50313,7 @@
         <v>45121</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -50364,7 +50370,7 @@
         <v>45138</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -50426,7 +50432,7 @@
         <v>45146</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -50483,